--- a/Tradução - Maicon/Traduções_teste_maicon.xlsx
+++ b/Tradução - Maicon/Traduções_teste_maicon.xlsx
@@ -8,15 +8,15 @@
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
-    <sheet name="Plan2" sheetId="2" r:id="rId2"/>
+    <sheet name="Padão de Tags" sheetId="2" r:id="rId2"/>
     <sheet name="Plan3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="354">
   <si>
     <t xml:space="preserve"> description_Or</t>
   </si>
@@ -536,12 +536,6 @@
     <t>Message_DeleteProjectWithNegotiation</t>
   </si>
   <si>
-    <t>O projeto está associado as negociações {0}". Todos os documentos relacionados serão excluidos.</t>
-  </si>
-  <si>
-    <t>Deseja continuar?"</t>
-  </si>
-  <si>
     <t>Message_DeletePromobProject</t>
   </si>
   <si>
@@ -569,10 +563,6 @@
     <t>Message_KeepFlowBinding</t>
   </si>
   <si>
-    <t>Deseja manter o vínculo com o fluxo?_x000D_
-Se removido o vínculo, o projeto salvo não estará mais associado a este fluxo.</t>
-  </si>
-  <si>
     <t>Message_ProjectCannotBeDeleted</t>
   </si>
   <si>
@@ -832,13 +822,290 @@
   </si>
   <si>
     <t>it was not load user information. Error:{0}</t>
+  </si>
+  <si>
+    <t>The cancellation reason must be informed.</t>
+  </si>
+  <si>
+    <t>it was not save the file</t>
+  </si>
+  <si>
+    <t>it was not load the Promob projects at this stage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To perform this operation, it is necessary that the client has been selected at an earlier stage </t>
+  </si>
+  <si>
+    <t>It was not load the information in this distribution Promob</t>
+  </si>
+  <si>
+    <t>it was not update the file '{ 0}'</t>
+  </si>
+  <si>
+    <t>Errors occurred while uploading the file . Make uploading files again or delete the error manually.</t>
+  </si>
+  <si>
+    <t>Promob files | * .promob</t>
+  </si>
+  <si>
+    <t>inclusion</t>
+  </si>
+  <si>
+    <t>You are not allowed to exclude projects that have generated documents ( Negotiation, Order , Purchase Order )</t>
+  </si>
+  <si>
+    <t>O projeto está associado as negociações {0}". Todos os documentos relacionados serão excluidos. Deseja continuar?"</t>
+  </si>
+  <si>
+    <t>All projects associated with this file are excluidos.Confirmar exclusion?</t>
+  </si>
+  <si>
+    <t>The project is associated with the negotiations { 0} ". All related documents will be excluded. Continue? "</t>
+  </si>
+  <si>
+    <t>Folder Selection</t>
+  </si>
+  <si>
+    <t>The integration service is not installed. To continue you need to install it. You want to install it now?</t>
+  </si>
+  <si>
+    <t>The integration service is not available. Start it to continue.</t>
+  </si>
+  <si>
+    <t>Deseja manter o vínculo com o fluxo?_x000D_ Se removido o vínculo, o projeto salvo não estará mais associado a este fluxo.</t>
+  </si>
+  <si>
+    <t>Do you want to maintain the link with the flow ? If removed the link , the saved project will no longer be associated with this flow.</t>
+  </si>
+  <si>
+    <t>Project has orders for sale or purchase orders that can not be excluded</t>
+  </si>
+  <si>
+    <t>The project can not be deleted because there are ongoing negotiations ( {0 } )</t>
+  </si>
+  <si>
+    <t>Main</t>
+  </si>
+  <si>
+    <t>ContractVisualization</t>
+  </si>
+  <si>
+    <t>Selecting files</t>
+  </si>
+  <si>
+    <t>Reason for Cancellation</t>
+  </si>
+  <si>
+    <t>Valid</t>
+  </si>
+  <si>
+    <t>Update</t>
+  </si>
+  <si>
+    <t>Padão de tags para tradução</t>
+  </si>
+  <si>
+    <t>descrições dos Busys</t>
+  </si>
+  <si>
+    <t>mensagens de alerta, erro</t>
+  </si>
+  <si>
+    <t>mensagens com perguntas</t>
+  </si>
+  <si>
+    <t>mensagens de informações</t>
+  </si>
+  <si>
+    <t>mensagens de “sucesso”</t>
+  </si>
+  <si>
+    <t>título das mensagens</t>
+  </si>
+  <si>
+    <t>títulos de janelas</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> títulos dos picklists</t>
+  </si>
+  <si>
+    <t>headers de colunas nos relatórios</t>
+  </si>
+  <si>
+    <t>nome das tabs (associadas ao projeto Ribbon)</t>
+  </si>
+  <si>
+    <t>descrições de toolTip</t>
+  </si>
+  <si>
+    <t>  busyMsg_...</t>
+  </si>
+  <si>
+    <t>msgAlert_...</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">msgQuestion_... </t>
+    </r>
+  </si>
+  <si>
+    <t>msgInformation_...</t>
+  </si>
+  <si>
+    <t>msgOk_...</t>
+  </si>
+  <si>
+    <t>msgTitle_...</t>
+  </si>
+  <si>
+    <t>windowTitle_...</t>
+  </si>
+  <si>
+    <t>ReportHeader_... (termo em Português)</t>
+  </si>
+  <si>
+    <t>windowTitle_SelectionOf...</t>
+  </si>
+  <si>
+    <t>Tab_...</t>
+  </si>
+  <si>
+    <t>toolTip_...</t>
+  </si>
+  <si>
+    <t>traduções</t>
+  </si>
+  <si>
+    <t>dias corridos</t>
+  </si>
+  <si>
+    <t>calendar days</t>
+  </si>
+  <si>
+    <t>dias úteis</t>
+  </si>
+  <si>
+    <t>working days</t>
+  </si>
+  <si>
+    <t>bodyemail_Negotiation</t>
+  </si>
+  <si>
+    <t>Negociação</t>
+  </si>
+  <si>
+    <t>bodyemail_NameCompany</t>
+  </si>
+  <si>
+    <t>Nome da Companhia: {0}</t>
+  </si>
+  <si>
+    <t>bodyemail_NameFantasy</t>
+  </si>
+  <si>
+    <t>Nome Fantasia: {0}</t>
+  </si>
+  <si>
+    <t>bodyemail_NameClient</t>
+  </si>
+  <si>
+    <t>Nome do Cliente: {0}</t>
+  </si>
+  <si>
+    <t>bodyemail_Document</t>
+  </si>
+  <si>
+    <t>Documento: {0}</t>
+  </si>
+  <si>
+    <t>bodyemail_Address</t>
+  </si>
+  <si>
+    <t>Endereço: {0}</t>
+  </si>
+  <si>
+    <t>bodyemail_Trading</t>
+  </si>
+  <si>
+    <t>Número da Negociação: {0}{1}</t>
+  </si>
+  <si>
+    <t>bodyemail_Generation</t>
+  </si>
+  <si>
+    <t>Data da Geração: {0}</t>
+  </si>
+  <si>
+    <t>bodyemail_DateConversion</t>
+  </si>
+  <si>
+    <t>Data da Conversão: {0}</t>
+  </si>
+  <si>
+    <t>bodyemail_ComObj</t>
+  </si>
+  <si>
+    <t>Observações:</t>
+  </si>
+  <si>
+    <t>bodyemail_ReferencePoint</t>
+  </si>
+  <si>
+    <t>Ponto de Referência:</t>
+  </si>
+  <si>
+    <t>Negotiation</t>
+  </si>
+  <si>
+    <t>Company name: { 0}</t>
+  </si>
+  <si>
+    <t>Trade Name : { 0}</t>
+  </si>
+  <si>
+    <t>Document: { 0}</t>
+  </si>
+  <si>
+    <t>Address : { 0}</t>
+  </si>
+  <si>
+    <t>Trading number : { 0} { 1}</t>
+  </si>
+  <si>
+    <t>Data Generation: { 0}</t>
+  </si>
+  <si>
+    <t>Date of conversion: { 0}</t>
+  </si>
+  <si>
+    <t>Comments:</t>
+  </si>
+  <si>
+    <t>Reference point:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -853,6 +1120,26 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -881,7 +1168,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -895,6 +1182,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1197,211 +1499,277 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D108"/>
+  <dimension ref="A1:E119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="C70" sqref="C70"/>
+    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="A109" sqref="A109:XFD111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="43.42578125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="40.140625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="66.140625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="36.42578125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="26.5703125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="110.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>213</v>
+      </c>
+      <c r="E2" t="str">
+        <f>CONCATENATE("insert into Linguas(ID, projectID, folderID, classID, tag_Value, default_Value, pt_Value, en_Value, es_Value, dateUpdate)values(newid(),null,null,null,'",A2,"','",B2,"','",B2,"','",C2,"','",D2,"',getdate());")</f>
+        <v>insert into Linguas(ID, projectID, folderID, classID, tag_Value, default_Value, pt_Value, en_Value, es_Value, dateUpdate)values(newid(),null,null,null,' description_Or','Ou','Ou','Or','',getdate());</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>230</v>
+      </c>
+      <c r="E3" t="str">
+        <f t="shared" ref="E3:E66" si="0">CONCATENATE("insert into Linguas(ID, projectID, folderID, classID, tag_Value, default_Value, pt_Value, en_Value, es_Value, dateUpdate)values(newid(),null,null,null,'",A3,"','",B3,"','",B3,"','",C3,"','",D3,"',getdate());")</f>
+        <v>insert into Linguas(ID, projectID, folderID, classID, tag_Value, default_Value, pt_Value, en_Value, es_Value, dateUpdate)values(newid(),null,null,null,' abbreviation_Qnt','Qtd','Qtd','Qtn','',getdate());</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>216</v>
+      </c>
+      <c r="E4" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into Linguas(ID, projectID, folderID, classID, tag_Value, default_Value, pt_Value, en_Value, es_Value, dateUpdate)values(newid(),null,null,null,' abbreviation_Seq','Seq','Seq','Seq','',getdate());</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>231</v>
+      </c>
+      <c r="E5" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into Linguas(ID, projectID, folderID, classID, tag_Value, default_Value, pt_Value, en_Value, es_Value, dateUpdate)values(newid(),null,null,null,' description_AddEnvironment','para adicionar um ambiente','para adicionar um ambiente','to add an environment','',getdate());</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>232</v>
+      </c>
+      <c r="E6" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into Linguas(ID, projectID, folderID, classID, tag_Value, default_Value, pt_Value, en_Value, es_Value, dateUpdate)values(newid(),null,null,null,' toolTip_ButtonAddProduct','Adicionar produtos','Adicionar produtos','Add products','',getdate());</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>233</v>
+      </c>
+      <c r="E7" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into Linguas(ID, projectID, folderID, classID, tag_Value, default_Value, pt_Value, en_Value, es_Value, dateUpdate)values(newid(),null,null,null,' description_ButtonClickHere','Click aqui','Click aqui','Click Here','',getdate());</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>234</v>
+      </c>
+      <c r="E8" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into Linguas(ID, projectID, folderID, classID, tag_Value, default_Value, pt_Value, en_Value, es_Value, dateUpdate)values(newid(),null,null,null,' toolTip_ButtonDeleteProduct','Excluir o produto','Excluir o produto','Delete the product','',getdate());</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+        <v>235</v>
+      </c>
+      <c r="E9" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into Linguas(ID, projectID, folderID, classID, tag_Value, default_Value, pt_Value, en_Value, es_Value, dateUpdate)values(newid(),null,null,null,' toolTip_ButtonSplitProduct','Dividir em dois produtos','Dividir em dois produtos','Split into two products','',getdate());</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+      <c r="E10" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into Linguas(ID, projectID, folderID, classID, tag_Value, default_Value, pt_Value, en_Value, es_Value, dateUpdate)values(newid(),null,null,null,' toolTip_ButtonDelete','Excluir','Excluir','Delete','',getdate());</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+        <v>237</v>
+      </c>
+      <c r="E11" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into Linguas(ID, projectID, folderID, classID, tag_Value, default_Value, pt_Value, en_Value, es_Value, dateUpdate)values(newid(),null,null,null,' description_ColumnEnvironment','Ambiente','Ambiente','Environment','',getdate());</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+        <v>238</v>
+      </c>
+      <c r="E12" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into Linguas(ID, projectID, folderID, classID, tag_Value, default_Value, pt_Value, en_Value, es_Value, dateUpdate)values(newid(),null,null,null,' description_ColumnProduct','Produto','Produto','Product','',getdate());</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+        <v>239</v>
+      </c>
+      <c r="E13" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into Linguas(ID, projectID, folderID, classID, tag_Value, default_Value, pt_Value, en_Value, es_Value, dateUpdate)values(newid(),null,null,null,' description_ColumnReference','Referência','Referência','Reference','',getdate());</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+        <v>240</v>
+      </c>
+      <c r="E14" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into Linguas(ID, projectID, folderID, classID, tag_Value, default_Value, pt_Value, en_Value, es_Value, dateUpdate)values(newid(),null,null,null,' description_ColumnType','Tipo','Tipo','Type','',getdate());</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+      <c r="E15" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into Linguas(ID, projectID, folderID, classID, tag_Value, default_Value, pt_Value, en_Value, es_Value, dateUpdate)values(newid(),null,null,null,' description_ColumnUnitaryValue','Valor Unitário','Valor Unitário','Unitary Value','',getdate());</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+        <v>242</v>
+      </c>
+      <c r="E16" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into Linguas(ID, projectID, folderID, classID, tag_Value, default_Value, pt_Value, en_Value, es_Value, dateUpdate)values(newid(),null,null,null,' description_ColumnValueAll','Valor Total','Valor Total','Total Value','',getdate());</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+        <v>243</v>
+      </c>
+      <c r="E17" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into Linguas(ID, projectID, folderID, classID, tag_Value, default_Value, pt_Value, en_Value, es_Value, dateUpdate)values(newid(),null,null,null,' msgInformation_CADMax','Arraste o arquivo CADMax ou os produtos de outros ambientes aqui','Arraste o arquivo CADMax ou os produtos de outros ambientes aqui','CADMax drag the file or the products of other environments here','',getdate());</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>16</v>
       </c>
@@ -1409,10 +1777,14 @@
         <v>17</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+        <v>244</v>
+      </c>
+      <c r="E18" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into Linguas(ID, projectID, folderID, classID, tag_Value, default_Value, pt_Value, en_Value, es_Value, dateUpdate)values(newid(),null,null,null,'msgInformation_UnableConsultFactory','Não foi possível consultar o pedido no serviço da fábrica.','Não foi possível consultar o pedido no serviço da fábrica.','Unable to consult the application in the service factory.','',getdate());</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>18</v>
       </c>
@@ -1422,8 +1794,12 @@
       <c r="C19" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E19" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into Linguas(ID, projectID, folderID, classID, tag_Value, default_Value, pt_Value, en_Value, es_Value, dateUpdate)values(newid(),null,null,null,'msgInformation_WaitConsultFactory','Aguarde, consultando o pedido na fábrica.','Aguarde, consultando o pedido na fábrica.','Wait, search the request at the factory.','',getdate());</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>23</v>
       </c>
@@ -1433,8 +1809,12 @@
       <c r="C20" s="3" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E20" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into Linguas(ID, projectID, folderID, classID, tag_Value, default_Value, pt_Value, en_Value, es_Value, dateUpdate)values(newid(),null,null,null,'msgAlert_InvalidArgumentOrder','Argumento inválido. Faltam os argumentos necessários: Ordem de Compra e/ou Prefixo da Companhia','Argumento inválido. Faltam os argumentos necessários: Ordem de Compra e/ou Prefixo da Companhia','Invalid argument. Lack the necessary arguments : Purchase Order and / or Company Prefix','',getdate());</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>24</v>
       </c>
@@ -1444,8 +1824,12 @@
       <c r="C21" s="3" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E21" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into Linguas(ID, projectID, folderID, classID, tag_Value, default_Value, pt_Value, en_Value, es_Value, dateUpdate)values(newid(),null,null,null,'msgAlert_Caution','Atenção','Atenção','Caution','',getdate());</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>27</v>
       </c>
@@ -1455,8 +1839,12 @@
       <c r="C22" s="3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E22" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into Linguas(ID, projectID, folderID, classID, tag_Value, default_Value, pt_Value, en_Value, es_Value, dateUpdate)values(newid(),null,null,null,'msgInformation_WaitCancelingOrderFactory','Aguarde, cancelando a ordem de compra na fábrica','Aguarde, cancelando a ordem de compra na fábrica','Wait, the cancellation of the purchase factory order','',getdate());</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>30</v>
       </c>
@@ -1466,8 +1854,12 @@
       <c r="C23" s="3" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E23" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into Linguas(ID, projectID, folderID, classID, tag_Value, default_Value, pt_Value, en_Value, es_Value, dateUpdate)values(newid(),null,null,null,'msgInformation_WaitCancelingOrder','Aguarde, cancelando a ordem de compra...','Aguarde, cancelando a ordem de compra...','Wait, canceling the purchase order ...','',getdate());</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>33</v>
       </c>
@@ -1477,8 +1869,12 @@
       <c r="C24" s="3" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E24" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into Linguas(ID, projectID, folderID, classID, tag_Value, default_Value, pt_Value, en_Value, es_Value, dateUpdate)values(newid(),null,null,null,'msgInformation_ProductionFinalDate','- Data Final de Produção: {0:dd/MM/yyyy}','- Data Final de Produção: {0:dd/MM/yyyy}','- Production Final date: {0:dd/MM/yyyy}','',getdate());</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>36</v>
       </c>
@@ -1488,8 +1884,12 @@
       <c r="C25" s="3" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E25" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into Linguas(ID, projectID, folderID, classID, tag_Value, default_Value, pt_Value, en_Value, es_Value, dateUpdate)values(newid(),null,null,null,'msgInformation_LotNumber','{0} Lote nº: {1}','{0} Lote nº: {1}','{0} Lot nº: {1}','',getdate());</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>39</v>
       </c>
@@ -1499,8 +1899,12 @@
       <c r="C26" s="3" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E26" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into Linguas(ID, projectID, folderID, classID, tag_Value, default_Value, pt_Value, en_Value, es_Value, dateUpdate)values(newid(),null,null,null,'ExportationSituation_Canceled','Cancelamento','Cancelamento','Canceled','',getdate());</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>42</v>
       </c>
@@ -1510,8 +1914,12 @@
       <c r="C27" s="3" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E27" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into Linguas(ID, projectID, folderID, classID, tag_Value, default_Value, pt_Value, en_Value, es_Value, dateUpdate)values(newid(),null,null,null,'ExportationSituation_Sent','Esportação','Esportação','Export','',getdate());</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>45</v>
       </c>
@@ -1521,8 +1929,12 @@
       <c r="C28" s="3" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E28" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into Linguas(ID, projectID, folderID, classID, tag_Value, default_Value, pt_Value, en_Value, es_Value, dateUpdate)values(newid(),null,null,null,'ExportationSituation_SentResult','Pedido número: {0}','Pedido número: {0}','Request Number: {0}','',getdate());</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>48</v>
       </c>
@@ -1532,8 +1944,12 @@
       <c r="C29" s="3" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E29" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into Linguas(ID, projectID, folderID, classID, tag_Value, default_Value, pt_Value, en_Value, es_Value, dateUpdate)values(newid(),null,null,null,'MSG_FACTORY_IDENTIFIER','(Status da Fábrica) ','(Status da Fábrica) ','( Factory status )','',getdate());</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>51</v>
       </c>
@@ -1543,8 +1959,12 @@
       <c r="C30" s="3" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E30" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into Linguas(ID, projectID, folderID, classID, tag_Value, default_Value, pt_Value, en_Value, es_Value, dateUpdate)values(newid(),null,null,null,'MSG_NOT_FOUND','Pedido não encontrado','Pedido não encontrado','Application not found','',getdate());</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>54</v>
       </c>
@@ -1554,8 +1974,12 @@
       <c r="C31" s="3" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E31" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into Linguas(ID, projectID, folderID, classID, tag_Value, default_Value, pt_Value, en_Value, es_Value, dateUpdate)values(newid(),null,null,null,'MSG_QUERY_ERROR','Erro','Erro','Error','',getdate());</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>57</v>
       </c>
@@ -1565,8 +1989,12 @@
       <c r="C32" s="3" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E32" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into Linguas(ID, projectID, folderID, classID, tag_Value, default_Value, pt_Value, en_Value, es_Value, dateUpdate)values(newid(),null,null,null,'MSG_QUERY_LOTE','Em Produção','Em Produção','In production','',getdate());</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>60</v>
       </c>
@@ -1576,8 +2004,12 @@
       <c r="C33" s="3" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E33" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into Linguas(ID, projectID, folderID, classID, tag_Value, default_Value, pt_Value, en_Value, es_Value, dateUpdate)values(newid(),null,null,null,'MSG_QUERY_PROCESSING','Em Processamento','Em Processamento','Processing','',getdate());</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>63</v>
       </c>
@@ -1587,8 +2019,12 @@
       <c r="C34" s="3" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E34" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into Linguas(ID, projectID, folderID, classID, tag_Value, default_Value, pt_Value, en_Value, es_Value, dateUpdate)values(newid(),null,null,null,'MSG_QUERY_PRODUCTION_BLOCKED','Pedido Bloqueado','Pedido Bloqueado','Request Blocked','',getdate());</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>66</v>
       </c>
@@ -1598,8 +2034,12 @@
       <c r="C35" s="3" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E35" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into Linguas(ID, projectID, folderID, classID, tag_Value, default_Value, pt_Value, en_Value, es_Value, dateUpdate)values(newid(),null,null,null,'MSG_QUERY_PRODUCTION_CANCELED','Cancelado','Cancelado','Canceled','',getdate());</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>68</v>
       </c>
@@ -1609,8 +2049,12 @@
       <c r="C36" s="3" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E36" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into Linguas(ID, projectID, folderID, classID, tag_Value, default_Value, pt_Value, en_Value, es_Value, dateUpdate)values(newid(),null,null,null,'MSG_QUERY_PRODUCTION_FINISHED','Totalmente atendido','Totalmente atendido','Fully Serviced','',getdate());</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>71</v>
       </c>
@@ -1620,8 +2064,12 @@
       <c r="C37" s="3" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E37" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into Linguas(ID, projectID, folderID, classID, tag_Value, default_Value, pt_Value, en_Value, es_Value, dateUpdate)values(newid(),null,null,null,'MSG_QUERY_PRODUCTION_PROCESSED','Já Processado em Nota','Já Processado em Nota','Already processed in Note','',getdate());</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>74</v>
       </c>
@@ -1631,8 +2079,12 @@
       <c r="C38" s="3" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E38" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into Linguas(ID, projectID, folderID, classID, tag_Value, default_Value, pt_Value, en_Value, es_Value, dateUpdate)values(newid(),null,null,null,'MSG_QUERY_PRODUCTION_REJECTED','Rejeitado','Rejeitado','Rejected','',getdate());</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>77</v>
       </c>
@@ -1642,8 +2094,12 @@
       <c r="C39" s="3" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E39" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into Linguas(ID, projectID, folderID, classID, tag_Value, default_Value, pt_Value, en_Value, es_Value, dateUpdate)values(newid(),null,null,null,'MSG_QUERY_PRODUCTION_RELEASED','Pedido Liberado','Pedido Liberado','Request Released','',getdate());</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>80</v>
       </c>
@@ -1653,8 +2109,12 @@
       <c r="C40" s="3" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E40" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into Linguas(ID, projectID, folderID, classID, tag_Value, default_Value, pt_Value, en_Value, es_Value, dateUpdate)values(newid(),null,null,null,'MSG_QUERY_PRODUCTION_WAITINGBUILDER','Aguardando Builder','Aguardando Builder','Waiting Builder','',getdate());</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>83</v>
       </c>
@@ -1664,8 +2124,12 @@
       <c r="C41" s="3" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E41" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into Linguas(ID, projectID, folderID, classID, tag_Value, default_Value, pt_Value, en_Value, es_Value, dateUpdate)values(newid(),null,null,null,'MSG_QUERY_RECEIVED','Recebido','Recebido','Received','',getdate());</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>86</v>
       </c>
@@ -1675,8 +2139,12 @@
       <c r="C42" s="3" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E42" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into Linguas(ID, projectID, folderID, classID, tag_Value, default_Value, pt_Value, en_Value, es_Value, dateUpdate)values(newid(),null,null,null,'QUESTION_WantMakeNewExport','O usuário {0} realizou a exportação desta negociação em {1}. Deseja realizar uma nova exportação?','O usuário {0} realizou a exportação desta negociação em {1}. Deseja realizar uma nova exportação?','User { 0} performed the export of trading on {1}. To perform a new export?','',getdate());</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>89</v>
       </c>
@@ -1686,14 +2154,19 @@
       <c r="C43" s="3" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E43" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into Linguas(ID, projectID, folderID, classID, tag_Value, default_Value, pt_Value, en_Value, es_Value, dateUpdate)values(newid(),null,null,null,'Title_Caution','Atenção','Atenção','Caution','',getdate());</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="4"/>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E44"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>90</v>
       </c>
@@ -1701,10 +2174,14 @@
         <v>91</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+        <v>245</v>
+      </c>
+      <c r="E45" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into Linguas(ID, projectID, folderID, classID, tag_Value, default_Value, pt_Value, en_Value, es_Value, dateUpdate)values(newid(),null,null,null,'AuthorizationPending','Em Autorização','Em Autorização','In Authorization','',getdate());</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>92</v>
       </c>
@@ -1712,10 +2189,14 @@
         <v>93</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+        <v>246</v>
+      </c>
+      <c r="E46" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into Linguas(ID, projectID, folderID, classID, tag_Value, default_Value, pt_Value, en_Value, es_Value, dateUpdate)values(newid(),null,null,null,'BusyContent_Loading','Aguarde...','Aguarde...','Loading...','',getdate());</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>94</v>
       </c>
@@ -1723,10 +2204,14 @@
         <v>95</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+        <v>247</v>
+      </c>
+      <c r="E47" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into Linguas(ID, projectID, folderID, classID, tag_Value, default_Value, pt_Value, en_Value, es_Value, dateUpdate)values(newid(),null,null,null,'BusyContent_LoadingQuizControl','Carregando questionários...','Carregando questionários...','Loading... Quizzzz','',getdate());</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>96</v>
       </c>
@@ -1734,10 +2219,14 @@
         <v>97</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+        <v>248</v>
+      </c>
+      <c r="E48" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into Linguas(ID, projectID, folderID, classID, tag_Value, default_Value, pt_Value, en_Value, es_Value, dateUpdate)values(newid(),null,null,null,'BusyContent_Saving','Salvando','Salvando','Saving','',getdate());</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>98</v>
       </c>
@@ -1747,8 +2236,12 @@
       <c r="C49" s="3" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E49" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into Linguas(ID, projectID, folderID, classID, tag_Value, default_Value, pt_Value, en_Value, es_Value, dateUpdate)values(newid(),null,null,null,'Converted','Convertida','Convertida','Converted','',getdate());</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>100</v>
       </c>
@@ -1756,10 +2249,14 @@
         <v>101</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+      <c r="E50" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into Linguas(ID, projectID, folderID, classID, tag_Value, default_Value, pt_Value, en_Value, es_Value, dateUpdate)values(newid(),null,null,null,'DeleteItem','Exclusão','Exclusão','Delete','',getdate());</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>102</v>
       </c>
@@ -1767,10 +2264,14 @@
         <v>103</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+        <v>249</v>
+      </c>
+      <c r="E51" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into Linguas(ID, projectID, folderID, classID, tag_Value, default_Value, pt_Value, en_Value, es_Value, dateUpdate)values(newid(),null,null,null,'Description_CopyFileTemplate','{0}_copia','{0}_copia','{0}_copy','',getdate());</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>104</v>
       </c>
@@ -1778,10 +2279,14 @@
         <v>105</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+        <v>250</v>
+      </c>
+      <c r="E52" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into Linguas(ID, projectID, folderID, classID, tag_Value, default_Value, pt_Value, en_Value, es_Value, dateUpdate)values(newid(),null,null,null,'Description_CopyingFile','Copiando Arquivo','Copiando Arquivo','Copy File','',getdate());</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>106</v>
       </c>
@@ -1789,10 +2294,14 @@
         <v>107</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+        <v>251</v>
+      </c>
+      <c r="E53" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into Linguas(ID, projectID, folderID, classID, tag_Value, default_Value, pt_Value, en_Value, es_Value, dateUpdate)values(newid(),null,null,null,'Description_DeletingPromobFile','Excluindo Arquivo','Excluindo Arquivo','Deleting File','',getdate());</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>108</v>
       </c>
@@ -1800,10 +2309,14 @@
         <v>109</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+        <v>252</v>
+      </c>
+      <c r="E54" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into Linguas(ID, projectID, folderID, classID, tag_Value, default_Value, pt_Value, en_Value, es_Value, dateUpdate)values(newid(),null,null,null,'Description_ImportingFile','Importando Arquivo','Importando Arquivo','Importing File','',getdate());</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>110</v>
       </c>
@@ -1811,10 +2324,14 @@
         <v>111</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+        <v>253</v>
+      </c>
+      <c r="E55" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into Linguas(ID, projectID, folderID, classID, tag_Value, default_Value, pt_Value, en_Value, es_Value, dateUpdate)values(newid(),null,null,null,'Description_Loading','Carregando','Carregando','Loading','',getdate());</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>112</v>
       </c>
@@ -1822,10 +2339,14 @@
         <v>113</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+      <c r="E56" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into Linguas(ID, projectID, folderID, classID, tag_Value, default_Value, pt_Value, en_Value, es_Value, dateUpdate)values(newid(),null,null,null,'Description_OpeningPromob','Abrindo Promob','Abrindo Promob','Opening Promob','',getdate());</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>114</v>
       </c>
@@ -1833,10 +2354,14 @@
         <v>115</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+      <c r="E57" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into Linguas(ID, projectID, folderID, classID, tag_Value, default_Value, pt_Value, en_Value, es_Value, dateUpdate)values(newid(),null,null,null,'Description_Rename','Renomear','Renomear','Rename','',getdate());</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>116</v>
       </c>
@@ -1844,10 +2369,14 @@
         <v>117</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+        <v>256</v>
+      </c>
+      <c r="E58" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into Linguas(ID, projectID, folderID, classID, tag_Value, default_Value, pt_Value, en_Value, es_Value, dateUpdate)values(newid(),null,null,null,'Description_RenamingFile','Salvando Arquivo','Salvando Arquivo','Saving File','',getdate());</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>118</v>
       </c>
@@ -1855,10 +2384,14 @@
         <v>119</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+        <v>257</v>
+      </c>
+      <c r="E59" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into Linguas(ID, projectID, folderID, classID, tag_Value, default_Value, pt_Value, en_Value, es_Value, dateUpdate)values(newid(),null,null,null,'Description_VerifyingServices','Verificando Serviços','Verificando Serviços','Verifying Services','',getdate());</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>120</v>
       </c>
@@ -1868,19 +2401,27 @@
       <c r="C60" s="3" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="E60" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into Linguas(ID, projectID, folderID, classID, tag_Value, default_Value, pt_Value, en_Value, es_Value, dateUpdate)values(newid(),null,null,null,'Disregard','Desconsiderada','Desconsiderada','Disregard','',getdate());</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>122</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+        <v>258</v>
+      </c>
+      <c r="E61" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into Linguas(ID, projectID, folderID, classID, tag_Value, default_Value, pt_Value, en_Value, es_Value, dateUpdate)values(newid(),null,null,null,'ErrorMessage_CannotDeletePromobProject','Não foi possível excluir o arquivo especificado._x000D_Erro: {0}','Não foi possível excluir o arquivo especificado._x000D_Erro: {0}','It was not possible to delete the specified file . Error: { 0}','',getdate());</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>123</v>
       </c>
@@ -1888,10 +2429,16 @@
         <v>124</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+        <v>261</v>
+      </c>
+      <c r="E62" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into Linguas(ID, projectID, folderID, classID, tag_Value, default_Value, pt_Value, en_Value, es_Value, dateUpdate)values(newid(),null,null,null,'ErrorMessage_CannotUpdateEnvType','Não foi possível atualizar o tipo do ambiente_x000D_
+Erro: {0}','Não foi possível atualizar o tipo do ambiente_x000D_
+Erro: {0}','It was not not update the type of environment. Error: {0}','',getdate());</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>125</v>
       </c>
@@ -1899,10 +2446,14 @@
         <v>126</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+        <v>260</v>
+      </c>
+      <c r="E63" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into Linguas(ID, projectID, folderID, classID, tag_Value, default_Value, pt_Value, en_Value, es_Value, dateUpdate)values(newid(),null,null,null,'ErrorMessage_CopyFileError','Não foi possível copiar o arquivo especificado','Não foi possível copiar o arquivo especificado','It was not copy specified file','',getdate());</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>127</v>
       </c>
@@ -1910,10 +2461,14 @@
         <v>128</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+        <v>262</v>
+      </c>
+      <c r="E64" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into Linguas(ID, projectID, folderID, classID, tag_Value, default_Value, pt_Value, en_Value, es_Value, dateUpdate)values(newid(),null,null,null,'ErrorMessage_CustomerNotFound','O cliente não foi encontrado','O cliente não foi encontrado','The client was not found','',getdate());</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>129</v>
       </c>
@@ -1921,10 +2476,14 @@
         <v>130</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+        <v>263</v>
+      </c>
+      <c r="E65" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into Linguas(ID, projectID, folderID, classID, tag_Value, default_Value, pt_Value, en_Value, es_Value, dateUpdate)values(newid(),null,null,null,'ErrorMessage_FileName','Os nomes de arquivos não podem conter os seguintes caracteres: \  |  /  &lt;  &gt;  *  ?   :  "','Os nomes de arquivos não podem conter os seguintes caracteres: \  |  /  &lt;  &gt;  *  ?   :  "','File names can not contain the following characters: \ | / &lt; &gt; * ? "','',getdate());</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
         <v>131</v>
       </c>
@@ -1932,10 +2491,14 @@
         <v>132</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+        <v>264</v>
+      </c>
+      <c r="E66" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into Linguas(ID, projectID, folderID, classID, tag_Value, default_Value, pt_Value, en_Value, es_Value, dateUpdate)values(newid(),null,null,null,'ErrorMessage_InvalidEnvDescription','A descrição do ambiente é inválida. Por favor altere o valor existente antes de continuar.','A descrição do ambiente é inválida. Por favor altere o valor existente antes de continuar.','Environmental description is invalid. Please change the existing value before continuing.','',getdate());</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
         <v>133</v>
       </c>
@@ -1943,10 +2506,14 @@
         <v>134</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+        <v>265</v>
+      </c>
+      <c r="E67" t="str">
+        <f t="shared" ref="E67:E107" si="1">CONCATENATE("insert into Linguas(ID, projectID, folderID, classID, tag_Value, default_Value, pt_Value, en_Value, es_Value, dateUpdate)values(newid(),null,null,null,'",A67,"','",B67,"','",B67,"','",C67,"','",D67,"',getdate());")</f>
+        <v>insert into Linguas(ID, projectID, folderID, classID, tag_Value, default_Value, pt_Value, en_Value, es_Value, dateUpdate)values(newid(),null,null,null,'ErrorMessage_InvalidEnvs','Existem ambientes com a descrição inválida, por favor verifique.','Existem ambientes com a descrição inválida, por favor verifique.','There are environments with the invalid description, please check.','',getdate());</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
         <v>135</v>
       </c>
@@ -1954,10 +2521,14 @@
         <v>136</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+        <v>266</v>
+      </c>
+      <c r="E68" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into Linguas(ID, projectID, folderID, classID, tag_Value, default_Value, pt_Value, en_Value, es_Value, dateUpdate)values(newid(),null,null,null,'ErrorMessage_LoadProjectImage','Não foi possível carregar a imagem do projeto.','Não foi possível carregar a imagem do projeto.','it was not load the project image.','',getdate());</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
         <v>137</v>
       </c>
@@ -1965,316 +2536,704 @@
         <v>138</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+        <v>267</v>
+      </c>
+      <c r="E69" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into Linguas(ID, projectID, folderID, classID, tag_Value, default_Value, pt_Value, en_Value, es_Value, dateUpdate)values(newid(),null,null,null,'ErrorMessage_LoadUser','Não foi possível carregar as informações do usuário_x000D_
+Erro: {0}','Não foi possível carregar as informações do usuário_x000D_
+Erro: {0}','it was not load user information. Error:{0}','',getdate());</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
         <v>139</v>
       </c>
       <c r="B70" s="3" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C70" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="E70" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into Linguas(ID, projectID, folderID, classID, tag_Value, default_Value, pt_Value, en_Value, es_Value, dateUpdate)values(newid(),null,null,null,'ErrorMessage_ReasonToCancelNotInformed','O motivo de cancelamento deve ser informado.','O motivo de cancelamento deve ser informado.','The cancellation reason must be informed.','',getdate());</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
         <v>141</v>
       </c>
       <c r="B71" s="3" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C71" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="E71" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into Linguas(ID, projectID, folderID, classID, tag_Value, default_Value, pt_Value, en_Value, es_Value, dateUpdate)values(newid(),null,null,null,'ErrorMessage_SaveFileError','Não foi possível salvar o arquivo','Não foi possível salvar o arquivo','it was not save the file','',getdate());</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
         <v>143</v>
       </c>
       <c r="B72" s="3" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C72" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="E72" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into Linguas(ID, projectID, folderID, classID, tag_Value, default_Value, pt_Value, en_Value, es_Value, dateUpdate)values(newid(),null,null,null,'ErrorMessage_UnableLoadProjects','Não foi possível carregar os projetos do promob deste estágio.','Não foi possível carregar os projetos do promob deste estágio.','it was not load the Promob projects at this stage','',getdate());</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
         <v>145</v>
       </c>
       <c r="B73" s="3" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C73" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="E73" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into Linguas(ID, projectID, folderID, classID, tag_Value, default_Value, pt_Value, en_Value, es_Value, dateUpdate)values(newid(),null,null,null,'ErrorMessage_UnableToFindCustomer','Para executar esta operação, é necessário que o cliente tenha sido selecionado em um estágio anterior.','Para executar esta operação, é necessário que o cliente tenha sido selecionado em um estágio anterior.','To perform this operation, it is necessary that the client has been selected at an earlier stage ','',getdate());</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
         <v>147</v>
       </c>
       <c r="B74" s="3" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C74" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="E74" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into Linguas(ID, projectID, folderID, classID, tag_Value, default_Value, pt_Value, en_Value, es_Value, dateUpdate)values(newid(),null,null,null,'ErrorMessage_UnableToLoadDistributionInfo','Não foi possível carregar as informações desta distribuição do Promob','Não foi possível carregar as informações desta distribuição do Promob','It was not load the information in this distribution Promob','',getdate());</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
         <v>149</v>
       </c>
       <c r="B75" s="3" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C75" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="E75" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into Linguas(ID, projectID, folderID, classID, tag_Value, default_Value, pt_Value, en_Value, es_Value, dateUpdate)values(newid(),null,null,null,'ErrorMessage_UpdatePromobFile','Não foi possível atualizar o arquivo '{0}'','Não foi possível atualizar o arquivo '{0}'','it was not update the file '{ 0}'','',getdate());</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
         <v>151</v>
       </c>
       <c r="B76" s="3" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C76" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="E76" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into Linguas(ID, projectID, folderID, classID, tag_Value, default_Value, pt_Value, en_Value, es_Value, dateUpdate)values(newid(),null,null,null,'ErrorMessage_UploadErrors','Ocorreram erros durante o upload do arquivo. Efetue o upload de arquivos novamente ou exclua o erro manualmente.','Ocorreram erros durante o upload do arquivo. Efetue o upload de arquivos novamente ou exclua o erro manualmente.','Errors occurred while uploading the file . Make uploading files again or delete the error manually.','',getdate());</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
         <v>153</v>
       </c>
       <c r="B77" s="3" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C77" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="E77" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into Linguas(ID, projectID, folderID, classID, tag_Value, default_Value, pt_Value, en_Value, es_Value, dateUpdate)values(newid(),null,null,null,'Filter_FileSelection','Arquivos Promob|*.promob','Arquivos Promob|*.promob','Promob files | * .promob','',getdate());</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
         <v>155</v>
       </c>
       <c r="B78" s="3" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C78" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="E78" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into Linguas(ID, projectID, folderID, classID, tag_Value, default_Value, pt_Value, en_Value, es_Value, dateUpdate)values(newid(),null,null,null,'Image_AuthorizationPending','/Images/Warning.png','/Images/Warning.png','/Images/Warning.png','',getdate());</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
         <v>157</v>
       </c>
       <c r="B79" s="3" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C79" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="E79" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into Linguas(ID, projectID, folderID, classID, tag_Value, default_Value, pt_Value, en_Value, es_Value, dateUpdate)values(newid(),null,null,null,'Image_Converted','/Images/AcceptIcon16x16.png','/Images/AcceptIcon16x16.png','/Images/AcceptIcon16x16.png','',getdate());</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
         <v>159</v>
       </c>
       <c r="B80" s="3" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C80" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="E80" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into Linguas(ID, projectID, folderID, classID, tag_Value, default_Value, pt_Value, en_Value, es_Value, dateUpdate)values(newid(),null,null,null,'Image_Disregard','/Images/SituationDisregardIcon16x16.png','/Images/SituationDisregardIcon16x16.png','/Images/SituationDisregardIcon16x16.png','',getdate());</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
         <v>161</v>
       </c>
       <c r="B81" s="3" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C81" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="E81" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into Linguas(ID, projectID, folderID, classID, tag_Value, default_Value, pt_Value, en_Value, es_Value, dateUpdate)values(newid(),null,null,null,'Image_Lost','/Images/LoseIcon16x16.png','/Images/LoseIcon16x16.png','/Images/LoseIcon16x16.png','',getdate());</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
         <v>163</v>
       </c>
       <c r="B82" s="3" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C82" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="E82" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into Linguas(ID, projectID, folderID, classID, tag_Value, default_Value, pt_Value, en_Value, es_Value, dateUpdate)values(newid(),null,null,null,'Image_Running','/Images/PlayIcon16x16.png','/Images/PlayIcon16x16.png','/Images/PlayIcon16x16.png','',getdate());</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
         <v>165</v>
       </c>
       <c r="B83" s="3" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C83" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="E83" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into Linguas(ID, projectID, folderID, classID, tag_Value, default_Value, pt_Value, en_Value, es_Value, dateUpdate)values(newid(),null,null,null,'Image_Suspended','/Images/StopIcon16x16.png','/Images/StopIcon16x16.png','/Images/StopIcon16x16.png','',getdate());</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
         <v>167</v>
       </c>
       <c r="B84" s="3" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C84" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="E84" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into Linguas(ID, projectID, folderID, classID, tag_Value, default_Value, pt_Value, en_Value, es_Value, dateUpdate)values(newid(),null,null,null,'InsertItem','Inclusão','Inclusão','inclusion','',getdate());</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
         <v>169</v>
       </c>
       <c r="B85" s="3" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C85" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="E85" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into Linguas(ID, projectID, folderID, classID, tag_Value, default_Value, pt_Value, en_Value, es_Value, dateUpdate)values(newid(),null,null,null,'Message_DeleteProjectPermissionDenied','Você não tem permissão para excluir projetos que possuem documentos gerados (Negociação, Pedido, Ordem de Compra)','Você não tem permissão para excluir projetos que possuem documentos gerados (Negociação, Pedido, Ordem de Compra)','You are not allowed to exclude projects that have generated documents ( Negotiation, Order , Purchase Order )','',getdate());</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
         <v>171</v>
       </c>
       <c r="B86" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="E86" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into Linguas(ID, projectID, folderID, classID, tag_Value, default_Value, pt_Value, en_Value, es_Value, dateUpdate)values(newid(),null,null,null,'Message_DeleteProjectWithNegotiation','O projeto está associado as negociações {0}". Todos os documentos relacionados serão excluidos. Deseja continuar?"','O projeto está associado as negociações {0}". Todos os documentos relacionados serão excluidos. Deseja continuar?"','The project is associated with the negotiations { 0} ". All related documents will be excluded. Continue? "','',getdate());</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" s="3" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87" s="3" t="s">
+      <c r="B87" s="3" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C87" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="E87" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into Linguas(ID, projectID, folderID, classID, tag_Value, default_Value, pt_Value, en_Value, es_Value, dateUpdate)values(newid(),null,null,null,'Message_DeletePromobProject','Todos os projetos associados a este arquivo serão excluidos.Confirmar exclusão?','Todos os projetos associados a este arquivo serão excluidos.Confirmar exclusão?','All projects associated with this file are excluidos.Confirmar exclusion?','',getdate());</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
         <v>174</v>
       </c>
       <c r="B88" s="3" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C88" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="E88" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into Linguas(ID, projectID, folderID, classID, tag_Value, default_Value, pt_Value, en_Value, es_Value, dateUpdate)values(newid(),null,null,null,'Message_DirectorySelection','Seleção de pasta','Seleção de pasta','Folder Selection','',getdate());</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
         <v>176</v>
       </c>
       <c r="B89" s="3" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C89" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="E89" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into Linguas(ID, projectID, folderID, classID, tag_Value, default_Value, pt_Value, en_Value, es_Value, dateUpdate)values(newid(),null,null,null,'Message_InstallIntegrationServiceRequired','O serviço de integração não está instalado. Para continuar é necessário instalá-lo. Deseja instalá-lo agora?','O serviço de integração não está instalado. Para continuar é necessário instalá-lo. Deseja instalá-lo agora?','The integration service is not installed. To continue you need to install it. You want to install it now?','',getdate());</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
         <v>178</v>
       </c>
       <c r="B90" s="3" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C90" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="E90" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into Linguas(ID, projectID, folderID, classID, tag_Value, default_Value, pt_Value, en_Value, es_Value, dateUpdate)values(newid(),null,null,null,'Message_IntegrationServiceRequired','O serviço de integração não está disponível. Inicie o mesmo para continuar.','O serviço de integração não está disponível. Inicie o mesmo para continuar.','The integration service is not available. Start it to continue.','',getdate());</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="B91" s="3" t="s">
+      <c r="B91" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="E91" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into Linguas(ID, projectID, folderID, classID, tag_Value, default_Value, pt_Value, en_Value, es_Value, dateUpdate)values(newid(),null,null,null,'Message_KeepFlowBinding','Deseja manter o vínculo com o fluxo?_x000D_ Se removido o vínculo, o projeto salvo não estará mais associado a este fluxo.','Deseja manter o vínculo com o fluxo?_x000D_ Se removido o vínculo, o projeto salvo não estará mais associado a este fluxo.','Do you want to maintain the link with the flow ? If removed the link , the saved project will no longer be associated with this flow.','',getdate());</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" s="3" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="92" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A92" s="3" t="s">
+      <c r="B92" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="B92" s="5" t="s">
+      <c r="C92" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="E92" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into Linguas(ID, projectID, folderID, classID, tag_Value, default_Value, pt_Value, en_Value, es_Value, dateUpdate)values(newid(),null,null,null,'Message_ProjectCannotBeDeleted','Projeto possui Pedidos de Venda ou Ordens de Compra que não podem ser excluídos','Projeto possui Pedidos de Venda ou Ordens de Compra que não podem ser excluídos','Project has orders for sale or purchase orders that can not be excluded','',getdate());</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" s="3" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A93" s="3" t="s">
+      <c r="B93" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="B93" s="3" t="s">
+      <c r="C93" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="E93" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into Linguas(ID, projectID, folderID, classID, tag_Value, default_Value, pt_Value, en_Value, es_Value, dateUpdate)values(newid(),null,null,null,'Message_RunningNegotiations','O projeto não pode ser deletado, pois existem negociações em andamento({0})','O projeto não pode ser deletado, pois existem negociações em andamento({0})','The project can not be deleted because there are ongoing negotiations ( {0 } )','',getdate());</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" s="3" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A94" s="3" t="s">
+      <c r="B94" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="B94" s="3" t="s">
+      <c r="C94" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="E94" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into Linguas(ID, projectID, folderID, classID, tag_Value, default_Value, pt_Value, en_Value, es_Value, dateUpdate)values(newid(),null,null,null,'mime_promobFile','application/x-promob','application/x-promob','application/x-promob','',getdate());</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" s="3" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A95" s="3" t="s">
+      <c r="B95" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="B95" s="3" t="s">
+      <c r="C95" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="E95" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into Linguas(ID, projectID, folderID, classID, tag_Value, default_Value, pt_Value, en_Value, es_Value, dateUpdate)values(newid(),null,null,null,'Option','Opção','Opção','Option','',getdate());</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" s="3" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A96" s="3" t="s">
+      <c r="B96" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="B96" s="3" t="s">
+      <c r="C96" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="E96" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into Linguas(ID, projectID, folderID, classID, tag_Value, default_Value, pt_Value, en_Value, es_Value, dateUpdate)values(newid(),null,null,null,'Path_IntegrationService','IntegrationService/Publish.htm','IntegrationService/Publish.htm','IntegrationService/Publish.htm','',getdate());</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" s="3" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A97" s="3" t="s">
+      <c r="B97" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="E97" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into Linguas(ID, projectID, folderID, classID, tag_Value, default_Value, pt_Value, en_Value, es_Value, dateUpdate)values(newid(),null,null,null,'Principal','Principal','Principal','Main','',getdate());</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="B97" s="3" t="s">
+      <c r="B98" s="3" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A98" s="3" t="s">
+      <c r="C98" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="E98" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into Linguas(ID, projectID, folderID, classID, tag_Value, default_Value, pt_Value, en_Value, es_Value, dateUpdate)values(newid(),null,null,null,'PromobStageApplicationIconPath','/Images/Promob{0}Logo.png','/Images/Promob{0}Logo.png','/Images/Promob{0}Logo.png','',getdate());</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="B98" s="3" t="s">
+      <c r="B99" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="C99" s="3" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A99" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="B99" s="3" t="s">
+      <c r="E99" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into Linguas(ID, projectID, folderID, classID, tag_Value, default_Value, pt_Value, en_Value, es_Value, dateUpdate)values(newid(),null,null,null,'Suspended','Suspensa','Suspensa','Suspended','',getdate());</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" s="3" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A100" s="3" t="s">
+      <c r="B100" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E100" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into Linguas(ID, projectID, folderID, classID, tag_Value, default_Value, pt_Value, en_Value, es_Value, dateUpdate)values(newid(),null,null,null,'Title_CannotDeletePromobProject','Atenção','Atenção','Caution','',getdate());</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="B100" s="3" t="s">
+      <c r="B101" s="3" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A101" s="3" t="s">
+      <c r="C101" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="E101" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into Linguas(ID, projectID, folderID, classID, tag_Value, default_Value, pt_Value, en_Value, es_Value, dateUpdate)values(newid(),null,null,null,'Title_ContractVisualization','Visualização de Contrato','Visualização de Contrato','ContractVisualization','',getdate());</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="B101" s="3" t="s">
+      <c r="B102" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="E102" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into Linguas(ID, projectID, folderID, classID, tag_Value, default_Value, pt_Value, en_Value, es_Value, dateUpdate)values(newid(),null,null,null,'Title_FileSelection','Seleção de arquivos','Seleção de arquivos','Selecting files','',getdate());</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="B103" s="3" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A102" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="B102" s="3" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A103" s="3" t="s">
+      <c r="C103" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E103" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into Linguas(ID, projectID, folderID, classID, tag_Value, default_Value, pt_Value, en_Value, es_Value, dateUpdate)values(newid(),null,null,null,'Title_Message','Atenção','Atenção','Caution','',getdate());</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="B103" s="3" t="s">
+      <c r="B104" s="3" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A104" s="3" t="s">
+      <c r="C104" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="E104" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into Linguas(ID, projectID, folderID, classID, tag_Value, default_Value, pt_Value, en_Value, es_Value, dateUpdate)values(newid(),null,null,null,'Title_ReasonToCancelLabel','Motivo de Cancelamento','Motivo de Cancelamento','Reason for Cancellation','',getdate());</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="B104" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A105" s="3" t="s">
+      <c r="B105" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E105" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into Linguas(ID, projectID, folderID, classID, tag_Value, default_Value, pt_Value, en_Value, es_Value, dateUpdate)values(newid(),null,null,null,'Tooltip_CanceledContract','Cancelado','Cancelado','Canceled','',getdate());</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="B105" s="3" t="s">
+      <c r="B106" s="3" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A106" s="3" t="s">
+      <c r="C106" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="E106" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into Linguas(ID, projectID, folderID, classID, tag_Value, default_Value, pt_Value, en_Value, es_Value, dateUpdate)values(newid(),null,null,null,'Tooltip_ValidContract','Válido','Válido','Valid','',getdate());</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="B106" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A107" s="3" t="s">
+      <c r="B107" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="B107" s="3" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A108" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="B108" s="3" t="s">
-        <v>211</v>
+      <c r="C107" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="E107" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into Linguas(ID, projectID, folderID, classID, tag_Value, default_Value, pt_Value, en_Value, es_Value, dateUpdate)values(newid(),null,null,null,'UpdateItem','Atualização','Atualização','Update','',getdate());</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109" s="10" t="s">
+        <v>322</v>
+      </c>
+      <c r="B109" s="10" t="s">
+        <v>323</v>
+      </c>
+      <c r="C109" s="10" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A110" s="10" t="s">
+        <v>324</v>
+      </c>
+      <c r="B110" s="10" t="s">
+        <v>325</v>
+      </c>
+      <c r="C110" s="10" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A111" s="10" t="s">
+        <v>326</v>
+      </c>
+      <c r="B111" s="10" t="s">
+        <v>327</v>
+      </c>
+      <c r="C111" s="10" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A112" s="10" t="s">
+        <v>328</v>
+      </c>
+      <c r="B112" s="10" t="s">
+        <v>329</v>
+      </c>
+      <c r="C112" s="10" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A113" s="10" t="s">
+        <v>330</v>
+      </c>
+      <c r="B113" s="10" t="s">
+        <v>331</v>
+      </c>
+      <c r="C113" s="10" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A114" s="10" t="s">
+        <v>332</v>
+      </c>
+      <c r="B114" s="10" t="s">
+        <v>333</v>
+      </c>
+      <c r="C114" s="10" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A115" s="10" t="s">
+        <v>334</v>
+      </c>
+      <c r="B115" s="10" t="s">
+        <v>335</v>
+      </c>
+      <c r="C115" s="10" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A116" s="10" t="s">
+        <v>336</v>
+      </c>
+      <c r="B116" s="10" t="s">
+        <v>337</v>
+      </c>
+      <c r="C116" s="10" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A117" s="10" t="s">
+        <v>338</v>
+      </c>
+      <c r="B117" s="10" t="s">
+        <v>339</v>
+      </c>
+      <c r="C117" s="10" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A118" s="10" t="s">
+        <v>340</v>
+      </c>
+      <c r="B118" s="10" t="s">
+        <v>341</v>
+      </c>
+      <c r="C118" s="10" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A119" s="10" t="s">
+        <v>342</v>
+      </c>
+      <c r="B119" s="10" t="s">
+        <v>343</v>
+      </c>
+      <c r="C119" s="10" t="s">
+        <v>353</v>
       </c>
     </row>
   </sheetData>
@@ -2285,13 +3244,131 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="36" customWidth="1"/>
+    <col min="2" max="2" width="42.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>294</v>
+      </c>
+      <c r="C1" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="B3" t="s">
+        <v>295</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>318</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="B4" t="s">
+        <v>296</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>320</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="B5" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="B6" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="B7" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="B8" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="B9" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="B10" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="B11" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="B12" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="B13" t="s">
+        <v>305</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Tradução - Maicon/Traduções_teste_maicon.xlsx
+++ b/Tradução - Maicon/Traduções_teste_maicon.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="414">
   <si>
     <t xml:space="preserve"> description_Or</t>
   </si>
@@ -1097,6 +1097,186 @@
   </si>
   <si>
     <t>Não foi possível carregar as informações do usuário_x000D_. Erro: {0}</t>
+  </si>
+  <si>
+    <t>msgAlert_UnableToFindNull</t>
+  </si>
+  <si>
+    <t>A aplicação não pode ser nula.</t>
+  </si>
+  <si>
+    <t>The application can not be null .</t>
+  </si>
+  <si>
+    <t>msgAlert_Contract</t>
+  </si>
+  <si>
+    <t>Contract NOT Found!</t>
+  </si>
+  <si>
+    <t>msgAlert_Date_Erro</t>
+  </si>
+  <si>
+    <t>Could not update Error closing date {0}</t>
+  </si>
+  <si>
+    <t>msgAlert_Erro_Logo</t>
+  </si>
+  <si>
+    <t>Error loading company logo!</t>
+  </si>
+  <si>
+    <t>msgAlert_Erro_Sales_Order</t>
+  </si>
+  <si>
+    <t>Sales Order not found!</t>
+  </si>
+  <si>
+    <t>msgAlert_Exporting</t>
+  </si>
+  <si>
+    <t>Wait , exporting content ...</t>
+  </si>
+  <si>
+    <t>msgAlert_File_Saved_Directory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">File saved in the directory : </t>
+  </si>
+  <si>
+    <t>msgAlert_Observation_Null_Value</t>
+  </si>
+  <si>
+    <t>Tags exist when reviewing the docket without informed value.</t>
+  </si>
+  <si>
+    <t>msgAlert_Project_Mirrored_Environments</t>
+  </si>
+  <si>
+    <t>This project has mirrored environments.</t>
+  </si>
+  <si>
+    <t>msgAlert_Value_Configuration_Null</t>
+  </si>
+  <si>
+    <t>The value reported in the { 0} configuration is not in a valid format.</t>
+  </si>
+  <si>
+    <t>windowTitle_Doc_Stats</t>
+  </si>
+  <si>
+    <t>Document Statistics</t>
+  </si>
+  <si>
+    <t>Contrato não encontrado!</t>
+  </si>
+  <si>
+    <t>Não foi possível atualizar a data de fechamento Erro {0}</t>
+  </si>
+  <si>
+    <t>Erro ao carregar logo da companhia!</t>
+  </si>
+  <si>
+    <t>Pedido de Venda não encontrado!</t>
+  </si>
+  <si>
+    <t>Aguarde, exportando o conteúdo...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arquivo salvo no diretório: </t>
+  </si>
+  <si>
+    <t>Existem Tags na observação do boleto sem valor informado.</t>
+  </si>
+  <si>
+    <t>Este projeto possui ambientes espelhados.</t>
+  </si>
+  <si>
+    <t>O valor informado na configuração {0} não está em um formato válido.</t>
+  </si>
+  <si>
+    <t>Estatisticas do Documento</t>
+  </si>
+  <si>
+    <t>Aguarde, imprimindo...</t>
+  </si>
+  <si>
+    <t>Wait, printing ...</t>
+  </si>
+  <si>
+    <t>msgAlert_Printing</t>
+  </si>
+  <si>
+    <t>Não foi possível imprimir.</t>
+  </si>
+  <si>
+    <t>Could not print .</t>
+  </si>
+  <si>
+    <t>msgAlert_Not_Print</t>
+  </si>
+  <si>
+    <t>Ocorreu um erro ao carregar o documento no editor</t>
+  </si>
+  <si>
+    <t>An error occurred while loading the document in the editor</t>
+  </si>
+  <si>
+    <t>ErrorMessage_Loading_Document</t>
+  </si>
+  <si>
+    <t>Não foi possível importar o arquivo.\nAs possíveis causas são: Formatação complexa do arquivo, caracteres não reconhecidos pelo browser ou o arquivo muito grande.</t>
+  </si>
+  <si>
+    <t>Could not import the file \ nThe possible causes are . Complex file formatting , characters not recognized by the browser or the very large file.</t>
+  </si>
+  <si>
+    <t>msgAlert_Not_Import_File</t>
+  </si>
+  <si>
+    <t>Arquivos(.{0})|*.{0}|Todos os Arquivos(*.*)|*.*</t>
+  </si>
+  <si>
+    <t>Files ( { 0}. ) | * { 0} . | All files ( *. *) | * .</t>
+  </si>
+  <si>
+    <t>msgDialog_File</t>
+  </si>
+  <si>
+    <t>Nenhuma guia delimitadora foi inserida.\n Utilize o botão \"+\" para inserir uma nova guia.</t>
+  </si>
+  <si>
+    <t>No bounding guide was inserted. \ N Use the \ "+ \ " to insert a new tab.</t>
+  </si>
+  <si>
+    <t>msgAlert_Guide_Inserted</t>
+  </si>
+  <si>
+    <t>Assistente de Importação de Preços</t>
+  </si>
+  <si>
+    <t>Prices Import Wizard</t>
+  </si>
+  <si>
+    <t>windowTitle_Prices</t>
+  </si>
+  <si>
+    <t>Para remover uma guia clique sobre ela e utilize o botão \"-\".</t>
+  </si>
+  <si>
+    <t>Remover For A clique Guide About ALS and use the button \ " - \ " .</t>
+  </si>
+  <si>
+    <t>msgAlert_Guide_Remover</t>
+  </si>
+  <si>
+    <t>Seleção de Items da Entrega</t>
+  </si>
+  <si>
+    <t>Delivery Item Selection</t>
+  </si>
+  <si>
+    <t>windowTitle_Itens</t>
   </si>
 </sst>
 </file>
@@ -1490,11 +1670,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:XFD120"/>
+  <dimension ref="A1:XFD141"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A106" sqref="A106"/>
+      <pane ySplit="1" topLeftCell="A122" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A141" sqref="A141:B141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2413,7 +2593,7 @@
         <v>insert into Linguas(ID, projectID, folderID, classID, tag_Value, default_Value, pt_Value, en_Value, es_Value, dateUpdate)values(newid(),null,null,null,'ErrorMessage_CannotDeletePromobProject','Não foi possível excluir o arquivo especificado._x000D_Erro: {0}','Não foi possível excluir o arquivo especificado._x000D_Erro: {0}','It was not possible to delete the specified file . Error: { 0}','',getdate());</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>123</v>
       </c>
@@ -2499,7 +2679,7 @@
         <v>263</v>
       </c>
       <c r="E67" t="str">
-        <f t="shared" ref="E67:E119" si="1">CONCATENATE("insert into Linguas(ID, projectID, folderID, classID, tag_Value, default_Value, pt_Value, en_Value, es_Value, dateUpdate)values(newid(),null,null,null,'",A67,"','",B67,"','",B67,"','",C67,"','",D67,"',getdate());")</f>
+        <f t="shared" ref="E67:E121" si="1">CONCATENATE("insert into Linguas(ID, projectID, folderID, classID, tag_Value, default_Value, pt_Value, en_Value, es_Value, dateUpdate)values(newid(),null,null,null,'",A67,"','",B67,"','",B67,"','",C67,"','",D67,"',getdate());")</f>
         <v>insert into Linguas(ID, projectID, folderID, classID, tag_Value, default_Value, pt_Value, en_Value, es_Value, dateUpdate)values(newid(),null,null,null,'ErrorMessage_InvalidEnvs','Existem ambientes com a descrição inválida, por favor verifique.','Existem ambientes com a descrição inválida, por favor verifique.','There are environments with the invalid description, please check.','',getdate());</v>
       </c>
     </row>
@@ -2848,7 +3028,7 @@
         <v>insert into Linguas(ID, projectID, folderID, classID, tag_Value, default_Value, pt_Value, en_Value, es_Value, dateUpdate)values(newid(),null,null,null,'Message_IntegrationServiceRequired','O serviço de integração não está disponível. Inicie o mesmo para continuar.','O serviço de integração não está disponível. Inicie o mesmo para continuar.','The integration service is not available. Start it to continue.','',getdate());</v>
       </c>
     </row>
-    <row r="91" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
         <v>178</v>
       </c>
@@ -19519,7 +19699,7 @@
         <v>insert into Linguas(ID, projectID, folderID, classID, tag_Value, default_Value, pt_Value, en_Value, es_Value, dateUpdate)values(newid(),null,null,null,'bodyemail_NameCompany','Nome da Companhia: {0}','Nome da Companhia: {0}','Company name: { 0}','',getdate());</v>
       </c>
     </row>
-    <row r="111" spans="1:16384" ht="30" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="A111" s="10" t="s">
         <v>324</v>
       </c>
@@ -19534,7 +19714,7 @@
         <v>insert into Linguas(ID, projectID, folderID, classID, tag_Value, default_Value, pt_Value, en_Value, es_Value, dateUpdate)values(newid(),null,null,null,'bodyemail_NameFantasy','Nome Fantasia: {0}','Nome Fantasia: {0}','Nome Fantasia: {0}','',getdate());</v>
       </c>
     </row>
-    <row r="112" spans="1:16384" ht="30" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="A112" s="10" t="s">
         <v>326</v>
       </c>
@@ -19549,7 +19729,7 @@
         <v>insert into Linguas(ID, projectID, folderID, classID, tag_Value, default_Value, pt_Value, en_Value, es_Value, dateUpdate)values(newid(),null,null,null,'bodyemail_NameClient','Nome do Cliente: {0}','Nome do Cliente: {0}','Trade Name : { 0}','',getdate());</v>
       </c>
     </row>
-    <row r="113" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="10" t="s">
         <v>328</v>
       </c>
@@ -19564,7 +19744,7 @@
         <v>insert into Linguas(ID, projectID, folderID, classID, tag_Value, default_Value, pt_Value, en_Value, es_Value, dateUpdate)values(newid(),null,null,null,'bodyemail_Document','Documento: {0}','Documento: {0}','Document: { 0}','',getdate());</v>
       </c>
     </row>
-    <row r="114" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="10" t="s">
         <v>330</v>
       </c>
@@ -19579,7 +19759,7 @@
         <v>insert into Linguas(ID, projectID, folderID, classID, tag_Value, default_Value, pt_Value, en_Value, es_Value, dateUpdate)values(newid(),null,null,null,'bodyemail_Address','Endereço: {0}','Endereço: {0}','Address : { 0}','',getdate());</v>
       </c>
     </row>
-    <row r="115" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="10" t="s">
         <v>332</v>
       </c>
@@ -19594,7 +19774,7 @@
         <v>insert into Linguas(ID, projectID, folderID, classID, tag_Value, default_Value, pt_Value, en_Value, es_Value, dateUpdate)values(newid(),null,null,null,'bodyemail_Trading','Número da Negociação: {0}{1}','Número da Negociação: {0}{1}','Trading number : { 0} { 1}','',getdate());</v>
       </c>
     </row>
-    <row r="116" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="10" t="s">
         <v>334</v>
       </c>
@@ -19609,7 +19789,7 @@
         <v>insert into Linguas(ID, projectID, folderID, classID, tag_Value, default_Value, pt_Value, en_Value, es_Value, dateUpdate)values(newid(),null,null,null,'bodyemail_Generation','Data da Geração: {0}','Data da Geração: {0}','Data Generation: { 0}','',getdate());</v>
       </c>
     </row>
-    <row r="117" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="10" t="s">
         <v>336</v>
       </c>
@@ -19624,7 +19804,7 @@
         <v>insert into Linguas(ID, projectID, folderID, classID, tag_Value, default_Value, pt_Value, en_Value, es_Value, dateUpdate)values(newid(),null,null,null,'bodyemail_DateConversion','Data da Conversão: {0}','Data da Conversão: {0}','Date of conversion: { 0}','',getdate());</v>
       </c>
     </row>
-    <row r="118" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="10" t="s">
         <v>338</v>
       </c>
@@ -19639,7 +19819,7 @@
         <v>insert into Linguas(ID, projectID, folderID, classID, tag_Value, default_Value, pt_Value, en_Value, es_Value, dateUpdate)values(newid(),null,null,null,'bodyemail_ComObj','Observações:','Observações:','Comments:','',getdate());</v>
       </c>
     </row>
-    <row r="119" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="10" t="s">
         <v>340</v>
       </c>
@@ -19655,6 +19835,231 @@
       </c>
     </row>
     <row r="120" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A121" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="B121" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="C121" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="E121" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into Linguas(ID, projectID, folderID, classID, tag_Value, default_Value, pt_Value, en_Value, es_Value, dateUpdate)values(newid(),null,null,null,'msgAlert_UnableToFindNull','A aplicação não pode ser nula.','A aplicação não pode ser nula.','The application can not be null .','',getdate());</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A122" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="B122" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="C122" s="3" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A123" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="B123" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="C123" s="3" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A124" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="B124" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="C124" s="3" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A125" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="B125" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="C125" s="3" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A126" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="B126" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="C126" s="3" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A127" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="B127" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="C127" s="3" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A128" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="B128" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="C128" s="3" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="B129" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="C129" s="3" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="B130" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="C130" s="3" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="B131" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="C131" s="3" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="B133" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="C133" s="3" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="B134" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="C134" s="3" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="B135" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="C135" s="3" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="B136" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="C136" s="3" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="B137" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="C137" s="3" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="B138" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="C138" s="3" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="B139" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="C139" s="3" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="B140" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="C140" s="3" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="B141" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="C141" s="3" t="s">
+        <v>412</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Tradução - Maicon/Traduções_teste_maicon.xlsx
+++ b/Tradução - Maicon/Traduções_teste_maicon.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="414">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="432">
   <si>
     <t xml:space="preserve"> description_Or</t>
   </si>
@@ -1277,6 +1277,60 @@
   </si>
   <si>
     <t>windowTitle_Itens</t>
+  </si>
+  <si>
+    <t>msgDialog_File_Person</t>
+  </si>
+  <si>
+    <t>Imagens jpg, png|*.jpg;*.png | Zips zip, rar|*.zip;*.rar | PDFs pdf|*.pdf; | Todos os tipos |*.*;</t>
+  </si>
+  <si>
+    <t>Images jpg, png|*.jpg;*.png | Zips zip, rar|*.zip;*.rar | PDFs pdf|*.pdf; | All types |*.*;</t>
+  </si>
+  <si>
+    <t>msgDialog_File_CSV</t>
+  </si>
+  <si>
+    <t>Arquivos Texto CSV (*.csv)|*.csv</t>
+  </si>
+  <si>
+    <t>Text File CSV (*.csv)|*.csv</t>
+  </si>
+  <si>
+    <t>msgAlert_Time_Server</t>
+  </si>
+  <si>
+    <t>Esgotou o tempo de espera pelo retorno do servidor. Processados: {0} de {1}</t>
+  </si>
+  <si>
+    <t>He ran the expected rate of return hair server . Processed : { 0} of { 1}</t>
+  </si>
+  <si>
+    <t>Erro desconhecido no servidor. Processados: {0} de {1}</t>
+  </si>
+  <si>
+    <t>Unknown error on the server. Processed : { 0} of { 1}</t>
+  </si>
+  <si>
+    <t>msgAlert_Error_Server</t>
+  </si>
+  <si>
+    <t>A {0} foi cancelada pelo usuário. Processados: {1} de {2}</t>
+  </si>
+  <si>
+    <t>The { 0} has been canceled by the user . Processed : {1 } of { 2}</t>
+  </si>
+  <si>
+    <t>msgAlert_Canceled_User</t>
+  </si>
+  <si>
+    <t>Cadastro Somente Leitura</t>
+  </si>
+  <si>
+    <t>Register Read Only</t>
+  </si>
+  <si>
+    <t>msgAlert_Read_Only</t>
   </si>
 </sst>
 </file>
@@ -1670,18 +1724,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:XFD141"/>
+  <dimension ref="A1:XFD148"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A122" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A141" sqref="A141:B141"/>
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B152" sqref="B152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.5703125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="32.42578125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="36.28515625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="42.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49.28515625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="50.42578125" style="3" customWidth="1"/>
     <col min="4" max="4" width="11.140625" style="3" customWidth="1"/>
     <col min="5" max="5" width="110.85546875" bestFit="1" customWidth="1"/>
   </cols>
@@ -20060,6 +20114,75 @@
         <v>412</v>
       </c>
     </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="B142" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="C142" s="3" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="B143" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="C143" s="3" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="B144" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="C144" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="B145" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="C145" s="3" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="B146" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="C146" s="3" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="B147" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="C147" s="3" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Tradução - Maicon/Traduções_teste_maicon.xlsx
+++ b/Tradução - Maicon/Traduções_teste_maicon.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950"/>
   </bookViews>
   <sheets>
     <sheet name="Traduções" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8910" uniqueCount="5780">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9022" uniqueCount="5856">
   <si>
     <t xml:space="preserve"> description_Or</t>
   </si>
@@ -17860,6 +17860,234 @@
   <si>
     <t>You're not allowed to visualize this control._x000D_
 If in doubt, contact the administrator.</t>
+  </si>
+  <si>
+    <t>Selection of People</t>
+  </si>
+  <si>
+    <t>windowTitle_SelectionOf_Selection_Pople</t>
+  </si>
+  <si>
+    <t>Sales order</t>
+  </si>
+  <si>
+    <t>msgInformation_Sales_Order</t>
+  </si>
+  <si>
+    <t>Select Request Sale</t>
+  </si>
+  <si>
+    <t>Order of Service</t>
+  </si>
+  <si>
+    <t>msgInformation_Service_Order</t>
+  </si>
+  <si>
+    <t>Selecionar Ordem de Serviço</t>
+  </si>
+  <si>
+    <t>Select Service Order</t>
+  </si>
+  <si>
+    <t>Seleção de Séries Fiscais</t>
+  </si>
+  <si>
+    <t>Selection of Tax Series</t>
+  </si>
+  <si>
+    <t>bck_Number</t>
+  </si>
+  <si>
+    <t>toolTip_Sales_Select_Order</t>
+  </si>
+  <si>
+    <t>toolTip_Service_Select_Order</t>
+  </si>
+  <si>
+    <t>windowTitle_SelectionOf_Select_Series</t>
+  </si>
+  <si>
+    <t>bck_Fiscal_Document</t>
+  </si>
+  <si>
+    <t>Nota Fiscal</t>
+  </si>
+  <si>
+    <t>Fiscal Note</t>
+  </si>
+  <si>
+    <t>bck_Fiscal_Note</t>
+  </si>
+  <si>
+    <t>Cupom</t>
+  </si>
+  <si>
+    <t>Coupon</t>
+  </si>
+  <si>
+    <t>bck_Coupon</t>
+  </si>
+  <si>
+    <t>bck_Finality</t>
+  </si>
+  <si>
+    <t>Revenda</t>
+  </si>
+  <si>
+    <t>Resale</t>
+  </si>
+  <si>
+    <t>bck_Resale</t>
+  </si>
+  <si>
+    <t>bck_Yes</t>
+  </si>
+  <si>
+    <t>bck_No</t>
+  </si>
+  <si>
+    <t>bck_Operation</t>
+  </si>
+  <si>
+    <t>bck_Person</t>
+  </si>
+  <si>
+    <t>bck_Entry</t>
+  </si>
+  <si>
+    <t>Entry</t>
+  </si>
+  <si>
+    <t>bck_Exit</t>
+  </si>
+  <si>
+    <t>Exit</t>
+  </si>
+  <si>
+    <t>bck_Situation</t>
+  </si>
+  <si>
+    <t>bck_Canceled</t>
+  </si>
+  <si>
+    <t>Inutilizado</t>
+  </si>
+  <si>
+    <t>Unusable</t>
+  </si>
+  <si>
+    <t>bck_Unusable</t>
+  </si>
+  <si>
+    <t>bck_Nature_Operation</t>
+  </si>
+  <si>
+    <t>Seleção de Naturezas de Operação</t>
+  </si>
+  <si>
+    <t>Selection of Natures Operation</t>
+  </si>
+  <si>
+    <t>windowTitle_SelectionOf_Natures_Operation</t>
+  </si>
+  <si>
+    <t>Datas</t>
+  </si>
+  <si>
+    <t>Dates</t>
+  </si>
+  <si>
+    <t>bck_Dates</t>
+  </si>
+  <si>
+    <t>Hora</t>
+  </si>
+  <si>
+    <t>Hour</t>
+  </si>
+  <si>
+    <t>bck_Hour</t>
+  </si>
+  <si>
+    <t>Emissão</t>
+  </si>
+  <si>
+    <t>Emission</t>
+  </si>
+  <si>
+    <t>bck_Emission</t>
+  </si>
+  <si>
+    <t>bck_Classification</t>
+  </si>
+  <si>
+    <t>Ratings Selection</t>
+  </si>
+  <si>
+    <t>windowTitle_SelectionOf_Ratings_Selection</t>
+  </si>
+  <si>
+    <t>bck_Values</t>
+  </si>
+  <si>
+    <t>bck_Products</t>
+  </si>
+  <si>
+    <t>Serviços</t>
+  </si>
+  <si>
+    <t>Services</t>
+  </si>
+  <si>
+    <t>bck_Services</t>
+  </si>
+  <si>
+    <t>Transporte</t>
+  </si>
+  <si>
+    <t>Transport</t>
+  </si>
+  <si>
+    <t>bck_Transport</t>
+  </si>
+  <si>
+    <t>Seguro</t>
+  </si>
+  <si>
+    <t>Safe</t>
+  </si>
+  <si>
+    <t>bck_Safe</t>
+  </si>
+  <si>
+    <t>Acessórios</t>
+  </si>
+  <si>
+    <t>Accessories</t>
+  </si>
+  <si>
+    <t>bck_Accessories</t>
+  </si>
+  <si>
+    <t>Tipo de Movimentação</t>
+  </si>
+  <si>
+    <t>Type of Drive</t>
+  </si>
+  <si>
+    <t>bck_Type_Drive</t>
+  </si>
+  <si>
+    <t>Seleção de Tipos de Movimentação</t>
+  </si>
+  <si>
+    <t>Types of selection Drive</t>
+  </si>
+  <si>
+    <t>windowTitle_SelectionOf_Types_Drive</t>
+  </si>
+  <si>
+    <t>bck_Department</t>
   </si>
 </sst>
 </file>
@@ -17896,7 +18124,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -17915,6 +18143,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -17928,7 +18162,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -17968,10 +18202,14 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -18274,11 +18512,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:XFD148"/>
+  <dimension ref="A1:XFD186"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A181" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B186" sqref="B186"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19283,7 +19521,7 @@
         <v>263</v>
       </c>
       <c r="E67" t="str">
-        <f t="shared" ref="E67:E132" si="1">CONCATENATE("insert into Linguas(ID, projectID, folderID, classID, tag_Value, default_Value, pt_Value, en_Value, es_Value, dateUpdate)values(newid(),null,null,null,'",A67,"','",B67,"','",B67,"','",C67,"','",D67,"',getdate());")</f>
+        <f t="shared" ref="E67:E130" si="1">CONCATENATE("insert into Linguas(ID, projectID, folderID, classID, tag_Value, default_Value, pt_Value, en_Value, es_Value, dateUpdate)values(newid(),null,null,null,'",A67,"','",B67,"','",B67,"','",C67,"','",D67,"',getdate());")</f>
         <v>insert into Linguas(ID, projectID, folderID, classID, tag_Value, default_Value, pt_Value, en_Value, es_Value, dateUpdate)values(newid(),null,null,null,'ErrorMessage_InvalidEnvs','Existem ambientes com a descrição inválida, por favor verifique.','Existem ambientes com a descrição inválida, por favor verifique.','There are environments with the invalid description, please check.','',getdate());</v>
       </c>
     </row>
@@ -36831,8 +37069,422 @@
         <v>insert into Linguas(ID, projectID, folderID, classID, tag_Value, default_Value, pt_Value, en_Value, es_Value, dateUpdate)values(newid(),null,null,null,'msgAlert_Read_Only','Cadastro Somente Leitura','Cadastro Somente Leitura','Register Read Only','',getdate());</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A148"/>
+    <row r="148" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B148" s="16"/>
+      <c r="C148" s="16"/>
+      <c r="D148" s="16"/>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A149" s="3" t="s">
+        <v>5781</v>
+      </c>
+      <c r="B149" s="3" t="s">
+        <v>4103</v>
+      </c>
+      <c r="C149" s="3" t="s">
+        <v>5780</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A150" s="7" t="s">
+        <v>5783</v>
+      </c>
+      <c r="B150" s="3" t="s">
+        <v>3245</v>
+      </c>
+      <c r="C150" s="3" t="s">
+        <v>5782</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A151" s="7" t="s">
+        <v>5786</v>
+      </c>
+      <c r="B151" s="3" t="s">
+        <v>3335</v>
+      </c>
+      <c r="C151" s="3" t="s">
+        <v>5784</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A152" s="7" t="s">
+        <v>5792</v>
+      </c>
+      <c r="B152" s="3" t="s">
+        <v>4107</v>
+      </c>
+      <c r="C152" s="3" t="s">
+        <v>5785</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A153" s="7" t="s">
+        <v>5793</v>
+      </c>
+      <c r="B153" s="3" t="s">
+        <v>5787</v>
+      </c>
+      <c r="C153" s="3" t="s">
+        <v>5788</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A154" s="3" t="s">
+        <v>5794</v>
+      </c>
+      <c r="B154" s="3" t="s">
+        <v>5789</v>
+      </c>
+      <c r="C154" s="3" t="s">
+        <v>5790</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A155" s="3" t="s">
+        <v>5791</v>
+      </c>
+      <c r="B155" s="3" t="s">
+        <v>2771</v>
+      </c>
+      <c r="C155" s="3" t="s">
+        <v>2770</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A156" s="3" t="s">
+        <v>5795</v>
+      </c>
+      <c r="B156" s="3" t="s">
+        <v>1433</v>
+      </c>
+      <c r="C156" s="3" t="s">
+        <v>4621</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A157" s="3" t="s">
+        <v>5798</v>
+      </c>
+      <c r="B157" s="3" t="s">
+        <v>5796</v>
+      </c>
+      <c r="C157" s="3" t="s">
+        <v>5797</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A158" s="3" t="s">
+        <v>5801</v>
+      </c>
+      <c r="B158" s="3" t="s">
+        <v>5799</v>
+      </c>
+      <c r="C158" s="3" t="s">
+        <v>5800</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A159" s="3" t="s">
+        <v>5802</v>
+      </c>
+      <c r="B159" s="3" t="s">
+        <v>1403</v>
+      </c>
+      <c r="C159" s="3" t="s">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A160" s="3" t="s">
+        <v>5805</v>
+      </c>
+      <c r="B160" s="3" t="s">
+        <v>5803</v>
+      </c>
+      <c r="C160" s="3" t="s">
+        <v>5804</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A161" s="3" t="s">
+        <v>5806</v>
+      </c>
+      <c r="B161" s="3" t="s">
+        <v>4308</v>
+      </c>
+      <c r="C161" s="3" t="s">
+        <v>4307</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A162" s="3" t="s">
+        <v>5807</v>
+      </c>
+      <c r="B162" s="3" t="s">
+        <v>2734</v>
+      </c>
+      <c r="C162" s="3" t="s">
+        <v>2733</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A163" s="3" t="s">
+        <v>5808</v>
+      </c>
+      <c r="B163" s="3" t="s">
+        <v>2825</v>
+      </c>
+      <c r="C163" s="3" t="s">
+        <v>2824</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A164" s="3" t="s">
+        <v>5809</v>
+      </c>
+      <c r="B164" s="3" t="s">
+        <v>2972</v>
+      </c>
+      <c r="C164" s="3" t="s">
+        <v>2971</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A165" s="3" t="s">
+        <v>5810</v>
+      </c>
+      <c r="B165" s="3" t="s">
+        <v>1748</v>
+      </c>
+      <c r="C165" s="3" t="s">
+        <v>5811</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A166" s="3" t="s">
+        <v>5812</v>
+      </c>
+      <c r="B166" s="3" t="s">
+        <v>2854</v>
+      </c>
+      <c r="C166" s="3" t="s">
+        <v>5813</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A167" s="3" t="s">
+        <v>5814</v>
+      </c>
+      <c r="B167" s="3" t="s">
+        <v>3369</v>
+      </c>
+      <c r="C167" s="3" t="s">
+        <v>3368</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A168" s="3" t="s">
+        <v>5815</v>
+      </c>
+      <c r="B168" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C168" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A169" s="3" t="s">
+        <v>5818</v>
+      </c>
+      <c r="B169" s="3" t="s">
+        <v>5816</v>
+      </c>
+      <c r="C169" s="3" t="s">
+        <v>5817</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A170" s="3" t="s">
+        <v>5819</v>
+      </c>
+      <c r="B170" s="3" t="s">
+        <v>2690</v>
+      </c>
+      <c r="C170" s="3" t="s">
+        <v>5061</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A171" s="3" t="s">
+        <v>5822</v>
+      </c>
+      <c r="B171" s="3" t="s">
+        <v>5820</v>
+      </c>
+      <c r="C171" s="3" t="s">
+        <v>5821</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A172" s="3" t="s">
+        <v>5825</v>
+      </c>
+      <c r="B172" s="3" t="s">
+        <v>5823</v>
+      </c>
+      <c r="C172" s="3" t="s">
+        <v>5824</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A173" s="3" t="s">
+        <v>5828</v>
+      </c>
+      <c r="B173" s="3" t="s">
+        <v>5826</v>
+      </c>
+      <c r="C173" s="3" t="s">
+        <v>5827</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A174" s="3" t="s">
+        <v>5831</v>
+      </c>
+      <c r="B174" s="3" t="s">
+        <v>5829</v>
+      </c>
+      <c r="C174" s="3" t="s">
+        <v>5830</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A175" s="3" t="s">
+        <v>5832</v>
+      </c>
+      <c r="B175" s="3" t="s">
+        <v>785</v>
+      </c>
+      <c r="C175" s="3" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A176" s="3" t="s">
+        <v>5834</v>
+      </c>
+      <c r="B176" s="3" t="s">
+        <v>4129</v>
+      </c>
+      <c r="C176" s="3" t="s">
+        <v>5833</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A177" s="3" t="s">
+        <v>5835</v>
+      </c>
+      <c r="B177" s="3" t="s">
+        <v>3585</v>
+      </c>
+      <c r="C177" s="3" t="s">
+        <v>3883</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A178" s="3" t="s">
+        <v>5836</v>
+      </c>
+      <c r="B178" s="3" t="s">
+        <v>3051</v>
+      </c>
+      <c r="C178" s="3" t="s">
+        <v>3050</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A179" s="3" t="s">
+        <v>5839</v>
+      </c>
+      <c r="B179" s="3" t="s">
+        <v>5837</v>
+      </c>
+      <c r="C179" s="3" t="s">
+        <v>5838</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A180" s="3" t="s">
+        <v>5842</v>
+      </c>
+      <c r="B180" s="3" t="s">
+        <v>5840</v>
+      </c>
+      <c r="C180" s="3" t="s">
+        <v>5841</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A181" s="3" t="s">
+        <v>5845</v>
+      </c>
+      <c r="B181" s="3" t="s">
+        <v>5843</v>
+      </c>
+      <c r="C181" s="3" t="s">
+        <v>5844</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A182" s="3" t="s">
+        <v>5848</v>
+      </c>
+      <c r="B182" s="3" t="s">
+        <v>5846</v>
+      </c>
+      <c r="C182" s="3" t="s">
+        <v>5847</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A183" s="3" t="s">
+        <v>5851</v>
+      </c>
+      <c r="B183" s="3" t="s">
+        <v>5849</v>
+      </c>
+      <c r="C183" s="3" t="s">
+        <v>5850</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A184" s="3" t="s">
+        <v>5854</v>
+      </c>
+      <c r="B184" s="3" t="s">
+        <v>5852</v>
+      </c>
+      <c r="C184" s="3" t="s">
+        <v>5853</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A185" s="3" t="s">
+        <v>5855</v>
+      </c>
+      <c r="B185" s="3" t="s">
+        <v>1132</v>
+      </c>
+      <c r="C185" s="3" t="s">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B186" s="3" t="s">
+        <v>4139</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -36845,7 +37497,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -36974,7 +37626,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2396"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A841" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+    <sheetView topLeftCell="B2113" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
@@ -36983,7 +37635,7 @@
     <col min="1" max="1" width="35.85546875" customWidth="1"/>
     <col min="2" max="2" width="80.85546875" customWidth="1"/>
     <col min="3" max="3" width="4.7109375" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="3.5703125" style="15" customWidth="1"/>
+    <col min="4" max="4" width="3.5703125" style="14" customWidth="1"/>
     <col min="5" max="5" width="38.7109375" customWidth="1"/>
     <col min="6" max="6" width="74.28515625" customWidth="1"/>
   </cols>
@@ -51437,7 +52089,7 @@
       <c r="B993" t="s">
         <v>2189</v>
       </c>
-      <c r="D993" s="14"/>
+      <c r="D993" s="17"/>
       <c r="E993" t="s">
         <v>362</v>
       </c>
@@ -51452,7 +52104,7 @@
       <c r="B994" s="12" t="s">
         <v>2191</v>
       </c>
-      <c r="D994" s="14"/>
+      <c r="D994" s="17"/>
       <c r="E994" t="s">
         <v>424</v>
       </c>

--- a/Tradução - Maicon/Traduções_teste_maicon.xlsx
+++ b/Tradução - Maicon/Traduções_teste_maicon.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9022" uniqueCount="5856">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9063" uniqueCount="5895">
   <si>
     <t xml:space="preserve"> description_Or</t>
   </si>
@@ -18088,6 +18088,123 @@
   </si>
   <si>
     <t>bck_Department</t>
+  </si>
+  <si>
+    <t>windowTitle_SelectionOf_Departments</t>
+  </si>
+  <si>
+    <t>Selection of Departments</t>
+  </si>
+  <si>
+    <t>bck_Name</t>
+  </si>
+  <si>
+    <t>Fiscal Series</t>
+  </si>
+  <si>
+    <t>Série Fiscal</t>
+  </si>
+  <si>
+    <t>bck_Fiscal_Series</t>
+  </si>
+  <si>
+    <t>bck_Address</t>
+  </si>
+  <si>
+    <t>Nome:</t>
+  </si>
+  <si>
+    <t>Name:</t>
+  </si>
+  <si>
+    <t>Endereço:</t>
+  </si>
+  <si>
+    <t>Address:</t>
+  </si>
+  <si>
+    <t>bck_Zip_Code</t>
+  </si>
+  <si>
+    <t>CEP:</t>
+  </si>
+  <si>
+    <t>Zip Code:</t>
+  </si>
+  <si>
+    <t>bck_Complement</t>
+  </si>
+  <si>
+    <t>Complemento:</t>
+  </si>
+  <si>
+    <t>Complement:</t>
+  </si>
+  <si>
+    <t>District:</t>
+  </si>
+  <si>
+    <t>Bairro:</t>
+  </si>
+  <si>
+    <t>bck_District</t>
+  </si>
+  <si>
+    <t>Mailbox:</t>
+  </si>
+  <si>
+    <t>Caixa Postal:</t>
+  </si>
+  <si>
+    <t>bck_Mailbox</t>
+  </si>
+  <si>
+    <t>Reference:</t>
+  </si>
+  <si>
+    <t>Referência:</t>
+  </si>
+  <si>
+    <t>bck_Reference</t>
+  </si>
+  <si>
+    <t>Cidade:</t>
+  </si>
+  <si>
+    <t>City:</t>
+  </si>
+  <si>
+    <t>bck_City</t>
+  </si>
+  <si>
+    <t>Documentos:</t>
+  </si>
+  <si>
+    <t>Documents:</t>
+  </si>
+  <si>
+    <t>bck_Documents</t>
+  </si>
+  <si>
+    <t>dgt_Type</t>
+  </si>
+  <si>
+    <t>Telefones:</t>
+  </si>
+  <si>
+    <t>Phone:</t>
+  </si>
+  <si>
+    <t>bck_Phone</t>
+  </si>
+  <si>
+    <t>Agrupamento dos itens nos ambientes.</t>
+  </si>
+  <si>
+    <t>Grouping the items in the environment.</t>
+  </si>
+  <si>
+    <t>bck_Grouping_Environment</t>
   </si>
 </sst>
 </file>
@@ -18512,11 +18629,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:XFD186"/>
+  <dimension ref="A1:XFD199"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A181" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B186" sqref="B186"/>
+      <pane ySplit="1" topLeftCell="A190" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A199" sqref="A199"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -37482,8 +37599,157 @@
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A186" s="3" t="s">
+        <v>5856</v>
+      </c>
       <c r="B186" s="3" t="s">
         <v>4139</v>
+      </c>
+      <c r="C186" s="3" t="s">
+        <v>5857</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A187" s="3" t="s">
+        <v>5858</v>
+      </c>
+      <c r="B187" s="3" t="s">
+        <v>5863</v>
+      </c>
+      <c r="C187" s="3" t="s">
+        <v>5864</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A188" s="3" t="s">
+        <v>5861</v>
+      </c>
+      <c r="B188" s="3" t="s">
+        <v>5860</v>
+      </c>
+      <c r="C188" s="3" t="s">
+        <v>5859</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A189" s="3" t="s">
+        <v>5862</v>
+      </c>
+      <c r="B189" s="3" t="s">
+        <v>5865</v>
+      </c>
+      <c r="C189" s="3" t="s">
+        <v>5866</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A190" s="3" t="s">
+        <v>5867</v>
+      </c>
+      <c r="B190" s="3" t="s">
+        <v>5868</v>
+      </c>
+      <c r="C190" s="3" t="s">
+        <v>5869</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A191" s="3" t="s">
+        <v>5870</v>
+      </c>
+      <c r="B191" s="3" t="s">
+        <v>5871</v>
+      </c>
+      <c r="C191" s="3" t="s">
+        <v>5872</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A192" s="3" t="s">
+        <v>5875</v>
+      </c>
+      <c r="B192" s="3" t="s">
+        <v>5874</v>
+      </c>
+      <c r="C192" s="3" t="s">
+        <v>5873</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A193" s="3" t="s">
+        <v>5878</v>
+      </c>
+      <c r="B193" s="3" t="s">
+        <v>5877</v>
+      </c>
+      <c r="C193" s="3" t="s">
+        <v>5876</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A194" s="3" t="s">
+        <v>5881</v>
+      </c>
+      <c r="B194" s="3" t="s">
+        <v>5880</v>
+      </c>
+      <c r="C194" s="3" t="s">
+        <v>5879</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A195" s="3" t="s">
+        <v>5884</v>
+      </c>
+      <c r="B195" s="3" t="s">
+        <v>5882</v>
+      </c>
+      <c r="C195" s="3" t="s">
+        <v>5883</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A196" s="3" t="s">
+        <v>5887</v>
+      </c>
+      <c r="B196" s="3" t="s">
+        <v>5885</v>
+      </c>
+      <c r="C196" s="3" t="s">
+        <v>5886</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A197" s="3" t="s">
+        <v>5888</v>
+      </c>
+      <c r="B197" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="C197" s="3" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A198" s="3" t="s">
+        <v>5891</v>
+      </c>
+      <c r="B198" s="3" t="s">
+        <v>5889</v>
+      </c>
+      <c r="C198" s="3" t="s">
+        <v>5890</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A199" s="3" t="s">
+        <v>5894</v>
+      </c>
+      <c r="B199" s="3" t="s">
+        <v>5892</v>
+      </c>
+      <c r="C199" s="3" t="s">
+        <v>5893</v>
       </c>
     </row>
   </sheetData>

--- a/Tradução - Maicon/Traduções_teste_maicon.xlsx
+++ b/Tradução - Maicon/Traduções_teste_maicon.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9063" uniqueCount="5895">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9150" uniqueCount="5958">
   <si>
     <t xml:space="preserve"> description_Or</t>
   </si>
@@ -18205,6 +18205,195 @@
   </si>
   <si>
     <t>bck_Grouping_Environment</t>
+  </si>
+  <si>
+    <t>ReportHeader_Reference</t>
+  </si>
+  <si>
+    <t>Descrição do Produto</t>
+  </si>
+  <si>
+    <t>Product Description</t>
+  </si>
+  <si>
+    <t>ReportHeader_Product_Description</t>
+  </si>
+  <si>
+    <t>ReportHeader_Quantity</t>
+  </si>
+  <si>
+    <t>Value of Discount</t>
+  </si>
+  <si>
+    <t>Valor do Desconto</t>
+  </si>
+  <si>
+    <t>ReportHeader_Value_Discount</t>
+  </si>
+  <si>
+    <t>Valor do Acréscimo</t>
+  </si>
+  <si>
+    <t>Value Addition</t>
+  </si>
+  <si>
+    <t>ReportHeader_Value_Addition</t>
+  </si>
+  <si>
+    <t>ReportHeader_Value_Total</t>
+  </si>
+  <si>
+    <t>Value Total</t>
+  </si>
+  <si>
+    <t>ReportHeader_Move_For</t>
+  </si>
+  <si>
+    <t>Mover para</t>
+  </si>
+  <si>
+    <t>Move for</t>
+  </si>
+  <si>
+    <t>Mover todos os itens selecionado para o local indicado.</t>
+  </si>
+  <si>
+    <t>Move all the selected items to the location indicated.</t>
+  </si>
+  <si>
+    <t>toolTip_Move_All_Items</t>
+  </si>
+  <si>
+    <t>ReportHeader_Delete</t>
+  </si>
+  <si>
+    <t>ReportHeader_Date</t>
+  </si>
+  <si>
+    <t>ReportHeader_Hour</t>
+  </si>
+  <si>
+    <t>ReportHeader_Document</t>
+  </si>
+  <si>
+    <t>ReportHeader_Type</t>
+  </si>
+  <si>
+    <t>ReportHeader_Visualize</t>
+  </si>
+  <si>
+    <t>bck_Description</t>
+  </si>
+  <si>
+    <t>Observação:</t>
+  </si>
+  <si>
+    <t>Note:</t>
+  </si>
+  <si>
+    <t>bck_Note</t>
+  </si>
+  <si>
+    <t>Cupom Fiscal</t>
+  </si>
+  <si>
+    <t>Coupon Fiscal</t>
+  </si>
+  <si>
+    <t>bck_Coupon_Fiscal</t>
+  </si>
+  <si>
+    <t>Emissor</t>
+  </si>
+  <si>
+    <t>Issuing</t>
+  </si>
+  <si>
+    <t>bck_Issuing</t>
+  </si>
+  <si>
+    <t>Nº de Série</t>
+  </si>
+  <si>
+    <t>Serial No.</t>
+  </si>
+  <si>
+    <t>bck_Serial_No</t>
+  </si>
+  <si>
+    <t>Counter No.</t>
+  </si>
+  <si>
+    <t>Nº do Contador</t>
+  </si>
+  <si>
+    <t>bck_Counter_No</t>
+  </si>
+  <si>
+    <t>Condição de Pagamento</t>
+  </si>
+  <si>
+    <t>Condition of Payment</t>
+  </si>
+  <si>
+    <t>bck_Condition_Payment</t>
+  </si>
+  <si>
+    <t>Payment Condition Selection</t>
+  </si>
+  <si>
+    <t>windowTitle_SelectionOf_Payment_Condition</t>
+  </si>
+  <si>
+    <t>Resetar Parcelas</t>
+  </si>
+  <si>
+    <t>Reset Plots</t>
+  </si>
+  <si>
+    <t>bck_Reset_Plots</t>
+  </si>
+  <si>
+    <t>Nº do Título</t>
+  </si>
+  <si>
+    <t>Title No.</t>
+  </si>
+  <si>
+    <t>ReportHeader_Title</t>
+  </si>
+  <si>
+    <t>ReportHeader_Sequence</t>
+  </si>
+  <si>
+    <t>ReportHeader_Due_Date</t>
+  </si>
+  <si>
+    <t>Data de Compensação</t>
+  </si>
+  <si>
+    <t>Date Compensation</t>
+  </si>
+  <si>
+    <t>ReportHeader_Date_Compensation</t>
+  </si>
+  <si>
+    <t>Valor da Parcela</t>
+  </si>
+  <si>
+    <t>Value of Portion</t>
+  </si>
+  <si>
+    <t>ReportHeader_Value_Portion</t>
+  </si>
+  <si>
+    <t>Valor Deflacionado</t>
+  </si>
+  <si>
+    <t>Deflated Value</t>
+  </si>
+  <si>
+    <t>ReportHeader_Deflated_Value</t>
   </si>
 </sst>
 </file>
@@ -18629,11 +18818,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:XFD199"/>
+  <dimension ref="A1:XFD228"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A190" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A199" sqref="A199"/>
+      <pane ySplit="1" topLeftCell="A213" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A228" sqref="A228"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -37752,6 +37941,325 @@
         <v>5893</v>
       </c>
     </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A200" s="7" t="s">
+        <v>5895</v>
+      </c>
+      <c r="B200" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="C200" s="3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A201" s="7" t="s">
+        <v>5898</v>
+      </c>
+      <c r="B201" s="3" t="s">
+        <v>5896</v>
+      </c>
+      <c r="C201" s="3" t="s">
+        <v>5897</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A202" s="7" t="s">
+        <v>5899</v>
+      </c>
+      <c r="B202" s="3" t="s">
+        <v>3094</v>
+      </c>
+      <c r="C202" s="3" t="s">
+        <v>3093</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A203" s="7" t="s">
+        <v>5902</v>
+      </c>
+      <c r="B203" s="3" t="s">
+        <v>5901</v>
+      </c>
+      <c r="C203" s="3" t="s">
+        <v>5900</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A204" s="7" t="s">
+        <v>5905</v>
+      </c>
+      <c r="B204" s="3" t="s">
+        <v>5903</v>
+      </c>
+      <c r="C204" s="3" t="s">
+        <v>5904</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A205" s="7" t="s">
+        <v>5906</v>
+      </c>
+      <c r="B205" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="C205" s="3" t="s">
+        <v>5907</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A206" s="7" t="s">
+        <v>5908</v>
+      </c>
+      <c r="B206" s="3" t="s">
+        <v>5909</v>
+      </c>
+      <c r="C206" s="3" t="s">
+        <v>5910</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A207" s="7" t="s">
+        <v>5913</v>
+      </c>
+      <c r="B207" s="3" t="s">
+        <v>5911</v>
+      </c>
+      <c r="C207" s="3" t="s">
+        <v>5912</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A208" s="7" t="s">
+        <v>5914</v>
+      </c>
+      <c r="B208" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="C208" s="3" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A209" s="7" t="s">
+        <v>5915</v>
+      </c>
+      <c r="B209" s="3" t="s">
+        <v>1033</v>
+      </c>
+      <c r="C209" s="3" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A210" s="7" t="s">
+        <v>5916</v>
+      </c>
+      <c r="B210" s="3" t="s">
+        <v>5826</v>
+      </c>
+      <c r="C210" s="3" t="s">
+        <v>5827</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A211" s="3" t="s">
+        <v>5917</v>
+      </c>
+      <c r="B211" s="3" t="s">
+        <v>1182</v>
+      </c>
+      <c r="C211" s="3" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A212" s="7" t="s">
+        <v>5918</v>
+      </c>
+      <c r="B212" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="C212" s="3" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A213" s="7" t="s">
+        <v>5919</v>
+      </c>
+      <c r="B213" s="3" t="s">
+        <v>3491</v>
+      </c>
+      <c r="C213" s="3" t="s">
+        <v>3895</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A214" s="3" t="s">
+        <v>5920</v>
+      </c>
+      <c r="B214" s="3" t="s">
+        <v>863</v>
+      </c>
+      <c r="C214" s="3" t="s">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A215" s="3" t="s">
+        <v>5923</v>
+      </c>
+      <c r="B215" s="3" t="s">
+        <v>5921</v>
+      </c>
+      <c r="C215" s="3" t="s">
+        <v>5922</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A216" s="3" t="s">
+        <v>5926</v>
+      </c>
+      <c r="B216" s="3" t="s">
+        <v>5924</v>
+      </c>
+      <c r="C216" s="3" t="s">
+        <v>5925</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A217" s="3" t="s">
+        <v>5929</v>
+      </c>
+      <c r="B217" s="3" t="s">
+        <v>5927</v>
+      </c>
+      <c r="C217" s="3" t="s">
+        <v>5928</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A218" s="3" t="s">
+        <v>5932</v>
+      </c>
+      <c r="B218" s="3" t="s">
+        <v>5930</v>
+      </c>
+      <c r="C218" s="3" t="s">
+        <v>5931</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A219" s="3" t="s">
+        <v>5935</v>
+      </c>
+      <c r="B219" s="3" t="s">
+        <v>5934</v>
+      </c>
+      <c r="C219" s="3" t="s">
+        <v>5933</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A220" s="3" t="s">
+        <v>5938</v>
+      </c>
+      <c r="B220" s="3" t="s">
+        <v>5936</v>
+      </c>
+      <c r="C220" s="3" t="s">
+        <v>5937</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A221" s="7" t="s">
+        <v>5940</v>
+      </c>
+      <c r="B221" s="3" t="s">
+        <v>4239</v>
+      </c>
+      <c r="C221" s="3" t="s">
+        <v>5939</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A222" s="3" t="s">
+        <v>5943</v>
+      </c>
+      <c r="B222" s="3" t="s">
+        <v>5941</v>
+      </c>
+      <c r="C222" s="3" t="s">
+        <v>5942</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A223" s="7" t="s">
+        <v>5946</v>
+      </c>
+      <c r="B223" s="3" t="s">
+        <v>5944</v>
+      </c>
+      <c r="C223" s="3" t="s">
+        <v>5945</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A224" s="7" t="s">
+        <v>5947</v>
+      </c>
+      <c r="B224" s="3" t="s">
+        <v>3323</v>
+      </c>
+      <c r="C224" s="3" t="s">
+        <v>3322</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A225" s="7" t="s">
+        <v>5948</v>
+      </c>
+      <c r="B225" s="3" t="s">
+        <v>1198</v>
+      </c>
+      <c r="C225" s="3" t="s">
+        <v>4542</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A226" s="7" t="s">
+        <v>5951</v>
+      </c>
+      <c r="B226" s="3" t="s">
+        <v>5949</v>
+      </c>
+      <c r="C226" s="3" t="s">
+        <v>5950</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A227" s="7" t="s">
+        <v>5954</v>
+      </c>
+      <c r="B227" s="3" t="s">
+        <v>5952</v>
+      </c>
+      <c r="C227" s="3" t="s">
+        <v>5953</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A228" s="7" t="s">
+        <v>5957</v>
+      </c>
+      <c r="B228" s="3" t="s">
+        <v>5955</v>
+      </c>
+      <c r="C228" s="3" t="s">
+        <v>5956</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -37762,7 +38270,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>

--- a/Tradução - Maicon/Traduções_teste_maicon.xlsx
+++ b/Tradução - Maicon/Traduções_teste_maicon.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9150" uniqueCount="5958">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9151" uniqueCount="5959">
   <si>
     <t xml:space="preserve"> description_Or</t>
   </si>
@@ -18394,6 +18394,9 @@
   </si>
   <si>
     <t>ReportHeader_Deflated_Value</t>
+  </si>
+  <si>
+    <t>teste</t>
   </si>
 </sst>
 </file>
@@ -18818,11 +18821,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:XFD228"/>
+  <dimension ref="A1:XFD229"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A213" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A228" sqref="A228"/>
+      <pane ySplit="1" topLeftCell="A219" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A230" sqref="A230"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -38260,6 +38263,11 @@
         <v>5956</v>
       </c>
     </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A229" s="3" t="s">
+        <v>5958</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Tradução - Maicon/Traduções_teste_maicon.xlsx
+++ b/Tradução - Maicon/Traduções_teste_maicon.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9150" uniqueCount="5958">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9159" uniqueCount="5966">
   <si>
     <t xml:space="preserve"> description_Or</t>
   </si>
@@ -18394,6 +18394,30 @@
   </si>
   <si>
     <t>ReportHeader_Deflated_Value</t>
+  </si>
+  <si>
+    <t>Nº do Documento</t>
+  </si>
+  <si>
+    <t>Document No.</t>
+  </si>
+  <si>
+    <t>bck_Document</t>
+  </si>
+  <si>
+    <t>Desembaraço</t>
+  </si>
+  <si>
+    <t>Resourcefulness</t>
+  </si>
+  <si>
+    <t>bck_Resourcefulness</t>
+  </si>
+  <si>
+    <t>Local</t>
+  </si>
+  <si>
+    <t>bck_Local</t>
   </si>
 </sst>
 </file>
@@ -18818,11 +18842,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:XFD228"/>
+  <dimension ref="A1:XFD231"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A213" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A228" sqref="A228"/>
+      <pane ySplit="1" topLeftCell="A219" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B232" sqref="B232"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -38260,6 +38284,39 @@
         <v>5956</v>
       </c>
     </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A229" s="3" t="s">
+        <v>5960</v>
+      </c>
+      <c r="B229" s="3" t="s">
+        <v>5958</v>
+      </c>
+      <c r="C229" s="3" t="s">
+        <v>5959</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A230" s="3" t="s">
+        <v>5963</v>
+      </c>
+      <c r="B230" s="3" t="s">
+        <v>5961</v>
+      </c>
+      <c r="C230" s="3" t="s">
+        <v>5962</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A231" s="3" t="s">
+        <v>5965</v>
+      </c>
+      <c r="B231" s="3" t="s">
+        <v>5964</v>
+      </c>
+      <c r="C231" s="3" t="s">
+        <v>5964</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -38270,7 +38327,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>

--- a/Tradução - Maicon/Traduções_teste_maicon.xlsx
+++ b/Tradução - Maicon/Traduções_teste_maicon.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950"/>
+    <workbookView xWindow="240" yWindow="225" windowWidth="14805" windowHeight="7890"/>
   </bookViews>
   <sheets>
     <sheet name="Traduções" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9159" uniqueCount="5966">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9177" uniqueCount="5982">
   <si>
     <t xml:space="preserve"> description_Or</t>
   </si>
@@ -18418,6 +18418,54 @@
   </si>
   <si>
     <t>bck_Local</t>
+  </si>
+  <si>
+    <t>Seleção de Local de Desembaraço</t>
+  </si>
+  <si>
+    <t>Selection Local Clearance</t>
+  </si>
+  <si>
+    <t>windowTitle_SelectionOf_Local_Clearance</t>
+  </si>
+  <si>
+    <t>Código de Fornecedor Exportador</t>
+  </si>
+  <si>
+    <t>Supplier Code Exporter</t>
+  </si>
+  <si>
+    <t>bck_Code_Exporter</t>
+  </si>
+  <si>
+    <t>Impostos</t>
+  </si>
+  <si>
+    <t>bck_Taxes</t>
+  </si>
+  <si>
+    <t>Imposto sobre Operações Financeiras</t>
+  </si>
+  <si>
+    <t>Tax on Financial Operations</t>
+  </si>
+  <si>
+    <t>bck_Tax_Financial_Operations</t>
+  </si>
+  <si>
+    <t>Despesas Aduaneiras</t>
+  </si>
+  <si>
+    <t>Customs Expenses</t>
+  </si>
+  <si>
+    <t>bck_Customs_Expenses</t>
+  </si>
+  <si>
+    <t>Adicionais</t>
+  </si>
+  <si>
+    <t>bck_Additional</t>
   </si>
 </sst>
 </file>
@@ -18842,11 +18890,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:XFD231"/>
+  <dimension ref="A1:XFD237"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A219" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B232" sqref="B232"/>
+      <pane ySplit="1" topLeftCell="A209" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C129" sqref="C129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -38317,6 +38365,72 @@
         <v>5964</v>
       </c>
     </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A232" s="7" t="s">
+        <v>5968</v>
+      </c>
+      <c r="B232" s="3" t="s">
+        <v>5966</v>
+      </c>
+      <c r="C232" s="3" t="s">
+        <v>5967</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A233" s="3" t="s">
+        <v>5971</v>
+      </c>
+      <c r="B233" s="3" t="s">
+        <v>5969</v>
+      </c>
+      <c r="C233" s="3" t="s">
+        <v>5970</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A234" s="3" t="s">
+        <v>5973</v>
+      </c>
+      <c r="B234" s="3" t="s">
+        <v>5972</v>
+      </c>
+      <c r="C234" s="3" t="s">
+        <v>3623</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A235" s="3" t="s">
+        <v>5976</v>
+      </c>
+      <c r="B235" s="3" t="s">
+        <v>5974</v>
+      </c>
+      <c r="C235" s="3" t="s">
+        <v>5975</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A236" s="3" t="s">
+        <v>5979</v>
+      </c>
+      <c r="B236" s="3" t="s">
+        <v>5977</v>
+      </c>
+      <c r="C236" s="3" t="s">
+        <v>5978</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A237" s="3" t="s">
+        <v>5981</v>
+      </c>
+      <c r="B237" s="3" t="s">
+        <v>5980</v>
+      </c>
+      <c r="C237" s="3" t="s">
+        <v>478</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Tradução - Maicon/Traduções_teste_maicon.xlsx
+++ b/Tradução - Maicon/Traduções_teste_maicon.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="225" windowWidth="14805" windowHeight="7890"/>
+    <workbookView xWindow="240" yWindow="225" windowWidth="14805" windowHeight="7890" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Traduções" sheetId="1" r:id="rId1"/>
     <sheet name="Padão de Tags" sheetId="2" r:id="rId2"/>
     <sheet name="Traduzido" sheetId="3" r:id="rId3"/>
+    <sheet name="Plan1" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9177" uniqueCount="5982">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9220" uniqueCount="6012">
   <si>
     <t xml:space="preserve"> description_Or</t>
   </si>
@@ -18467,12 +18468,102 @@
   <si>
     <t>bck_Additional</t>
   </si>
+  <si>
+    <t>ReportHeader_Tax</t>
+  </si>
+  <si>
+    <t>Tax situation</t>
+  </si>
+  <si>
+    <t>ReportHeader_Tax_Situation</t>
+  </si>
+  <si>
+    <t>% Imposto</t>
+  </si>
+  <si>
+    <t>% Tax</t>
+  </si>
+  <si>
+    <t>ReportHeader_Tax_Percent</t>
+  </si>
+  <si>
+    <t>ReportHeader_Taxation</t>
+  </si>
+  <si>
+    <t>% Tributado</t>
+  </si>
+  <si>
+    <t>% Taxation</t>
+  </si>
+  <si>
+    <t>ReportHeader_Calculation_Basis</t>
+  </si>
+  <si>
+    <t>Valor Imposto</t>
+  </si>
+  <si>
+    <t>Value Tax</t>
+  </si>
+  <si>
+    <t>ReportHeader_Value_Tax</t>
+  </si>
+  <si>
+    <t>Motivo da Isenção</t>
+  </si>
+  <si>
+    <t>Reason for Exemption</t>
+  </si>
+  <si>
+    <t>ReportHeader_Reason_Exemption</t>
+  </si>
+  <si>
+    <t>Taxes Selection</t>
+  </si>
+  <si>
+    <t>ReportHeader_Taxes_Selection</t>
+  </si>
+  <si>
+    <t>DB - Ajustar cadastros de operações</t>
+  </si>
+  <si>
+    <t>Aplicar em</t>
+  </si>
+  <si>
+    <t>Promob</t>
+  </si>
+  <si>
+    <t>Adicionais </t>
+  </si>
+  <si>
+    <t>ApplyIn</t>
+  </si>
+  <si>
+    <t>ReportHeader_ApplyIn</t>
+  </si>
+  <si>
+    <t>bck_All</t>
+  </si>
+  <si>
+    <t>bck_Manager</t>
+  </si>
+  <si>
+    <t>bck_Promob</t>
+  </si>
+  <si>
+    <t>Devedor Solidário</t>
+  </si>
+  <si>
+    <t>Debtor Solidarity</t>
+  </si>
+  <si>
+    <t>JointDebtor</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -18500,6 +18591,19 @@
       <color rgb="FF000000"/>
       <name val="Segoe UI"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF222222"/>
+      <name val="Segoe UI Light"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -18540,7 +18644,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -18586,6 +18690,9 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -18890,11 +18997,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:XFD237"/>
+  <dimension ref="A1:XFD246"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A209" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C129" sqref="C129"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A233" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A239" sqref="A239"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -38288,7 +38395,7 @@
         <v>3322</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" s="7" t="s">
         <v>5948</v>
       </c>
@@ -38299,7 +38406,7 @@
         <v>4542</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" s="7" t="s">
         <v>5951</v>
       </c>
@@ -38310,7 +38417,7 @@
         <v>5950</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" s="7" t="s">
         <v>5954</v>
       </c>
@@ -38321,7 +38428,7 @@
         <v>5953</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" s="7" t="s">
         <v>5957</v>
       </c>
@@ -38332,7 +38439,7 @@
         <v>5956</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" s="3" t="s">
         <v>5960</v>
       </c>
@@ -38343,7 +38450,7 @@
         <v>5959</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" s="3" t="s">
         <v>5963</v>
       </c>
@@ -38354,7 +38461,7 @@
         <v>5962</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" s="3" t="s">
         <v>5965</v>
       </c>
@@ -38365,7 +38472,7 @@
         <v>5964</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" s="7" t="s">
         <v>5968</v>
       </c>
@@ -38376,7 +38483,7 @@
         <v>5967</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" s="3" t="s">
         <v>5971</v>
       </c>
@@ -38387,7 +38494,7 @@
         <v>5970</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" s="3" t="s">
         <v>5973</v>
       </c>
@@ -38398,7 +38505,7 @@
         <v>3623</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" s="3" t="s">
         <v>5976</v>
       </c>
@@ -38409,7 +38516,7 @@
         <v>5975</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" s="3" t="s">
         <v>5979</v>
       </c>
@@ -38420,7 +38527,7 @@
         <v>5978</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" s="3" t="s">
         <v>5981</v>
       </c>
@@ -38429,6 +38536,100 @@
       </c>
       <c r="C237" s="3" t="s">
         <v>478</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A238" s="16"/>
+      <c r="B238" s="16"/>
+      <c r="C238" s="16"/>
+      <c r="D238" s="16"/>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A239" s="7" t="s">
+        <v>5982</v>
+      </c>
+      <c r="B239" s="3" t="s">
+        <v>3614</v>
+      </c>
+      <c r="C239" s="3" t="s">
+        <v>3613</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A240" s="7" t="s">
+        <v>5984</v>
+      </c>
+      <c r="B240" s="3" t="s">
+        <v>3630</v>
+      </c>
+      <c r="C240" s="3" t="s">
+        <v>5983</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A241" s="7" t="s">
+        <v>5987</v>
+      </c>
+      <c r="B241" s="3" t="s">
+        <v>5985</v>
+      </c>
+      <c r="C241" s="3" t="s">
+        <v>5986</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A242" s="3" t="s">
+        <v>5988</v>
+      </c>
+      <c r="B242" s="3" t="s">
+        <v>5989</v>
+      </c>
+      <c r="C242" s="3" t="s">
+        <v>5990</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A243" s="3" t="s">
+        <v>5991</v>
+      </c>
+      <c r="B243" s="3" t="s">
+        <v>611</v>
+      </c>
+      <c r="C243" s="3" t="s">
+        <v>4368</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A244" s="3" t="s">
+        <v>5994</v>
+      </c>
+      <c r="B244" s="3" t="s">
+        <v>5992</v>
+      </c>
+      <c r="C244" s="3" t="s">
+        <v>5993</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A245" s="3" t="s">
+        <v>5997</v>
+      </c>
+      <c r="B245" s="3" t="s">
+        <v>5995</v>
+      </c>
+      <c r="C245" s="3" t="s">
+        <v>5996</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A246" s="3" t="s">
+        <v>5999</v>
+      </c>
+      <c r="B246" s="3" t="s">
+        <v>4159</v>
+      </c>
+      <c r="C246" s="3" t="s">
+        <v>5998</v>
       </c>
     </row>
   </sheetData>
@@ -38442,7 +38643,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -53034,7 +53235,7 @@
       <c r="B993" t="s">
         <v>2189</v>
       </c>
-      <c r="D993" s="17"/>
+      <c r="D993" s="20"/>
       <c r="E993" t="s">
         <v>362</v>
       </c>
@@ -53049,7 +53250,7 @@
       <c r="B994" s="12" t="s">
         <v>2191</v>
       </c>
-      <c r="D994" s="17"/>
+      <c r="D994" s="20"/>
       <c r="E994" t="s">
         <v>424</v>
       </c>
@@ -71154,4 +71355,100 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.140625" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="A1" s="17" t="s">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>6005</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>6001</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>6004</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="18"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>6006</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>512</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>6007</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>1900</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>6008</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>6002</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>6002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>5981</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>6003</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>6011</v>
+      </c>
+      <c r="B12" t="s">
+        <v>6009</v>
+      </c>
+      <c r="C12" t="s">
+        <v>6010</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>
--- a/Tradução - Maicon/Traduções_teste_maicon.xlsx
+++ b/Tradução - Maicon/Traduções_teste_maicon.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="225" windowWidth="14805" windowHeight="7890" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="285" windowWidth="14805" windowHeight="7830"/>
   </bookViews>
   <sheets>
     <sheet name="Traduções" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9220" uniqueCount="6012">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9347" uniqueCount="6096">
   <si>
     <t xml:space="preserve"> description_Or</t>
   </si>
@@ -18112,18 +18112,6 @@
     <t>bck_Address</t>
   </si>
   <si>
-    <t>Nome:</t>
-  </si>
-  <si>
-    <t>Name:</t>
-  </si>
-  <si>
-    <t>Endereço:</t>
-  </si>
-  <si>
-    <t>Address:</t>
-  </si>
-  <si>
     <t>bck_Zip_Code</t>
   </si>
   <si>
@@ -18136,18 +18124,6 @@
     <t>bck_Complement</t>
   </si>
   <si>
-    <t>Complemento:</t>
-  </si>
-  <si>
-    <t>Complement:</t>
-  </si>
-  <si>
-    <t>District:</t>
-  </si>
-  <si>
-    <t>Bairro:</t>
-  </si>
-  <si>
     <t>bck_District</t>
   </si>
   <si>
@@ -18160,30 +18136,12 @@
     <t>bck_Mailbox</t>
   </si>
   <si>
-    <t>Reference:</t>
-  </si>
-  <si>
-    <t>Referência:</t>
-  </si>
-  <si>
     <t>bck_Reference</t>
   </si>
   <si>
-    <t>Cidade:</t>
-  </si>
-  <si>
-    <t>City:</t>
-  </si>
-  <si>
     <t>bck_City</t>
   </si>
   <si>
-    <t>Documentos:</t>
-  </si>
-  <si>
-    <t>Documents:</t>
-  </si>
-  <si>
     <t>bck_Documents</t>
   </si>
   <si>
@@ -18557,13 +18515,307 @@
   </si>
   <si>
     <t>JointDebtor</t>
+  </si>
+  <si>
+    <t>ReportHeader_Emission</t>
+  </si>
+  <si>
+    <t>ReportHeader_Entry_Exit</t>
+  </si>
+  <si>
+    <t>Entrada/Saída</t>
+  </si>
+  <si>
+    <t>Entry/Exit</t>
+  </si>
+  <si>
+    <t>Tipo Documento</t>
+  </si>
+  <si>
+    <t>Document type</t>
+  </si>
+  <si>
+    <t>ReportHeader_Document_type</t>
+  </si>
+  <si>
+    <t>Tipo da Emissão</t>
+  </si>
+  <si>
+    <t>Type of Issue</t>
+  </si>
+  <si>
+    <t>ReportHeader_Type_Issure</t>
+  </si>
+  <si>
+    <t>ReportHeader_Finality</t>
+  </si>
+  <si>
+    <t>Type of Operation</t>
+  </si>
+  <si>
+    <t>ReportHeader_Type_Operation</t>
+  </si>
+  <si>
+    <t>ReportHeader_Value</t>
+  </si>
+  <si>
+    <t>ReportHeader_Edit</t>
+  </si>
+  <si>
+    <t>Abrir</t>
+  </si>
+  <si>
+    <t>bck_Open</t>
+  </si>
+  <si>
+    <t>bck_Access</t>
+  </si>
+  <si>
+    <t>bck_Code</t>
+  </si>
+  <si>
+    <t>Dígito Verificador</t>
+  </si>
+  <si>
+    <t>Verifying Digit</t>
+  </si>
+  <si>
+    <t>bck_Verifying_Digit</t>
+  </si>
+  <si>
+    <t>Processo</t>
+  </si>
+  <si>
+    <t>bck_Process</t>
+  </si>
+  <si>
+    <t>bck_Version</t>
+  </si>
+  <si>
+    <t>bck_Environment</t>
+  </si>
+  <si>
+    <t>Imprime Dados da Fatura</t>
+  </si>
+  <si>
+    <t>Print Invoice data</t>
+  </si>
+  <si>
+    <t>bck_Print_Invoice_Data</t>
+  </si>
+  <si>
+    <t>Contingência</t>
+  </si>
+  <si>
+    <t>Contingency</t>
+  </si>
+  <si>
+    <t>bck_Contingency</t>
+  </si>
+  <si>
+    <t>Justificativa</t>
+  </si>
+  <si>
+    <t>Justification</t>
+  </si>
+  <si>
+    <t>bck_Justification</t>
+  </si>
+  <si>
+    <t>Código de Fornecedor Estrangeiro</t>
+  </si>
+  <si>
+    <t>Foreign Supplier Code</t>
+  </si>
+  <si>
+    <t>ReportHeader_Foreign_Supplier_Code</t>
+  </si>
+  <si>
+    <t>Nota Referenciada</t>
+  </si>
+  <si>
+    <t>Referenced Note</t>
+  </si>
+  <si>
+    <t>ReportHeader_Referenced_Note</t>
+  </si>
+  <si>
+    <t>Chave de Acesso</t>
+  </si>
+  <si>
+    <t>Access key</t>
+  </si>
+  <si>
+    <t>ReportHeader_Access_key</t>
+  </si>
+  <si>
+    <t>ReportHeader_Responsible</t>
+  </si>
+  <si>
+    <t>Correção</t>
+  </si>
+  <si>
+    <t>Correction</t>
+  </si>
+  <si>
+    <t>ReportHeader_Correction</t>
+  </si>
+  <si>
+    <t>Modalidade</t>
+  </si>
+  <si>
+    <t>Modality</t>
+  </si>
+  <si>
+    <t>bck_Modality</t>
+  </si>
+  <si>
+    <t>Transportadora</t>
+  </si>
+  <si>
+    <t>Carrier</t>
+  </si>
+  <si>
+    <t>bck_Carrier</t>
+  </si>
+  <si>
+    <t>Seleção de Transportadoras</t>
+  </si>
+  <si>
+    <t>Selection of Carriers</t>
+  </si>
+  <si>
+    <t>windowTitle_SelectionOf_Carriers</t>
+  </si>
+  <si>
+    <t>Frete</t>
+  </si>
+  <si>
+    <t>Freight</t>
+  </si>
+  <si>
+    <t>bck_Freight</t>
+  </si>
+  <si>
+    <t>Porcentagem</t>
+  </si>
+  <si>
+    <t>bck_Percentage</t>
+  </si>
+  <si>
+    <t>Minimum value</t>
+  </si>
+  <si>
+    <t>bck_Minimum_Value</t>
+  </si>
+  <si>
+    <t>Nº da Placa</t>
+  </si>
+  <si>
+    <t>Plate No.</t>
+  </si>
+  <si>
+    <t>bck_Plate_No</t>
+  </si>
+  <si>
+    <t>Veículo</t>
+  </si>
+  <si>
+    <t>Vehicle</t>
+  </si>
+  <si>
+    <t>bck_Vehicle</t>
+  </si>
+  <si>
+    <t>windowTitle_SelectionOf_Selecting_States</t>
+  </si>
+  <si>
+    <t>Nº do Reboque</t>
+  </si>
+  <si>
+    <t>bck_No_Trailer</t>
+  </si>
+  <si>
+    <t>Trailer No.</t>
+  </si>
+  <si>
+    <t>Embarque</t>
+  </si>
+  <si>
+    <t>Boarding</t>
+  </si>
+  <si>
+    <t>bck_Boarding</t>
+  </si>
+  <si>
+    <t>District</t>
+  </si>
+  <si>
+    <t>Seleção de Cidades</t>
+  </si>
+  <si>
+    <t>windowTitle_SelectionOf_Selecting_Cities</t>
+  </si>
+  <si>
+    <t>Responsável pela Retirada</t>
+  </si>
+  <si>
+    <t>Responsible for Withdrawal</t>
+  </si>
+  <si>
+    <t>bck_Responsible_ Withdrawal</t>
+  </si>
+  <si>
+    <t>bck_Delivery</t>
+  </si>
+  <si>
+    <t>Espécie</t>
+  </si>
+  <si>
+    <t>Species</t>
+  </si>
+  <si>
+    <t>bck_Species</t>
+  </si>
+  <si>
+    <t>Marca</t>
+  </si>
+  <si>
+    <t>Mark</t>
+  </si>
+  <si>
+    <t>bck_Mark</t>
+  </si>
+  <si>
+    <t>Peso</t>
+  </si>
+  <si>
+    <t>Weight</t>
+  </si>
+  <si>
+    <t>bck_Weight</t>
+  </si>
+  <si>
+    <t>Líquido</t>
+  </si>
+  <si>
+    <t>Liquid</t>
+  </si>
+  <si>
+    <t>bck_Liquid</t>
+  </si>
+  <si>
+    <t>bck_Gross</t>
+  </si>
+  <si>
+    <t>Número de Selos</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -18605,6 +18857,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -18641,10 +18901,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -18693,11 +18954,15 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -18997,17 +19262,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:XFD246"/>
+  <dimension ref="A1:XFD289"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A233" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A239" sqref="A239"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A279" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B289" sqref="B289"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="42.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="49.28515625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="38.5703125" style="3" customWidth="1"/>
     <col min="3" max="3" width="50.42578125" style="3" customWidth="1"/>
     <col min="4" max="4" width="39" style="3" customWidth="1"/>
     <col min="5" max="5" width="49.42578125" customWidth="1"/>
@@ -37982,10 +38247,10 @@
         <v>5858</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>5863</v>
+        <v>2681</v>
       </c>
       <c r="C187" s="3" t="s">
-        <v>5864</v>
+        <v>2680</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
@@ -38004,92 +38269,92 @@
         <v>5862</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>5865</v>
+        <v>487</v>
       </c>
       <c r="C189" s="3" t="s">
-        <v>5866</v>
+        <v>486</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" s="3" t="s">
-        <v>5867</v>
+        <v>5863</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>5868</v>
+        <v>5864</v>
       </c>
       <c r="C190" s="3" t="s">
-        <v>5869</v>
+        <v>5865</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" s="3" t="s">
-        <v>5870</v>
+        <v>5866</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>5871</v>
+        <v>917</v>
       </c>
       <c r="C191" s="3" t="s">
-        <v>5872</v>
+        <v>916</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" s="3" t="s">
-        <v>5875</v>
+        <v>5867</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>5874</v>
+        <v>2706</v>
       </c>
       <c r="C192" s="3" t="s">
-        <v>5873</v>
+        <v>6075</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" s="3" t="s">
-        <v>5878</v>
+        <v>5870</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>5877</v>
+        <v>5869</v>
       </c>
       <c r="C193" s="3" t="s">
-        <v>5876</v>
+        <v>5868</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" s="3" t="s">
-        <v>5881</v>
+        <v>5871</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>5880</v>
+        <v>223</v>
       </c>
       <c r="C194" s="3" t="s">
-        <v>5879</v>
+        <v>237</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" s="3" t="s">
-        <v>5884</v>
+        <v>5872</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>5882</v>
+        <v>783</v>
       </c>
       <c r="C195" s="3" t="s">
-        <v>5883</v>
+        <v>782</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" s="3" t="s">
-        <v>5887</v>
+        <v>5873</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>5885</v>
+        <v>1186</v>
       </c>
       <c r="C196" s="3" t="s">
-        <v>5886</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" s="3" t="s">
-        <v>5888</v>
+        <v>5874</v>
       </c>
       <c r="B197" s="3" t="s">
         <v>224</v>
@@ -38100,29 +38365,29 @@
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" s="3" t="s">
-        <v>5891</v>
+        <v>5877</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>5889</v>
+        <v>5875</v>
       </c>
       <c r="C198" s="3" t="s">
-        <v>5890</v>
+        <v>5876</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" s="3" t="s">
-        <v>5894</v>
+        <v>5880</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>5892</v>
+        <v>5878</v>
       </c>
       <c r="C199" s="3" t="s">
-        <v>5893</v>
+        <v>5879</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" s="7" t="s">
-        <v>5895</v>
+        <v>5881</v>
       </c>
       <c r="B200" s="3" t="s">
         <v>223</v>
@@ -38133,18 +38398,18 @@
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" s="7" t="s">
-        <v>5898</v>
+        <v>5884</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>5896</v>
+        <v>5882</v>
       </c>
       <c r="C201" s="3" t="s">
-        <v>5897</v>
+        <v>5883</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" s="7" t="s">
-        <v>5899</v>
+        <v>5885</v>
       </c>
       <c r="B202" s="3" t="s">
         <v>3094</v>
@@ -38155,62 +38420,62 @@
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" s="7" t="s">
-        <v>5902</v>
+        <v>5888</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>5901</v>
+        <v>5887</v>
       </c>
       <c r="C203" s="3" t="s">
-        <v>5900</v>
+        <v>5886</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" s="7" t="s">
-        <v>5905</v>
+        <v>5891</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>5903</v>
+        <v>5889</v>
       </c>
       <c r="C204" s="3" t="s">
-        <v>5904</v>
+        <v>5890</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" s="7" t="s">
-        <v>5906</v>
+        <v>5892</v>
       </c>
       <c r="B205" s="3" t="s">
         <v>226</v>
       </c>
       <c r="C205" s="3" t="s">
-        <v>5907</v>
+        <v>5893</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206" s="7" t="s">
-        <v>5908</v>
+        <v>5894</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>5909</v>
+        <v>5895</v>
       </c>
       <c r="C206" s="3" t="s">
-        <v>5910</v>
+        <v>5896</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207" s="7" t="s">
-        <v>5913</v>
+        <v>5899</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>5911</v>
+        <v>5897</v>
       </c>
       <c r="C207" s="3" t="s">
-        <v>5912</v>
+        <v>5898</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" s="7" t="s">
-        <v>5914</v>
+        <v>5900</v>
       </c>
       <c r="B208" s="3" t="s">
         <v>220</v>
@@ -38221,7 +38486,7 @@
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" s="7" t="s">
-        <v>5915</v>
+        <v>5901</v>
       </c>
       <c r="B209" s="3" t="s">
         <v>1033</v>
@@ -38232,7 +38497,7 @@
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" s="7" t="s">
-        <v>5916</v>
+        <v>5902</v>
       </c>
       <c r="B210" s="3" t="s">
         <v>5826</v>
@@ -38243,7 +38508,7 @@
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211" s="3" t="s">
-        <v>5917</v>
+        <v>5903</v>
       </c>
       <c r="B211" s="3" t="s">
         <v>1182</v>
@@ -38254,7 +38519,7 @@
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" s="7" t="s">
-        <v>5918</v>
+        <v>5904</v>
       </c>
       <c r="B212" s="3" t="s">
         <v>224</v>
@@ -38265,7 +38530,7 @@
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213" s="7" t="s">
-        <v>5919</v>
+        <v>5905</v>
       </c>
       <c r="B213" s="3" t="s">
         <v>3491</v>
@@ -38276,7 +38541,7 @@
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" s="3" t="s">
-        <v>5920</v>
+        <v>5906</v>
       </c>
       <c r="B214" s="3" t="s">
         <v>863</v>
@@ -38287,106 +38552,106 @@
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" s="3" t="s">
-        <v>5923</v>
+        <v>5909</v>
       </c>
       <c r="B215" s="3" t="s">
-        <v>5921</v>
+        <v>5907</v>
       </c>
       <c r="C215" s="3" t="s">
-        <v>5922</v>
+        <v>5908</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" s="3" t="s">
-        <v>5926</v>
+        <v>5912</v>
       </c>
       <c r="B216" s="3" t="s">
-        <v>5924</v>
+        <v>5910</v>
       </c>
       <c r="C216" s="3" t="s">
-        <v>5925</v>
+        <v>5911</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" s="3" t="s">
-        <v>5929</v>
+        <v>5915</v>
       </c>
       <c r="B217" s="3" t="s">
-        <v>5927</v>
+        <v>5913</v>
       </c>
       <c r="C217" s="3" t="s">
-        <v>5928</v>
+        <v>5914</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" s="3" t="s">
-        <v>5932</v>
+        <v>5918</v>
       </c>
       <c r="B218" s="3" t="s">
-        <v>5930</v>
+        <v>5916</v>
       </c>
       <c r="C218" s="3" t="s">
-        <v>5931</v>
+        <v>5917</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219" s="3" t="s">
-        <v>5935</v>
+        <v>5921</v>
       </c>
       <c r="B219" s="3" t="s">
-        <v>5934</v>
+        <v>5920</v>
       </c>
       <c r="C219" s="3" t="s">
-        <v>5933</v>
+        <v>5919</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220" s="3" t="s">
-        <v>5938</v>
+        <v>5924</v>
       </c>
       <c r="B220" s="3" t="s">
-        <v>5936</v>
+        <v>5922</v>
       </c>
       <c r="C220" s="3" t="s">
-        <v>5937</v>
+        <v>5923</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221" s="7" t="s">
-        <v>5940</v>
+        <v>5926</v>
       </c>
       <c r="B221" s="3" t="s">
         <v>4239</v>
       </c>
       <c r="C221" s="3" t="s">
-        <v>5939</v>
+        <v>5925</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222" s="3" t="s">
-        <v>5943</v>
+        <v>5929</v>
       </c>
       <c r="B222" s="3" t="s">
-        <v>5941</v>
+        <v>5927</v>
       </c>
       <c r="C222" s="3" t="s">
-        <v>5942</v>
+        <v>5928</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223" s="7" t="s">
-        <v>5946</v>
+        <v>5932</v>
       </c>
       <c r="B223" s="3" t="s">
-        <v>5944</v>
+        <v>5930</v>
       </c>
       <c r="C223" s="3" t="s">
-        <v>5945</v>
+        <v>5931</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224" s="7" t="s">
-        <v>5947</v>
+        <v>5933</v>
       </c>
       <c r="B224" s="3" t="s">
         <v>3323</v>
@@ -38397,7 +38662,7 @@
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" s="7" t="s">
-        <v>5948</v>
+        <v>5934</v>
       </c>
       <c r="B225" s="3" t="s">
         <v>1198</v>
@@ -38408,98 +38673,98 @@
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" s="7" t="s">
-        <v>5951</v>
+        <v>5937</v>
       </c>
       <c r="B226" s="3" t="s">
-        <v>5949</v>
+        <v>5935</v>
       </c>
       <c r="C226" s="3" t="s">
-        <v>5950</v>
+        <v>5936</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" s="7" t="s">
-        <v>5954</v>
+        <v>5940</v>
       </c>
       <c r="B227" s="3" t="s">
-        <v>5952</v>
+        <v>5938</v>
       </c>
       <c r="C227" s="3" t="s">
-        <v>5953</v>
+        <v>5939</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" s="7" t="s">
-        <v>5957</v>
+        <v>5943</v>
       </c>
       <c r="B228" s="3" t="s">
-        <v>5955</v>
+        <v>5941</v>
       </c>
       <c r="C228" s="3" t="s">
-        <v>5956</v>
+        <v>5942</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" s="3" t="s">
-        <v>5960</v>
+        <v>5946</v>
       </c>
       <c r="B229" s="3" t="s">
-        <v>5958</v>
+        <v>5944</v>
       </c>
       <c r="C229" s="3" t="s">
-        <v>5959</v>
+        <v>5945</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" s="3" t="s">
-        <v>5963</v>
+        <v>5949</v>
       </c>
       <c r="B230" s="3" t="s">
-        <v>5961</v>
+        <v>5947</v>
       </c>
       <c r="C230" s="3" t="s">
-        <v>5962</v>
+        <v>5948</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" s="3" t="s">
-        <v>5965</v>
+        <v>5951</v>
       </c>
       <c r="B231" s="3" t="s">
-        <v>5964</v>
+        <v>5950</v>
       </c>
       <c r="C231" s="3" t="s">
-        <v>5964</v>
+        <v>5950</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" s="7" t="s">
-        <v>5968</v>
+        <v>5954</v>
       </c>
       <c r="B232" s="3" t="s">
-        <v>5966</v>
+        <v>5952</v>
       </c>
       <c r="C232" s="3" t="s">
-        <v>5967</v>
+        <v>5953</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" s="3" t="s">
-        <v>5971</v>
+        <v>5957</v>
       </c>
       <c r="B233" s="3" t="s">
-        <v>5969</v>
+        <v>5955</v>
       </c>
       <c r="C233" s="3" t="s">
-        <v>5970</v>
+        <v>5956</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" s="3" t="s">
-        <v>5973</v>
+        <v>5959</v>
       </c>
       <c r="B234" s="3" t="s">
-        <v>5972</v>
+        <v>5958</v>
       </c>
       <c r="C234" s="3" t="s">
         <v>3623</v>
@@ -38507,32 +38772,32 @@
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" s="3" t="s">
-        <v>5976</v>
+        <v>5962</v>
       </c>
       <c r="B235" s="3" t="s">
-        <v>5974</v>
+        <v>5960</v>
       </c>
       <c r="C235" s="3" t="s">
-        <v>5975</v>
+        <v>5961</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" s="3" t="s">
-        <v>5979</v>
+        <v>5965</v>
       </c>
       <c r="B236" s="3" t="s">
-        <v>5977</v>
+        <v>5963</v>
       </c>
       <c r="C236" s="3" t="s">
-        <v>5978</v>
+        <v>5964</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" s="3" t="s">
-        <v>5981</v>
+        <v>5967</v>
       </c>
       <c r="B237" s="3" t="s">
-        <v>5980</v>
+        <v>5966</v>
       </c>
       <c r="C237" s="3" t="s">
         <v>478</v>
@@ -38546,7 +38811,7 @@
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239" s="7" t="s">
-        <v>5982</v>
+        <v>5968</v>
       </c>
       <c r="B239" s="3" t="s">
         <v>3614</v>
@@ -38557,40 +38822,40 @@
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240" s="7" t="s">
-        <v>5984</v>
+        <v>5970</v>
       </c>
       <c r="B240" s="3" t="s">
         <v>3630</v>
       </c>
       <c r="C240" s="3" t="s">
-        <v>5983</v>
+        <v>5969</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241" s="7" t="s">
-        <v>5987</v>
+        <v>5973</v>
       </c>
       <c r="B241" s="3" t="s">
-        <v>5985</v>
+        <v>5971</v>
       </c>
       <c r="C241" s="3" t="s">
-        <v>5986</v>
+        <v>5972</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242" s="3" t="s">
-        <v>5988</v>
+        <v>5974</v>
       </c>
       <c r="B242" s="3" t="s">
-        <v>5989</v>
+        <v>5975</v>
       </c>
       <c r="C242" s="3" t="s">
-        <v>5990</v>
+        <v>5976</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243" s="3" t="s">
-        <v>5991</v>
+        <v>5977</v>
       </c>
       <c r="B243" s="3" t="s">
         <v>611</v>
@@ -38601,35 +38866,502 @@
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244" s="3" t="s">
-        <v>5994</v>
+        <v>5980</v>
       </c>
       <c r="B244" s="3" t="s">
-        <v>5992</v>
+        <v>5978</v>
       </c>
       <c r="C244" s="3" t="s">
-        <v>5993</v>
+        <v>5979</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245" s="3" t="s">
-        <v>5997</v>
+        <v>5983</v>
       </c>
       <c r="B245" s="3" t="s">
-        <v>5995</v>
+        <v>5981</v>
       </c>
       <c r="C245" s="3" t="s">
-        <v>5996</v>
+        <v>5982</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246" s="3" t="s">
-        <v>5999</v>
+        <v>5985</v>
       </c>
       <c r="B246" s="3" t="s">
         <v>4159</v>
       </c>
       <c r="C246" s="3" t="s">
+        <v>5984</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A247" s="7" t="s">
         <v>5998</v>
+      </c>
+      <c r="B247" s="3" t="s">
+        <v>5829</v>
+      </c>
+      <c r="C247" s="3" t="s">
+        <v>5830</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A248" s="7" t="s">
+        <v>5999</v>
+      </c>
+      <c r="B248" s="3" t="s">
+        <v>6000</v>
+      </c>
+      <c r="C248" s="3" t="s">
+        <v>6001</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A249" s="7" t="s">
+        <v>6004</v>
+      </c>
+      <c r="B249" s="3" t="s">
+        <v>6002</v>
+      </c>
+      <c r="C249" s="3" t="s">
+        <v>6003</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A250" s="7" t="s">
+        <v>6007</v>
+      </c>
+      <c r="B250" s="3" t="s">
+        <v>6005</v>
+      </c>
+      <c r="C250" s="3" t="s">
+        <v>6006</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A251" s="7" t="s">
+        <v>6008</v>
+      </c>
+      <c r="B251" s="3" t="s">
+        <v>1403</v>
+      </c>
+      <c r="C251" s="3" t="s">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A252" s="7" t="s">
+        <v>6010</v>
+      </c>
+      <c r="B252" s="3" t="s">
+        <v>5114</v>
+      </c>
+      <c r="C252" s="3" t="s">
+        <v>6009</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A253" s="7" t="s">
+        <v>6011</v>
+      </c>
+      <c r="B253" s="3" t="s">
+        <v>3878</v>
+      </c>
+      <c r="C253" s="3" t="s">
+        <v>3877</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A254" s="7" t="s">
+        <v>6012</v>
+      </c>
+      <c r="B254" s="3" t="s">
+        <v>1206</v>
+      </c>
+      <c r="C254" s="3" t="s">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A255" s="7" t="s">
+        <v>6014</v>
+      </c>
+      <c r="B255" s="3" t="s">
+        <v>6013</v>
+      </c>
+      <c r="C255" s="3" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A256" s="7" t="s">
+        <v>6015</v>
+      </c>
+      <c r="B256" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="C256" s="3" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A257" s="7" t="s">
+        <v>6016</v>
+      </c>
+      <c r="B257" s="3" t="s">
+        <v>802</v>
+      </c>
+      <c r="C257" s="3" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A258" s="3" t="s">
+        <v>6019</v>
+      </c>
+      <c r="B258" s="3" t="s">
+        <v>6017</v>
+      </c>
+      <c r="C258" s="3" t="s">
+        <v>6018</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A259" s="3" t="s">
+        <v>6021</v>
+      </c>
+      <c r="B259" s="3" t="s">
+        <v>6020</v>
+      </c>
+      <c r="C259" s="3" t="s">
+        <v>3040</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A260" s="3" t="s">
+        <v>6022</v>
+      </c>
+      <c r="B260" s="3" t="s">
+        <v>3894</v>
+      </c>
+      <c r="C260" s="3" t="s">
+        <v>3893</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A261" s="3" t="s">
+        <v>6023</v>
+      </c>
+      <c r="B261" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="C261" s="3" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A262" s="3" t="s">
+        <v>6026</v>
+      </c>
+      <c r="B262" s="3" t="s">
+        <v>6024</v>
+      </c>
+      <c r="C262" s="3" t="s">
+        <v>6025</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A263" s="3" t="s">
+        <v>6029</v>
+      </c>
+      <c r="B263" s="3" t="s">
+        <v>6027</v>
+      </c>
+      <c r="C263" s="3" t="s">
+        <v>6028</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A264" s="3" t="s">
+        <v>6032</v>
+      </c>
+      <c r="B264" s="3" t="s">
+        <v>6030</v>
+      </c>
+      <c r="C264" s="3" t="s">
+        <v>6031</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A265" s="7" t="s">
+        <v>6035</v>
+      </c>
+      <c r="B265" s="20" t="s">
+        <v>6033</v>
+      </c>
+      <c r="C265" s="3" t="s">
+        <v>6034</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A266" s="7" t="s">
+        <v>6038</v>
+      </c>
+      <c r="B266" s="3" t="s">
+        <v>6036</v>
+      </c>
+      <c r="C266" s="3" t="s">
+        <v>6037</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A267" s="7" t="s">
+        <v>6041</v>
+      </c>
+      <c r="B267" s="3" t="s">
+        <v>6039</v>
+      </c>
+      <c r="C267" s="3" t="s">
+        <v>6040</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A268" s="7" t="s">
+        <v>6042</v>
+      </c>
+      <c r="B268" s="3" t="s">
+        <v>3197</v>
+      </c>
+      <c r="C268" s="3" t="s">
+        <v>3196</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A269" s="7" t="s">
+        <v>6045</v>
+      </c>
+      <c r="B269" s="3" t="s">
+        <v>6043</v>
+      </c>
+      <c r="C269" s="3" t="s">
+        <v>6044</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A270" s="3" t="s">
+        <v>6048</v>
+      </c>
+      <c r="B270" s="3" t="s">
+        <v>6046</v>
+      </c>
+      <c r="C270" s="3" t="s">
+        <v>6047</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A271" s="3" t="s">
+        <v>6051</v>
+      </c>
+      <c r="B271" s="3" t="s">
+        <v>6049</v>
+      </c>
+      <c r="C271" s="3" t="s">
+        <v>6050</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A272" s="7" t="s">
+        <v>6054</v>
+      </c>
+      <c r="B272" s="3" t="s">
+        <v>6052</v>
+      </c>
+      <c r="C272" s="3" t="s">
+        <v>6053</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A273" s="3" t="s">
+        <v>6057</v>
+      </c>
+      <c r="B273" s="3" t="s">
+        <v>6055</v>
+      </c>
+      <c r="C273" s="3" t="s">
+        <v>6056</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A274" s="3" t="s">
+        <v>6059</v>
+      </c>
+      <c r="B274" s="3" t="s">
+        <v>6058</v>
+      </c>
+      <c r="C274" s="3" t="s">
+        <v>2942</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A275" s="3" t="s">
+        <v>6061</v>
+      </c>
+      <c r="B275" s="3" t="s">
+        <v>2034</v>
+      </c>
+      <c r="C275" s="3" t="s">
+        <v>6060</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A276" s="3" t="s">
+        <v>6064</v>
+      </c>
+      <c r="B276" s="3" t="s">
+        <v>6062</v>
+      </c>
+      <c r="C276" s="3" t="s">
+        <v>6063</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A277" s="3" t="s">
+        <v>6067</v>
+      </c>
+      <c r="B277" s="3" t="s">
+        <v>6065</v>
+      </c>
+      <c r="C277" s="3" t="s">
+        <v>6066</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A278" s="7" t="s">
+        <v>6068</v>
+      </c>
+      <c r="B278" s="3" t="s">
+        <v>4223</v>
+      </c>
+      <c r="C278" s="3" t="s">
+        <v>5601</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A279" s="3" t="s">
+        <v>6070</v>
+      </c>
+      <c r="B279" s="3" t="s">
+        <v>6069</v>
+      </c>
+      <c r="C279" s="3" t="s">
+        <v>6071</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A280" s="3" t="s">
+        <v>6074</v>
+      </c>
+      <c r="B280" s="3" t="s">
+        <v>6072</v>
+      </c>
+      <c r="C280" s="3" t="s">
+        <v>6073</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A281" s="7" t="s">
+        <v>6077</v>
+      </c>
+      <c r="B281" s="3" t="s">
+        <v>6076</v>
+      </c>
+      <c r="C281" s="3" t="s">
+        <v>5555</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A282" s="3" t="s">
+        <v>6080</v>
+      </c>
+      <c r="B282" s="3" t="s">
+        <v>6078</v>
+      </c>
+      <c r="C282" s="3" t="s">
+        <v>6079</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A283" s="3" t="s">
+        <v>6081</v>
+      </c>
+      <c r="B283" s="3" t="s">
+        <v>1116</v>
+      </c>
+      <c r="C283" s="3" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A284" s="3" t="s">
+        <v>6084</v>
+      </c>
+      <c r="B284" s="3" t="s">
+        <v>6082</v>
+      </c>
+      <c r="C284" s="3" t="s">
+        <v>6083</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A285" s="3" t="s">
+        <v>6087</v>
+      </c>
+      <c r="B285" s="3" t="s">
+        <v>6085</v>
+      </c>
+      <c r="C285" s="3" t="s">
+        <v>6086</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A286" s="3" t="s">
+        <v>6090</v>
+      </c>
+      <c r="B286" s="3" t="s">
+        <v>6088</v>
+      </c>
+      <c r="C286" s="3" t="s">
+        <v>6089</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A287" s="3" t="s">
+        <v>6093</v>
+      </c>
+      <c r="B287" s="3" t="s">
+        <v>6091</v>
+      </c>
+      <c r="C287" s="3" t="s">
+        <v>6092</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A288" s="3" t="s">
+        <v>6094</v>
+      </c>
+      <c r="B288" s="3" t="s">
+        <v>1527</v>
+      </c>
+      <c r="C288" s="3" t="s">
+        <v>1526</v>
+      </c>
+    </row>
+    <row r="289" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B289" s="3" t="s">
+        <v>6095</v>
       </c>
     </row>
   </sheetData>
@@ -38772,7 +39504,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2396"/>
   <sheetViews>
-    <sheetView topLeftCell="B2113" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="B2131" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
@@ -53235,7 +53967,7 @@
       <c r="B993" t="s">
         <v>2189</v>
       </c>
-      <c r="D993" s="20"/>
+      <c r="D993" s="21"/>
       <c r="E993" t="s">
         <v>362</v>
       </c>
@@ -53250,7 +53982,7 @@
       <c r="B994" s="12" t="s">
         <v>2191</v>
       </c>
-      <c r="D994" s="20"/>
+      <c r="D994" s="21"/>
       <c r="E994" t="s">
         <v>424</v>
       </c>
@@ -71361,7 +72093,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
@@ -71374,18 +72106,18 @@
   <sheetData>
     <row r="1" spans="1:3" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A1" s="17" t="s">
-        <v>6000</v>
+        <v>5986</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>6005</v>
+        <v>5991</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>6001</v>
+        <v>5987</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>6004</v>
+        <v>5990</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -71395,7 +72127,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>6006</v>
+        <v>5992</v>
       </c>
       <c r="B5" s="19" t="s">
         <v>512</v>
@@ -71406,7 +72138,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>6007</v>
+        <v>5993</v>
       </c>
       <c r="B6" s="19" t="s">
         <v>1900</v>
@@ -71417,21 +72149,21 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>6008</v>
+        <v>5994</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>6002</v>
+        <v>5988</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>6002</v>
+        <v>5988</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>5981</v>
+        <v>5967</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>6003</v>
+        <v>5989</v>
       </c>
       <c r="C8" s="18" t="s">
         <v>478</v>
@@ -71439,13 +72171,13 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>6011</v>
+        <v>5997</v>
       </c>
       <c r="B12" t="s">
-        <v>6009</v>
+        <v>5995</v>
       </c>
       <c r="C12" t="s">
-        <v>6010</v>
+        <v>5996</v>
       </c>
     </row>
   </sheetData>

--- a/Tradução - Maicon/Traduções_teste_maicon.xlsx
+++ b/Tradução - Maicon/Traduções_teste_maicon.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9347" uniqueCount="6096">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9581" uniqueCount="6301">
   <si>
     <t xml:space="preserve"> description_Or</t>
   </si>
@@ -18145,9 +18145,6 @@
     <t>bck_Documents</t>
   </si>
   <si>
-    <t>dgt_Type</t>
-  </si>
-  <si>
     <t>Telefones:</t>
   </si>
   <si>
@@ -18244,12 +18241,6 @@
     <t>bck_Description</t>
   </si>
   <si>
-    <t>Observação:</t>
-  </si>
-  <si>
-    <t>Note:</t>
-  </si>
-  <si>
     <t>bck_Note</t>
   </si>
   <si>
@@ -18809,13 +18800,660 @@
   </si>
   <si>
     <t>Número de Selos</t>
+  </si>
+  <si>
+    <t>Number of stamps</t>
+  </si>
+  <si>
+    <t>bck_Number_Stamps</t>
+  </si>
+  <si>
+    <t>bck_Initial_Data</t>
+  </si>
+  <si>
+    <t>Referenciados</t>
+  </si>
+  <si>
+    <t>Referenced</t>
+  </si>
+  <si>
+    <t>bck_Referenced</t>
+  </si>
+  <si>
+    <t>bck_Items</t>
+  </si>
+  <si>
+    <t>Itens</t>
+  </si>
+  <si>
+    <t>Items</t>
+  </si>
+  <si>
+    <t>Parcelamento</t>
+  </si>
+  <si>
+    <t>Installment</t>
+  </si>
+  <si>
+    <t>bck_Installment</t>
+  </si>
+  <si>
+    <t>Note</t>
+  </si>
+  <si>
+    <t>ReportHeader_Correction_Nfe</t>
+  </si>
+  <si>
+    <t>Correções</t>
+  </si>
+  <si>
+    <t>Corrections</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>bck_Comments</t>
+  </si>
+  <si>
+    <t>Documentos Fiscais Emitidos</t>
+  </si>
+  <si>
+    <t>Fiscal Documents Issued</t>
+  </si>
+  <si>
+    <t>bck_Fiscal_Documents_Issued</t>
+  </si>
+  <si>
+    <t>Criado em</t>
+  </si>
+  <si>
+    <t>Created on</t>
+  </si>
+  <si>
+    <t>bck_Created_on</t>
+  </si>
+  <si>
+    <t>Abas</t>
+  </si>
+  <si>
+    <t>Tabs</t>
+  </si>
+  <si>
+    <t>bck_Tabs</t>
+  </si>
+  <si>
+    <t>bck_List</t>
+  </si>
+  <si>
+    <t>Salvar NF-e</t>
+  </si>
+  <si>
+    <t>Save NF-e</t>
+  </si>
+  <si>
+    <t>toolTip_Save_Nfe</t>
+  </si>
+  <si>
+    <t>Pré-vizualizar da Danfe</t>
+  </si>
+  <si>
+    <t>Previewer of Danfe</t>
+  </si>
+  <si>
+    <t>toolTip_Previewer_Danfe</t>
+  </si>
+  <si>
+    <t>Enviar para a Pessoa.</t>
+  </si>
+  <si>
+    <t>Send to a Person.</t>
+  </si>
+  <si>
+    <t>toolTip_Send_Person</t>
+  </si>
+  <si>
+    <t>Consultar Sefaz.</t>
+  </si>
+  <si>
+    <t>Consult Sefaz.</t>
+  </si>
+  <si>
+    <t>toolTip_Consult_Sefaz</t>
+  </si>
+  <si>
+    <t>Importar arquivo XML de uma NFe.</t>
+  </si>
+  <si>
+    <t>toolTip_Import_XML</t>
+  </si>
+  <si>
+    <t>Import XML file from a NFe.</t>
+  </si>
+  <si>
+    <t>A NF-e possui Carta de Correção Eletrônica aprovada.</t>
+  </si>
+  <si>
+    <t>The NF-e has Electronic Correction Charter approved.</t>
+  </si>
+  <si>
+    <t>toolTip_Electronic_Charter_Approved</t>
+  </si>
+  <si>
+    <t>Situação da NF-e alterada manualmente.</t>
+  </si>
+  <si>
+    <t>Situation of the NF-e changed manually.</t>
+  </si>
+  <si>
+    <t>toolTip_Situation_Changed_Manually</t>
+  </si>
+  <si>
+    <t>bck_Discounts</t>
+  </si>
+  <si>
+    <t>Total Discounts:</t>
+  </si>
+  <si>
+    <t>bck_Total_Discounts</t>
+  </si>
+  <si>
+    <t>Total de Descontos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valor Removido </t>
+  </si>
+  <si>
+    <t>Value Removed</t>
+  </si>
+  <si>
+    <t>bck_Value_Removed</t>
+  </si>
+  <si>
+    <t>Movimentação de Estoque</t>
+  </si>
+  <si>
+    <t>Inventory Movement</t>
+  </si>
+  <si>
+    <t>bck_Inventory_Movement</t>
+  </si>
+  <si>
+    <t>Types of Selection Moving</t>
+  </si>
+  <si>
+    <t>windowTitle_SelectionOf_Moving</t>
+  </si>
+  <si>
+    <t>Local de Destino</t>
+  </si>
+  <si>
+    <t>Destination Location</t>
+  </si>
+  <si>
+    <t>bck_Destination_Location</t>
+  </si>
+  <si>
+    <t>Seleção de Locais de Destino</t>
+  </si>
+  <si>
+    <t>Destination Locations Selection</t>
+  </si>
+  <si>
+    <t>windowTitle_SelectionOf_Destination_Locations</t>
+  </si>
+  <si>
+    <t>bck_Unit</t>
+  </si>
+  <si>
+    <t>Seleção de Unidades de Medida</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Units of Measure </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>election</t>
+    </r>
+  </si>
+  <si>
+    <t>windowTitle_SelectionOf_Units_Measure</t>
+  </si>
+  <si>
+    <t>bck_Average_Cost</t>
+  </si>
+  <si>
+    <t>Reserva de Estoque</t>
+  </si>
+  <si>
+    <t>Inventory Reserve</t>
+  </si>
+  <si>
+    <t>bck_Inventory_Reserve</t>
+  </si>
+  <si>
+    <t>Aplicar local de destino para os demais produtos.</t>
+  </si>
+  <si>
+    <t>Apply destination place for other products.</t>
+  </si>
+  <si>
+    <t>toolTip_Apply_Destination_Products</t>
+  </si>
+  <si>
+    <t>Quantidade Reservada</t>
+  </si>
+  <si>
+    <t>Amount Reserved</t>
+  </si>
+  <si>
+    <t>bck_Amount_Reserved</t>
+  </si>
+  <si>
+    <t>Quantidade em Estoque</t>
+  </si>
+  <si>
+    <t>Quantity in Stock</t>
+  </si>
+  <si>
+    <t>bck_Quantity_Stock</t>
+  </si>
+  <si>
+    <t>Data de Expiração</t>
+  </si>
+  <si>
+    <t>Expiration Date</t>
+  </si>
+  <si>
+    <t>bck_Expiration_Date</t>
+  </si>
+  <si>
+    <t>Message_Validate_Date</t>
+  </si>
+  <si>
+    <t>A data de REFERÊNCIA deve ser maior ou igual  a data de  CRIAÇÃO.</t>
+  </si>
+  <si>
+    <t>The date of REFERENCE should be greater than or equal to CREATION date.</t>
+  </si>
+  <si>
+    <t>Nº da Ordem de Compra</t>
+  </si>
+  <si>
+    <t>Purchase Order No.</t>
+  </si>
+  <si>
+    <t>bck_Purchase_Order</t>
+  </si>
+  <si>
+    <t>bck_Type</t>
+  </si>
+  <si>
+    <t>emitted fiscal documents</t>
+  </si>
+  <si>
+    <t>imput fiscal documents</t>
+  </si>
+  <si>
+    <t>Entradas de Fornecedores</t>
+  </si>
+  <si>
+    <t>Suppliers Entries</t>
+  </si>
+  <si>
+    <t>bck_Suppliers_Entries</t>
+  </si>
+  <si>
+    <t>Data de Lançamento</t>
+  </si>
+  <si>
+    <t>Release Date</t>
+  </si>
+  <si>
+    <t>bck_Release_Date</t>
+  </si>
+  <si>
+    <t>Conta Débito</t>
+  </si>
+  <si>
+    <t>Debit Account</t>
+  </si>
+  <si>
+    <t>bck_Debit_Account</t>
+  </si>
+  <si>
+    <t>Seleção de Contas - Débito</t>
+  </si>
+  <si>
+    <t>Selection of Accounts - Debit</t>
+  </si>
+  <si>
+    <t>Centro de Custo de Débito</t>
+  </si>
+  <si>
+    <t>Debit Cost Center</t>
+  </si>
+  <si>
+    <t>bck_Debit_Cost_Center</t>
+  </si>
+  <si>
+    <t>windowTitle_SelectionOf_Accounts_Debit</t>
+  </si>
+  <si>
+    <t>Valor Lançamento</t>
+  </si>
+  <si>
+    <t>Value Release</t>
+  </si>
+  <si>
+    <t>bck_Value_Release</t>
+  </si>
+  <si>
+    <t>Conta Crédito</t>
+  </si>
+  <si>
+    <t>Account Credit</t>
+  </si>
+  <si>
+    <t>bck_Account_Credit</t>
+  </si>
+  <si>
+    <t>Seleção de Contas - Crédito</t>
+  </si>
+  <si>
+    <t>Selection of Accounts - Credit</t>
+  </si>
+  <si>
+    <t>windowTitle_SelectionOf_Accounts_Credit</t>
+  </si>
+  <si>
+    <t>Centro de Custo de Crédito</t>
+  </si>
+  <si>
+    <t>Credit Cost Center</t>
+  </si>
+  <si>
+    <t>bck_Credit_Cost_Center</t>
+  </si>
+  <si>
+    <t>Histórico Padrão</t>
+  </si>
+  <si>
+    <t>History Standard</t>
+  </si>
+  <si>
+    <t>bck_History_Standard</t>
+  </si>
+  <si>
+    <t>Seleção de Histórico Padrão</t>
+  </si>
+  <si>
+    <t>History selection Standard</t>
+  </si>
+  <si>
+    <t>windowTitle_SelectionOf_History_Standard</t>
+  </si>
+  <si>
+    <t>texto grande</t>
+  </si>
+  <si>
+    <t>large text</t>
+  </si>
+  <si>
+    <t>bck_large_text</t>
+  </si>
+  <si>
+    <t>Histórico Montado</t>
+  </si>
+  <si>
+    <t>History Mounted</t>
+  </si>
+  <si>
+    <t>bck_History_Mounted</t>
+  </si>
+  <si>
+    <t>texto grande não editável</t>
+  </si>
+  <si>
+    <t>not editable large text</t>
+  </si>
+  <si>
+    <t>bck_Not_Editable_Large_Text</t>
+  </si>
+  <si>
+    <t>bck_Automatic</t>
+  </si>
+  <si>
+    <t>Alterado Manualmente</t>
+  </si>
+  <si>
+    <t>Manually Changed</t>
+  </si>
+  <si>
+    <t>bck_Manually_Changed</t>
+  </si>
+  <si>
+    <t>Valor Total a Lançar</t>
+  </si>
+  <si>
+    <t>Total value to Launch</t>
+  </si>
+  <si>
+    <t>bck_Total_Value_Launch</t>
+  </si>
+  <si>
+    <t>Faltante</t>
+  </si>
+  <si>
+    <t>Missing</t>
+  </si>
+  <si>
+    <t>bck_Missing</t>
+  </si>
+  <si>
+    <t>Débitos</t>
+  </si>
+  <si>
+    <t>Debts</t>
+  </si>
+  <si>
+    <t>bck_Debts</t>
+  </si>
+  <si>
+    <t>Lançados</t>
+  </si>
+  <si>
+    <t>Launched</t>
+  </si>
+  <si>
+    <t>bck_Launched</t>
+  </si>
+  <si>
+    <t>texto não editável</t>
+  </si>
+  <si>
+    <t>not editable text</t>
+  </si>
+  <si>
+    <t>bck_not_editable_text</t>
+  </si>
+  <si>
+    <t>bck_Credits</t>
+  </si>
+  <si>
+    <t>Data do Lançamento</t>
+  </si>
+  <si>
+    <t>ReportHeader_Release_Date</t>
+  </si>
+  <si>
+    <t>Data de Criação do Lançamento</t>
+  </si>
+  <si>
+    <t>Release Date Creation</t>
+  </si>
+  <si>
+    <t>ReportHeader_Release_Date_Creation</t>
+  </si>
+  <si>
+    <t>ReportHeader_Debit_Account</t>
+  </si>
+  <si>
+    <t>Responsável pela Alteração</t>
+  </si>
+  <si>
+    <t>Responsible for Change</t>
+  </si>
+  <si>
+    <t>ReportHeader_Responsible_Change</t>
+  </si>
+  <si>
+    <t>Valor Total Lançado a Débito</t>
+  </si>
+  <si>
+    <t>Total Value Launched Debit</t>
+  </si>
+  <si>
+    <t>ReportHeader_Responsible_Total_Value_Launched_Debit</t>
+  </si>
+  <si>
+    <t>Valor Total Lançado a Crédito</t>
+  </si>
+  <si>
+    <t>Total Value Launched Credit</t>
+  </si>
+  <si>
+    <t>ReportHeader_Responsible_Total_Value_Launched_Credit</t>
+  </si>
+  <si>
+    <t>Nota</t>
+  </si>
+  <si>
+    <t>bck_Nota</t>
+  </si>
+  <si>
+    <t>bck_Access_Key_NFe</t>
+  </si>
+  <si>
+    <t>Chave de Acesso NFe</t>
+  </si>
+  <si>
+    <t>Access Key NFe</t>
+  </si>
+  <si>
+    <t>Aceite</t>
+  </si>
+  <si>
+    <t>Acceptance</t>
+  </si>
+  <si>
+    <t>bck_Acceptance</t>
+  </si>
+  <si>
+    <t>Data do Aceite</t>
+  </si>
+  <si>
+    <t>Accept Date</t>
+  </si>
+  <si>
+    <t>bck_Accept_Date</t>
+  </si>
+  <si>
+    <t>chBox_</t>
+  </si>
+  <si>
+    <t>check box content</t>
+  </si>
+  <si>
+    <t>Liberar Quitação</t>
+  </si>
+  <si>
+    <t>Free Discharge</t>
+  </si>
+  <si>
+    <t>chBox_Free_Discharge</t>
+  </si>
+  <si>
+    <t>Ordens</t>
+  </si>
+  <si>
+    <t>Instructions</t>
+  </si>
+  <si>
+    <t>bck_Instructions</t>
+  </si>
+  <si>
+    <t>De Compra</t>
+  </si>
+  <si>
+    <t>bck_Purchase</t>
+  </si>
+  <si>
+    <t>Select Purchase Order</t>
+  </si>
+  <si>
+    <t>toolTip_Purchase_Order</t>
+  </si>
+  <si>
+    <t>De Serviço</t>
+  </si>
+  <si>
+    <t>Of Service</t>
+  </si>
+  <si>
+    <t>bck_Of_Service</t>
+  </si>
+  <si>
+    <t>Seleção de Ordens de Serviço</t>
+  </si>
+  <si>
+    <t>Selective Service Orders</t>
+  </si>
+  <si>
+    <t>windowTitle_SelectionOf_Service_Orders</t>
+  </si>
+  <si>
+    <t>Total da Nota</t>
+  </si>
+  <si>
+    <t>Total Note</t>
+  </si>
+  <si>
+    <t>bck_Total_Note</t>
+  </si>
+  <si>
+    <t>Series</t>
+  </si>
+  <si>
+    <t>ReportHeader_Series</t>
+  </si>
+  <si>
+    <t>ReportHeader_Name</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -18865,6 +19503,35 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -18905,7 +19572,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -18956,6 +19623,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -19262,18 +19936,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:XFD289"/>
+  <dimension ref="A1:XFD368"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A279" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B289" sqref="B289"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A335" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A368" sqref="A368:C368"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="42.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.5703125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="50.42578125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="42.140625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="34.140625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="47.42578125" style="3" customWidth="1"/>
     <col min="4" max="4" width="39" style="3" customWidth="1"/>
     <col min="5" max="5" width="49.42578125" customWidth="1"/>
   </cols>
@@ -20620,7 +21294,7 @@
         <v>insert into Linguas(ID, projectID, folderID, classID, tag_Value, default_Value, pt_Value, en_Value, es_Value, dateUpdate)values(newid(),null,null,null,'Message_IntegrationServiceRequired','O serviço de integração não está disponível. Inicie o mesmo para continuar.','O serviço de integração não está disponível. Inicie o mesmo para continuar.','The integration service is not available. Start it to continue.','',getdate());</v>
       </c>
     </row>
-    <row r="91" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
         <v>178</v>
       </c>
@@ -37820,9 +38494,12 @@
       </c>
     </row>
     <row r="148" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B148" s="16"/>
-      <c r="C148" s="16"/>
-      <c r="D148" s="16"/>
+      <c r="A148" s="22" t="s">
+        <v>6187</v>
+      </c>
+      <c r="B148" s="22"/>
+      <c r="C148" s="22"/>
+      <c r="D148" s="22"/>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" s="3" t="s">
@@ -38305,7 +38982,7 @@
         <v>2706</v>
       </c>
       <c r="C192" s="3" t="s">
-        <v>6075</v>
+        <v>6072</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
@@ -38354,7 +39031,7 @@
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" s="3" t="s">
-        <v>5874</v>
+        <v>6186</v>
       </c>
       <c r="B197" s="3" t="s">
         <v>224</v>
@@ -38365,29 +39042,29 @@
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" s="3" t="s">
-        <v>5877</v>
+        <v>5876</v>
       </c>
       <c r="B198" s="3" t="s">
+        <v>5874</v>
+      </c>
+      <c r="C198" s="3" t="s">
         <v>5875</v>
-      </c>
-      <c r="C198" s="3" t="s">
-        <v>5876</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" s="3" t="s">
-        <v>5880</v>
+        <v>5879</v>
       </c>
       <c r="B199" s="3" t="s">
+        <v>5877</v>
+      </c>
+      <c r="C199" s="3" t="s">
         <v>5878</v>
-      </c>
-      <c r="C199" s="3" t="s">
-        <v>5879</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" s="7" t="s">
-        <v>5881</v>
+        <v>5880</v>
       </c>
       <c r="B200" s="3" t="s">
         <v>223</v>
@@ -38398,18 +39075,18 @@
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" s="7" t="s">
-        <v>5884</v>
+        <v>5883</v>
       </c>
       <c r="B201" s="3" t="s">
+        <v>5881</v>
+      </c>
+      <c r="C201" s="3" t="s">
         <v>5882</v>
-      </c>
-      <c r="C201" s="3" t="s">
-        <v>5883</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" s="7" t="s">
-        <v>5885</v>
+        <v>5884</v>
       </c>
       <c r="B202" s="3" t="s">
         <v>3094</v>
@@ -38420,62 +39097,62 @@
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" s="7" t="s">
-        <v>5888</v>
+        <v>5887</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>5887</v>
+        <v>5886</v>
       </c>
       <c r="C203" s="3" t="s">
-        <v>5886</v>
+        <v>5885</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" s="7" t="s">
-        <v>5891</v>
+        <v>5890</v>
       </c>
       <c r="B204" s="3" t="s">
+        <v>5888</v>
+      </c>
+      <c r="C204" s="3" t="s">
         <v>5889</v>
-      </c>
-      <c r="C204" s="3" t="s">
-        <v>5890</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" s="7" t="s">
-        <v>5892</v>
+        <v>5891</v>
       </c>
       <c r="B205" s="3" t="s">
         <v>226</v>
       </c>
       <c r="C205" s="3" t="s">
-        <v>5893</v>
+        <v>5892</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206" s="7" t="s">
+        <v>5893</v>
+      </c>
+      <c r="B206" s="3" t="s">
         <v>5894</v>
       </c>
-      <c r="B206" s="3" t="s">
+      <c r="C206" s="3" t="s">
         <v>5895</v>
-      </c>
-      <c r="C206" s="3" t="s">
-        <v>5896</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207" s="7" t="s">
-        <v>5899</v>
+        <v>5898</v>
       </c>
       <c r="B207" s="3" t="s">
+        <v>5896</v>
+      </c>
+      <c r="C207" s="3" t="s">
         <v>5897</v>
-      </c>
-      <c r="C207" s="3" t="s">
-        <v>5898</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" s="7" t="s">
-        <v>5900</v>
+        <v>5899</v>
       </c>
       <c r="B208" s="3" t="s">
         <v>220</v>
@@ -38486,7 +39163,7 @@
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" s="7" t="s">
-        <v>5901</v>
+        <v>5900</v>
       </c>
       <c r="B209" s="3" t="s">
         <v>1033</v>
@@ -38497,7 +39174,7 @@
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" s="7" t="s">
-        <v>5902</v>
+        <v>5901</v>
       </c>
       <c r="B210" s="3" t="s">
         <v>5826</v>
@@ -38508,7 +39185,7 @@
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211" s="3" t="s">
-        <v>5903</v>
+        <v>5902</v>
       </c>
       <c r="B211" s="3" t="s">
         <v>1182</v>
@@ -38519,7 +39196,7 @@
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" s="7" t="s">
-        <v>5904</v>
+        <v>5903</v>
       </c>
       <c r="B212" s="3" t="s">
         <v>224</v>
@@ -38530,7 +39207,7 @@
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213" s="7" t="s">
-        <v>5905</v>
+        <v>5904</v>
       </c>
       <c r="B213" s="3" t="s">
         <v>3491</v>
@@ -38541,7 +39218,7 @@
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" s="3" t="s">
-        <v>5906</v>
+        <v>5905</v>
       </c>
       <c r="B214" s="3" t="s">
         <v>863</v>
@@ -38552,106 +39229,106 @@
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" s="3" t="s">
-        <v>5909</v>
+        <v>5906</v>
       </c>
       <c r="B215" s="3" t="s">
-        <v>5907</v>
+        <v>875</v>
       </c>
       <c r="C215" s="3" t="s">
-        <v>5908</v>
+        <v>6105</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" s="3" t="s">
-        <v>5912</v>
+        <v>5909</v>
       </c>
       <c r="B216" s="3" t="s">
-        <v>5910</v>
+        <v>5907</v>
       </c>
       <c r="C216" s="3" t="s">
-        <v>5911</v>
+        <v>5908</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" s="3" t="s">
-        <v>5915</v>
+        <v>5912</v>
       </c>
       <c r="B217" s="3" t="s">
-        <v>5913</v>
+        <v>5910</v>
       </c>
       <c r="C217" s="3" t="s">
-        <v>5914</v>
+        <v>5911</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" s="3" t="s">
-        <v>5918</v>
+        <v>5915</v>
       </c>
       <c r="B218" s="3" t="s">
-        <v>5916</v>
+        <v>5913</v>
       </c>
       <c r="C218" s="3" t="s">
-        <v>5917</v>
+        <v>5914</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219" s="3" t="s">
-        <v>5921</v>
+        <v>5918</v>
       </c>
       <c r="B219" s="3" t="s">
-        <v>5920</v>
+        <v>5917</v>
       </c>
       <c r="C219" s="3" t="s">
-        <v>5919</v>
+        <v>5916</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220" s="3" t="s">
-        <v>5924</v>
+        <v>5921</v>
       </c>
       <c r="B220" s="3" t="s">
-        <v>5922</v>
+        <v>5919</v>
       </c>
       <c r="C220" s="3" t="s">
-        <v>5923</v>
+        <v>5920</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221" s="7" t="s">
-        <v>5926</v>
+        <v>5923</v>
       </c>
       <c r="B221" s="3" t="s">
         <v>4239</v>
       </c>
       <c r="C221" s="3" t="s">
-        <v>5925</v>
+        <v>5922</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222" s="3" t="s">
-        <v>5929</v>
+        <v>5926</v>
       </c>
       <c r="B222" s="3" t="s">
-        <v>5927</v>
+        <v>5924</v>
       </c>
       <c r="C222" s="3" t="s">
-        <v>5928</v>
+        <v>5925</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223" s="7" t="s">
-        <v>5932</v>
+        <v>5929</v>
       </c>
       <c r="B223" s="3" t="s">
-        <v>5930</v>
+        <v>5927</v>
       </c>
       <c r="C223" s="3" t="s">
-        <v>5931</v>
+        <v>5928</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224" s="7" t="s">
-        <v>5933</v>
+        <v>5930</v>
       </c>
       <c r="B224" s="3" t="s">
         <v>3323</v>
@@ -38662,7 +39339,7 @@
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" s="7" t="s">
-        <v>5934</v>
+        <v>5931</v>
       </c>
       <c r="B225" s="3" t="s">
         <v>1198</v>
@@ -38673,98 +39350,98 @@
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" s="7" t="s">
-        <v>5937</v>
+        <v>5934</v>
       </c>
       <c r="B226" s="3" t="s">
-        <v>5935</v>
+        <v>5932</v>
       </c>
       <c r="C226" s="3" t="s">
-        <v>5936</v>
+        <v>5933</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" s="7" t="s">
-        <v>5940</v>
+        <v>5937</v>
       </c>
       <c r="B227" s="3" t="s">
-        <v>5938</v>
+        <v>5935</v>
       </c>
       <c r="C227" s="3" t="s">
-        <v>5939</v>
+        <v>5936</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" s="7" t="s">
-        <v>5943</v>
+        <v>5940</v>
       </c>
       <c r="B228" s="3" t="s">
-        <v>5941</v>
+        <v>5938</v>
       </c>
       <c r="C228" s="3" t="s">
-        <v>5942</v>
+        <v>5939</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" s="3" t="s">
-        <v>5946</v>
+        <v>5943</v>
       </c>
       <c r="B229" s="3" t="s">
-        <v>5944</v>
+        <v>5941</v>
       </c>
       <c r="C229" s="3" t="s">
-        <v>5945</v>
+        <v>5942</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" s="3" t="s">
-        <v>5949</v>
+        <v>5946</v>
       </c>
       <c r="B230" s="3" t="s">
-        <v>5947</v>
+        <v>5944</v>
       </c>
       <c r="C230" s="3" t="s">
-        <v>5948</v>
+        <v>5945</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" s="3" t="s">
-        <v>5951</v>
+        <v>5948</v>
       </c>
       <c r="B231" s="3" t="s">
-        <v>5950</v>
+        <v>5947</v>
       </c>
       <c r="C231" s="3" t="s">
-        <v>5950</v>
+        <v>5947</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" s="7" t="s">
-        <v>5954</v>
+        <v>5951</v>
       </c>
       <c r="B232" s="3" t="s">
-        <v>5952</v>
+        <v>5949</v>
       </c>
       <c r="C232" s="3" t="s">
-        <v>5953</v>
+        <v>5950</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" s="3" t="s">
-        <v>5957</v>
+        <v>5954</v>
       </c>
       <c r="B233" s="3" t="s">
-        <v>5955</v>
+        <v>5952</v>
       </c>
       <c r="C233" s="3" t="s">
-        <v>5956</v>
+        <v>5953</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" s="3" t="s">
-        <v>5959</v>
+        <v>5956</v>
       </c>
       <c r="B234" s="3" t="s">
-        <v>5958</v>
+        <v>5955</v>
       </c>
       <c r="C234" s="3" t="s">
         <v>3623</v>
@@ -38772,32 +39449,32 @@
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" s="3" t="s">
-        <v>5962</v>
+        <v>5959</v>
       </c>
       <c r="B235" s="3" t="s">
-        <v>5960</v>
+        <v>5957</v>
       </c>
       <c r="C235" s="3" t="s">
-        <v>5961</v>
+        <v>5958</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" s="3" t="s">
-        <v>5965</v>
+        <v>5962</v>
       </c>
       <c r="B236" s="3" t="s">
-        <v>5963</v>
+        <v>5960</v>
       </c>
       <c r="C236" s="3" t="s">
-        <v>5964</v>
+        <v>5961</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" s="3" t="s">
-        <v>5967</v>
+        <v>5964</v>
       </c>
       <c r="B237" s="3" t="s">
-        <v>5966</v>
+        <v>5963</v>
       </c>
       <c r="C237" s="3" t="s">
         <v>478</v>
@@ -38811,7 +39488,7 @@
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239" s="7" t="s">
-        <v>5968</v>
+        <v>5965</v>
       </c>
       <c r="B239" s="3" t="s">
         <v>3614</v>
@@ -38822,40 +39499,40 @@
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240" s="7" t="s">
-        <v>5970</v>
+        <v>5967</v>
       </c>
       <c r="B240" s="3" t="s">
         <v>3630</v>
       </c>
       <c r="C240" s="3" t="s">
-        <v>5969</v>
+        <v>5966</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241" s="7" t="s">
-        <v>5973</v>
+        <v>5970</v>
       </c>
       <c r="B241" s="3" t="s">
-        <v>5971</v>
+        <v>5968</v>
       </c>
       <c r="C241" s="3" t="s">
-        <v>5972</v>
+        <v>5969</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242" s="3" t="s">
-        <v>5974</v>
+        <v>5971</v>
       </c>
       <c r="B242" s="3" t="s">
-        <v>5975</v>
+        <v>5972</v>
       </c>
       <c r="C242" s="3" t="s">
-        <v>5976</v>
+        <v>5973</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243" s="3" t="s">
-        <v>5977</v>
+        <v>5974</v>
       </c>
       <c r="B243" s="3" t="s">
         <v>611</v>
@@ -38866,40 +39543,40 @@
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244" s="3" t="s">
-        <v>5980</v>
+        <v>5977</v>
       </c>
       <c r="B244" s="3" t="s">
-        <v>5978</v>
+        <v>5975</v>
       </c>
       <c r="C244" s="3" t="s">
-        <v>5979</v>
+        <v>5976</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245" s="3" t="s">
-        <v>5983</v>
+        <v>5980</v>
       </c>
       <c r="B245" s="3" t="s">
-        <v>5981</v>
+        <v>5978</v>
       </c>
       <c r="C245" s="3" t="s">
-        <v>5982</v>
+        <v>5979</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246" s="3" t="s">
-        <v>5985</v>
+        <v>5982</v>
       </c>
       <c r="B246" s="3" t="s">
         <v>4159</v>
       </c>
       <c r="C246" s="3" t="s">
-        <v>5984</v>
+        <v>5981</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247" s="7" t="s">
-        <v>5998</v>
+        <v>5995</v>
       </c>
       <c r="B247" s="3" t="s">
         <v>5829</v>
@@ -38910,40 +39587,40 @@
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248" s="7" t="s">
-        <v>5999</v>
+        <v>5996</v>
       </c>
       <c r="B248" s="3" t="s">
-        <v>6000</v>
+        <v>5997</v>
       </c>
       <c r="C248" s="3" t="s">
-        <v>6001</v>
+        <v>5998</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A249" s="7" t="s">
-        <v>6004</v>
+        <v>6001</v>
       </c>
       <c r="B249" s="3" t="s">
-        <v>6002</v>
+        <v>5999</v>
       </c>
       <c r="C249" s="3" t="s">
-        <v>6003</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A250" s="7" t="s">
-        <v>6007</v>
+        <v>6004</v>
       </c>
       <c r="B250" s="3" t="s">
-        <v>6005</v>
+        <v>6002</v>
       </c>
       <c r="C250" s="3" t="s">
-        <v>6006</v>
+        <v>6003</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251" s="7" t="s">
-        <v>6008</v>
+        <v>6005</v>
       </c>
       <c r="B251" s="3" t="s">
         <v>1403</v>
@@ -38954,18 +39631,18 @@
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A252" s="7" t="s">
-        <v>6010</v>
+        <v>6007</v>
       </c>
       <c r="B252" s="3" t="s">
         <v>5114</v>
       </c>
       <c r="C252" s="3" t="s">
-        <v>6009</v>
+        <v>6006</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A253" s="7" t="s">
-        <v>6011</v>
+        <v>6008</v>
       </c>
       <c r="B253" s="3" t="s">
         <v>3878</v>
@@ -38976,7 +39653,7 @@
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A254" s="7" t="s">
-        <v>6012</v>
+        <v>6009</v>
       </c>
       <c r="B254" s="3" t="s">
         <v>1206</v>
@@ -38987,10 +39664,10 @@
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A255" s="7" t="s">
-        <v>6014</v>
+        <v>6011</v>
       </c>
       <c r="B255" s="3" t="s">
-        <v>6013</v>
+        <v>6010</v>
       </c>
       <c r="C255" s="3" t="s">
         <v>967</v>
@@ -38998,7 +39675,7 @@
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A256" s="7" t="s">
-        <v>6015</v>
+        <v>6012</v>
       </c>
       <c r="B256" s="3" t="s">
         <v>435</v>
@@ -39009,7 +39686,7 @@
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A257" s="7" t="s">
-        <v>6016</v>
+        <v>6013</v>
       </c>
       <c r="B257" s="3" t="s">
         <v>802</v>
@@ -39020,21 +39697,21 @@
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A258" s="3" t="s">
-        <v>6019</v>
+        <v>6016</v>
       </c>
       <c r="B258" s="3" t="s">
-        <v>6017</v>
+        <v>6014</v>
       </c>
       <c r="C258" s="3" t="s">
-        <v>6018</v>
+        <v>6015</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A259" s="3" t="s">
-        <v>6021</v>
+        <v>6018</v>
       </c>
       <c r="B259" s="3" t="s">
-        <v>6020</v>
+        <v>6017</v>
       </c>
       <c r="C259" s="3" t="s">
         <v>3040</v>
@@ -39042,7 +39719,7 @@
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A260" s="3" t="s">
-        <v>6022</v>
+        <v>6019</v>
       </c>
       <c r="B260" s="3" t="s">
         <v>3894</v>
@@ -39053,7 +39730,7 @@
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A261" s="3" t="s">
-        <v>6023</v>
+        <v>6020</v>
       </c>
       <c r="B261" s="3" t="s">
         <v>221</v>
@@ -39064,73 +39741,73 @@
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A262" s="3" t="s">
-        <v>6026</v>
+        <v>6023</v>
       </c>
       <c r="B262" s="3" t="s">
-        <v>6024</v>
+        <v>6021</v>
       </c>
       <c r="C262" s="3" t="s">
-        <v>6025</v>
+        <v>6022</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A263" s="3" t="s">
-        <v>6029</v>
+        <v>6026</v>
       </c>
       <c r="B263" s="3" t="s">
-        <v>6027</v>
+        <v>6024</v>
       </c>
       <c r="C263" s="3" t="s">
-        <v>6028</v>
+        <v>6025</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A264" s="3" t="s">
-        <v>6032</v>
+        <v>6029</v>
       </c>
       <c r="B264" s="3" t="s">
-        <v>6030</v>
+        <v>6027</v>
       </c>
       <c r="C264" s="3" t="s">
-        <v>6031</v>
+        <v>6028</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A265" s="7" t="s">
-        <v>6035</v>
+        <v>6032</v>
       </c>
       <c r="B265" s="20" t="s">
-        <v>6033</v>
+        <v>6030</v>
       </c>
       <c r="C265" s="3" t="s">
-        <v>6034</v>
+        <v>6031</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A266" s="7" t="s">
-        <v>6038</v>
+        <v>6035</v>
       </c>
       <c r="B266" s="3" t="s">
-        <v>6036</v>
+        <v>6033</v>
       </c>
       <c r="C266" s="3" t="s">
-        <v>6037</v>
+        <v>6034</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A267" s="7" t="s">
-        <v>6041</v>
+        <v>6038</v>
       </c>
       <c r="B267" s="3" t="s">
-        <v>6039</v>
+        <v>6036</v>
       </c>
       <c r="C267" s="3" t="s">
-        <v>6040</v>
+        <v>6037</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A268" s="7" t="s">
-        <v>6042</v>
+        <v>6039</v>
       </c>
       <c r="B268" s="3" t="s">
         <v>3197</v>
@@ -39141,65 +39818,65 @@
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A269" s="7" t="s">
-        <v>6045</v>
+        <v>6042</v>
       </c>
       <c r="B269" s="3" t="s">
-        <v>6043</v>
+        <v>6040</v>
       </c>
       <c r="C269" s="3" t="s">
-        <v>6044</v>
+        <v>6041</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A270" s="3" t="s">
-        <v>6048</v>
+        <v>6045</v>
       </c>
       <c r="B270" s="3" t="s">
-        <v>6046</v>
+        <v>6043</v>
       </c>
       <c r="C270" s="3" t="s">
-        <v>6047</v>
+        <v>6044</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A271" s="3" t="s">
-        <v>6051</v>
+        <v>6048</v>
       </c>
       <c r="B271" s="3" t="s">
-        <v>6049</v>
+        <v>6046</v>
       </c>
       <c r="C271" s="3" t="s">
-        <v>6050</v>
+        <v>6047</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A272" s="7" t="s">
-        <v>6054</v>
+        <v>6051</v>
       </c>
       <c r="B272" s="3" t="s">
-        <v>6052</v>
+        <v>6049</v>
       </c>
       <c r="C272" s="3" t="s">
-        <v>6053</v>
+        <v>6050</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A273" s="3" t="s">
-        <v>6057</v>
+        <v>6054</v>
       </c>
       <c r="B273" s="3" t="s">
-        <v>6055</v>
+        <v>6052</v>
       </c>
       <c r="C273" s="3" t="s">
-        <v>6056</v>
+        <v>6053</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A274" s="3" t="s">
-        <v>6059</v>
+        <v>6056</v>
       </c>
       <c r="B274" s="3" t="s">
-        <v>6058</v>
+        <v>6055</v>
       </c>
       <c r="C274" s="3" t="s">
         <v>2942</v>
@@ -39207,40 +39884,40 @@
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A275" s="3" t="s">
-        <v>6061</v>
+        <v>6058</v>
       </c>
       <c r="B275" s="3" t="s">
         <v>2034</v>
       </c>
       <c r="C275" s="3" t="s">
-        <v>6060</v>
+        <v>6057</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A276" s="3" t="s">
-        <v>6064</v>
+        <v>6061</v>
       </c>
       <c r="B276" s="3" t="s">
-        <v>6062</v>
+        <v>6059</v>
       </c>
       <c r="C276" s="3" t="s">
-        <v>6063</v>
+        <v>6060</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A277" s="3" t="s">
-        <v>6067</v>
+        <v>6064</v>
       </c>
       <c r="B277" s="3" t="s">
-        <v>6065</v>
+        <v>6062</v>
       </c>
       <c r="C277" s="3" t="s">
-        <v>6066</v>
+        <v>6063</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A278" s="7" t="s">
-        <v>6068</v>
+        <v>6065</v>
       </c>
       <c r="B278" s="3" t="s">
         <v>4223</v>
@@ -39251,32 +39928,32 @@
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A279" s="3" t="s">
-        <v>6070</v>
+        <v>6067</v>
       </c>
       <c r="B279" s="3" t="s">
-        <v>6069</v>
+        <v>6066</v>
       </c>
       <c r="C279" s="3" t="s">
-        <v>6071</v>
+        <v>6068</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A280" s="3" t="s">
-        <v>6074</v>
+        <v>6071</v>
       </c>
       <c r="B280" s="3" t="s">
-        <v>6072</v>
+        <v>6069</v>
       </c>
       <c r="C280" s="3" t="s">
-        <v>6073</v>
+        <v>6070</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A281" s="7" t="s">
-        <v>6077</v>
+        <v>6074</v>
       </c>
       <c r="B281" s="3" t="s">
-        <v>6076</v>
+        <v>6073</v>
       </c>
       <c r="C281" s="3" t="s">
         <v>5555</v>
@@ -39284,18 +39961,18 @@
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A282" s="3" t="s">
-        <v>6080</v>
+        <v>6077</v>
       </c>
       <c r="B282" s="3" t="s">
-        <v>6078</v>
+        <v>6075</v>
       </c>
       <c r="C282" s="3" t="s">
-        <v>6079</v>
+        <v>6076</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A283" s="3" t="s">
-        <v>6081</v>
+        <v>6078</v>
       </c>
       <c r="B283" s="3" t="s">
         <v>1116</v>
@@ -39306,51 +39983,51 @@
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A284" s="3" t="s">
-        <v>6084</v>
+        <v>6081</v>
       </c>
       <c r="B284" s="3" t="s">
-        <v>6082</v>
+        <v>6079</v>
       </c>
       <c r="C284" s="3" t="s">
-        <v>6083</v>
+        <v>6080</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A285" s="3" t="s">
-        <v>6087</v>
+        <v>6084</v>
       </c>
       <c r="B285" s="3" t="s">
-        <v>6085</v>
+        <v>6082</v>
       </c>
       <c r="C285" s="3" t="s">
-        <v>6086</v>
+        <v>6083</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A286" s="3" t="s">
-        <v>6090</v>
+        <v>6087</v>
       </c>
       <c r="B286" s="3" t="s">
-        <v>6088</v>
+        <v>6085</v>
       </c>
       <c r="C286" s="3" t="s">
-        <v>6089</v>
+        <v>6086</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A287" s="3" t="s">
-        <v>6093</v>
+        <v>6090</v>
       </c>
       <c r="B287" s="3" t="s">
-        <v>6091</v>
+        <v>6088</v>
       </c>
       <c r="C287" s="3" t="s">
-        <v>6092</v>
+        <v>6089</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A288" s="3" t="s">
-        <v>6094</v>
+        <v>6091</v>
       </c>
       <c r="B288" s="3" t="s">
         <v>1527</v>
@@ -39359,12 +40036,875 @@
         <v>1526</v>
       </c>
     </row>
-    <row r="289" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A289" s="3" t="s">
+        <v>6094</v>
+      </c>
       <c r="B289" s="3" t="s">
+        <v>6092</v>
+      </c>
+      <c r="C289" s="3" t="s">
+        <v>6093</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A290" s="16"/>
+      <c r="B290" s="16"/>
+      <c r="C290" s="16"/>
+      <c r="D290" s="16"/>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A291" s="3" t="s">
         <v>6095</v>
       </c>
+      <c r="B291" s="3" t="s">
+        <v>3534</v>
+      </c>
+      <c r="C291" s="3" t="s">
+        <v>5324</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A292" s="3" t="s">
+        <v>6098</v>
+      </c>
+      <c r="B292" s="3" t="s">
+        <v>6096</v>
+      </c>
+      <c r="C292" s="3" t="s">
+        <v>6097</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A293" s="3" t="s">
+        <v>6099</v>
+      </c>
+      <c r="B293" s="3" t="s">
+        <v>6100</v>
+      </c>
+      <c r="C293" s="3" t="s">
+        <v>6101</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A294" s="3" t="s">
+        <v>6104</v>
+      </c>
+      <c r="B294" s="3" t="s">
+        <v>6102</v>
+      </c>
+      <c r="C294" s="3" t="s">
+        <v>6103</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A295" s="7" t="s">
+        <v>6106</v>
+      </c>
+      <c r="B295" s="3" t="s">
+        <v>6107</v>
+      </c>
+      <c r="C295" s="3" t="s">
+        <v>6108</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A296" s="3" t="s">
+        <v>6110</v>
+      </c>
+      <c r="B296" s="3" t="s">
+        <v>875</v>
+      </c>
+      <c r="C296" s="3" t="s">
+        <v>6109</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A297" s="3" t="s">
+        <v>6113</v>
+      </c>
+      <c r="B297" s="3" t="s">
+        <v>6111</v>
+      </c>
+      <c r="C297" s="3" t="s">
+        <v>6112</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A298" s="3" t="s">
+        <v>6116</v>
+      </c>
+      <c r="B298" s="3" t="s">
+        <v>6114</v>
+      </c>
+      <c r="C298" s="3" t="s">
+        <v>6115</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A299" s="3" t="s">
+        <v>6119</v>
+      </c>
+      <c r="B299" s="3" t="s">
+        <v>6117</v>
+      </c>
+      <c r="C299" s="3" t="s">
+        <v>6118</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A300" s="3" t="s">
+        <v>6120</v>
+      </c>
+      <c r="B300" s="3" t="s">
+        <v>1872</v>
+      </c>
+      <c r="C300" s="3" t="s">
+        <v>1871</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A301" s="3" t="s">
+        <v>6123</v>
+      </c>
+      <c r="B301" s="3" t="s">
+        <v>6121</v>
+      </c>
+      <c r="C301" s="3" t="s">
+        <v>6122</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A302" s="3" t="s">
+        <v>6126</v>
+      </c>
+      <c r="B302" s="3" t="s">
+        <v>6124</v>
+      </c>
+      <c r="C302" s="3" t="s">
+        <v>6125</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A303" s="3" t="s">
+        <v>6129</v>
+      </c>
+      <c r="B303" s="3" t="s">
+        <v>6127</v>
+      </c>
+      <c r="C303" s="3" t="s">
+        <v>6128</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A304" s="3" t="s">
+        <v>6132</v>
+      </c>
+      <c r="B304" s="3" t="s">
+        <v>6130</v>
+      </c>
+      <c r="C304" s="3" t="s">
+        <v>6131</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A305" s="3" t="s">
+        <v>6134</v>
+      </c>
+      <c r="B305" s="3" t="s">
+        <v>6133</v>
+      </c>
+      <c r="C305" s="3" t="s">
+        <v>6135</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A306" s="3" t="s">
+        <v>6138</v>
+      </c>
+      <c r="B306" s="3" t="s">
+        <v>6136</v>
+      </c>
+      <c r="C306" s="3" t="s">
+        <v>6137</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A307" s="3" t="s">
+        <v>6141</v>
+      </c>
+      <c r="B307" s="3" t="s">
+        <v>6139</v>
+      </c>
+      <c r="C307" s="3" t="s">
+        <v>6140</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A308" s="3" t="s">
+        <v>6142</v>
+      </c>
+      <c r="B308" s="3" t="s">
+        <v>3519</v>
+      </c>
+      <c r="C308" s="3" t="s">
+        <v>5320</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A309" s="3" t="s">
+        <v>6144</v>
+      </c>
+      <c r="B309" s="3" t="s">
+        <v>6145</v>
+      </c>
+      <c r="C309" s="3" t="s">
+        <v>6143</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A310" s="3" t="s">
+        <v>6148</v>
+      </c>
+      <c r="B310" s="3" t="s">
+        <v>6146</v>
+      </c>
+      <c r="C310" s="3" t="s">
+        <v>6147</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A311" s="3" t="s">
+        <v>6151</v>
+      </c>
+      <c r="B311" s="3" t="s">
+        <v>6149</v>
+      </c>
+      <c r="C311" s="3" t="s">
+        <v>6150</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A312" s="7" t="s">
+        <v>6153</v>
+      </c>
+      <c r="B312" s="3" t="s">
+        <v>5852</v>
+      </c>
+      <c r="C312" s="3" t="s">
+        <v>6152</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A313" s="3" t="s">
+        <v>6156</v>
+      </c>
+      <c r="B313" s="3" t="s">
+        <v>6154</v>
+      </c>
+      <c r="C313" s="3" t="s">
+        <v>6155</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A314" s="7" t="s">
+        <v>6159</v>
+      </c>
+      <c r="B314" s="3" t="s">
+        <v>6157</v>
+      </c>
+      <c r="C314" s="3" t="s">
+        <v>6158</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A315" s="3" t="s">
+        <v>6160</v>
+      </c>
+      <c r="B315" s="3" t="s">
+        <v>889</v>
+      </c>
+      <c r="C315" s="3" t="s">
+        <v>3841</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A316" s="7" t="s">
+        <v>6163</v>
+      </c>
+      <c r="B316" s="3" t="s">
+        <v>6161</v>
+      </c>
+      <c r="C316" s="3" t="s">
+        <v>6162</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A317" s="3" t="s">
+        <v>6164</v>
+      </c>
+      <c r="B317" s="3" t="s">
+        <v>593</v>
+      </c>
+      <c r="C317" s="3" t="s">
+        <v>4362</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A318" s="3" t="s">
+        <v>6167</v>
+      </c>
+      <c r="B318" s="3" t="s">
+        <v>6165</v>
+      </c>
+      <c r="C318" s="3" t="s">
+        <v>6166</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A319" s="3" t="s">
+        <v>6170</v>
+      </c>
+      <c r="B319" s="3" t="s">
+        <v>6168</v>
+      </c>
+      <c r="C319" s="3" t="s">
+        <v>6169</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A320" s="3" t="s">
+        <v>6173</v>
+      </c>
+      <c r="B320" s="3" t="s">
+        <v>6171</v>
+      </c>
+      <c r="C320" s="3" t="s">
+        <v>6172</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A321" s="3" t="s">
+        <v>6176</v>
+      </c>
+      <c r="B321" s="3" t="s">
+        <v>6174</v>
+      </c>
+      <c r="C321" s="3" t="s">
+        <v>6175</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A322" s="3" t="s">
+        <v>6179</v>
+      </c>
+      <c r="B322" s="3" t="s">
+        <v>6177</v>
+      </c>
+      <c r="C322" s="3" t="s">
+        <v>6178</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A323" s="3" t="s">
+        <v>6180</v>
+      </c>
+      <c r="B323" s="3" t="s">
+        <v>6181</v>
+      </c>
+      <c r="C323" s="3" t="s">
+        <v>6182</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A324" s="3" t="s">
+        <v>6185</v>
+      </c>
+      <c r="B324" s="3" t="s">
+        <v>6183</v>
+      </c>
+      <c r="C324" s="3" t="s">
+        <v>6184</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A325" s="23" t="s">
+        <v>6188</v>
+      </c>
+      <c r="B325" s="23"/>
+      <c r="C325" s="23"/>
+      <c r="D325" s="23"/>
+    </row>
+    <row r="326" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A326" s="3" t="s">
+        <v>6191</v>
+      </c>
+      <c r="B326" s="3" t="s">
+        <v>6189</v>
+      </c>
+      <c r="C326" s="3" t="s">
+        <v>6190</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A327" s="3" t="s">
+        <v>6194</v>
+      </c>
+      <c r="B327" s="3" t="s">
+        <v>6192</v>
+      </c>
+      <c r="C327" s="3" t="s">
+        <v>6193</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A328" s="3" t="s">
+        <v>6197</v>
+      </c>
+      <c r="B328" s="3" t="s">
+        <v>6195</v>
+      </c>
+      <c r="C328" s="3" t="s">
+        <v>6196</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A329" s="21" t="s">
+        <v>6203</v>
+      </c>
+      <c r="B329" s="3" t="s">
+        <v>6198</v>
+      </c>
+      <c r="C329" s="3" t="s">
+        <v>6199</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A330" s="21" t="s">
+        <v>6202</v>
+      </c>
+      <c r="B330" s="3" t="s">
+        <v>6200</v>
+      </c>
+      <c r="C330" s="3" t="s">
+        <v>6201</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A331" s="3" t="s">
+        <v>6206</v>
+      </c>
+      <c r="B331" s="3" t="s">
+        <v>6204</v>
+      </c>
+      <c r="C331" s="3" t="s">
+        <v>6205</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A332" s="3" t="s">
+        <v>6209</v>
+      </c>
+      <c r="B332" s="3" t="s">
+        <v>6207</v>
+      </c>
+      <c r="C332" s="3" t="s">
+        <v>6208</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A333" s="21" t="s">
+        <v>6212</v>
+      </c>
+      <c r="B333" s="3" t="s">
+        <v>6210</v>
+      </c>
+      <c r="C333" s="3" t="s">
+        <v>6211</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A334" s="3" t="s">
+        <v>6215</v>
+      </c>
+      <c r="B334" s="3" t="s">
+        <v>6213</v>
+      </c>
+      <c r="C334" s="3" t="s">
+        <v>6214</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A335" s="3" t="s">
+        <v>6218</v>
+      </c>
+      <c r="B335" s="3" t="s">
+        <v>6216</v>
+      </c>
+      <c r="C335" s="3" t="s">
+        <v>6217</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A336" s="21" t="s">
+        <v>6221</v>
+      </c>
+      <c r="B336" s="3" t="s">
+        <v>6219</v>
+      </c>
+      <c r="C336" s="3" t="s">
+        <v>6220</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A337" s="3" t="s">
+        <v>6224</v>
+      </c>
+      <c r="B337" s="3" t="s">
+        <v>6222</v>
+      </c>
+      <c r="C337" s="3" t="s">
+        <v>6223</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A338" s="3" t="s">
+        <v>6227</v>
+      </c>
+      <c r="B338" s="3" t="s">
+        <v>6225</v>
+      </c>
+      <c r="C338" s="3" t="s">
+        <v>6226</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A339" s="3" t="s">
+        <v>6230</v>
+      </c>
+      <c r="B339" s="3" t="s">
+        <v>6228</v>
+      </c>
+      <c r="C339" s="3" t="s">
+        <v>6229</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A340" s="3" t="s">
+        <v>6231</v>
+      </c>
+      <c r="B340" s="3" t="s">
+        <v>585</v>
+      </c>
+      <c r="C340" s="3" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A341" s="3" t="s">
+        <v>6234</v>
+      </c>
+      <c r="B341" s="3" t="s">
+        <v>6232</v>
+      </c>
+      <c r="C341" s="3" t="s">
+        <v>6233</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A342" s="3" t="s">
+        <v>6237</v>
+      </c>
+      <c r="B342" s="3" t="s">
+        <v>6235</v>
+      </c>
+      <c r="C342" s="3" t="s">
+        <v>6236</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A343" s="3" t="s">
+        <v>6240</v>
+      </c>
+      <c r="B343" s="3" t="s">
+        <v>6238</v>
+      </c>
+      <c r="C343" s="3" t="s">
+        <v>6239</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A344" s="3" t="s">
+        <v>6243</v>
+      </c>
+      <c r="B344" s="3" t="s">
+        <v>6241</v>
+      </c>
+      <c r="C344" s="3" t="s">
+        <v>6242</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A345" s="3" t="s">
+        <v>6246</v>
+      </c>
+      <c r="B345" s="3" t="s">
+        <v>6244</v>
+      </c>
+      <c r="C345" s="3" t="s">
+        <v>6245</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A346" s="3" t="s">
+        <v>6249</v>
+      </c>
+      <c r="B346" s="3" t="s">
+        <v>6247</v>
+      </c>
+      <c r="C346" s="3" t="s">
+        <v>6248</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A347" s="3" t="s">
+        <v>6250</v>
+      </c>
+      <c r="B347" s="3" t="s">
+        <v>3515</v>
+      </c>
+      <c r="C347" s="3" t="s">
+        <v>5319</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A348" s="7" t="s">
+        <v>6252</v>
+      </c>
+      <c r="B348" s="3" t="s">
+        <v>6251</v>
+      </c>
+      <c r="C348" s="3" t="s">
+        <v>6193</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A349" s="7" t="s">
+        <v>6255</v>
+      </c>
+      <c r="B349" s="3" t="s">
+        <v>6253</v>
+      </c>
+      <c r="C349" s="3" t="s">
+        <v>6254</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A350" s="7" t="s">
+        <v>6256</v>
+      </c>
+      <c r="B350" s="3" t="s">
+        <v>6195</v>
+      </c>
+      <c r="C350" s="3" t="s">
+        <v>6196</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A351" s="7" t="s">
+        <v>6259</v>
+      </c>
+      <c r="B351" s="3" t="s">
+        <v>6257</v>
+      </c>
+      <c r="C351" s="3" t="s">
+        <v>6258</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A352" s="7" t="s">
+        <v>6262</v>
+      </c>
+      <c r="B352" s="3" t="s">
+        <v>6260</v>
+      </c>
+      <c r="C352" s="3" t="s">
+        <v>6261</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A353" s="7" t="s">
+        <v>6265</v>
+      </c>
+      <c r="B353" s="3" t="s">
+        <v>6263</v>
+      </c>
+      <c r="C353" s="3" t="s">
+        <v>6264</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A354" s="3" t="s">
+        <v>6267</v>
+      </c>
+      <c r="B354" s="3" t="s">
+        <v>6266</v>
+      </c>
+      <c r="C354" s="3" t="s">
+        <v>6105</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A355" s="3" t="s">
+        <v>6268</v>
+      </c>
+      <c r="B355" s="3" t="s">
+        <v>6269</v>
+      </c>
+      <c r="C355" s="3" t="s">
+        <v>6270</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A356" s="3" t="s">
+        <v>6273</v>
+      </c>
+      <c r="B356" s="3" t="s">
+        <v>6271</v>
+      </c>
+      <c r="C356" s="3" t="s">
+        <v>6272</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A357" s="3" t="s">
+        <v>6276</v>
+      </c>
+      <c r="B357" s="3" t="s">
+        <v>6274</v>
+      </c>
+      <c r="C357" s="3" t="s">
+        <v>6275</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A358" s="7" t="s">
+        <v>6281</v>
+      </c>
+      <c r="B358" s="3" t="s">
+        <v>6279</v>
+      </c>
+      <c r="C358" s="3" t="s">
+        <v>6280</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A359" s="3" t="s">
+        <v>6284</v>
+      </c>
+      <c r="B359" s="3" t="s">
+        <v>6282</v>
+      </c>
+      <c r="C359" s="3" t="s">
+        <v>6283</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A360" s="3" t="s">
+        <v>6286</v>
+      </c>
+      <c r="B360" s="3" t="s">
+        <v>6285</v>
+      </c>
+      <c r="C360" s="3" t="s">
+        <v>3083</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A361" s="21" t="s">
+        <v>6288</v>
+      </c>
+      <c r="B361" s="3" t="s">
+        <v>4105</v>
+      </c>
+      <c r="C361" s="3" t="s">
+        <v>6287</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A362" s="3" t="s">
+        <v>6291</v>
+      </c>
+      <c r="B362" s="3" t="s">
+        <v>6289</v>
+      </c>
+      <c r="C362" s="3" t="s">
+        <v>6290</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A363" s="21" t="s">
+        <v>6294</v>
+      </c>
+      <c r="B363" s="3" t="s">
+        <v>6292</v>
+      </c>
+      <c r="C363" s="3" t="s">
+        <v>6293</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A364" s="21" t="s">
+        <v>5822</v>
+      </c>
+      <c r="B364" s="3" t="s">
+        <v>5820</v>
+      </c>
+      <c r="C364" s="3" t="s">
+        <v>5821</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A365" s="3" t="s">
+        <v>6297</v>
+      </c>
+      <c r="B365" s="3" t="s">
+        <v>6295</v>
+      </c>
+      <c r="C365" s="3" t="s">
+        <v>6296</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A366" s="7" t="s">
+        <v>6299</v>
+      </c>
+      <c r="B366" s="3" t="s">
+        <v>3329</v>
+      </c>
+      <c r="C366" s="3" t="s">
+        <v>6298</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A367" s="7" t="s">
+        <v>6300</v>
+      </c>
+      <c r="B367" s="3" t="s">
+        <v>2681</v>
+      </c>
+      <c r="C367" s="3" t="s">
+        <v>2680</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A368" s="7"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A148:D148"/>
+    <mergeCell ref="A325:D325"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -39372,10 +40912,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -39492,6 +41032,14 @@
       </c>
       <c r="B13" t="s">
         <v>303</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>6277</v>
+      </c>
+      <c r="B14" t="s">
+        <v>6278</v>
       </c>
     </row>
   </sheetData>
@@ -53967,7 +55515,7 @@
       <c r="B993" t="s">
         <v>2189</v>
       </c>
-      <c r="D993" s="21"/>
+      <c r="D993" s="24"/>
       <c r="E993" t="s">
         <v>362</v>
       </c>
@@ -53982,7 +55530,7 @@
       <c r="B994" s="12" t="s">
         <v>2191</v>
       </c>
-      <c r="D994" s="21"/>
+      <c r="D994" s="24"/>
       <c r="E994" t="s">
         <v>424</v>
       </c>
@@ -72106,18 +73654,18 @@
   <sheetData>
     <row r="1" spans="1:3" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A1" s="17" t="s">
-        <v>5986</v>
+        <v>5983</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>5991</v>
+        <v>5988</v>
       </c>
       <c r="B3" s="19" t="s">
+        <v>5984</v>
+      </c>
+      <c r="C3" s="19" t="s">
         <v>5987</v>
-      </c>
-      <c r="C3" s="19" t="s">
-        <v>5990</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -72127,7 +73675,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>5992</v>
+        <v>5989</v>
       </c>
       <c r="B5" s="19" t="s">
         <v>512</v>
@@ -72138,7 +73686,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>5993</v>
+        <v>5990</v>
       </c>
       <c r="B6" s="19" t="s">
         <v>1900</v>
@@ -72149,21 +73697,21 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>5994</v>
+        <v>5991</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>5988</v>
+        <v>5985</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>5988</v>
+        <v>5985</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>5967</v>
+        <v>5964</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>5989</v>
+        <v>5986</v>
       </c>
       <c r="C8" s="18" t="s">
         <v>478</v>
@@ -72171,13 +73719,13 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>5997</v>
+        <v>5994</v>
       </c>
       <c r="B12" t="s">
-        <v>5995</v>
+        <v>5992</v>
       </c>
       <c r="C12" t="s">
-        <v>5996</v>
+        <v>5993</v>
       </c>
     </row>
   </sheetData>

--- a/Tradução - Maicon/Traduções_teste_maicon.xlsx
+++ b/Tradução - Maicon/Traduções_teste_maicon.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9581" uniqueCount="6301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9605" uniqueCount="6316">
   <si>
     <t xml:space="preserve"> description_Or</t>
   </si>
@@ -19447,6 +19447,51 @@
   </si>
   <si>
     <t>ReportHeader_Name</t>
+  </si>
+  <si>
+    <t>ReportHeader_Purchase_Order</t>
+  </si>
+  <si>
+    <t>ReportHeader_Order_Service</t>
+  </si>
+  <si>
+    <t>ReportHeader_Percentage</t>
+  </si>
+  <si>
+    <t>Seleção de Tipos de Movimentações de Inventários</t>
+  </si>
+  <si>
+    <t>Check inventories movements Types</t>
+  </si>
+  <si>
+    <t>windowTitle_SelectionOf_Inventories_Movements_Types</t>
+  </si>
+  <si>
+    <t>Movimentação de Entrada</t>
+  </si>
+  <si>
+    <t>bck_Moving_Login</t>
+  </si>
+  <si>
+    <t>Moving Login</t>
+  </si>
+  <si>
+    <t>Movimentação de Saída</t>
+  </si>
+  <si>
+    <t>Output Moving</t>
+  </si>
+  <si>
+    <t>bck_Moving_Output</t>
+  </si>
+  <si>
+    <t>Seleção de Situações Tributárias</t>
+  </si>
+  <si>
+    <t>Tax Situations selection</t>
+  </si>
+  <si>
+    <t>windowTitle_SelectionOf_Tax_Situations</t>
   </si>
 </sst>
 </file>
@@ -19936,16 +19981,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:XFD368"/>
+  <dimension ref="A1:XFD375"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A335" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A368" sqref="A368:C368"/>
+      <pane ySplit="1" topLeftCell="A197" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A201" sqref="A201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="42.140625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="47.5703125" style="3" customWidth="1"/>
     <col min="2" max="2" width="34.140625" style="3" customWidth="1"/>
     <col min="3" max="3" width="47.42578125" style="3" customWidth="1"/>
     <col min="4" max="4" width="39" style="3" customWidth="1"/>
@@ -40898,7 +40943,92 @@
       </c>
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A368" s="7"/>
+      <c r="A368" s="7" t="s">
+        <v>6301</v>
+      </c>
+      <c r="B368" s="3" t="s">
+        <v>3086</v>
+      </c>
+      <c r="C368" s="3" t="s">
+        <v>5184</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A369" s="3" t="s">
+        <v>6302</v>
+      </c>
+      <c r="B369" s="3" t="s">
+        <v>3335</v>
+      </c>
+      <c r="C369" s="3" t="s">
+        <v>5785</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A370" s="3" t="s">
+        <v>6303</v>
+      </c>
+      <c r="B370" s="3" t="s">
+        <v>2941</v>
+      </c>
+      <c r="C370" s="3" t="s">
+        <v>2942</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A371" s="21" t="s">
+        <v>6306</v>
+      </c>
+      <c r="B371" s="3" t="s">
+        <v>6304</v>
+      </c>
+      <c r="C371" s="3" t="s">
+        <v>6305</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A372" s="3" t="s">
+        <v>6308</v>
+      </c>
+      <c r="B372" s="3" t="s">
+        <v>6307</v>
+      </c>
+      <c r="C372" s="3" t="s">
+        <v>6309</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A373" s="3" t="s">
+        <v>6312</v>
+      </c>
+      <c r="B373" s="3" t="s">
+        <v>6310</v>
+      </c>
+      <c r="C373" s="3" t="s">
+        <v>6311</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A374" s="21" t="s">
+        <v>6315</v>
+      </c>
+      <c r="B374" s="3" t="s">
+        <v>6313</v>
+      </c>
+      <c r="C374" s="3" t="s">
+        <v>6314</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A375" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B375" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="C375" s="3" t="s">
+        <v>214</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Tradução - Maicon/Traduções_teste_maicon.xlsx
+++ b/Tradução - Maicon/Traduções_teste_maicon.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9605" uniqueCount="6316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9641" uniqueCount="6347">
   <si>
     <t xml:space="preserve"> description_Or</t>
   </si>
@@ -19492,6 +19492,99 @@
   </si>
   <si>
     <t>windowTitle_SelectionOf_Tax_Situations</t>
+  </si>
+  <si>
+    <t>bck_Bar_Code</t>
+  </si>
+  <si>
+    <t>Bar code</t>
+  </si>
+  <si>
+    <t>Seleção de Produto ou Serviço</t>
+  </si>
+  <si>
+    <t>Selecting Product or Service</t>
+  </si>
+  <si>
+    <t>windowTitle_SelectionOf_Product_Service</t>
+  </si>
+  <si>
+    <t>windowTitle_SelectionOf_Units</t>
+  </si>
+  <si>
+    <t>Seleção de Unidade</t>
+  </si>
+  <si>
+    <t>Unit Selection</t>
+  </si>
+  <si>
+    <t>Limpar</t>
+  </si>
+  <si>
+    <t>Clear Up</t>
+  </si>
+  <si>
+    <t>Content_Clear_Up</t>
+  </si>
+  <si>
+    <t>Receber todos.</t>
+  </si>
+  <si>
+    <t>Receive all.</t>
+  </si>
+  <si>
+    <t>toolTip_Receive_All</t>
+  </si>
+  <si>
+    <t>Comprada</t>
+  </si>
+  <si>
+    <t>Purchased</t>
+  </si>
+  <si>
+    <t>ReportHeader_Purchase</t>
+  </si>
+  <si>
+    <t>Recebida</t>
+  </si>
+  <si>
+    <t>ReportHeader_Received</t>
+  </si>
+  <si>
+    <t>Concluir recebimento do item.</t>
+  </si>
+  <si>
+    <t>Finish receipt of the item.</t>
+  </si>
+  <si>
+    <t>toolTip_Finish_Receipt_Item</t>
+  </si>
+  <si>
+    <t>Content_Cancel</t>
+  </si>
+  <si>
+    <t>Seleção de Notas Referenciadas</t>
+  </si>
+  <si>
+    <t>Notes Referenced Selection</t>
+  </si>
+  <si>
+    <t>windowTitle_SelectionOf_Notes_Referenced</t>
+  </si>
+  <si>
+    <t>Seleção de Cidades de Embarque</t>
+  </si>
+  <si>
+    <t>Boarding Cities Selection</t>
+  </si>
+  <si>
+    <t>windowTitle_SelectionOf_Boarding_Cities</t>
+  </si>
+  <si>
+    <t>Volumes</t>
+  </si>
+  <si>
+    <t>bck_Volumes</t>
   </si>
 </sst>
 </file>
@@ -19684,8 +19777,36 @@
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -19981,11 +20102,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:XFD375"/>
+  <dimension ref="A1:XFD387"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A197" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A201" sqref="A201"/>
+      <pane ySplit="1" topLeftCell="A377" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A387" sqref="A387"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -41030,6 +41151,138 @@
         <v>214</v>
       </c>
     </row>
+    <row r="376" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A376" s="3" t="s">
+        <v>6316</v>
+      </c>
+      <c r="B376" s="3" t="s">
+        <v>609</v>
+      </c>
+      <c r="C376" s="3" t="s">
+        <v>6317</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A377" s="21" t="s">
+        <v>6320</v>
+      </c>
+      <c r="B377" s="3" t="s">
+        <v>6318</v>
+      </c>
+      <c r="C377" s="3" t="s">
+        <v>6319</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A378" s="3" t="s">
+        <v>6321</v>
+      </c>
+      <c r="B378" s="3" t="s">
+        <v>6322</v>
+      </c>
+      <c r="C378" s="3" t="s">
+        <v>6323</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A379" s="3" t="s">
+        <v>6326</v>
+      </c>
+      <c r="B379" s="3" t="s">
+        <v>6324</v>
+      </c>
+      <c r="C379" s="3" t="s">
+        <v>6325</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A380" s="3" t="s">
+        <v>6329</v>
+      </c>
+      <c r="B380" s="3" t="s">
+        <v>6327</v>
+      </c>
+      <c r="C380" s="3" t="s">
+        <v>6328</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A381" s="7" t="s">
+        <v>6332</v>
+      </c>
+      <c r="B381" s="3" t="s">
+        <v>6330</v>
+      </c>
+      <c r="C381" s="3" t="s">
+        <v>6331</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A382" s="3" t="s">
+        <v>6334</v>
+      </c>
+      <c r="B382" s="3" t="s">
+        <v>6333</v>
+      </c>
+      <c r="C382" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A383" s="3" t="s">
+        <v>6337</v>
+      </c>
+      <c r="B383" s="3" t="s">
+        <v>6335</v>
+      </c>
+      <c r="C383" s="3" t="s">
+        <v>6336</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A384" s="3" t="s">
+        <v>6338</v>
+      </c>
+      <c r="B384" s="3" t="s">
+        <v>750</v>
+      </c>
+      <c r="C384" s="3" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A385" s="3" t="s">
+        <v>6341</v>
+      </c>
+      <c r="B385" s="3" t="s">
+        <v>6339</v>
+      </c>
+      <c r="C385" s="3" t="s">
+        <v>6340</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A386" s="3" t="s">
+        <v>6344</v>
+      </c>
+      <c r="B386" s="3" t="s">
+        <v>6342</v>
+      </c>
+      <c r="C386" s="3" t="s">
+        <v>6343</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A387" s="3" t="s">
+        <v>6346</v>
+      </c>
+      <c r="B387" s="3" t="s">
+        <v>6345</v>
+      </c>
+      <c r="C387" s="3" t="s">
+        <v>6345</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A148:D148"/>

--- a/Tradução - Maicon/Traduções_teste_maicon.xlsx
+++ b/Tradução - Maicon/Traduções_teste_maicon.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9641" uniqueCount="6347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10204" uniqueCount="6849">
   <si>
     <t xml:space="preserve"> description_Or</t>
   </si>
@@ -19585,6 +19585,1565 @@
   </si>
   <si>
     <t>bck_Volumes</t>
+  </si>
+  <si>
+    <t>bck_Receipt</t>
+  </si>
+  <si>
+    <t>Documentos de Entrada</t>
+  </si>
+  <si>
+    <t>Input Documents</t>
+  </si>
+  <si>
+    <t>bck_Input_Documents</t>
+  </si>
+  <si>
+    <t>Salvar Nota de Entrada</t>
+  </si>
+  <si>
+    <t>Save Entry Note</t>
+  </si>
+  <si>
+    <t>toolTip_Save_Entry_Note</t>
+  </si>
+  <si>
+    <t>Relatório Nota</t>
+  </si>
+  <si>
+    <t>Report Note</t>
+  </si>
+  <si>
+    <t>toolTip_Report_Note</t>
+  </si>
+  <si>
+    <t>Importar XML</t>
+  </si>
+  <si>
+    <t>Import XML</t>
+  </si>
+  <si>
+    <t>bck_Import_XML</t>
+  </si>
+  <si>
+    <t>BusyMsg_CheckingNFe</t>
+  </si>
+  <si>
+    <t>Aguarde, consultando NF-e...</t>
+  </si>
+  <si>
+    <t>BusyMsg_FindPrinter</t>
+  </si>
+  <si>
+    <t>Aguarde, localizando impressora fiscal...</t>
+  </si>
+  <si>
+    <t>BusyMsg_LoadingItem</t>
+  </si>
+  <si>
+    <t>Aguarde... Carregando Itens!</t>
+  </si>
+  <si>
+    <t>BusyMsg_LoadingPurchaseOrder</t>
+  </si>
+  <si>
+    <t>Aguarde... Carregando Ordem de Compra!</t>
+  </si>
+  <si>
+    <t>BusyMsg_LoadingSalesOrder</t>
+  </si>
+  <si>
+    <t>Aguarde... Carregando pedido de venda {0}.</t>
+  </si>
+  <si>
+    <t>BusyMsg_LoadingServiceOrder</t>
+  </si>
+  <si>
+    <t>Aguarde... Carregando Ordem de Serviço!</t>
+  </si>
+  <si>
+    <t>BusyMsg_SaveFile</t>
+  </si>
+  <si>
+    <t>Aguarde, salvando arquivo...</t>
+  </si>
+  <si>
+    <t>BusyMsg_SendNfe</t>
+  </si>
+  <si>
+    <t>Aguarde, enviando documento fiscal ...</t>
+  </si>
+  <si>
+    <t>Charge_FiscalClassificationNull</t>
+  </si>
+  <si>
+    <t>Não foi possível localizar uma Classificação Fiscal válida para o código NCM '{0}'.</t>
+  </si>
+  <si>
+    <t>Charge_NatureOperationNotFound</t>
+  </si>
+  <si>
+    <t>Não foi possível localizar uma natureza de operação de código {0}.</t>
+  </si>
+  <si>
+    <t>Charge_UnableImport</t>
+  </si>
+  <si>
+    <t>O arquivo XML da NF-e não pôde ser importado devido as inconsistências:_x000D_
+_x000D_
+{0}</t>
+  </si>
+  <si>
+    <t>CheckConstraint_Approved</t>
+  </si>
+  <si>
+    <t>CheckConstraint_Canceled</t>
+  </si>
+  <si>
+    <t>CheckConstraint_Denied</t>
+  </si>
+  <si>
+    <t>Denied</t>
+  </si>
+  <si>
+    <t>CheckConstraint_Printed</t>
+  </si>
+  <si>
+    <t>Printed</t>
+  </si>
+  <si>
+    <t>CheckConstraint_Refused</t>
+  </si>
+  <si>
+    <t>Refused</t>
+  </si>
+  <si>
+    <t>CheckConstraint_Rejected</t>
+  </si>
+  <si>
+    <t>CheckConstraint_Replaced</t>
+  </si>
+  <si>
+    <t>Replaced</t>
+  </si>
+  <si>
+    <t>CheckConstraint_Unusable</t>
+  </si>
+  <si>
+    <t>CheckConstraint_Waiting</t>
+  </si>
+  <si>
+    <t>Waiting</t>
+  </si>
+  <si>
+    <t>Description_SearchPerson</t>
+  </si>
+  <si>
+    <t>Clique para pesquisar a pessoa.</t>
+  </si>
+  <si>
+    <t>Description_UpdatePerson</t>
+  </si>
+  <si>
+    <t>Clique para editar as informações da pessoa.</t>
+  </si>
+  <si>
+    <t>DialogWindow_TitleSelectCertificate</t>
+  </si>
+  <si>
+    <t>Selecionar Certificado Digital</t>
+  </si>
+  <si>
+    <t>DialogWindow_TitleSend</t>
+  </si>
+  <si>
+    <t>Enviar NFe</t>
+  </si>
+  <si>
+    <t>DiscountValueNegarive</t>
+  </si>
+  <si>
+    <t>O valor de desconto não pode ser maior que o valor do documento fiscal.</t>
+  </si>
+  <si>
+    <t>Document_Suframa</t>
+  </si>
+  <si>
+    <t>DocumentFiscal_Loading</t>
+  </si>
+  <si>
+    <t>Aguarde, Carregando Documento Fiscal...</t>
+  </si>
+  <si>
+    <t>DocumentFiscal_Saving</t>
+  </si>
+  <si>
+    <t>Aguarde, Salvando Documento Fiscal...</t>
+  </si>
+  <si>
+    <t>EmailSendNFe</t>
+  </si>
+  <si>
+    <t>Prezado cliente {0}, em anexo estamos enviado o XML e o DANFE referentes nossa NFe número {1} emitida em {2}._x000D_
+&lt;br/&gt;_x000D_
+&lt;br/&gt;_x000D_
+Chave de acesso da NF-e: {7}_x000D_
+&lt;br/&gt;_x000D_
+&lt;br/&gt;_x000D_
+Como consultar a Nota Fiscal Eletrônica deste pedido?_x000D_
+Acesse o Portal da Nota Fiscal Eletrônica do Ministério da Fazenda em www.nfe.fazenda.gov.br_x000D_
+Vá até Consultas &gt; Resumo de uma Nota Fiscal Eletrônica. Digite a chave de acesso acima para acessar todas as informações sobre a NF-e_x000D_
+&lt;br/&gt;_x000D_
+&lt;br/&gt;_x000D_
+Atenciosamente,&lt;br/&gt;_x000D_
+&lt;br/&gt;_x000D_
+{3}, {4}&lt;br/&gt;_x000D_
+&lt;br/&gt;_x000D_
+{5}&lt;br/&gt;_x000D_
+{6}</t>
+  </si>
+  <si>
+    <t>EmailSendSubject</t>
+  </si>
+  <si>
+    <t>Documentos: Nota Fiscal Eletrônica Nº {0}</t>
+  </si>
+  <si>
+    <t>EmittedFiscalDocumentItemType_Additional</t>
+  </si>
+  <si>
+    <t>EmittedFiscalDocumentItemType_Group</t>
+  </si>
+  <si>
+    <t>Grouped</t>
+  </si>
+  <si>
+    <t>EmittedFiscalDocumentItemType_Normal</t>
+  </si>
+  <si>
+    <t>EmittedFiscalDocumentStage_DocumentType_Coupon</t>
+  </si>
+  <si>
+    <t>EmittedFiscalDocumentStage_DocumentType_Invoice</t>
+  </si>
+  <si>
+    <t>EmittedFiscalDocumentStage_EmissionType_ContingencyDPEC</t>
+  </si>
+  <si>
+    <t>Contingência DPEC</t>
+  </si>
+  <si>
+    <t>EmittedFiscalDocumentStage_EmissionType_ContingencyFS</t>
+  </si>
+  <si>
+    <t>Contingência FS</t>
+  </si>
+  <si>
+    <t>EmittedFiscalDocumentStage_EmissionType_ContingencyFS_DA</t>
+  </si>
+  <si>
+    <t>Contingência FS_DA</t>
+  </si>
+  <si>
+    <t>EmittedFiscalDocumentStage_EmissionType_ContingencySCAN</t>
+  </si>
+  <si>
+    <t>EmittedFiscalDocumentStage_EmissionType_Normal</t>
+  </si>
+  <si>
+    <t>EmittedFiscalDocumentStage_OperationType_Input</t>
+  </si>
+  <si>
+    <t>EmittedFiscalDocumentStage_OperationType_Output</t>
+  </si>
+  <si>
+    <t>EmittedFiscalDocumentStage_PurposeType_Additional</t>
+  </si>
+  <si>
+    <t>Adicional</t>
+  </si>
+  <si>
+    <t>EmittedFiscalDocumentStage_PurposeType_Adjudication</t>
+  </si>
+  <si>
+    <t>Adjudicação</t>
+  </si>
+  <si>
+    <t>EmittedFiscalDocumentStage_PurposeType_Adjustment</t>
+  </si>
+  <si>
+    <t>Ajuste</t>
+  </si>
+  <si>
+    <t>EmittedFiscalDocumentStage_PurposeType_Normal</t>
+  </si>
+  <si>
+    <t>EmittedFiscalDocumentStage_Situation_Approved</t>
+  </si>
+  <si>
+    <t>Aprovada</t>
+  </si>
+  <si>
+    <t>EmittedFiscalDocumentStage_Situation_Canceled</t>
+  </si>
+  <si>
+    <t>EmittedFiscalDocumentStage_Situation_Printed</t>
+  </si>
+  <si>
+    <t>Impressa</t>
+  </si>
+  <si>
+    <t>EmittedFiscalDocumentStage_Situation_Refused</t>
+  </si>
+  <si>
+    <t>Recusada</t>
+  </si>
+  <si>
+    <t>EmittedFiscalDocumentStage_Situation_Unusable</t>
+  </si>
+  <si>
+    <t>Inutilizada</t>
+  </si>
+  <si>
+    <t>EmittedFiscalDocumentStage_Situation_Waiting</t>
+  </si>
+  <si>
+    <t>Aguardando</t>
+  </si>
+  <si>
+    <t>EmittedFiscalDocumentValueNegative</t>
+  </si>
+  <si>
+    <t>O valor total do documento fiscal não pode ser negativo.</t>
+  </si>
+  <si>
+    <t>ErrorMessage_EmailNotSent</t>
+  </si>
+  <si>
+    <t>Falha ao enviar E-mail.</t>
+  </si>
+  <si>
+    <t>File_Canceled</t>
+  </si>
+  <si>
+    <t>Arquivo  XML de homologação do cancelamento da NFe.</t>
+  </si>
+  <si>
+    <t>File_CCePDF</t>
+  </si>
+  <si>
+    <t>Arquivo PDF para impressão de documento da carta de correção eletrônica.</t>
+  </si>
+  <si>
+    <t>File_CCeProtocolApproval</t>
+  </si>
+  <si>
+    <t>Arquivo XML contendo o protocolo de aprovação da carta de correção eletrônica.</t>
+  </si>
+  <si>
+    <t>File_CCeRejection</t>
+  </si>
+  <si>
+    <t>Arquivo XML contendo o motivo de rejeição da carta de correção eletrônica.</t>
+  </si>
+  <si>
+    <t>File_PDFNfe</t>
+  </si>
+  <si>
+    <t>Arquivo PDF contendo o DANFE respectiva da NF-e.</t>
+  </si>
+  <si>
+    <t>File_SentMessage</t>
+  </si>
+  <si>
+    <t>Enviado para {0} em {1}.</t>
+  </si>
+  <si>
+    <t>File_XMLNFe</t>
+  </si>
+  <si>
+    <t>Arquivo XML de distribuição contendo a NF-e autorizada e o seu respectivo protocolo de autorização de uso.</t>
+  </si>
+  <si>
+    <t>File_XmlRejected</t>
+  </si>
+  <si>
+    <t>Arquivo XML contendo a NF-e rejeitada pela SEFAZ.</t>
+  </si>
+  <si>
+    <t>File_XMLReturnFail</t>
+  </si>
+  <si>
+    <t>Arquivo XML de rejeição da solicitação.</t>
+  </si>
+  <si>
+    <t>File_XMLReturnOk</t>
+  </si>
+  <si>
+    <t>Arquivo XML aprovação da solicitação.</t>
+  </si>
+  <si>
+    <t>FileName_CCeError</t>
+  </si>
+  <si>
+    <t>CCe {0}-{1}</t>
+  </si>
+  <si>
+    <t>FileName_NfeCCePdf</t>
+  </si>
+  <si>
+    <t>NFe {0}-{1}-cce</t>
+  </si>
+  <si>
+    <t>FileName_NfeCCeXml</t>
+  </si>
+  <si>
+    <t>NFe {0}-{1}-proc-cce</t>
+  </si>
+  <si>
+    <t>FileName_NfeDANFE</t>
+  </si>
+  <si>
+    <t>Danfe-{0}</t>
+  </si>
+  <si>
+    <t>FileName_NfeResult</t>
+  </si>
+  <si>
+    <t>NFe-{0}</t>
+  </si>
+  <si>
+    <t>FileName_NfeXml</t>
+  </si>
+  <si>
+    <t>NFe-{0}-proc-nfe</t>
+  </si>
+  <si>
+    <t>FileName_NfexmlCanceled</t>
+  </si>
+  <si>
+    <t>NFe-{0}-proc-canc-nfe</t>
+  </si>
+  <si>
+    <t>FileName_NfexmlInut</t>
+  </si>
+  <si>
+    <t>{0}-proc-inut-nfe</t>
+  </si>
+  <si>
+    <t>FinalValueItemNegative</t>
+  </si>
+  <si>
+    <t>O valor final do item não pode ser negativo.</t>
+  </si>
+  <si>
+    <t>FinalValueProductNegative</t>
+  </si>
+  <si>
+    <t>O valor total dos produtos não pode ser negativo.</t>
+  </si>
+  <si>
+    <t>FinalValueServiceNegative</t>
+  </si>
+  <si>
+    <t>O valor total de serviços não pode ser negativo.</t>
+  </si>
+  <si>
+    <t>ICMS</t>
+  </si>
+  <si>
+    <t>ICMSST</t>
+  </si>
+  <si>
+    <t>IE</t>
+  </si>
+  <si>
+    <t>IE | Inscrição Estadual</t>
+  </si>
+  <si>
+    <t>IE_Free</t>
+  </si>
+  <si>
+    <t>isento</t>
+  </si>
+  <si>
+    <t>InputFiscalDocumentOrderSituation</t>
+  </si>
+  <si>
+    <t>Situação criada através do documento fiscal de entrada Nº {0} - Série {1}.</t>
+  </si>
+  <si>
+    <t>Inventory_CompanyNotAuthorized</t>
+  </si>
+  <si>
+    <t>Emissão de documento fiscal não autorizado a realizar movimentação/reserva de estoque para a companhia.</t>
+  </si>
+  <si>
+    <t>Inventory_DataForGeneratingNull</t>
+  </si>
+  <si>
+    <t>Impossível gerar movimentação/reserva de estoque porque a data de entrada/saída ainda não foi definida.</t>
+  </si>
+  <si>
+    <t>Inventory_InventoryClosed</t>
+  </si>
+  <si>
+    <t>O inventário que se inicia em {0} e vai até {1}, foi finalizado em {2}</t>
+  </si>
+  <si>
+    <t>Inventory_ItemNotMovement</t>
+  </si>
+  <si>
+    <t>Este item não permite a movimentação/reserva de estoque.</t>
+  </si>
+  <si>
+    <t>Inventory_NatureOperationNotAllowMovement</t>
+  </si>
+  <si>
+    <t>A Natureza de Operação deste item não irá movimentar/reservar o estoque.</t>
+  </si>
+  <si>
+    <t>Inventory_NotReserveWithConsumptDirect</t>
+  </si>
+  <si>
+    <t>Não é permitido gerar reserva quando há consumo direto.</t>
+  </si>
+  <si>
+    <t>Inventory_ProductCategoriesNotMovement</t>
+  </si>
+  <si>
+    <t>A categoria deste produto não permite a movimentação/reserva de estoque.</t>
+  </si>
+  <si>
+    <t>Inventory_ProductNotMovement</t>
+  </si>
+  <si>
+    <t>Este produto não permite a movimentação/reserva de estoque.</t>
+  </si>
+  <si>
+    <t>Inventory_ReservationMadeForInvoice</t>
+  </si>
+  <si>
+    <t>Reserva realizada para a emissão do Documento Fiscal Nº {0} – Série {1}.</t>
+  </si>
+  <si>
+    <t>Inventory_TypeService</t>
+  </si>
+  <si>
+    <t>Prestacao de serviço não gera movimentação/reserva de estoque.</t>
+  </si>
+  <si>
+    <t>IPI</t>
+  </si>
+  <si>
+    <t>IsBusyMsg_Wainting</t>
+  </si>
+  <si>
+    <t>ISSQN</t>
+  </si>
+  <si>
+    <t>ISSQNST</t>
+  </si>
+  <si>
+    <t>ItemIncreaseValueNegative</t>
+  </si>
+  <si>
+    <t>O valor do acréscimo não pode ser negativo.</t>
+  </si>
+  <si>
+    <t>ItemsDiscountValueNegarive</t>
+  </si>
+  <si>
+    <t>O valor do desconto não pode ser negativo.</t>
+  </si>
+  <si>
+    <t>ItemTotalValueNegative</t>
+  </si>
+  <si>
+    <t>O valor total dos itens não pode ser negativo.</t>
+  </si>
+  <si>
+    <t>Messaga_FiscalDocumentNumberInvalid</t>
+  </si>
+  <si>
+    <t>O número do documento fiscal é inválido.</t>
+  </si>
+  <si>
+    <t>Recado</t>
+  </si>
+  <si>
+    <t>Message_AccesskeyIsInvalid</t>
+  </si>
+  <si>
+    <t>A chave de acesso da nota fiscal é inválida.</t>
+  </si>
+  <si>
+    <t>Message_AccesskeyNFeReferencedIsInvalid</t>
+  </si>
+  <si>
+    <t>A chave de acesso da nota fiscal referenciada é inválida.</t>
+  </si>
+  <si>
+    <t>Message_AddressCompany</t>
+  </si>
+  <si>
+    <t>A companhia não contém um endereço válido cadastrado.</t>
+  </si>
+  <si>
+    <t>Message_BeforeChangeSituation</t>
+  </si>
+  <si>
+    <t>Para alterar a situação é necessário salvar o documento. Deseja salvar?</t>
+  </si>
+  <si>
+    <t>Message_BeforeGenerateInputDocumentReport</t>
+  </si>
+  <si>
+    <t>Para gerar o relatório da nota de entrada é necessário salvar o documento. Deseja salvar?</t>
+  </si>
+  <si>
+    <t>Message_BeforePreviewDanfe</t>
+  </si>
+  <si>
+    <t>Para pré-visualizar o DANFE é necessário salvar o documento. Deseja salvar?</t>
+  </si>
+  <si>
+    <t>Message_BlockTransaction</t>
+  </si>
+  <si>
+    <t>Pessoa Bloqueada</t>
+  </si>
+  <si>
+    <t>Message_Cancellation</t>
+  </si>
+  <si>
+    <t>Para gerar um documento de cancelamento é necessário informar uma observação do tipo Cancelamento contendo mais de 16 caracteres.</t>
+  </si>
+  <si>
+    <t>Message_CancelRelationship</t>
+  </si>
+  <si>
+    <t>O relacionamento de itens foi cancelado.</t>
+  </si>
+  <si>
+    <t>Message_CCeSend</t>
+  </si>
+  <si>
+    <t>A carta de correção eletrônica de sequência {0} para a NF-e Nº '{1}' foi aprovada. _x000D_
+O documento '{2}' contém a estrutura XML da CC-e._x000D_
+O documento '{3}' contém o documento para impressão referente a CC-e.</t>
+  </si>
+  <si>
+    <t>Message_DepartureDateEarlierIssue</t>
+  </si>
+  <si>
+    <t>A data de saída não pode ser anterior à data de emissão da NF-e.</t>
+  </si>
+  <si>
+    <t>Message_DescriptionCorrection</t>
+  </si>
+  <si>
+    <t>A descrição da correção deve conter no mínimo 15 caracteres.</t>
+  </si>
+  <si>
+    <t>Message_DiferentCNPJ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CNPJs informados não coincidem._x000D_
+_x000D_
+CNPJ do fornecedor: {0}._x000D_
+CNPJ da chave de acesso: {1}.</t>
+  </si>
+  <si>
+    <t>Message_DocumentCNPJCompany</t>
+  </si>
+  <si>
+    <t>A companhia não contém um documento do tipo CNPJ válido cadastrado.</t>
+  </si>
+  <si>
+    <t>Message_DocumentNotReferenced</t>
+  </si>
+  <si>
+    <t>É necessário selecionar uma Nota Referenciada ou preencher a Chave de Acesso.</t>
+  </si>
+  <si>
+    <t>Message_DocumentNumbeAlreadyContains</t>
+  </si>
+  <si>
+    <t>A pessoa '{0}' já contém um documento de número '{1}' da série fiscal '{2}' cadastrado.</t>
+  </si>
+  <si>
+    <t>Message_DocumentNumbeLength</t>
+  </si>
+  <si>
+    <t>O chave do documento não contém um tamanho válido.</t>
+  </si>
+  <si>
+    <t>Message_DownloadXMLInformation</t>
+  </si>
+  <si>
+    <t>Para baixar os XMLs do SEFAZ clique no botão ao lado</t>
+  </si>
+  <si>
+    <t>Message_EcfInvalid</t>
+  </si>
+  <si>
+    <t>É necessário selecionar um Emissor de Cupom Fiscal válido.</t>
+  </si>
+  <si>
+    <t>Message_ECFNotFound</t>
+  </si>
+  <si>
+    <t>Não foi possível localizar um Emissor de Cupom Fiscal contendo o Número de Série {0}. O emissor deve ser cadastrado para a impressão do Cupom Fiscal.</t>
+  </si>
+  <si>
+    <t>Message_EmailSent</t>
+  </si>
+  <si>
+    <t>Enviado com sucesso.</t>
+  </si>
+  <si>
+    <t>Message_EmissionType</t>
+  </si>
+  <si>
+    <t>É necessário selecionar o tipo de emissão.</t>
+  </si>
+  <si>
+    <t>Message_EnvironmentType</t>
+  </si>
+  <si>
+    <t>É necessário selecionar o ambiente de emissão.</t>
+  </si>
+  <si>
+    <t>Message_EventNotAccept</t>
+  </si>
+  <si>
+    <t>A evento não foi aceita pela Sefaz devido a Inconsistência:_x000D_
+{0} - {1}</t>
+  </si>
+  <si>
+    <t>Message_ExceptionNotApproved</t>
+  </si>
+  <si>
+    <t>O documento fiscal não pode ser aprovada devido à exceção:_x000D_
+{0}</t>
+  </si>
+  <si>
+    <t>Message_ExporterCodeAdd</t>
+  </si>
+  <si>
+    <t>É necessário preencher o código do exportador.</t>
+  </si>
+  <si>
+    <t>Message_FillAccountClassification</t>
+  </si>
+  <si>
+    <t>É necessário selecionar uma classificação de título.</t>
+  </si>
+  <si>
+    <t>Message_FillDocumentNumber</t>
+  </si>
+  <si>
+    <t>É necessário preencher o numero do documento para o item '{0}'.</t>
+  </si>
+  <si>
+    <t>Message_FillExportCode</t>
+  </si>
+  <si>
+    <t>É necessário preencher o código do exportador para o item '{0}'.</t>
+  </si>
+  <si>
+    <t>Message_FillFiscalSerie</t>
+  </si>
+  <si>
+    <t>É necessário selecionar uma Série Fiscal válida.</t>
+  </si>
+  <si>
+    <t>Message_FillInventoryType</t>
+  </si>
+  <si>
+    <t>É necessário selecionar o tipo de movimentação de estoque.</t>
+  </si>
+  <si>
+    <t>Message_FillItems</t>
+  </si>
+  <si>
+    <t>O documento fiscal deve conter no mínimo um item selecionado.</t>
+  </si>
+  <si>
+    <t>Message_FillLocalClearance</t>
+  </si>
+  <si>
+    <t>É necessário selecionar o local de desembaraço para o item '{0}'.</t>
+  </si>
+  <si>
+    <t>Message_FillObservation</t>
+  </si>
+  <si>
+    <t>É necessário preencher uma descrição para a observação.</t>
+  </si>
+  <si>
+    <t>Message_FillObservationType</t>
+  </si>
+  <si>
+    <t>É necessário selecionar um tipo para a observação.</t>
+  </si>
+  <si>
+    <t>Message_FillPaymentCondition</t>
+  </si>
+  <si>
+    <t>É necessário selecionar uma condição de pagamento.</t>
+  </si>
+  <si>
+    <t>Message_FillPerson</t>
+  </si>
+  <si>
+    <t>É necessário selecionar uma pessoa para o documento.</t>
+  </si>
+  <si>
+    <t>Message_FiscalSerie</t>
+  </si>
+  <si>
+    <t>A série fiscal não contém uma série válida cadastrada.</t>
+  </si>
+  <si>
+    <t>Message_FiscalSerieMode</t>
+  </si>
+  <si>
+    <t>A série fiscal não contém um modelo fiscal válido cadastrado.</t>
+  </si>
+  <si>
+    <t>Message_FiscalSerieNumber</t>
+  </si>
+  <si>
+    <t>A série fiscal não contém numero atual do documento válido.</t>
+  </si>
+  <si>
+    <t>Message_IntegrationServiceCheckInvoice</t>
+  </si>
+  <si>
+    <t>Para Consultar NFe é necessário que o serviço de integração esteja disponível.</t>
+  </si>
+  <si>
+    <t>Message_IntegrationServiceCheckIsActive</t>
+  </si>
+  <si>
+    <t>Para realizar esta operação o serviço de integração deve estar ativo.</t>
+  </si>
+  <si>
+    <t>Message_IntegrationServiceCoupon</t>
+  </si>
+  <si>
+    <t>Para imprimir o Cupom é necessário que o serviço de integração esteja disponível.</t>
+  </si>
+  <si>
+    <t>Message_IntegrationServiceEmails</t>
+  </si>
+  <si>
+    <t>Para enviar emails é necessário que o serviço de integração esteja disponível.</t>
+  </si>
+  <si>
+    <t>Message_IntegrationServiceNFe</t>
+  </si>
+  <si>
+    <t>Para o envio da NFe é necessário que o serviço de integração esteja disponível.</t>
+  </si>
+  <si>
+    <t>Message_IntervalCreationDate</t>
+  </si>
+  <si>
+    <t>O intervalo entre a data atual e a data de criação ({0}) é maior que seis meses, deseja salvar assim mesmo?</t>
+  </si>
+  <si>
+    <t>Message_IntervalReferenceCreationDate</t>
+  </si>
+  <si>
+    <t>O intervalo entre a data atual e as datas de referência ({0}) e criação ({0}) é maior que seis meses, deseja salvar assim mesmo?</t>
+  </si>
+  <si>
+    <t>Message_IntervalReferenceDate</t>
+  </si>
+  <si>
+    <t>O intervalo entre a data atual e a data de referência ({0}) é maior que seis meses, deseja salvar assim mesmo?</t>
+  </si>
+  <si>
+    <t>Message_InvalidCertificate</t>
+  </si>
+  <si>
+    <t>A companhia não contém um certificado digital válido para realizar a conexão com a Sefaz.</t>
+  </si>
+  <si>
+    <t>Message_InvalidCTeReference</t>
+  </si>
+  <si>
+    <t>Documento de Conhecimento de Transporte deve conter ao menos uma nota referenciada.</t>
+  </si>
+  <si>
+    <t>Message_InvalidFile</t>
+  </si>
+  <si>
+    <t>O arquivo da NF-e não pode ser processado. Certifique-se que a estrutura XML é válida.</t>
+  </si>
+  <si>
+    <t>Message_InvalidItemTaxes</t>
+  </si>
+  <si>
+    <t>A soma dos impostos dos itens não fecha com os impostos da nota.</t>
+  </si>
+  <si>
+    <t>Message_IssueDateFutureOrMoreDays</t>
+  </si>
+  <si>
+    <t>A data de emissão não pode ser futura ou ter ocorrido há mais de 30 dias.</t>
+  </si>
+  <si>
+    <t>Message_IssueDateLaterReceipt</t>
+  </si>
+  <si>
+    <t>A data de emissão não pode ser posterior à data de recebimento da NF-e.</t>
+  </si>
+  <si>
+    <t>Message_ItemNoRelationship</t>
+  </si>
+  <si>
+    <t>Para concluir a importação da NF-e obrigatoriamente todos os itens do arquivo devem conter um relacionamento com um item cadastrado.</t>
+  </si>
+  <si>
+    <t>Message_ItemsCTe</t>
+  </si>
+  <si>
+    <t>É necessario selecionar um item para nota de conhecimento de transporte.</t>
+  </si>
+  <si>
+    <t>Message_LocalBoarding</t>
+  </si>
+  <si>
+    <t>É necessário selecionar a cidade de embarque.</t>
+  </si>
+  <si>
+    <t>Message_MinimumValuePaymentCondition</t>
+  </si>
+  <si>
+    <t>Para essa condição de pagamento o valor mínimo de faturamento é {0}.</t>
+  </si>
+  <si>
+    <t>Message_MinLengthObservation</t>
+  </si>
+  <si>
+    <t>A descrição da observação deve conter no mínimo 16 caracteres.</t>
+  </si>
+  <si>
+    <t>Message_NatureOperationItem</t>
+  </si>
+  <si>
+    <t>É necessário informar uma natureza de operação para o item.</t>
+  </si>
+  <si>
+    <t>Message_NecessaryInformationForDownload</t>
+  </si>
+  <si>
+    <t>Para realizar esta operação é necessário certificado digital instalado nessa máquina.</t>
+  </si>
+  <si>
+    <t>Message_NegativeReservedQuantity</t>
+  </si>
+  <si>
+    <t>A quantidade reservada não pode ser negativa.</t>
+  </si>
+  <si>
+    <t>Message_NFeCanceled</t>
+  </si>
+  <si>
+    <t>O Cancelamento da nota fiscal Nº '{0}' foi homologado. _x000D_
+O documento '{1}' contém a estrutura XML de cancelamento NF-e._x000D_
+O documento '{2}' contém o DANFE de cancelamento da NF-e.</t>
+  </si>
+  <si>
+    <t>Message_NFeNotAccept</t>
+  </si>
+  <si>
+    <t>A NF-e não foi aceita pela Sefaz devido a Inconsistência:_x000D_
+{0} - {1}</t>
+  </si>
+  <si>
+    <t>Message_NfeNotBeApproved</t>
+  </si>
+  <si>
+    <t>A NF-e de chave {0} não pode ser aprovada, verifique a Inconsistência abaixo:_x000D_
+{1} - {2}.</t>
+  </si>
+  <si>
+    <t>Message_NFeNotSalved</t>
+  </si>
+  <si>
+    <t>As notas fiscais ainda não contem uma chave valida para consulta, é necessário que a criação do documento seja concluída.</t>
+  </si>
+  <si>
+    <t>Message_NFeRejected</t>
+  </si>
+  <si>
+    <t>A nota fiscal foi rejeitada pela SEFAZ pelo motivo: _x000D_
+{0}_x000D_
+_x000D_
+O arquivo de retorno da SEFAZ com especificações técnicas estão salvos nos documentos.</t>
+  </si>
+  <si>
+    <t>Message_NFeSend</t>
+  </si>
+  <si>
+    <t>A nota fiscal Nº '{0}' foi aprovada. _x000D_
+O documento '{1}' contém a estrutura XML da NF-e._x000D_
+O documento '{2}' contém o DANFE referente a NF-e.</t>
+  </si>
+  <si>
+    <t>Message_NfeServiceException</t>
+  </si>
+  <si>
+    <t>A aplicação não pode se comunicar com o serviço de envio da NFe, devido a exceção:_x000D_
+{0}</t>
+  </si>
+  <si>
+    <t>Message_NFeUnusable</t>
+  </si>
+  <si>
+    <t>A inutilização da NFe Nº '{0}' foi homologada. _x000D_
+O documento '{1}' contém as informações de autorização da inutilização da NF-e.</t>
+  </si>
+  <si>
+    <t>Message_NotCanceled</t>
+  </si>
+  <si>
+    <t>Não é possível cancelar a NF-e, a data limite para o cancelamento do documento é 24 horas após a data de autorização ({0}).</t>
+  </si>
+  <si>
+    <t>Message_NotEnoughStock</t>
+  </si>
+  <si>
+    <t>A quantidade reservada não pode ser maior que a quantidade em estoque._x000D_
+A Companhia está configurada para não permitir estoque negativo.</t>
+  </si>
+  <si>
+    <t>Message_NotFindItemBarCode</t>
+  </si>
+  <si>
+    <t>Não foi possível localizar um item através do código de barra '{0}'.</t>
+  </si>
+  <si>
+    <t>Message_NotInitialized</t>
+  </si>
+  <si>
+    <t>O serviço de integração não foi inicializado. Não será possível imprimir o cupom fiscal.</t>
+  </si>
+  <si>
+    <t>Message_NotPrinted</t>
+  </si>
+  <si>
+    <t>A aplicação não pode completar a impressão do documento fiscal devido à inconsistência:_x000D_
+{0}</t>
+  </si>
+  <si>
+    <t>Message_NotPrinter</t>
+  </si>
+  <si>
+    <t>Para a impressão de Cupom é indispensável à conectividade com uma impressora fiscal cadastrada nos Emissores de Cupons Fiscais. _x000D_
+Porém não foi possível comunicar-se com a impressora, devido à inconsistência:_x000D_
+{0}</t>
+  </si>
+  <si>
+    <t>Message_NotSendNFe</t>
+  </si>
+  <si>
+    <t>Não foi possível enviar a NF-e devido ao erro:_x000D_
+{0} - {1}</t>
+  </si>
+  <si>
+    <t>Message_NullDocumentDate</t>
+  </si>
+  <si>
+    <t>A data do documento não pode ser nula.</t>
+  </si>
+  <si>
+    <t>Message_NullReferenceDate</t>
+  </si>
+  <si>
+    <t>A data de referência não pode ser nula.</t>
+  </si>
+  <si>
+    <t>Message_NumberIsInvalid</t>
+  </si>
+  <si>
+    <t>O documento fiscal não contém um numero válido.</t>
+  </si>
+  <si>
+    <t>Message_PaymentConditionNumberParcels</t>
+  </si>
+  <si>
+    <t>A condição de pagamento não deve conter o número de parcelas menor que a quantidade de parcelas já quitadas.</t>
+  </si>
+  <si>
+    <t>Message_PersonAddressInvalid</t>
+  </si>
+  <si>
+    <t>A pessoa não contêm um endereço válido.</t>
+  </si>
+  <si>
+    <t>Message_PersonDocumentInvalid</t>
+  </si>
+  <si>
+    <t>A pessoa não contêm um documento do tipo CNPJ válido.</t>
+  </si>
+  <si>
+    <t>Message_PrinterNotConected</t>
+  </si>
+  <si>
+    <t>A Aplicação não pode se comunicar com a impressora fiscal. Devido à inconsistência:_x000D_
+{0}</t>
+  </si>
+  <si>
+    <t>Message_ProductsValueOtherSumProducts</t>
+  </si>
+  <si>
+    <t>O valor da soma dos itens não corresponde ao valor total de produtos e serviços informados.</t>
+  </si>
+  <si>
+    <t>Message_QuantityItemDifferentPurchaseOrder</t>
+  </si>
+  <si>
+    <t>Quantidade não confere com o item da Ordem de Compra.</t>
+  </si>
+  <si>
+    <t>Message_ReasonException</t>
+  </si>
+  <si>
+    <t>O valor do imposto não condiz com a modalidade de isenção.</t>
+  </si>
+  <si>
+    <t>Message_SaveNFe</t>
+  </si>
+  <si>
+    <t>Para efetuar o envio da NF-e é necessário salvar o documento. Deseja salvar?</t>
+  </si>
+  <si>
+    <t>Message_SelectEmailToRecipient</t>
+  </si>
+  <si>
+    <t>É necessario selecionar um email para o destinatário.</t>
+  </si>
+  <si>
+    <t>Message_SelectFileToSend</t>
+  </si>
+  <si>
+    <t>É necessario selecionar um arquivo para o envio.</t>
+  </si>
+  <si>
+    <t>Message_SendEmail</t>
+  </si>
+  <si>
+    <t>Deseja enviar por e-mail os arquivos da NFe?</t>
+  </si>
+  <si>
+    <t>Message_StateCompanyCode</t>
+  </si>
+  <si>
+    <t>O estado da companhia não contém um código válido cadastrado.</t>
+  </si>
+  <si>
+    <t>Message_StatePersonCode</t>
+  </si>
+  <si>
+    <t>O estado da pessoa não contém um código válido cadastrado.</t>
+  </si>
+  <si>
+    <t>Message_StatusServiceOffline</t>
+  </si>
+  <si>
+    <t>Não foi possivel conectar com o servidor da Sefaz:_x000D_
+{0} - {1}</t>
+  </si>
+  <si>
+    <t>Message_Subject</t>
+  </si>
+  <si>
+    <t>A mensagem deve conter um assunto.</t>
+  </si>
+  <si>
+    <t>Message_SumValuesDepartment</t>
+  </si>
+  <si>
+    <t>O somatório dos valores de rateio dos departamentos difere em {0} do total do documento.</t>
+  </si>
+  <si>
+    <t>Message_TaxSituationItem</t>
+  </si>
+  <si>
+    <t>É necessário selecionar a situação tributária do imposto do item.</t>
+  </si>
+  <si>
+    <t>Message_TotalScore</t>
+  </si>
+  <si>
+    <t>A soma dos títulos não fecha com o total da nota.</t>
+  </si>
+  <si>
+    <t>Message_TotalValueOtherValue</t>
+  </si>
+  <si>
+    <t>O valor total informado para o documento não corresponde ao valor total calculado.</t>
+  </si>
+  <si>
+    <t>Message_Transporter</t>
+  </si>
+  <si>
+    <t>É necessário selecionar a transportadora.</t>
+  </si>
+  <si>
+    <t>Message_TransporterBlocked</t>
+  </si>
+  <si>
+    <t>Transportadora bloqueada</t>
+  </si>
+  <si>
+    <t>Message_Unusable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Para gerar um documento inutilizado é necessário informar uma observação do tipo Inutilização contendo mais de 16 caracteres._x000D_
+</t>
+  </si>
+  <si>
+    <t>Message_UpdateProducts</t>
+  </si>
+  <si>
+    <t>Houveram alterações no Preço de Custo dos itens relacionados abaixo. Você pode utilizar este recurso para atualizar o Preço de Custo, Margem Bruta e o_x000D_
+Preço de Venda dos produtos. Selecione os produtos que você deseja realizar a atualização de valores.</t>
+  </si>
+  <si>
+    <t>Message_UserEmailInvalid</t>
+  </si>
+  <si>
+    <t>O usuário '{0}' não contem um email para envio válido cadastrado.</t>
+  </si>
+  <si>
+    <t>Message_ValueItemDifferentPurchaseOrder</t>
+  </si>
+  <si>
+    <t>Valor não confere com o item da Odem de Compra.</t>
+  </si>
+  <si>
+    <t>Message_ValuePortionNotBeZero</t>
+  </si>
+  <si>
+    <t>O valor da parcela não pode ser igual a zero.</t>
+  </si>
+  <si>
+    <t>Message_VersionProcessEmission</t>
+  </si>
+  <si>
+    <t>É necessário informar a versão do documento.</t>
+  </si>
+  <si>
+    <t>Message_WarningPaymentCondition</t>
+  </si>
+  <si>
+    <t>Condição de Pagamento diferente da Ordem de Compra.</t>
+  </si>
+  <si>
+    <t>Message_WarningShippingMode</t>
+  </si>
+  <si>
+    <t>Modalidade de frete diferente da Ordem de Compra.</t>
+  </si>
+  <si>
+    <t>Mimi_TypePDF</t>
+  </si>
+  <si>
+    <t>.pdf</t>
+  </si>
+  <si>
+    <t>Mimi_TypeXML</t>
+  </si>
+  <si>
+    <t>.xml</t>
+  </si>
+  <si>
+    <t>Name_NfeDANFE</t>
+  </si>
+  <si>
+    <t>{0}.pdf</t>
+  </si>
+  <si>
+    <t>Name_NfeResult</t>
+  </si>
+  <si>
+    <t>{0}.xml</t>
+  </si>
+  <si>
+    <t>Name_NfeXml</t>
+  </si>
+  <si>
+    <t>{0}-proc-nfe.xml</t>
+  </si>
+  <si>
+    <t>Name_NfexmlCanceled</t>
+  </si>
+  <si>
+    <t>{0}-proc-canc-nfe.xml</t>
+  </si>
+  <si>
+    <t>Name_XMLRejected</t>
+  </si>
+  <si>
+    <t>NFe {0}-nfe</t>
+  </si>
+  <si>
+    <t>Node_Reason</t>
+  </si>
+  <si>
+    <t>xMotivo</t>
+  </si>
+  <si>
+    <t>Node_Status</t>
+  </si>
+  <si>
+    <t>cStat</t>
+  </si>
+  <si>
+    <t>NotDelete_EmittedFicalDocument</t>
+  </si>
+  <si>
+    <t>Registro não pode ser removido quando situação é '{0}'.</t>
+  </si>
+  <si>
+    <t>Observation_DeferralICMSFinal</t>
+  </si>
+  <si>
+    <t>conforme a legislação.</t>
+  </si>
+  <si>
+    <t>Observation_DeferralICMSInitial</t>
+  </si>
+  <si>
+    <t>Operação com diferimento parcial de imposto no valor de</t>
+  </si>
+  <si>
+    <t>Observation_RealOrPerceived</t>
+  </si>
+  <si>
+    <t>Empresa Optante pelo Simples Nacional, permite o aproveitamento de crédito de ICMS no valor de R$ {0} correspondente a alíquota de {1}% , nos termos do Art. 23 da LC 123/08.</t>
+  </si>
+  <si>
+    <t>Observation_Single</t>
+  </si>
+  <si>
+    <t>Documento emitido por ME ou EPP optantes pelo Simples Nacional, não Gera Direito a Crédito Fiscal de IPI.</t>
+  </si>
+  <si>
+    <t>Observation_SingleICMS</t>
+  </si>
+  <si>
+    <t>ICMS Cobrado antecipadamente por substituição Tributária ou por antecipação.</t>
+  </si>
+  <si>
+    <t>Observation_TaxedValue</t>
+  </si>
+  <si>
+    <t>Tributos Lei 12.741/2012 {0:C} ( {1:0.00}% ) Fonte: IBPT</t>
+  </si>
+  <si>
+    <t>Observation_TaxedValueInitial</t>
+  </si>
+  <si>
+    <t>Tributos Lei 12.741/2012</t>
+  </si>
+  <si>
+    <t>Private</t>
+  </si>
+  <si>
+    <t>ProductsNoPoject</t>
+  </si>
+  <si>
+    <t>Itens adicionais sem projeto</t>
+  </si>
+  <si>
+    <t>QuestionPurchaseOrder_BillTotalItem</t>
+  </si>
+  <si>
+    <t>Existe um item com quantidade pendente na ordem de compra '{0}'. Deseja receber completamente a ordem de compra, _x000D_
+zerando a quantidade pendente do item abaixo?</t>
+  </si>
+  <si>
+    <t>QuestionPurchaseOrder_BillTotalItems</t>
+  </si>
+  <si>
+    <t>Existem itens com quantidade pendente na ordem de compra '{0}'. Deseja faturar completamente a ordem de compra, _x000D_
+zerando a quantidade pendente dos itens abaixo?</t>
+  </si>
+  <si>
+    <t>QuestionPurchaseOrder_CleanTotalItem</t>
+  </si>
+  <si>
+    <t>A quantidade recebida do item da ordem de compra '{0}',  não está referenciada em um documento fiscal recebido. _x000D_
+Deseja zerar a quantidade recebida do item?</t>
+  </si>
+  <si>
+    <t>QuestionPurchaseOrder_CleanTotalItems</t>
+  </si>
+  <si>
+    <t>As quantidades recebidas dos itens da ordem de compra '{0}', não estão referenciadas nos documentos fiscais recebidos._x000D_
+Deseja zerar a quantidade recebidas dos itens?</t>
+  </si>
+  <si>
+    <t>QuestionSaleOrder_BillTotalItem</t>
+  </si>
+  <si>
+    <t>Existe um item com quantidade pendente no pedido de venda '{0}'. Deseja faturar completamente o pedido de venda, _x000D_
+zerando a quantidade pendente do item abaixo?</t>
+  </si>
+  <si>
+    <t>QuestionSaleOrder_BillTotalItems</t>
+  </si>
+  <si>
+    <t>Existem itens com quantidade pendente no pedido de venda '{0}'. Deseja faturar completamente o pedido de venda, _x000D_
+zerando a quantidade pendente dos itens abaixo?</t>
+  </si>
+  <si>
+    <t>QuestionSaleOrder_CleanTotalItem</t>
+  </si>
+  <si>
+    <t>A quantidade faturada do item do pedido de venda '{0}',  não está referenciada em um documento fiscal emitido. _x000D_
+Deseja zerar a quantidade faturada do item?</t>
+  </si>
+  <si>
+    <t>QuestionSaleOrder_CleanTotalItems</t>
+  </si>
+  <si>
+    <t>As quantidades faturadas dos itens do pedido de venda '{0}', não estão referenciadas nos documentos fiscais emitidos._x000D_
+Deseja zerar a quantidade faturada dos itens?</t>
+  </si>
+  <si>
+    <t>QuestionSelectedDigitalCertificate</t>
+  </si>
+  <si>
+    <t>Selecione o certificado digital responsável pela assinatura da NF-e:</t>
+  </si>
+  <si>
+    <t>SaleOrderSituationDescription</t>
+  </si>
+  <si>
+    <t>Situação criada através da emissão do documento fiscal Nº {0} - Série {1}.</t>
+  </si>
+  <si>
+    <t>SendButtonTitle_ECF</t>
+  </si>
+  <si>
+    <t>Imprimir Documento Fiscal.</t>
+  </si>
+  <si>
+    <t>SendButtonTitle_NFe</t>
+  </si>
+  <si>
+    <t>Enviar para Sefaz.</t>
+  </si>
+  <si>
+    <t>Situation_PartiallyMet</t>
+  </si>
+  <si>
+    <t>Parcialmente Atendido</t>
+  </si>
+  <si>
+    <t>Situation_PartiallyReceived</t>
+  </si>
+  <si>
+    <t>Parcialmente Recebido</t>
+  </si>
+  <si>
+    <t>Situation_Pending</t>
+  </si>
+  <si>
+    <t>Situation_Received</t>
+  </si>
+  <si>
+    <t>Situation_ReceivedMoreThanPurchased</t>
+  </si>
+  <si>
+    <t>Quantidade recebida maior que comprada.</t>
+  </si>
+  <si>
+    <t>Status_Approved</t>
+  </si>
+  <si>
+    <t>Autorizado</t>
+  </si>
+  <si>
+    <t>Status_Canceled</t>
+  </si>
+  <si>
+    <t>Status_Denied</t>
+  </si>
+  <si>
+    <t>Denegada</t>
+  </si>
+  <si>
+    <t>Status_NotApproved</t>
+  </si>
+  <si>
+    <t>Não Autorizado</t>
+  </si>
+  <si>
+    <t>Status_NotPrinted</t>
+  </si>
+  <si>
+    <t>Não Impresso</t>
+  </si>
+  <si>
+    <t>Status_Printed</t>
+  </si>
+  <si>
+    <t>Impresso</t>
+  </si>
+  <si>
+    <t>Status_Rejected</t>
+  </si>
+  <si>
+    <t>Rejeitada</t>
+  </si>
+  <si>
+    <t>Status_Replaced</t>
+  </si>
+  <si>
+    <t>Substituida</t>
+  </si>
+  <si>
+    <t>Status_Unusable</t>
+  </si>
+  <si>
+    <t>Title_CheckNFe</t>
+  </si>
+  <si>
+    <t>Informações da NF-e</t>
+  </si>
+  <si>
+    <t>Title_PersonForm</t>
+  </si>
+  <si>
+    <t>Title_Relationship</t>
+  </si>
+  <si>
+    <t>Relacionamento de Itens</t>
+  </si>
+  <si>
+    <t>Title_SelaOrderItems</t>
+  </si>
+  <si>
+    <t>Manutenção de Pedido de Venda</t>
+  </si>
+  <si>
+    <t>Title_UpdateProducts</t>
+  </si>
+  <si>
+    <t>Atualizações de Produtos</t>
+  </si>
+  <si>
+    <t>Resource já exixtente</t>
   </si>
 </sst>
 </file>
@@ -20102,11 +21661,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:XFD387"/>
+  <dimension ref="A1:XFD666"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A377" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A387" sqref="A387"/>
+      <selection pane="bottomLeft" activeCell="A395" sqref="A395"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -41250,7 +42809,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="385" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A385" s="3" t="s">
         <v>6341</v>
       </c>
@@ -41261,7 +42820,7 @@
         <v>6340</v>
       </c>
     </row>
-    <row r="386" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A386" s="3" t="s">
         <v>6344</v>
       </c>
@@ -41272,7 +42831,7 @@
         <v>6343</v>
       </c>
     </row>
-    <row r="387" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A387" s="3" t="s">
         <v>6346</v>
       </c>
@@ -41283,10 +42842,2261 @@
         <v>6345</v>
       </c>
     </row>
+    <row r="388" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A388" s="3" t="s">
+        <v>6347</v>
+      </c>
+      <c r="B388" s="3" t="s">
+        <v>3123</v>
+      </c>
+      <c r="C388" s="3" t="s">
+        <v>3120</v>
+      </c>
+    </row>
+    <row r="389" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A389" s="3" t="s">
+        <v>6350</v>
+      </c>
+      <c r="B389" s="3" t="s">
+        <v>6348</v>
+      </c>
+      <c r="C389" s="3" t="s">
+        <v>6349</v>
+      </c>
+    </row>
+    <row r="390" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A390" s="3" t="s">
+        <v>6116</v>
+      </c>
+      <c r="B390" s="3" t="s">
+        <v>993</v>
+      </c>
+      <c r="C390" s="3" t="s">
+        <v>6115</v>
+      </c>
+    </row>
+    <row r="391" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A391" s="3" t="s">
+        <v>6353</v>
+      </c>
+      <c r="B391" s="3" t="s">
+        <v>6351</v>
+      </c>
+      <c r="C391" s="3" t="s">
+        <v>6352</v>
+      </c>
+    </row>
+    <row r="392" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A392" s="3" t="s">
+        <v>6356</v>
+      </c>
+      <c r="B392" s="3" t="s">
+        <v>6354</v>
+      </c>
+      <c r="C392" s="3" t="s">
+        <v>6355</v>
+      </c>
+    </row>
+    <row r="393" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A393" s="3" t="s">
+        <v>6359</v>
+      </c>
+      <c r="B393" s="3" t="s">
+        <v>6357</v>
+      </c>
+      <c r="C393" s="3" t="s">
+        <v>6358</v>
+      </c>
+    </row>
+    <row r="394" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A394" s="23" t="s">
+        <v>6848</v>
+      </c>
+      <c r="B394" s="23"/>
+      <c r="C394" s="23"/>
+      <c r="D394" s="23"/>
+    </row>
+    <row r="395" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A395" s="3" t="s">
+        <v>6360</v>
+      </c>
+      <c r="B395" s="3" t="s">
+        <v>6361</v>
+      </c>
+    </row>
+    <row r="396" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A396" s="3" t="s">
+        <v>6362</v>
+      </c>
+      <c r="B396" s="3" t="s">
+        <v>6363</v>
+      </c>
+    </row>
+    <row r="397" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A397" s="3" t="s">
+        <v>6364</v>
+      </c>
+      <c r="B397" s="3" t="s">
+        <v>6365</v>
+      </c>
+    </row>
+    <row r="398" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A398" s="3" t="s">
+        <v>6366</v>
+      </c>
+      <c r="B398" s="3" t="s">
+        <v>6367</v>
+      </c>
+    </row>
+    <row r="399" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A399" s="3" t="s">
+        <v>6368</v>
+      </c>
+      <c r="B399" s="3" t="s">
+        <v>6369</v>
+      </c>
+    </row>
+    <row r="400" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A400" s="3" t="s">
+        <v>6370</v>
+      </c>
+      <c r="B400" s="3" t="s">
+        <v>6371</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A401" s="3" t="s">
+        <v>6372</v>
+      </c>
+      <c r="B401" s="3" t="s">
+        <v>6373</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A402" s="3" t="s">
+        <v>6374</v>
+      </c>
+      <c r="B402" s="3" t="s">
+        <v>6375</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A403" s="3" t="s">
+        <v>6376</v>
+      </c>
+      <c r="B403" s="3" t="s">
+        <v>6377</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A404" s="3" t="s">
+        <v>6378</v>
+      </c>
+      <c r="B404" s="3" t="s">
+        <v>6379</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A405" s="3" t="s">
+        <v>6380</v>
+      </c>
+      <c r="B405" s="5" t="s">
+        <v>6381</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A406" s="3" t="s">
+        <v>6382</v>
+      </c>
+      <c r="B406" s="3" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A407" s="3" t="s">
+        <v>6383</v>
+      </c>
+      <c r="B407" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A408" s="3" t="s">
+        <v>6384</v>
+      </c>
+      <c r="B408" s="3" t="s">
+        <v>6385</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A409" s="3" t="s">
+        <v>6386</v>
+      </c>
+      <c r="B409" s="3" t="s">
+        <v>6387</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A410" s="3" t="s">
+        <v>6388</v>
+      </c>
+      <c r="B410" s="3" t="s">
+        <v>6389</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A411" s="3" t="s">
+        <v>6390</v>
+      </c>
+      <c r="B411" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A412" s="3" t="s">
+        <v>6391</v>
+      </c>
+      <c r="B412" s="3" t="s">
+        <v>6392</v>
+      </c>
+    </row>
+    <row r="413" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A413" s="3" t="s">
+        <v>6393</v>
+      </c>
+      <c r="B413" s="3" t="s">
+        <v>5817</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A414" s="3" t="s">
+        <v>6394</v>
+      </c>
+      <c r="B414" s="3" t="s">
+        <v>6395</v>
+      </c>
+    </row>
+    <row r="415" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A415" s="3" t="s">
+        <v>894</v>
+      </c>
+      <c r="B415" s="3" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="416" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A416" s="3" t="s">
+        <v>966</v>
+      </c>
+      <c r="B416" s="3" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="417" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A417" s="3" t="s">
+        <v>986</v>
+      </c>
+      <c r="B417" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="418" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A418" s="3" t="s">
+        <v>987</v>
+      </c>
+      <c r="B418" s="3" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A419" s="3" t="s">
+        <v>6396</v>
+      </c>
+      <c r="B419" s="3" t="s">
+        <v>6397</v>
+      </c>
+    </row>
+    <row r="420" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A420" s="3" t="s">
+        <v>6398</v>
+      </c>
+      <c r="B420" s="3" t="s">
+        <v>6399</v>
+      </c>
+    </row>
+    <row r="421" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A421" s="3" t="s">
+        <v>6400</v>
+      </c>
+      <c r="B421" s="3" t="s">
+        <v>6401</v>
+      </c>
+    </row>
+    <row r="422" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A422" s="3" t="s">
+        <v>6402</v>
+      </c>
+      <c r="B422" s="3" t="s">
+        <v>6403</v>
+      </c>
+    </row>
+    <row r="423" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A423" s="3" t="s">
+        <v>6404</v>
+      </c>
+      <c r="B423" s="3" t="s">
+        <v>6405</v>
+      </c>
+    </row>
+    <row r="424" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A424" s="3" t="s">
+        <v>6406</v>
+      </c>
+      <c r="B424" s="3" t="s">
+        <v>3443</v>
+      </c>
+    </row>
+    <row r="425" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A425" s="3" t="s">
+        <v>6407</v>
+      </c>
+      <c r="B425" s="3" t="s">
+        <v>6408</v>
+      </c>
+    </row>
+    <row r="426" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A426" s="3" t="s">
+        <v>6409</v>
+      </c>
+      <c r="B426" s="3" t="s">
+        <v>6410</v>
+      </c>
+    </row>
+    <row r="427" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A427" s="3" t="s">
+        <v>6411</v>
+      </c>
+      <c r="B427" s="5" t="s">
+        <v>6412</v>
+      </c>
+    </row>
+    <row r="428" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A428" s="3" t="s">
+        <v>6413</v>
+      </c>
+      <c r="B428" s="3" t="s">
+        <v>6414</v>
+      </c>
+    </row>
+    <row r="429" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A429" s="3" t="s">
+        <v>6415</v>
+      </c>
+      <c r="B429" s="3" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="430" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A430" s="3" t="s">
+        <v>6416</v>
+      </c>
+      <c r="B430" s="3" t="s">
+        <v>6417</v>
+      </c>
+    </row>
+    <row r="431" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A431" s="3" t="s">
+        <v>6418</v>
+      </c>
+      <c r="B431" s="3" t="s">
+        <v>2747</v>
+      </c>
+    </row>
+    <row r="432" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A432" s="3" t="s">
+        <v>6419</v>
+      </c>
+      <c r="B432" s="3" t="s">
+        <v>5907</v>
+      </c>
+    </row>
+    <row r="433" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A433" s="3" t="s">
+        <v>6420</v>
+      </c>
+      <c r="B433" s="3" t="s">
+        <v>5796</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A434" s="3" t="s">
+        <v>6421</v>
+      </c>
+      <c r="B434" s="3" t="s">
+        <v>6422</v>
+      </c>
+    </row>
+    <row r="435" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A435" s="3" t="s">
+        <v>6423</v>
+      </c>
+      <c r="B435" s="3" t="s">
+        <v>6424</v>
+      </c>
+    </row>
+    <row r="436" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A436" s="3" t="s">
+        <v>6425</v>
+      </c>
+      <c r="B436" s="3" t="s">
+        <v>6426</v>
+      </c>
+    </row>
+    <row r="437" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A437" s="3" t="s">
+        <v>6427</v>
+      </c>
+      <c r="B437" s="3" t="s">
+        <v>5907</v>
+      </c>
+    </row>
+    <row r="438" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A438" s="3" t="s">
+        <v>6428</v>
+      </c>
+      <c r="B438" s="3" t="s">
+        <v>2747</v>
+      </c>
+    </row>
+    <row r="439" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A439" s="3" t="s">
+        <v>6429</v>
+      </c>
+      <c r="B439" s="3" t="s">
+        <v>1748</v>
+      </c>
+    </row>
+    <row r="440" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A440" s="3" t="s">
+        <v>6430</v>
+      </c>
+      <c r="B440" s="3" t="s">
+        <v>2854</v>
+      </c>
+    </row>
+    <row r="441" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A441" s="3" t="s">
+        <v>6431</v>
+      </c>
+      <c r="B441" s="3" t="s">
+        <v>6432</v>
+      </c>
+    </row>
+    <row r="442" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A442" s="3" t="s">
+        <v>6433</v>
+      </c>
+      <c r="B442" s="3" t="s">
+        <v>6434</v>
+      </c>
+    </row>
+    <row r="443" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A443" s="3" t="s">
+        <v>6435</v>
+      </c>
+      <c r="B443" s="3" t="s">
+        <v>6436</v>
+      </c>
+    </row>
+    <row r="444" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A444" s="3" t="s">
+        <v>6437</v>
+      </c>
+      <c r="B444" s="3" t="s">
+        <v>2747</v>
+      </c>
+    </row>
+    <row r="445" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A445" s="3" t="s">
+        <v>6438</v>
+      </c>
+      <c r="B445" s="3" t="s">
+        <v>6439</v>
+      </c>
+    </row>
+    <row r="446" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A446" s="3" t="s">
+        <v>6440</v>
+      </c>
+      <c r="B446" s="3" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="447" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A447" s="3" t="s">
+        <v>6441</v>
+      </c>
+      <c r="B447" s="3" t="s">
+        <v>6442</v>
+      </c>
+    </row>
+    <row r="448" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A448" s="3" t="s">
+        <v>6443</v>
+      </c>
+      <c r="B448" s="3" t="s">
+        <v>6444</v>
+      </c>
+    </row>
+    <row r="449" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A449" s="3" t="s">
+        <v>6445</v>
+      </c>
+      <c r="B449" s="3" t="s">
+        <v>6446</v>
+      </c>
+    </row>
+    <row r="450" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A450" s="3" t="s">
+        <v>6447</v>
+      </c>
+      <c r="B450" s="3" t="s">
+        <v>6448</v>
+      </c>
+    </row>
+    <row r="451" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A451" s="3" t="s">
+        <v>6449</v>
+      </c>
+      <c r="B451" s="3" t="s">
+        <v>6450</v>
+      </c>
+    </row>
+    <row r="452" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A452" s="3" t="s">
+        <v>6451</v>
+      </c>
+      <c r="B452" s="3" t="s">
+        <v>6452</v>
+      </c>
+    </row>
+    <row r="453" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A453" s="3" t="s">
+        <v>1339</v>
+      </c>
+      <c r="B453" s="3" t="s">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="454" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A454" s="3" t="s">
+        <v>6453</v>
+      </c>
+      <c r="B454" s="3" t="s">
+        <v>6454</v>
+      </c>
+    </row>
+    <row r="455" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A455" s="3" t="s">
+        <v>6455</v>
+      </c>
+      <c r="B455" s="3" t="s">
+        <v>6456</v>
+      </c>
+    </row>
+    <row r="456" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A456" s="3" t="s">
+        <v>6457</v>
+      </c>
+      <c r="B456" s="3" t="s">
+        <v>6458</v>
+      </c>
+    </row>
+    <row r="457" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A457" s="3" t="s">
+        <v>6459</v>
+      </c>
+      <c r="B457" s="3" t="s">
+        <v>6460</v>
+      </c>
+    </row>
+    <row r="458" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A458" s="3" t="s">
+        <v>6461</v>
+      </c>
+      <c r="B458" s="3" t="s">
+        <v>6462</v>
+      </c>
+    </row>
+    <row r="459" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A459" s="3" t="s">
+        <v>6463</v>
+      </c>
+      <c r="B459" s="3" t="s">
+        <v>6464</v>
+      </c>
+    </row>
+    <row r="460" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A460" s="3" t="s">
+        <v>6465</v>
+      </c>
+      <c r="B460" s="3" t="s">
+        <v>6466</v>
+      </c>
+    </row>
+    <row r="461" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A461" s="3" t="s">
+        <v>6467</v>
+      </c>
+      <c r="B461" s="3" t="s">
+        <v>6468</v>
+      </c>
+    </row>
+    <row r="462" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A462" s="3" t="s">
+        <v>6469</v>
+      </c>
+      <c r="B462" s="3" t="s">
+        <v>6470</v>
+      </c>
+    </row>
+    <row r="463" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A463" s="3" t="s">
+        <v>6471</v>
+      </c>
+      <c r="B463" s="3" t="s">
+        <v>6472</v>
+      </c>
+    </row>
+    <row r="464" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A464" s="3" t="s">
+        <v>6473</v>
+      </c>
+      <c r="B464" s="3" t="s">
+        <v>6474</v>
+      </c>
+    </row>
+    <row r="465" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A465" s="3" t="s">
+        <v>6475</v>
+      </c>
+      <c r="B465" s="3" t="s">
+        <v>6476</v>
+      </c>
+    </row>
+    <row r="466" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A466" s="3" t="s">
+        <v>6477</v>
+      </c>
+      <c r="B466" s="3" t="s">
+        <v>6478</v>
+      </c>
+    </row>
+    <row r="467" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A467" s="3" t="s">
+        <v>6479</v>
+      </c>
+      <c r="B467" s="3" t="s">
+        <v>6480</v>
+      </c>
+    </row>
+    <row r="468" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A468" s="3" t="s">
+        <v>6481</v>
+      </c>
+      <c r="B468" s="3" t="s">
+        <v>6482</v>
+      </c>
+    </row>
+    <row r="469" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A469" s="3" t="s">
+        <v>6483</v>
+      </c>
+      <c r="B469" s="3" t="s">
+        <v>6484</v>
+      </c>
+    </row>
+    <row r="470" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A470" s="3" t="s">
+        <v>6485</v>
+      </c>
+      <c r="B470" s="3" t="s">
+        <v>6486</v>
+      </c>
+    </row>
+    <row r="471" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A471" s="3" t="s">
+        <v>6487</v>
+      </c>
+      <c r="B471" s="3" t="s">
+        <v>6488</v>
+      </c>
+    </row>
+    <row r="472" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A472" s="3" t="s">
+        <v>6489</v>
+      </c>
+      <c r="B472" s="3" t="s">
+        <v>6490</v>
+      </c>
+    </row>
+    <row r="473" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A473" s="3" t="s">
+        <v>6491</v>
+      </c>
+      <c r="B473" s="3" t="s">
+        <v>6492</v>
+      </c>
+    </row>
+    <row r="474" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A474" s="3" t="s">
+        <v>6493</v>
+      </c>
+      <c r="B474" s="3" t="s">
+        <v>6494</v>
+      </c>
+    </row>
+    <row r="475" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A475" s="3" t="s">
+        <v>6495</v>
+      </c>
+      <c r="B475" s="3" t="s">
+        <v>6495</v>
+      </c>
+    </row>
+    <row r="476" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A476" s="3" t="s">
+        <v>6496</v>
+      </c>
+      <c r="B476" s="3" t="s">
+        <v>6496</v>
+      </c>
+    </row>
+    <row r="477" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A477" s="3" t="s">
+        <v>6497</v>
+      </c>
+      <c r="B477" s="3" t="s">
+        <v>6498</v>
+      </c>
+    </row>
+    <row r="478" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A478" s="3" t="s">
+        <v>6499</v>
+      </c>
+      <c r="B478" s="3" t="s">
+        <v>6500</v>
+      </c>
+    </row>
+    <row r="479" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A479" s="3" t="s">
+        <v>6501</v>
+      </c>
+      <c r="B479" s="3" t="s">
+        <v>6502</v>
+      </c>
+    </row>
+    <row r="480" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A480" s="3" t="s">
+        <v>6503</v>
+      </c>
+      <c r="B480" s="3" t="s">
+        <v>6504</v>
+      </c>
+    </row>
+    <row r="481" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A481" s="3" t="s">
+        <v>6505</v>
+      </c>
+      <c r="B481" s="3" t="s">
+        <v>6506</v>
+      </c>
+    </row>
+    <row r="482" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A482" s="3" t="s">
+        <v>6507</v>
+      </c>
+      <c r="B482" s="3" t="s">
+        <v>6508</v>
+      </c>
+    </row>
+    <row r="483" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A483" s="3" t="s">
+        <v>6509</v>
+      </c>
+      <c r="B483" s="3" t="s">
+        <v>6510</v>
+      </c>
+    </row>
+    <row r="484" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A484" s="3" t="s">
+        <v>6511</v>
+      </c>
+      <c r="B484" s="3" t="s">
+        <v>6512</v>
+      </c>
+    </row>
+    <row r="485" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A485" s="3" t="s">
+        <v>6513</v>
+      </c>
+      <c r="B485" s="3" t="s">
+        <v>6514</v>
+      </c>
+    </row>
+    <row r="486" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A486" s="3" t="s">
+        <v>6515</v>
+      </c>
+      <c r="B486" s="3" t="s">
+        <v>6516</v>
+      </c>
+    </row>
+    <row r="487" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A487" s="3" t="s">
+        <v>6517</v>
+      </c>
+      <c r="B487" s="3" t="s">
+        <v>6518</v>
+      </c>
+    </row>
+    <row r="488" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A488" s="3" t="s">
+        <v>6519</v>
+      </c>
+      <c r="B488" s="3" t="s">
+        <v>6520</v>
+      </c>
+    </row>
+    <row r="489" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A489" s="3" t="s">
+        <v>6521</v>
+      </c>
+      <c r="B489" s="3" t="s">
+        <v>6522</v>
+      </c>
+    </row>
+    <row r="490" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A490" s="3" t="s">
+        <v>6523</v>
+      </c>
+      <c r="B490" s="3" t="s">
+        <v>6523</v>
+      </c>
+    </row>
+    <row r="491" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A491" s="3" t="s">
+        <v>6524</v>
+      </c>
+      <c r="B491" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="492" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A492" s="3" t="s">
+        <v>6525</v>
+      </c>
+      <c r="B492" s="3" t="s">
+        <v>6525</v>
+      </c>
+    </row>
+    <row r="493" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A493" s="3" t="s">
+        <v>6526</v>
+      </c>
+      <c r="B493" s="3" t="s">
+        <v>6526</v>
+      </c>
+    </row>
+    <row r="494" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A494" s="3" t="s">
+        <v>6527</v>
+      </c>
+      <c r="B494" s="3" t="s">
+        <v>6528</v>
+      </c>
+    </row>
+    <row r="495" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A495" s="3" t="s">
+        <v>6529</v>
+      </c>
+      <c r="B495" s="3" t="s">
+        <v>6530</v>
+      </c>
+    </row>
+    <row r="496" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A496" s="3" t="s">
+        <v>6531</v>
+      </c>
+      <c r="B496" s="3" t="s">
+        <v>6532</v>
+      </c>
+    </row>
+    <row r="497" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A497" s="3" t="s">
+        <v>6533</v>
+      </c>
+      <c r="B497" s="3" t="s">
+        <v>6534</v>
+      </c>
+    </row>
+    <row r="498" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A498" s="3" t="s">
+        <v>1945</v>
+      </c>
+      <c r="B498" s="3" t="s">
+        <v>6535</v>
+      </c>
+    </row>
+    <row r="499" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A499" s="3" t="s">
+        <v>6536</v>
+      </c>
+      <c r="B499" s="3" t="s">
+        <v>6537</v>
+      </c>
+    </row>
+    <row r="500" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A500" s="3" t="s">
+        <v>6538</v>
+      </c>
+      <c r="B500" s="3" t="s">
+        <v>6539</v>
+      </c>
+    </row>
+    <row r="501" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A501" s="3" t="s">
+        <v>6540</v>
+      </c>
+      <c r="B501" s="3" t="s">
+        <v>6541</v>
+      </c>
+    </row>
+    <row r="502" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A502" s="3" t="s">
+        <v>6542</v>
+      </c>
+      <c r="B502" s="3" t="s">
+        <v>6543</v>
+      </c>
+    </row>
+    <row r="503" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A503" s="3" t="s">
+        <v>6544</v>
+      </c>
+      <c r="B503" s="3" t="s">
+        <v>6545</v>
+      </c>
+    </row>
+    <row r="504" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A504" s="3" t="s">
+        <v>6546</v>
+      </c>
+      <c r="B504" s="3" t="s">
+        <v>6547</v>
+      </c>
+    </row>
+    <row r="505" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A505" s="3" t="s">
+        <v>6548</v>
+      </c>
+      <c r="B505" s="3" t="s">
+        <v>6549</v>
+      </c>
+    </row>
+    <row r="506" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A506" s="3" t="s">
+        <v>6550</v>
+      </c>
+      <c r="B506" s="3" t="s">
+        <v>6551</v>
+      </c>
+    </row>
+    <row r="507" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A507" s="3" t="s">
+        <v>6552</v>
+      </c>
+      <c r="B507" s="3" t="s">
+        <v>6553</v>
+      </c>
+    </row>
+    <row r="508" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A508" s="3" t="s">
+        <v>6554</v>
+      </c>
+      <c r="B508" s="5" t="s">
+        <v>6555</v>
+      </c>
+    </row>
+    <row r="509" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A509" s="3" t="s">
+        <v>6556</v>
+      </c>
+      <c r="B509" s="3" t="s">
+        <v>6557</v>
+      </c>
+    </row>
+    <row r="510" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A510" s="3" t="s">
+        <v>6558</v>
+      </c>
+      <c r="B510" s="3" t="s">
+        <v>6559</v>
+      </c>
+    </row>
+    <row r="511" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A511" s="3" t="s">
+        <v>6560</v>
+      </c>
+      <c r="B511" s="5" t="s">
+        <v>6561</v>
+      </c>
+    </row>
+    <row r="512" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A512" s="3" t="s">
+        <v>6562</v>
+      </c>
+      <c r="B512" s="3" t="s">
+        <v>6563</v>
+      </c>
+    </row>
+    <row r="513" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A513" s="3" t="s">
+        <v>6564</v>
+      </c>
+      <c r="B513" s="3" t="s">
+        <v>6565</v>
+      </c>
+    </row>
+    <row r="514" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A514" s="3" t="s">
+        <v>6566</v>
+      </c>
+      <c r="B514" s="3" t="s">
+        <v>6567</v>
+      </c>
+    </row>
+    <row r="515" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A515" s="3" t="s">
+        <v>6568</v>
+      </c>
+      <c r="B515" s="3" t="s">
+        <v>6569</v>
+      </c>
+    </row>
+    <row r="516" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A516" s="3" t="s">
+        <v>6570</v>
+      </c>
+      <c r="B516" s="3" t="s">
+        <v>6571</v>
+      </c>
+    </row>
+    <row r="517" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A517" s="3" t="s">
+        <v>6572</v>
+      </c>
+      <c r="B517" s="3" t="s">
+        <v>6573</v>
+      </c>
+    </row>
+    <row r="518" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A518" s="3" t="s">
+        <v>6574</v>
+      </c>
+      <c r="B518" s="3" t="s">
+        <v>6575</v>
+      </c>
+    </row>
+    <row r="519" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A519" s="3" t="s">
+        <v>6576</v>
+      </c>
+      <c r="B519" s="3" t="s">
+        <v>6577</v>
+      </c>
+    </row>
+    <row r="520" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A520" s="3" t="s">
+        <v>6578</v>
+      </c>
+      <c r="B520" s="3" t="s">
+        <v>6579</v>
+      </c>
+    </row>
+    <row r="521" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A521" s="3" t="s">
+        <v>6580</v>
+      </c>
+      <c r="B521" s="3" t="s">
+        <v>6581</v>
+      </c>
+    </row>
+    <row r="522" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A522" s="3" t="s">
+        <v>6582</v>
+      </c>
+      <c r="B522" s="5" t="s">
+        <v>6583</v>
+      </c>
+    </row>
+    <row r="523" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A523" s="3" t="s">
+        <v>6584</v>
+      </c>
+      <c r="B523" s="5" t="s">
+        <v>6585</v>
+      </c>
+    </row>
+    <row r="524" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A524" s="3" t="s">
+        <v>6586</v>
+      </c>
+      <c r="B524" s="3" t="s">
+        <v>6587</v>
+      </c>
+    </row>
+    <row r="525" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A525" s="3" t="s">
+        <v>6588</v>
+      </c>
+      <c r="B525" s="3" t="s">
+        <v>6589</v>
+      </c>
+    </row>
+    <row r="526" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A526" s="3" t="s">
+        <v>6590</v>
+      </c>
+      <c r="B526" s="3" t="s">
+        <v>6591</v>
+      </c>
+    </row>
+    <row r="527" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A527" s="3" t="s">
+        <v>6592</v>
+      </c>
+      <c r="B527" s="3" t="s">
+        <v>6593</v>
+      </c>
+    </row>
+    <row r="528" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A528" s="3" t="s">
+        <v>6594</v>
+      </c>
+      <c r="B528" s="3" t="s">
+        <v>6595</v>
+      </c>
+    </row>
+    <row r="529" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A529" s="3" t="s">
+        <v>6596</v>
+      </c>
+      <c r="B529" s="3" t="s">
+        <v>6597</v>
+      </c>
+    </row>
+    <row r="530" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A530" s="3" t="s">
+        <v>6598</v>
+      </c>
+      <c r="B530" s="3" t="s">
+        <v>6599</v>
+      </c>
+    </row>
+    <row r="531" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A531" s="3" t="s">
+        <v>6600</v>
+      </c>
+      <c r="B531" s="3" t="s">
+        <v>6601</v>
+      </c>
+    </row>
+    <row r="532" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A532" s="3" t="s">
+        <v>6602</v>
+      </c>
+      <c r="B532" s="3" t="s">
+        <v>6603</v>
+      </c>
+    </row>
+    <row r="533" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A533" s="3" t="s">
+        <v>6604</v>
+      </c>
+      <c r="B533" s="3" t="s">
+        <v>6605</v>
+      </c>
+    </row>
+    <row r="534" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A534" s="3" t="s">
+        <v>6606</v>
+      </c>
+      <c r="B534" s="3" t="s">
+        <v>6607</v>
+      </c>
+    </row>
+    <row r="535" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A535" s="3" t="s">
+        <v>6608</v>
+      </c>
+      <c r="B535" s="3" t="s">
+        <v>6609</v>
+      </c>
+    </row>
+    <row r="536" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A536" s="3" t="s">
+        <v>6610</v>
+      </c>
+      <c r="B536" s="3" t="s">
+        <v>6611</v>
+      </c>
+    </row>
+    <row r="537" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A537" s="3" t="s">
+        <v>6612</v>
+      </c>
+      <c r="B537" s="3" t="s">
+        <v>6613</v>
+      </c>
+    </row>
+    <row r="538" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A538" s="3" t="s">
+        <v>6614</v>
+      </c>
+      <c r="B538" s="3" t="s">
+        <v>6615</v>
+      </c>
+    </row>
+    <row r="539" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A539" s="3" t="s">
+        <v>1991</v>
+      </c>
+      <c r="B539" s="3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="540" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A540" s="3" t="s">
+        <v>6616</v>
+      </c>
+      <c r="B540" s="3" t="s">
+        <v>6617</v>
+      </c>
+    </row>
+    <row r="541" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A541" s="3" t="s">
+        <v>6618</v>
+      </c>
+      <c r="B541" s="3" t="s">
+        <v>6619</v>
+      </c>
+    </row>
+    <row r="542" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A542" s="3" t="s">
+        <v>6620</v>
+      </c>
+      <c r="B542" s="3" t="s">
+        <v>6621</v>
+      </c>
+    </row>
+    <row r="543" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A543" s="3" t="s">
+        <v>6622</v>
+      </c>
+      <c r="B543" s="3" t="s">
+        <v>6623</v>
+      </c>
+    </row>
+    <row r="544" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A544" s="3" t="s">
+        <v>6624</v>
+      </c>
+      <c r="B544" s="3" t="s">
+        <v>6625</v>
+      </c>
+    </row>
+    <row r="545" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A545" s="3" t="s">
+        <v>6626</v>
+      </c>
+      <c r="B545" s="3" t="s">
+        <v>6627</v>
+      </c>
+    </row>
+    <row r="546" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A546" s="3" t="s">
+        <v>6628</v>
+      </c>
+      <c r="B546" s="3" t="s">
+        <v>6629</v>
+      </c>
+    </row>
+    <row r="547" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A547" s="3" t="s">
+        <v>6630</v>
+      </c>
+      <c r="B547" s="3" t="s">
+        <v>6631</v>
+      </c>
+    </row>
+    <row r="548" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A548" s="3" t="s">
+        <v>6632</v>
+      </c>
+      <c r="B548" s="3" t="s">
+        <v>6633</v>
+      </c>
+    </row>
+    <row r="549" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A549" s="3" t="s">
+        <v>1994</v>
+      </c>
+      <c r="B549" s="3" t="s">
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="550" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A550" s="3" t="s">
+        <v>1996</v>
+      </c>
+      <c r="B550" s="3" t="s">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="551" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A551" s="3" t="s">
+        <v>6634</v>
+      </c>
+      <c r="B551" s="3" t="s">
+        <v>6635</v>
+      </c>
+    </row>
+    <row r="552" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A552" s="3" t="s">
+        <v>6636</v>
+      </c>
+      <c r="B552" s="3" t="s">
+        <v>6637</v>
+      </c>
+    </row>
+    <row r="553" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A553" s="3" t="s">
+        <v>6638</v>
+      </c>
+      <c r="B553" s="3" t="s">
+        <v>6639</v>
+      </c>
+    </row>
+    <row r="554" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A554" s="3" t="s">
+        <v>6640</v>
+      </c>
+      <c r="B554" s="3" t="s">
+        <v>6641</v>
+      </c>
+    </row>
+    <row r="555" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A555" s="3" t="s">
+        <v>6642</v>
+      </c>
+      <c r="B555" s="3" t="s">
+        <v>6643</v>
+      </c>
+    </row>
+    <row r="556" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A556" s="3" t="s">
+        <v>6644</v>
+      </c>
+      <c r="B556" s="3" t="s">
+        <v>6645</v>
+      </c>
+    </row>
+    <row r="557" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A557" s="3" t="s">
+        <v>6646</v>
+      </c>
+      <c r="B557" s="3" t="s">
+        <v>6647</v>
+      </c>
+    </row>
+    <row r="558" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A558" s="3" t="s">
+        <v>6648</v>
+      </c>
+      <c r="B558" s="3" t="s">
+        <v>6649</v>
+      </c>
+    </row>
+    <row r="559" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A559" s="3" t="s">
+        <v>6650</v>
+      </c>
+      <c r="B559" s="3" t="s">
+        <v>6651</v>
+      </c>
+    </row>
+    <row r="560" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A560" s="3" t="s">
+        <v>6652</v>
+      </c>
+      <c r="B560" s="3" t="s">
+        <v>6653</v>
+      </c>
+    </row>
+    <row r="561" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A561" s="3" t="s">
+        <v>6654</v>
+      </c>
+      <c r="B561" s="3" t="s">
+        <v>6655</v>
+      </c>
+    </row>
+    <row r="562" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A562" s="3" t="s">
+        <v>6656</v>
+      </c>
+      <c r="B562" s="3" t="s">
+        <v>6657</v>
+      </c>
+    </row>
+    <row r="563" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A563" s="3" t="s">
+        <v>6658</v>
+      </c>
+      <c r="B563" s="3" t="s">
+        <v>6659</v>
+      </c>
+    </row>
+    <row r="564" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A564" s="3" t="s">
+        <v>6660</v>
+      </c>
+      <c r="B564" s="5" t="s">
+        <v>6661</v>
+      </c>
+    </row>
+    <row r="565" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A565" s="3" t="s">
+        <v>6662</v>
+      </c>
+      <c r="B565" s="5" t="s">
+        <v>6663</v>
+      </c>
+    </row>
+    <row r="566" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A566" s="3" t="s">
+        <v>6664</v>
+      </c>
+      <c r="B566" s="5" t="s">
+        <v>6665</v>
+      </c>
+    </row>
+    <row r="567" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A567" s="3" t="s">
+        <v>6666</v>
+      </c>
+      <c r="B567" s="3" t="s">
+        <v>6667</v>
+      </c>
+    </row>
+    <row r="568" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A568" s="3" t="s">
+        <v>6668</v>
+      </c>
+      <c r="B568" s="5" t="s">
+        <v>6669</v>
+      </c>
+    </row>
+    <row r="569" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A569" s="3" t="s">
+        <v>6670</v>
+      </c>
+      <c r="B569" s="5" t="s">
+        <v>6671</v>
+      </c>
+    </row>
+    <row r="570" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A570" s="3" t="s">
+        <v>6672</v>
+      </c>
+      <c r="B570" s="5" t="s">
+        <v>6673</v>
+      </c>
+    </row>
+    <row r="571" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A571" s="3" t="s">
+        <v>6674</v>
+      </c>
+      <c r="B571" s="5" t="s">
+        <v>6675</v>
+      </c>
+    </row>
+    <row r="572" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A572" s="3" t="s">
+        <v>6676</v>
+      </c>
+      <c r="B572" s="3" t="s">
+        <v>6677</v>
+      </c>
+    </row>
+    <row r="573" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A573" s="3" t="s">
+        <v>6678</v>
+      </c>
+      <c r="B573" s="5" t="s">
+        <v>6679</v>
+      </c>
+    </row>
+    <row r="574" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A574" s="3" t="s">
+        <v>6680</v>
+      </c>
+      <c r="B574" s="3" t="s">
+        <v>6681</v>
+      </c>
+    </row>
+    <row r="575" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A575" s="3" t="s">
+        <v>6682</v>
+      </c>
+      <c r="B575" s="3" t="s">
+        <v>6683</v>
+      </c>
+    </row>
+    <row r="576" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A576" s="3" t="s">
+        <v>6684</v>
+      </c>
+      <c r="B576" s="5" t="s">
+        <v>6685</v>
+      </c>
+    </row>
+    <row r="577" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A577" s="3" t="s">
+        <v>6686</v>
+      </c>
+      <c r="B577" s="5" t="s">
+        <v>6687</v>
+      </c>
+    </row>
+    <row r="578" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A578" s="3" t="s">
+        <v>6688</v>
+      </c>
+      <c r="B578" s="5" t="s">
+        <v>6689</v>
+      </c>
+    </row>
+    <row r="579" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A579" s="3" t="s">
+        <v>6690</v>
+      </c>
+      <c r="B579" s="3" t="s">
+        <v>6691</v>
+      </c>
+    </row>
+    <row r="580" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A580" s="3" t="s">
+        <v>6692</v>
+      </c>
+      <c r="B580" s="3" t="s">
+        <v>6693</v>
+      </c>
+    </row>
+    <row r="581" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A581" s="3" t="s">
+        <v>6694</v>
+      </c>
+      <c r="B581" s="3" t="s">
+        <v>6695</v>
+      </c>
+    </row>
+    <row r="582" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A582" s="3" t="s">
+        <v>6696</v>
+      </c>
+      <c r="B582" s="3" t="s">
+        <v>6697</v>
+      </c>
+    </row>
+    <row r="583" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A583" s="3" t="s">
+        <v>6698</v>
+      </c>
+      <c r="B583" s="3" t="s">
+        <v>6699</v>
+      </c>
+    </row>
+    <row r="584" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A584" s="3" t="s">
+        <v>6700</v>
+      </c>
+      <c r="B584" s="3" t="s">
+        <v>6701</v>
+      </c>
+    </row>
+    <row r="585" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A585" s="3" t="s">
+        <v>6702</v>
+      </c>
+      <c r="B585" s="5" t="s">
+        <v>6703</v>
+      </c>
+    </row>
+    <row r="586" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A586" s="3" t="s">
+        <v>6704</v>
+      </c>
+      <c r="B586" s="3" t="s">
+        <v>6705</v>
+      </c>
+    </row>
+    <row r="587" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A587" s="3" t="s">
+        <v>6706</v>
+      </c>
+      <c r="B587" s="3" t="s">
+        <v>6707</v>
+      </c>
+    </row>
+    <row r="588" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A588" s="3" t="s">
+        <v>6708</v>
+      </c>
+      <c r="B588" s="3" t="s">
+        <v>6709</v>
+      </c>
+    </row>
+    <row r="589" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A589" s="3" t="s">
+        <v>6710</v>
+      </c>
+      <c r="B589" s="3" t="s">
+        <v>6711</v>
+      </c>
+    </row>
+    <row r="590" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A590" s="3" t="s">
+        <v>6712</v>
+      </c>
+      <c r="B590" s="3" t="s">
+        <v>6713</v>
+      </c>
+    </row>
+    <row r="591" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A591" s="3" t="s">
+        <v>6714</v>
+      </c>
+      <c r="B591" s="3" t="s">
+        <v>6715</v>
+      </c>
+    </row>
+    <row r="592" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A592" s="3" t="s">
+        <v>6716</v>
+      </c>
+      <c r="B592" s="3" t="s">
+        <v>6717</v>
+      </c>
+    </row>
+    <row r="593" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A593" s="3" t="s">
+        <v>6718</v>
+      </c>
+      <c r="B593" s="3" t="s">
+        <v>6719</v>
+      </c>
+    </row>
+    <row r="594" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A594" s="3" t="s">
+        <v>6720</v>
+      </c>
+      <c r="B594" s="3" t="s">
+        <v>6721</v>
+      </c>
+    </row>
+    <row r="595" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A595" s="3" t="s">
+        <v>6722</v>
+      </c>
+      <c r="B595" s="5" t="s">
+        <v>6723</v>
+      </c>
+    </row>
+    <row r="596" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A596" s="3" t="s">
+        <v>6724</v>
+      </c>
+      <c r="B596" s="3" t="s">
+        <v>6725</v>
+      </c>
+    </row>
+    <row r="597" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A597" s="3" t="s">
+        <v>6726</v>
+      </c>
+      <c r="B597" s="3" t="s">
+        <v>6727</v>
+      </c>
+    </row>
+    <row r="598" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A598" s="3" t="s">
+        <v>6728</v>
+      </c>
+      <c r="B598" s="3" t="s">
+        <v>6729</v>
+      </c>
+    </row>
+    <row r="599" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A599" s="3" t="s">
+        <v>6730</v>
+      </c>
+      <c r="B599" s="3" t="s">
+        <v>6731</v>
+      </c>
+    </row>
+    <row r="600" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A600" s="3" t="s">
+        <v>6732</v>
+      </c>
+      <c r="B600" s="3" t="s">
+        <v>6733</v>
+      </c>
+    </row>
+    <row r="601" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A601" s="3" t="s">
+        <v>6734</v>
+      </c>
+      <c r="B601" s="3" t="s">
+        <v>6735</v>
+      </c>
+    </row>
+    <row r="602" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A602" s="3" t="s">
+        <v>6736</v>
+      </c>
+      <c r="B602" s="3" t="s">
+        <v>6737</v>
+      </c>
+    </row>
+    <row r="603" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A603" s="3" t="s">
+        <v>6738</v>
+      </c>
+      <c r="B603" s="5" t="s">
+        <v>6739</v>
+      </c>
+    </row>
+    <row r="604" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A604" s="3" t="s">
+        <v>6740</v>
+      </c>
+      <c r="B604" s="5" t="s">
+        <v>6741</v>
+      </c>
+    </row>
+    <row r="605" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A605" s="3" t="s">
+        <v>6742</v>
+      </c>
+      <c r="B605" s="3" t="s">
+        <v>6743</v>
+      </c>
+    </row>
+    <row r="606" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A606" s="3" t="s">
+        <v>6744</v>
+      </c>
+      <c r="B606" s="3" t="s">
+        <v>6745</v>
+      </c>
+    </row>
+    <row r="607" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A607" s="3" t="s">
+        <v>6746</v>
+      </c>
+      <c r="B607" s="3" t="s">
+        <v>6747</v>
+      </c>
+    </row>
+    <row r="608" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A608" s="3" t="s">
+        <v>6748</v>
+      </c>
+      <c r="B608" s="3" t="s">
+        <v>6749</v>
+      </c>
+    </row>
+    <row r="609" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A609" s="3" t="s">
+        <v>6750</v>
+      </c>
+      <c r="B609" s="3" t="s">
+        <v>6751</v>
+      </c>
+    </row>
+    <row r="610" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A610" s="3" t="s">
+        <v>6752</v>
+      </c>
+      <c r="B610" s="3" t="s">
+        <v>6753</v>
+      </c>
+    </row>
+    <row r="611" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A611" s="3" t="s">
+        <v>6754</v>
+      </c>
+      <c r="B611" s="3" t="s">
+        <v>6755</v>
+      </c>
+    </row>
+    <row r="612" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A612" s="3" t="s">
+        <v>6756</v>
+      </c>
+      <c r="B612" s="3" t="s">
+        <v>6757</v>
+      </c>
+    </row>
+    <row r="613" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A613" s="3" t="s">
+        <v>2041</v>
+      </c>
+      <c r="B613" s="3" t="s">
+        <v>2042</v>
+      </c>
+    </row>
+    <row r="614" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A614" s="3" t="s">
+        <v>6758</v>
+      </c>
+      <c r="B614" s="3" t="s">
+        <v>6759</v>
+      </c>
+    </row>
+    <row r="615" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A615" s="3" t="s">
+        <v>6760</v>
+      </c>
+      <c r="B615" s="3" t="s">
+        <v>6761</v>
+      </c>
+    </row>
+    <row r="616" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A616" s="3" t="s">
+        <v>6762</v>
+      </c>
+      <c r="B616" s="3" t="s">
+        <v>6763</v>
+      </c>
+    </row>
+    <row r="617" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A617" s="3" t="s">
+        <v>6764</v>
+      </c>
+      <c r="B617" s="3" t="s">
+        <v>6765</v>
+      </c>
+    </row>
+    <row r="618" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A618" s="3" t="s">
+        <v>6766</v>
+      </c>
+      <c r="B618" s="3" t="s">
+        <v>6767</v>
+      </c>
+    </row>
+    <row r="619" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A619" s="3" t="s">
+        <v>6768</v>
+      </c>
+      <c r="B619" s="3" t="s">
+        <v>6769</v>
+      </c>
+    </row>
+    <row r="620" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A620" s="3" t="s">
+        <v>6770</v>
+      </c>
+      <c r="B620" s="3" t="s">
+        <v>6771</v>
+      </c>
+    </row>
+    <row r="621" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A621" s="3" t="s">
+        <v>6772</v>
+      </c>
+      <c r="B621" s="3" t="s">
+        <v>6773</v>
+      </c>
+    </row>
+    <row r="622" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A622" s="3" t="s">
+        <v>6774</v>
+      </c>
+      <c r="B622" s="3" t="s">
+        <v>6775</v>
+      </c>
+    </row>
+    <row r="623" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A623" s="3" t="s">
+        <v>6776</v>
+      </c>
+      <c r="B623" s="3" t="s">
+        <v>6777</v>
+      </c>
+    </row>
+    <row r="624" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A624" s="3" t="s">
+        <v>6778</v>
+      </c>
+      <c r="B624" s="3" t="s">
+        <v>6779</v>
+      </c>
+    </row>
+    <row r="625" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A625" s="3" t="s">
+        <v>6780</v>
+      </c>
+      <c r="B625" s="3" t="s">
+        <v>6781</v>
+      </c>
+    </row>
+    <row r="626" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A626" s="3" t="s">
+        <v>6782</v>
+      </c>
+      <c r="B626" s="3" t="s">
+        <v>6783</v>
+      </c>
+    </row>
+    <row r="627" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A627" s="3" t="s">
+        <v>6784</v>
+      </c>
+      <c r="B627" s="3" t="s">
+        <v>6785</v>
+      </c>
+    </row>
+    <row r="628" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A628" s="3" t="s">
+        <v>6786</v>
+      </c>
+      <c r="B628" s="3" t="s">
+        <v>6787</v>
+      </c>
+    </row>
+    <row r="629" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A629" s="3" t="s">
+        <v>2847</v>
+      </c>
+      <c r="B629" s="3" t="s">
+        <v>2848</v>
+      </c>
+    </row>
+    <row r="630" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A630" s="3" t="s">
+        <v>6788</v>
+      </c>
+      <c r="B630" s="3" t="s">
+        <v>2887</v>
+      </c>
+    </row>
+    <row r="631" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A631" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="B631" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="632" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A632" s="3" t="s">
+        <v>6789</v>
+      </c>
+      <c r="B632" s="3" t="s">
+        <v>6790</v>
+      </c>
+    </row>
+    <row r="633" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A633" s="3" t="s">
+        <v>6791</v>
+      </c>
+      <c r="B633" s="5" t="s">
+        <v>6792</v>
+      </c>
+    </row>
+    <row r="634" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A634" s="3" t="s">
+        <v>6793</v>
+      </c>
+      <c r="B634" s="5" t="s">
+        <v>6794</v>
+      </c>
+    </row>
+    <row r="635" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A635" s="3" t="s">
+        <v>6795</v>
+      </c>
+      <c r="B635" s="5" t="s">
+        <v>6796</v>
+      </c>
+    </row>
+    <row r="636" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A636" s="3" t="s">
+        <v>6797</v>
+      </c>
+      <c r="B636" s="5" t="s">
+        <v>6798</v>
+      </c>
+    </row>
+    <row r="637" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A637" s="3" t="s">
+        <v>6799</v>
+      </c>
+      <c r="B637" s="5" t="s">
+        <v>6800</v>
+      </c>
+    </row>
+    <row r="638" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A638" s="3" t="s">
+        <v>6801</v>
+      </c>
+      <c r="B638" s="5" t="s">
+        <v>6802</v>
+      </c>
+    </row>
+    <row r="639" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A639" s="3" t="s">
+        <v>6803</v>
+      </c>
+      <c r="B639" s="5" t="s">
+        <v>6804</v>
+      </c>
+    </row>
+    <row r="640" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A640" s="3" t="s">
+        <v>6805</v>
+      </c>
+      <c r="B640" s="5" t="s">
+        <v>6806</v>
+      </c>
+    </row>
+    <row r="641" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A641" s="3" t="s">
+        <v>6807</v>
+      </c>
+      <c r="B641" s="3" t="s">
+        <v>6808</v>
+      </c>
+    </row>
+    <row r="642" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A642" s="3" t="s">
+        <v>3190</v>
+      </c>
+      <c r="B642" s="3" t="s">
+        <v>3191</v>
+      </c>
+    </row>
+    <row r="643" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A643" s="3" t="s">
+        <v>6809</v>
+      </c>
+      <c r="B643" s="3" t="s">
+        <v>6810</v>
+      </c>
+    </row>
+    <row r="644" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A644" s="3" t="s">
+        <v>6811</v>
+      </c>
+      <c r="B644" s="3" t="s">
+        <v>6812</v>
+      </c>
+    </row>
+    <row r="645" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A645" s="3" t="s">
+        <v>6813</v>
+      </c>
+      <c r="B645" s="3" t="s">
+        <v>6814</v>
+      </c>
+    </row>
+    <row r="646" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A646" s="3" t="s">
+        <v>3330</v>
+      </c>
+      <c r="B646" s="3" t="s">
+        <v>3330</v>
+      </c>
+    </row>
+    <row r="647" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A647" s="3" t="s">
+        <v>6815</v>
+      </c>
+      <c r="B647" s="3" t="s">
+        <v>6816</v>
+      </c>
+    </row>
+    <row r="648" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A648" s="3" t="s">
+        <v>6817</v>
+      </c>
+      <c r="B648" s="3" t="s">
+        <v>6818</v>
+      </c>
+    </row>
+    <row r="649" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A649" s="3" t="s">
+        <v>6819</v>
+      </c>
+      <c r="B649" s="3" t="s">
+        <v>2935</v>
+      </c>
+    </row>
+    <row r="650" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A650" s="3" t="s">
+        <v>6820</v>
+      </c>
+      <c r="B650" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="651" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A651" s="3" t="s">
+        <v>6821</v>
+      </c>
+      <c r="B651" s="3" t="s">
+        <v>6822</v>
+      </c>
+    </row>
+    <row r="652" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A652" s="3" t="s">
+        <v>6823</v>
+      </c>
+      <c r="B652" s="3" t="s">
+        <v>6824</v>
+      </c>
+    </row>
+    <row r="653" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A653" s="3" t="s">
+        <v>6825</v>
+      </c>
+      <c r="B653" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="654" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A654" s="3" t="s">
+        <v>6826</v>
+      </c>
+      <c r="B654" s="3" t="s">
+        <v>6827</v>
+      </c>
+    </row>
+    <row r="655" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A655" s="3" t="s">
+        <v>6828</v>
+      </c>
+      <c r="B655" s="3" t="s">
+        <v>6829</v>
+      </c>
+    </row>
+    <row r="656" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A656" s="3" t="s">
+        <v>6830</v>
+      </c>
+      <c r="B656" s="3" t="s">
+        <v>6831</v>
+      </c>
+    </row>
+    <row r="657" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A657" s="3" t="s">
+        <v>6832</v>
+      </c>
+      <c r="B657" s="3" t="s">
+        <v>6833</v>
+      </c>
+    </row>
+    <row r="658" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A658" s="3" t="s">
+        <v>6834</v>
+      </c>
+      <c r="B658" s="3" t="s">
+        <v>6835</v>
+      </c>
+    </row>
+    <row r="659" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A659" s="3" t="s">
+        <v>6836</v>
+      </c>
+      <c r="B659" s="3" t="s">
+        <v>6837</v>
+      </c>
+    </row>
+    <row r="660" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A660" s="3" t="s">
+        <v>6838</v>
+      </c>
+      <c r="B660" s="3" t="s">
+        <v>5816</v>
+      </c>
+    </row>
+    <row r="661" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A661" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B661" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="662" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A662" s="3" t="s">
+        <v>6839</v>
+      </c>
+      <c r="B662" s="3" t="s">
+        <v>6840</v>
+      </c>
+    </row>
+    <row r="663" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A663" s="3" t="s">
+        <v>6841</v>
+      </c>
+      <c r="B663" s="3" t="s">
+        <v>4055</v>
+      </c>
+    </row>
+    <row r="664" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A664" s="3" t="s">
+        <v>6842</v>
+      </c>
+      <c r="B664" s="3" t="s">
+        <v>6843</v>
+      </c>
+    </row>
+    <row r="665" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A665" s="3" t="s">
+        <v>6844</v>
+      </c>
+      <c r="B665" s="3" t="s">
+        <v>6845</v>
+      </c>
+    </row>
+    <row r="666" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A666" s="3" t="s">
+        <v>6846</v>
+      </c>
+      <c r="B666" s="3" t="s">
+        <v>6847</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A148:D148"/>
     <mergeCell ref="A325:D325"/>
+    <mergeCell ref="A394:D394"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Tradução - Maicon/Traduções_teste_maicon.xlsx
+++ b/Tradução - Maicon/Traduções_teste_maicon.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="285" windowWidth="14805" windowHeight="7830"/>
+    <workbookView xWindow="240" yWindow="285" windowWidth="14805" windowHeight="7830" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Traduções" sheetId="1" r:id="rId1"/>
     <sheet name="Padão de Tags" sheetId="2" r:id="rId2"/>
     <sheet name="Traduzido" sheetId="3" r:id="rId3"/>
     <sheet name="Plan1" sheetId="4" r:id="rId4"/>
+    <sheet name="Plan2" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10204" uniqueCount="6849">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11028" uniqueCount="7066">
   <si>
     <t xml:space="preserve"> description_Or</t>
   </si>
@@ -21143,7 +21144,708 @@
     <t>Atualizações de Produtos</t>
   </si>
   <si>
-    <t>Resource já exixtente</t>
+    <t>Categoria do Fluxo</t>
+  </si>
+  <si>
+    <t>Flow category</t>
+  </si>
+  <si>
+    <t>FlowCategory</t>
+  </si>
+  <si>
+    <t>Flujo Categoría</t>
+  </si>
+  <si>
+    <t>windowTitle_SelectionOfFlowCategory</t>
+  </si>
+  <si>
+    <t>Seleção de Categoria de Fluxo</t>
+  </si>
+  <si>
+    <t>Flujo de selección Categoría</t>
+  </si>
+  <si>
+    <t>Selection Flow Category</t>
+  </si>
+  <si>
+    <t>Resource já existentes</t>
+  </si>
+  <si>
+    <t>O arquivo XML da NF-e não pôde ser importado devido as inconsistências:_x000D_ {0}</t>
+  </si>
+  <si>
+    <t>Wait, search NF-e...</t>
+  </si>
+  <si>
+    <t>Wait, locating fiscal printer ...</t>
+  </si>
+  <si>
+    <t>Items Loading ... Wait!</t>
+  </si>
+  <si>
+    <t>Wait ... Loading Purchase Order!</t>
+  </si>
+  <si>
+    <t>Wait ... Loading sales order {0}.</t>
+  </si>
+  <si>
+    <t>Wait ... Loading Service Order!</t>
+  </si>
+  <si>
+    <t>Wait, saving file ...</t>
+  </si>
+  <si>
+    <t>Wait, sending tax document ...</t>
+  </si>
+  <si>
+    <t>Could not find a valid Tax Classification for NCM code '{0}'.</t>
+  </si>
+  <si>
+    <t>Could not find a code operation type {0}.</t>
+  </si>
+  <si>
+    <t>Click to search the person.</t>
+  </si>
+  <si>
+    <t>Click to edit the information of the person.</t>
+  </si>
+  <si>
+    <t>Select Digital Certificate</t>
+  </si>
+  <si>
+    <t>The discount amount can not exceed the amount of the tax document.</t>
+  </si>
+  <si>
+    <t>Wait, Loading Fiscal Document ...</t>
+  </si>
+  <si>
+    <t>Wait, Saving Tax Document ...</t>
+  </si>
+  <si>
+    <t>Documents: Electronic Invoice No. {0}</t>
+  </si>
+  <si>
+    <t>Tax Receipt</t>
+  </si>
+  <si>
+    <t>Invoice</t>
+  </si>
+  <si>
+    <t>input</t>
+  </si>
+  <si>
+    <t>Adjudication</t>
+  </si>
+  <si>
+    <t>Adjustment</t>
+  </si>
+  <si>
+    <t>The total amount of the tax document may not be negative.</t>
+  </si>
+  <si>
+    <t>Failed to send E-mail.</t>
+  </si>
+  <si>
+    <t>XML file for approval of cancellation of NFe.</t>
+  </si>
+  <si>
+    <t>PDF file for print document of the letter of electronic correction.</t>
+  </si>
+  <si>
+    <t>XML file containing the approval protocol of the letter of electronic correction.</t>
+  </si>
+  <si>
+    <t>XML file containing the reason for rejection of the letter of electronic correction.</t>
+  </si>
+  <si>
+    <t>PDF file containing the respective DANFE the NF-e.</t>
+  </si>
+  <si>
+    <t>Sent to {0} on {1}.</t>
+  </si>
+  <si>
+    <t>XML file request rejection.</t>
+  </si>
+  <si>
+    <t>XML file request of approval.</t>
+  </si>
+  <si>
+    <t>The final value of the item can not be negative.</t>
+  </si>
+  <si>
+    <t>The total value of the products can not be negative.</t>
+  </si>
+  <si>
+    <t>The total value of services can not be negative.</t>
+  </si>
+  <si>
+    <t>IE | State Inscription</t>
+  </si>
+  <si>
+    <t>Free</t>
+  </si>
+  <si>
+    <t>Situation created by the No input tax document {0} - {1} Series.</t>
+  </si>
+  <si>
+    <t>Impossible to generate movement / stock of reserves because the data input / output has not been defined.</t>
+  </si>
+  <si>
+    <t>Tax document issued not authorized to perform movement / stock reserve for the company.</t>
+  </si>
+  <si>
+    <t>The inventory beginning in {0} and {1} goes up, was completed in {2}</t>
+  </si>
+  <si>
+    <t>This item does not allow the movement / stock reserve.</t>
+  </si>
+  <si>
+    <t>The Nature of Operation of this item will not move / reserve stock.</t>
+  </si>
+  <si>
+    <t>It may not generate reserves when there is direct consumption.</t>
+  </si>
+  <si>
+    <t>This product does not allow the movement / stock reserve.</t>
+  </si>
+  <si>
+    <t>Bookings made for the issue of Tax Paper No. {0} - {1} Series.</t>
+  </si>
+  <si>
+    <t>Wainting...</t>
+  </si>
+  <si>
+    <t>The amount of the increase can not be negative.</t>
+  </si>
+  <si>
+    <t>The discount amount can not be negative.</t>
+  </si>
+  <si>
+    <t>The total value of the items can not be negative.</t>
+  </si>
+  <si>
+    <t>The tax document number is invalid.</t>
+  </si>
+  <si>
+    <t>The receipt of the access key is invalid.</t>
+  </si>
+  <si>
+    <t>The referenced invoice access key is invalid.</t>
+  </si>
+  <si>
+    <t>The company does not contain a valid registered address.</t>
+  </si>
+  <si>
+    <t>To change the situation it is necessary to save the document. You want to save?</t>
+  </si>
+  <si>
+    <t>To generate the input note of the report is necessary to save the document. You want to save?</t>
+  </si>
+  <si>
+    <t>To preview the DANFE it must save the document. You want to save?</t>
+  </si>
+  <si>
+    <t>Locked person</t>
+  </si>
+  <si>
+    <t>To generate a cancellation document is necessary to inform a notice of cancellation type containing more than 16 characters.</t>
+  </si>
+  <si>
+    <t>The relationship of items was canceled.</t>
+  </si>
+  <si>
+    <t>Departure date can not be earlier than the date of issuance of NF-e.</t>
+  </si>
+  <si>
+    <t>It must select a Referenced Note or fill the Access Key.</t>
+  </si>
+  <si>
+    <t>The person '{0}' already contains a document number '{1}' tax series '{2}' registered.</t>
+  </si>
+  <si>
+    <t>The key document does not contain a valid size.</t>
+  </si>
+  <si>
+    <t>To download the XMLs the SEFAZ click the next button</t>
+  </si>
+  <si>
+    <t>It must select a valid Tax Receipt Issuer.</t>
+  </si>
+  <si>
+    <t>Could not locate a Tax Receipt Issuer containing the serial number {0}. The issuer must be registered for printing the Tax Coupon.</t>
+  </si>
+  <si>
+    <t>Sent with success.</t>
+  </si>
+  <si>
+    <t>It must select the type of issue.</t>
+  </si>
+  <si>
+    <t>It must select the emission environment.</t>
+  </si>
+  <si>
+    <t>The event was not accepted by Sefaz due to inconsistency:
+{0} - {1}</t>
+  </si>
+  <si>
+    <t>The tax document can not be approved due to the exception: {0}</t>
+  </si>
+  <si>
+    <t>O documento fiscal não pode ser aprovada devido à exceção:_x000D_ {0}</t>
+  </si>
+  <si>
+    <t>It needs to fill the exporter code.</t>
+  </si>
+  <si>
+    <t>It must select a title classification.</t>
+  </si>
+  <si>
+    <t>It must complete the number of the document for the item '{0}'.</t>
+  </si>
+  <si>
+    <t>It needs to fill the exporter code for the item '{0}'.</t>
+  </si>
+  <si>
+    <t>It must select a valid Tax Series.</t>
+  </si>
+  <si>
+    <t>It must select the type of inventory movement.</t>
+  </si>
+  <si>
+    <t>The tax document must contain at least one selected item.</t>
+  </si>
+  <si>
+    <t>It must select the site clearance for the item '{0}'.</t>
+  </si>
+  <si>
+    <t>It must fill out a description for observation.</t>
+  </si>
+  <si>
+    <t>It must select a type for observation.</t>
+  </si>
+  <si>
+    <t>It must select a payment condition.</t>
+  </si>
+  <si>
+    <t>It must select one person to the document.</t>
+  </si>
+  <si>
+    <t>The tax number does not contain a valid number registered.</t>
+  </si>
+  <si>
+    <t>The tax number does not contain a valid tax model registered.</t>
+  </si>
+  <si>
+    <t>The tax number does not contain actual number of valid document.</t>
+  </si>
+  <si>
+    <t>To perform this operation, the integration of service must be up.</t>
+  </si>
+  <si>
+    <t>To print the coupon is necessary for the integration service is available.</t>
+  </si>
+  <si>
+    <t>To send mail is necessary for the integration service is available.</t>
+  </si>
+  <si>
+    <t>The interval between the current date and creation date ({0}) is greater than six months, you want to save anyway?</t>
+  </si>
+  <si>
+    <t>The interval between the current date and the reference date ({0}) and creation ({0}) is greater than six months, you want to save anyway?</t>
+  </si>
+  <si>
+    <t>The interval between the current date and the reference date ({0}) is greater than six months, you want to save anyway?</t>
+  </si>
+  <si>
+    <t>The company does not contain a valid digital certificate to hook up with Sefaz.</t>
+  </si>
+  <si>
+    <t>CPF number: {0} is not valid. Please check the same.</t>
+  </si>
+  <si>
+    <t>CNPJ number: {0} is not valid. Please check the same.</t>
+  </si>
+  <si>
+    <t>Bill of Lading document must contain at least one referenced note.</t>
+  </si>
+  <si>
+    <t>The NF-e file can not be processed. Make sure that the XML structure is valid.</t>
+  </si>
+  <si>
+    <t>The sum of tax items does not close with the taxes of the note.</t>
+  </si>
+  <si>
+    <t>The date of issue can not be future or have occurred more than 30 days.</t>
+  </si>
+  <si>
+    <t>The issue date may not be later than the date of receipt of NF-e.</t>
+  </si>
+  <si>
+    <t>To complete the import of NF-e must all file items should have a relationship with a registered item.</t>
+  </si>
+  <si>
+    <t>It is necessary to select an item to note bill of lading.</t>
+  </si>
+  <si>
+    <t>It must select a departure city.</t>
+  </si>
+  <si>
+    <t>For this payment condition the minimum billing amount is {0}.</t>
+  </si>
+  <si>
+    <t>The description of the notice must contain at least 16 characters.</t>
+  </si>
+  <si>
+    <t>It must enter an operating nature for the item.</t>
+  </si>
+  <si>
+    <t>To perform this operation it is necessary digital certificate installed on that machine.</t>
+  </si>
+  <si>
+    <t>The reserved amount can not be negative.</t>
+  </si>
+  <si>
+    <t>The cancellation of the invoice No. '{0}' was approved.
+The document '{1}' contains the cancellation XML structure NF-e.
+The document '{2}' contains the cancellation DANFE the NF-e.</t>
+  </si>
+  <si>
+    <t>The NF-e was not accepted by Sefaz due to inconsistency:
+{0} - {1}</t>
+  </si>
+  <si>
+    <t>The NF-e key {0} can not be approved, check the inconsistency below:
+{1} - {2}.</t>
+  </si>
+  <si>
+    <t>Invoices not yet contain a valid key for consultation, it is necessary for the creation of the document is complete.</t>
+  </si>
+  <si>
+    <t>The invoice No. '{0}' was approved.
+The document '{1}' contains the XML structure of the NF-e.
+The document '{2}' contains the DANFE related to NF-e.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The application can not communicate with sending service of NFE due to exception:{0} </t>
+  </si>
+  <si>
+    <t>A aplicação não pode se comunicar com o serviço de envio da NFe, devido a exceção:_x000D_{0}</t>
+  </si>
+  <si>
+    <t>The cancellation of NF and No. '{0}' was approved.
+The document '{1}' contains the authorization information from the destruction of the NF-e.</t>
+  </si>
+  <si>
+    <t>You can not cancel the NF-e, the deadline for the cancellation of the document is 24 hours after the authorization date ({0}).</t>
+  </si>
+  <si>
+    <t>The reserved quantity can not be greater than the quantity in stock.
+The Company is set to not allow negative stock.</t>
+  </si>
+  <si>
+    <t>It could not find an item through the bar code '{0}'.</t>
+  </si>
+  <si>
+    <t>The integration service has not been initialized. You can not print the coupon tax.</t>
+  </si>
+  <si>
+    <t>The application can not complete the printing of the tax document due to inconsistency: {0}</t>
+  </si>
+  <si>
+    <t>A aplicação não pode completar a impressão do documento fiscal devido à inconsistência:_x000D_{0}</t>
+  </si>
+  <si>
+    <t>Para a impressão de Cupom é indispensável à conectividade com uma impressora fiscal cadastrada nos Emissores de Cupons Fiscais. _x000D_
+Porém não foi possível comunicar-se com a impressora, devido à inconsistência:_x000D_ {0}</t>
+  </si>
+  <si>
+    <t>For Coupon printing is essential for connectivity with a fiscal printer registered in issuers Tax Coupons.
+But it was not possible to communicate with the printer because of inconsistency:
+  {0}</t>
+  </si>
+  <si>
+    <t>Could not send the NF-e due to error:
+{0} - {1}</t>
+  </si>
+  <si>
+    <t>The date of the document can not be null.</t>
+  </si>
+  <si>
+    <t>The reference date can not be null.</t>
+  </si>
+  <si>
+    <t>The tax document does not contain a valid number.</t>
+  </si>
+  <si>
+    <t>The payment terms should not contain fewer stages than the amount of the installments already paid off.</t>
+  </si>
+  <si>
+    <t>The application can not communicate with the fiscal printer. Because of the inconsistency:
+{0}</t>
+  </si>
+  <si>
+    <t>The value of the sum of the items does not correspond to the total value of goods and services reported.</t>
+  </si>
+  <si>
+    <t>Quantity does not match the item Purchase Order.</t>
+  </si>
+  <si>
+    <t>The tax does not suit the type of exemption.</t>
+  </si>
+  <si>
+    <t>To make sending the NF-e is necessary to save the document. You want to save?</t>
+  </si>
+  <si>
+    <t>It is necessary to select an e-mail to the recipient.</t>
+  </si>
+  <si>
+    <t>It is necessary to select a file for submission.</t>
+  </si>
+  <si>
+    <t>The state company does not contain a valid registered code.</t>
+  </si>
+  <si>
+    <t>The person's condition does not contain a valid registered code.</t>
+  </si>
+  <si>
+    <t>Could not connect to the server Sefaz:
+{0} - {1}</t>
+  </si>
+  <si>
+    <t>The message must contain a subject.</t>
+  </si>
+  <si>
+    <t>The sum of the apportionment values of different departments at {0} of the whole paper.</t>
+  </si>
+  <si>
+    <t>It must select the tax status of the item's tax.</t>
+  </si>
+  <si>
+    <t>The sum of the securities does not close with the total note.</t>
+  </si>
+  <si>
+    <t>The total amount entered for the document does not match the estimated total value.</t>
+  </si>
+  <si>
+    <t>It must select the carrier.</t>
+  </si>
+  <si>
+    <t>blocked carrier</t>
+  </si>
+  <si>
+    <t>To generate an unusable document is necessary to inform a note of Destruction type containing more than 16 characters.</t>
+  </si>
+  <si>
+    <t>Para gerar um documento inutilizado é necessário informar uma observação do tipo Inutilização contendo mais de 16 caracteres._x000D_</t>
+  </si>
+  <si>
+    <t>There were changes in the cost price of the items listed below. You can use this feature to update the cost price, gross margin and
+Selling price of the products. Please select the products you want to perform the update values.</t>
+  </si>
+  <si>
+    <t>User '{0}' does not contain an email to valid registered shipment.</t>
+  </si>
+  <si>
+    <t>Value does not match the item Purchase Order.</t>
+  </si>
+  <si>
+    <t>The value of the portion can not be zero.</t>
+  </si>
+  <si>
+    <t>It necessary inform the version of the document.</t>
+  </si>
+  <si>
+    <t>Payment different condition of the Purchase Order.</t>
+  </si>
+  <si>
+    <t>Different mode of freight purchase order.</t>
+  </si>
+  <si>
+    <t>xMotive</t>
+  </si>
+  <si>
+    <t>Registration can not be removed when the situation is '{0}'.</t>
+  </si>
+  <si>
+    <t>according to the law.</t>
+  </si>
+  <si>
+    <t>Operation with partial deferred tax asset of</t>
+  </si>
+  <si>
+    <t>Opting company by the National Simple, allows the ICMS credit on the amount of R $ {0} corresponding to a rate of {1}% pursuant to Art. 23 of the LC 123/08.</t>
+  </si>
+  <si>
+    <t>Document issued by ME or EPP opting for National Simple, right Gera Right to Tax Credit IPI.</t>
+  </si>
+  <si>
+    <t>ICMS Tax Charged in advance for replacement or anticipation.</t>
+  </si>
+  <si>
+    <t>Taxes Law 12,741 / 2012 {0: C} ({1: 0.00}%) Source: BIPT</t>
+  </si>
+  <si>
+    <t>Taxes Law 12,741 / 2012</t>
+  </si>
+  <si>
+    <t>Additional items without project</t>
+  </si>
+  <si>
+    <t>There is an item pending amount on the purchase order '{0}'. Want to fully receive the purchase order,
+zeroing pending amount the item below?</t>
+  </si>
+  <si>
+    <t>There are items that are pending amount on the purchase order '{0}'. Want to completely bill the purchase order,
+zeroing pending amount of the following items?</t>
+  </si>
+  <si>
+    <t>The amount received from item purchase order '{0}' is not referenced in a tax document received.
+You want to zero the amount received item?</t>
+  </si>
+  <si>
+    <t>The amounts received from the items of the purchase order '{0}', are not referenced in the received tax documents.
+You want to zero the amount received from items?</t>
+  </si>
+  <si>
+    <t>There is a pending item quantity in the sales order '{0}'. Want to completely bill the sales order,
+zeroing pending amount the item below?</t>
+  </si>
+  <si>
+    <t>There are items that are pending amount in the sales order '{0}'. Want to completely bill the sales order,
+zeroing pending amount of the following items?</t>
+  </si>
+  <si>
+    <t>The amount billed item sales order '{0}' is not referenced in an issued tax document.
+You want to zero the amount billed item?</t>
+  </si>
+  <si>
+    <t>The quantities of the items invoiced sales order '{0}', are not referenced in the issued tax documents.
+Want to zero the amount of the billed items?</t>
+  </si>
+  <si>
+    <t>Select the digital certificate responsible for signing the NF-e:</t>
+  </si>
+  <si>
+    <t>Situation created by the issue of the tax document No. {0} - {1} Series.</t>
+  </si>
+  <si>
+    <t>Print Audit Document.</t>
+  </si>
+  <si>
+    <t>Send to Sefaz.</t>
+  </si>
+  <si>
+    <t>Partly Attended</t>
+  </si>
+  <si>
+    <t>Partly Received</t>
+  </si>
+  <si>
+    <t>Received count greater than purchased.</t>
+  </si>
+  <si>
+    <t>Not Printed</t>
+  </si>
+  <si>
+    <t>Person Maintenance</t>
+  </si>
+  <si>
+    <t>Items Relationship</t>
+  </si>
+  <si>
+    <t>Sales Order Maintenance</t>
+  </si>
+  <si>
+    <t>Product Updates</t>
+  </si>
+  <si>
+    <t>The XML file of the NF-e could not be imported due to inconsistencies:  {0}</t>
+  </si>
+  <si>
+    <t>Submit NF-e</t>
+  </si>
+  <si>
+    <t>XML file containing the NF-e distribution and authorized and their respective use authorization protocol.</t>
+  </si>
+  <si>
+    <t>XML file containing the NF-e rejected by SEFAZ.</t>
+  </si>
+  <si>
+    <t>The description of the fix must be at least 15 characters.</t>
+  </si>
+  <si>
+    <t>The company does not contain a valid CNPJ type of document registered.</t>
+  </si>
+  <si>
+    <t>Refer to NF-e is necessary for the integration service is available.</t>
+  </si>
+  <si>
+    <t>To sending the NF-e is necessary for the integration service is available.</t>
+  </si>
+  <si>
+    <t>A nota fiscal foi rejeitada pela SEFAZ pelo motivo: _x000D_{0}_x000D_
+O arquivo de retorno da SEFAZ com especificações técnicas estão salvos nos documentos.</t>
+  </si>
+  <si>
+    <t>The invoice was rejected by SEFAZ the reason:{0}
+The return file SEFAZ with technical specifications are saved in the documents.</t>
+  </si>
+  <si>
+    <t>The person does not contain a valid address.</t>
+  </si>
+  <si>
+    <t>The person does not contain a valid CNPJ document type.</t>
+  </si>
+  <si>
+    <t>Want to e-mail the files of NF-e?</t>
+  </si>
+  <si>
+    <t>Information NF-e</t>
+  </si>
+  <si>
+    <t>A carta de correção eletrônica de sequência {0} para a NF-e Nº '{1}' foi aprovada. 
+O documento '{2}' contém a estrutura XML da CC-e._x000D_
+O documento '{3}' contém o documento para impressão referente a CC-e.</t>
+  </si>
+  <si>
+    <t>Informed CNPJs not match.
+CNPJ vendor: {0}.
+CNPJ access key: {1}.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CNPJs informados não coincidem._x000D_
+CNPJ do fornecedor: {0}._x000D_
+CNPJ da chave de acesso: {1}.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dear customer {0}, attached are sent XML and DANFE regarding our Invoice NF-e number {1} issued on {2}.
+&lt;br/&gt;
+&lt;br/&gt;
+Access Key NF-e: {7}
+&lt;br/&gt;
+&lt;br/&gt;
+Searching the Electronic Invoice this request?
+Access the Portal of Electronic Invoice the Ministry of Finance in www.nfe.fazenda.gov.br
+Go to consultations&gt; Summary of an Electronic Invoice. Enter the passkey above to access all the information on the NF-e
+&lt;br/&gt;
+&lt;br/&gt;
+Sincerely, &lt;br/&gt;
+&lt;br/&gt;
+{3}, {4} &lt;br/&gt;
+&lt;br/&gt;
+{5} &lt;br/&gt;
+{6} </t>
+  </si>
+  <si>
+    <t>The category of this product does not allow the movement / stock reserve.</t>
+  </si>
+  <si>
+    <t>Provision of services does not generate movement / stock reserve.</t>
+  </si>
+  <si>
+    <t>The letter electronics Sequence Correction {0} for the NF-e No '{1}' was approved.
+The document '{2}' contains the XML structure of the CC-e.
+The document '{3}' contains the document for printing referring to CC-e.</t>
   </si>
 </sst>
 </file>
@@ -21663,9 +22365,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFD666"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A377" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A395" sqref="A395"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A641" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A395" sqref="A395:B666"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -42910,7 +43612,7 @@
     </row>
     <row r="394" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A394" s="23" t="s">
-        <v>6848</v>
+        <v>6856</v>
       </c>
       <c r="B394" s="23"/>
       <c r="C394" s="23"/>
@@ -42996,7 +43698,7 @@
         <v>6379</v>
       </c>
     </row>
-    <row r="405" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A405" s="3" t="s">
         <v>6380</v>
       </c>
@@ -43172,7 +43874,7 @@
         <v>6410</v>
       </c>
     </row>
-    <row r="427" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:2" ht="390" x14ac:dyDescent="0.25">
       <c r="A427" s="3" t="s">
         <v>6411</v>
       </c>
@@ -43820,7 +44522,7 @@
         <v>6553</v>
       </c>
     </row>
-    <row r="508" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A508" s="3" t="s">
         <v>6554</v>
       </c>
@@ -43844,7 +44546,7 @@
         <v>6559</v>
       </c>
     </row>
-    <row r="511" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A511" s="3" t="s">
         <v>6560</v>
       </c>
@@ -43932,7 +44634,7 @@
         <v>6581</v>
       </c>
     </row>
-    <row r="522" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A522" s="3" t="s">
         <v>6582</v>
       </c>
@@ -43940,7 +44642,7 @@
         <v>6583</v>
       </c>
     </row>
-    <row r="523" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A523" s="3" t="s">
         <v>6584</v>
       </c>
@@ -44268,7 +44970,7 @@
         <v>6659</v>
       </c>
     </row>
-    <row r="564" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A564" s="3" t="s">
         <v>6660</v>
       </c>
@@ -44276,7 +44978,7 @@
         <v>6661</v>
       </c>
     </row>
-    <row r="565" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A565" s="3" t="s">
         <v>6662</v>
       </c>
@@ -44284,7 +44986,7 @@
         <v>6663</v>
       </c>
     </row>
-    <row r="566" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A566" s="3" t="s">
         <v>6664</v>
       </c>
@@ -44300,7 +45002,7 @@
         <v>6667</v>
       </c>
     </row>
-    <row r="568" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A568" s="3" t="s">
         <v>6668</v>
       </c>
@@ -44308,7 +45010,7 @@
         <v>6669</v>
       </c>
     </row>
-    <row r="569" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A569" s="3" t="s">
         <v>6670</v>
       </c>
@@ -44316,7 +45018,7 @@
         <v>6671</v>
       </c>
     </row>
-    <row r="570" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A570" s="3" t="s">
         <v>6672</v>
       </c>
@@ -44324,7 +45026,7 @@
         <v>6673</v>
       </c>
     </row>
-    <row r="571" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A571" s="3" t="s">
         <v>6674</v>
       </c>
@@ -44340,7 +45042,7 @@
         <v>6677</v>
       </c>
     </row>
-    <row r="573" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A573" s="3" t="s">
         <v>6678</v>
       </c>
@@ -44364,7 +45066,7 @@
         <v>6683</v>
       </c>
     </row>
-    <row r="576" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A576" s="3" t="s">
         <v>6684</v>
       </c>
@@ -44372,7 +45074,7 @@
         <v>6685</v>
       </c>
     </row>
-    <row r="577" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A577" s="3" t="s">
         <v>6686</v>
       </c>
@@ -44380,7 +45082,7 @@
         <v>6687</v>
       </c>
     </row>
-    <row r="578" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A578" s="3" t="s">
         <v>6688</v>
       </c>
@@ -44436,7 +45138,7 @@
         <v>6701</v>
       </c>
     </row>
-    <row r="585" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A585" s="3" t="s">
         <v>6702</v>
       </c>
@@ -44516,7 +45218,7 @@
         <v>6721</v>
       </c>
     </row>
-    <row r="595" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A595" s="3" t="s">
         <v>6722</v>
       </c>
@@ -44580,7 +45282,7 @@
         <v>6737</v>
       </c>
     </row>
-    <row r="603" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A603" s="3" t="s">
         <v>6738</v>
       </c>
@@ -44588,7 +45290,7 @@
         <v>6739</v>
       </c>
     </row>
-    <row r="604" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A604" s="3" t="s">
         <v>6740</v>
       </c>
@@ -44820,7 +45522,7 @@
         <v>6790</v>
       </c>
     </row>
-    <row r="633" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A633" s="3" t="s">
         <v>6791</v>
       </c>
@@ -44828,7 +45530,7 @@
         <v>6792</v>
       </c>
     </row>
-    <row r="634" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A634" s="3" t="s">
         <v>6793</v>
       </c>
@@ -44836,7 +45538,7 @@
         <v>6794</v>
       </c>
     </row>
-    <row r="635" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A635" s="3" t="s">
         <v>6795</v>
       </c>
@@ -44844,7 +45546,7 @@
         <v>6796</v>
       </c>
     </row>
-    <row r="636" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A636" s="3" t="s">
         <v>6797</v>
       </c>
@@ -44852,7 +45554,7 @@
         <v>6798</v>
       </c>
     </row>
-    <row r="637" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A637" s="3" t="s">
         <v>6799</v>
       </c>
@@ -44860,7 +45562,7 @@
         <v>6800</v>
       </c>
     </row>
-    <row r="638" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A638" s="3" t="s">
         <v>6801</v>
       </c>
@@ -44868,7 +45570,7 @@
         <v>6802</v>
       </c>
     </row>
-    <row r="639" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A639" s="3" t="s">
         <v>6803</v>
       </c>
@@ -44876,7 +45578,7 @@
         <v>6804</v>
       </c>
     </row>
-    <row r="640" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A640" s="3" t="s">
         <v>6805</v>
       </c>
@@ -45245,7 +45947,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2396"/>
   <sheetViews>
-    <sheetView topLeftCell="B2131" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="B2146" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
@@ -77832,25 +78534,26 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.140625" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" customWidth="1"/>
+    <col min="1" max="1" width="43.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="20.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A1" s="17" t="s">
         <v>5983</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>5988</v>
       </c>
@@ -77861,12 +78564,12 @@
         <v>5987</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="18"/>
       <c r="B4" s="18"/>
       <c r="C4" s="18"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>5989</v>
       </c>
@@ -77877,7 +78580,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>5990</v>
       </c>
@@ -77888,7 +78591,7 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>5991</v>
       </c>
@@ -77899,7 +78602,7 @@
         <v>5985</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>5964</v>
       </c>
@@ -77910,7 +78613,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>5994</v>
       </c>
@@ -77921,7 +78624,3049 @@
         <v>5993</v>
       </c>
     </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>6850</v>
+      </c>
+      <c r="B15" t="s">
+        <v>6848</v>
+      </c>
+      <c r="C15" t="s">
+        <v>6849</v>
+      </c>
+      <c r="D15" t="s">
+        <v>6851</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>6852</v>
+      </c>
+      <c r="B16" t="s">
+        <v>6853</v>
+      </c>
+      <c r="C16" t="s">
+        <v>6855</v>
+      </c>
+      <c r="D16" t="s">
+        <v>6854</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C272"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B133" workbookViewId="0">
+      <selection activeCell="C139" sqref="C139"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="44" customWidth="1"/>
+    <col min="2" max="2" width="71.85546875" customWidth="1"/>
+    <col min="3" max="3" width="69.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>6360</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>6361</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6858</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>6362</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>6363</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6859</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>6364</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>6365</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6860</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>6366</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>6367</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6861</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>6368</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>6369</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6862</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>6370</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>6371</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6863</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>6372</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>6373</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6864</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>6374</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>6375</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6865</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>6376</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>6377</v>
+      </c>
+      <c r="C9" t="s">
+        <v>6866</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>6378</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>6379</v>
+      </c>
+      <c r="C10" t="s">
+        <v>6867</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>6380</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>6857</v>
+      </c>
+      <c r="C11" t="s">
+        <v>7045</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>6382</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>549</v>
+      </c>
+      <c r="C12" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>6383</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>6384</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>6385</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>6385</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>6386</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>6387</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>6387</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>6388</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>6389</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>6389</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>6390</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>6391</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>6392</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>6392</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>6393</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>5817</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>5817</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>6394</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>6395</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>6395</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>894</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>895</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>966</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>967</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>986</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>987</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>988</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>6396</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>6397</v>
+      </c>
+      <c r="C25" t="s">
+        <v>6868</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>6398</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>6399</v>
+      </c>
+      <c r="C26" t="s">
+        <v>6869</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>6400</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>6401</v>
+      </c>
+      <c r="C27" t="s">
+        <v>6870</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>6402</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>6403</v>
+      </c>
+      <c r="C28" t="s">
+        <v>7046</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>6404</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>6405</v>
+      </c>
+      <c r="C29" t="s">
+        <v>6871</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>6406</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>3443</v>
+      </c>
+      <c r="C30" t="s">
+        <v>3443</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>6407</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>6408</v>
+      </c>
+      <c r="C31" t="s">
+        <v>6872</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>6409</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>6410</v>
+      </c>
+      <c r="C32" t="s">
+        <v>6873</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="300" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>6411</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>6412</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>7062</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
+        <v>6413</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>6414</v>
+      </c>
+      <c r="C34" t="s">
+        <v>6874</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
+        <v>6415</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
+        <v>6416</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>6417</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>6417</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
+        <v>6418</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>2747</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>2747</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
+        <v>6419</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>5907</v>
+      </c>
+      <c r="C38" t="s">
+        <v>6875</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
+        <v>6420</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>5796</v>
+      </c>
+      <c r="C39" t="s">
+        <v>6876</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
+        <v>6421</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>6422</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>6422</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
+        <v>6423</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>6424</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>6424</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
+        <v>6425</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>6426</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>6426</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
+        <v>6427</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>5907</v>
+      </c>
+      <c r="C43" t="s">
+        <v>6875</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
+        <v>6428</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>2747</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>2747</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
+        <v>6429</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>1748</v>
+      </c>
+      <c r="C45" t="s">
+        <v>6877</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
+        <v>6430</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>2854</v>
+      </c>
+      <c r="C46" t="s">
+        <v>2853</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
+        <v>6431</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>6432</v>
+      </c>
+      <c r="C47" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="3" t="s">
+        <v>6433</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>6434</v>
+      </c>
+      <c r="C48" t="s">
+        <v>6878</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="3" t="s">
+        <v>6435</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>6436</v>
+      </c>
+      <c r="C49" t="s">
+        <v>6879</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="3" t="s">
+        <v>6437</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>2747</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>2747</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="3" t="s">
+        <v>6438</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>6439</v>
+      </c>
+      <c r="C51" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="3" t="s">
+        <v>6440</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>751</v>
+      </c>
+      <c r="C52" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="3" t="s">
+        <v>6441</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>6442</v>
+      </c>
+      <c r="C53" t="s">
+        <v>6387</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="3" t="s">
+        <v>6443</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>6444</v>
+      </c>
+      <c r="C54" t="s">
+        <v>6389</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="3" t="s">
+        <v>6445</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>6446</v>
+      </c>
+      <c r="C55" t="s">
+        <v>5817</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="3" t="s">
+        <v>6447</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>6448</v>
+      </c>
+      <c r="C56" t="s">
+        <v>6395</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="3" t="s">
+        <v>6449</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>6450</v>
+      </c>
+      <c r="C57" t="s">
+        <v>6880</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="3" t="s">
+        <v>6451</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>6452</v>
+      </c>
+      <c r="C58" t="s">
+        <v>6881</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="3" t="s">
+        <v>1339</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>1339</v>
+      </c>
+      <c r="C59" t="s">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="3" t="s">
+        <v>6453</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>6454</v>
+      </c>
+      <c r="C60" t="s">
+        <v>6882</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="3" t="s">
+        <v>6455</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>6456</v>
+      </c>
+      <c r="C61" t="s">
+        <v>6883</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="3" t="s">
+        <v>6457</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>6458</v>
+      </c>
+      <c r="C62" t="s">
+        <v>6884</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="3" t="s">
+        <v>6459</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>6460</v>
+      </c>
+      <c r="C63" t="s">
+        <v>6885</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="3" t="s">
+        <v>6461</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>6462</v>
+      </c>
+      <c r="C64" t="s">
+        <v>6886</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="3" t="s">
+        <v>6463</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>6464</v>
+      </c>
+      <c r="C65" t="s">
+        <v>6887</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="3" t="s">
+        <v>6465</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>6466</v>
+      </c>
+      <c r="C66" t="s">
+        <v>7047</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="3" t="s">
+        <v>6467</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>6468</v>
+      </c>
+      <c r="C67" t="s">
+        <v>7048</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="3" t="s">
+        <v>6469</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>6470</v>
+      </c>
+      <c r="C68" t="s">
+        <v>6888</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="3" t="s">
+        <v>6471</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>6472</v>
+      </c>
+      <c r="C69" t="s">
+        <v>6889</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="3" t="s">
+        <v>6473</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>6474</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>6474</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="3" t="s">
+        <v>6475</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>6476</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>6476</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="3" t="s">
+        <v>6477</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>6478</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>6478</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="3" t="s">
+        <v>6479</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>6480</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>6480</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="3" t="s">
+        <v>6481</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>6482</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>6482</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="3" t="s">
+        <v>6483</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>6484</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>6484</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="3" t="s">
+        <v>6485</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>6486</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>6486</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="3" t="s">
+        <v>6487</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>6488</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>6488</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="3" t="s">
+        <v>6489</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>6490</v>
+      </c>
+      <c r="C78" t="s">
+        <v>6890</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="3" t="s">
+        <v>6491</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>6492</v>
+      </c>
+      <c r="C79" t="s">
+        <v>6891</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="3" t="s">
+        <v>6493</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>6494</v>
+      </c>
+      <c r="C80" t="s">
+        <v>6892</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="3" t="s">
+        <v>6495</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>6495</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>6495</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="3" t="s">
+        <v>6496</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>6496</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>6496</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="3" t="s">
+        <v>6497</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>6498</v>
+      </c>
+      <c r="C83" t="s">
+        <v>6893</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="3" t="s">
+        <v>6499</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>6500</v>
+      </c>
+      <c r="C84" t="s">
+        <v>6894</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="3" t="s">
+        <v>6501</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>6502</v>
+      </c>
+      <c r="C85" t="s">
+        <v>6895</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="3" t="s">
+        <v>6503</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>6504</v>
+      </c>
+      <c r="C86" t="s">
+        <v>6897</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="3" t="s">
+        <v>6505</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>6506</v>
+      </c>
+      <c r="C87" t="s">
+        <v>6896</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="3" t="s">
+        <v>6507</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>6508</v>
+      </c>
+      <c r="C88" t="s">
+        <v>6898</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="3" t="s">
+        <v>6509</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>6510</v>
+      </c>
+      <c r="C89" t="s">
+        <v>6899</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="3" t="s">
+        <v>6511</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>6512</v>
+      </c>
+      <c r="C90" t="s">
+        <v>6900</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="3" t="s">
+        <v>6513</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>6514</v>
+      </c>
+      <c r="C91" t="s">
+        <v>6901</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="3" t="s">
+        <v>6515</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>6516</v>
+      </c>
+      <c r="C92" t="s">
+        <v>7063</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="3" t="s">
+        <v>6517</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>6518</v>
+      </c>
+      <c r="C93" t="s">
+        <v>6902</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" s="3" t="s">
+        <v>6519</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>6520</v>
+      </c>
+      <c r="C94" t="s">
+        <v>6903</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" s="3" t="s">
+        <v>6521</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>6522</v>
+      </c>
+      <c r="C95" t="s">
+        <v>7064</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" s="3" t="s">
+        <v>6523</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>6523</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>6523</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" s="3" t="s">
+        <v>6524</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C97" t="s">
+        <v>6904</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="3" t="s">
+        <v>6525</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>6525</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>6525</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" s="3" t="s">
+        <v>6526</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>6526</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>6526</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" s="3" t="s">
+        <v>6527</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>6528</v>
+      </c>
+      <c r="C100" t="s">
+        <v>6905</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" s="3" t="s">
+        <v>6529</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>6530</v>
+      </c>
+      <c r="C101" t="s">
+        <v>6906</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" s="3" t="s">
+        <v>6531</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>6532</v>
+      </c>
+      <c r="C102" t="s">
+        <v>6907</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" s="3" t="s">
+        <v>6533</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>6534</v>
+      </c>
+      <c r="C103" t="s">
+        <v>6908</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" s="3" t="s">
+        <v>1945</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>6535</v>
+      </c>
+      <c r="C104" t="s">
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" s="3" t="s">
+        <v>6536</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>6537</v>
+      </c>
+      <c r="C105" t="s">
+        <v>6909</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" s="3" t="s">
+        <v>6538</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>6539</v>
+      </c>
+      <c r="C106" t="s">
+        <v>6910</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" s="3" t="s">
+        <v>6540</v>
+      </c>
+      <c r="B107" s="3" t="s">
+        <v>6541</v>
+      </c>
+      <c r="C107" t="s">
+        <v>6911</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" s="3" t="s">
+        <v>6542</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>6543</v>
+      </c>
+      <c r="C108" t="s">
+        <v>6912</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" s="3" t="s">
+        <v>6544</v>
+      </c>
+      <c r="B109" s="3" t="s">
+        <v>6545</v>
+      </c>
+      <c r="C109" t="s">
+        <v>6913</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" s="3" t="s">
+        <v>6546</v>
+      </c>
+      <c r="B110" s="3" t="s">
+        <v>6547</v>
+      </c>
+      <c r="C110" t="s">
+        <v>6914</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" s="3" t="s">
+        <v>6548</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>6549</v>
+      </c>
+      <c r="C111" t="s">
+        <v>6915</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" s="3" t="s">
+        <v>6550</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>6551</v>
+      </c>
+      <c r="C112" t="s">
+        <v>6916</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" s="3" t="s">
+        <v>6552</v>
+      </c>
+      <c r="B113" s="3" t="s">
+        <v>6553</v>
+      </c>
+      <c r="C113" t="s">
+        <v>6917</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A114" s="3" t="s">
+        <v>6554</v>
+      </c>
+      <c r="B114" s="5" t="s">
+        <v>7059</v>
+      </c>
+      <c r="C114" s="12" t="s">
+        <v>7065</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" s="3" t="s">
+        <v>6556</v>
+      </c>
+      <c r="B115" s="3" t="s">
+        <v>6557</v>
+      </c>
+      <c r="C115" t="s">
+        <v>6918</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" s="3" t="s">
+        <v>6558</v>
+      </c>
+      <c r="B116" s="3" t="s">
+        <v>6559</v>
+      </c>
+      <c r="C116" t="s">
+        <v>7049</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A117" s="3" t="s">
+        <v>6560</v>
+      </c>
+      <c r="B117" s="5" t="s">
+        <v>7061</v>
+      </c>
+      <c r="C117" s="12" t="s">
+        <v>7060</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" s="3" t="s">
+        <v>6562</v>
+      </c>
+      <c r="B118" s="3" t="s">
+        <v>6563</v>
+      </c>
+      <c r="C118" t="s">
+        <v>7050</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" s="3" t="s">
+        <v>6564</v>
+      </c>
+      <c r="B119" s="3" t="s">
+        <v>6565</v>
+      </c>
+      <c r="C119" t="s">
+        <v>6919</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" s="3" t="s">
+        <v>6566</v>
+      </c>
+      <c r="B120" s="3" t="s">
+        <v>6567</v>
+      </c>
+      <c r="C120" t="s">
+        <v>6920</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" s="3" t="s">
+        <v>6568</v>
+      </c>
+      <c r="B121" s="3" t="s">
+        <v>6569</v>
+      </c>
+      <c r="C121" t="s">
+        <v>6921</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" s="3" t="s">
+        <v>6570</v>
+      </c>
+      <c r="B122" s="3" t="s">
+        <v>6571</v>
+      </c>
+      <c r="C122" t="s">
+        <v>6922</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" s="3" t="s">
+        <v>6572</v>
+      </c>
+      <c r="B123" s="3" t="s">
+        <v>6573</v>
+      </c>
+      <c r="C123" t="s">
+        <v>6923</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" s="3" t="s">
+        <v>6574</v>
+      </c>
+      <c r="B124" s="3" t="s">
+        <v>6575</v>
+      </c>
+      <c r="C124" t="s">
+        <v>6924</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" s="3" t="s">
+        <v>6576</v>
+      </c>
+      <c r="B125" s="3" t="s">
+        <v>6577</v>
+      </c>
+      <c r="C125" t="s">
+        <v>6925</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" s="3" t="s">
+        <v>6578</v>
+      </c>
+      <c r="B126" s="3" t="s">
+        <v>6579</v>
+      </c>
+      <c r="C126" t="s">
+        <v>6926</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" s="3" t="s">
+        <v>6580</v>
+      </c>
+      <c r="B127" s="3" t="s">
+        <v>6581</v>
+      </c>
+      <c r="C127" t="s">
+        <v>6927</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A128" s="3" t="s">
+        <v>6582</v>
+      </c>
+      <c r="B128" s="5" t="s">
+        <v>6583</v>
+      </c>
+      <c r="C128" s="12" t="s">
+        <v>6928</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" s="3" t="s">
+        <v>6584</v>
+      </c>
+      <c r="B129" s="5" t="s">
+        <v>6930</v>
+      </c>
+      <c r="C129" t="s">
+        <v>6929</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" s="3" t="s">
+        <v>6586</v>
+      </c>
+      <c r="B130" s="3" t="s">
+        <v>6587</v>
+      </c>
+      <c r="C130" t="s">
+        <v>6931</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" s="3" t="s">
+        <v>6588</v>
+      </c>
+      <c r="B131" s="3" t="s">
+        <v>6589</v>
+      </c>
+      <c r="C131" t="s">
+        <v>6932</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" s="3" t="s">
+        <v>6590</v>
+      </c>
+      <c r="B132" s="3" t="s">
+        <v>6591</v>
+      </c>
+      <c r="C132" t="s">
+        <v>6933</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" s="3" t="s">
+        <v>6592</v>
+      </c>
+      <c r="B133" s="3" t="s">
+        <v>6593</v>
+      </c>
+      <c r="C133" t="s">
+        <v>6934</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134" s="3" t="s">
+        <v>6594</v>
+      </c>
+      <c r="B134" s="3" t="s">
+        <v>6595</v>
+      </c>
+      <c r="C134" t="s">
+        <v>6935</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135" s="3" t="s">
+        <v>6596</v>
+      </c>
+      <c r="B135" s="3" t="s">
+        <v>6597</v>
+      </c>
+      <c r="C135" t="s">
+        <v>6936</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136" s="3" t="s">
+        <v>6598</v>
+      </c>
+      <c r="B136" s="3" t="s">
+        <v>6599</v>
+      </c>
+      <c r="C136" t="s">
+        <v>6937</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137" s="3" t="s">
+        <v>6600</v>
+      </c>
+      <c r="B137" s="3" t="s">
+        <v>6601</v>
+      </c>
+      <c r="C137" t="s">
+        <v>6938</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138" s="3" t="s">
+        <v>6602</v>
+      </c>
+      <c r="B138" s="3" t="s">
+        <v>6603</v>
+      </c>
+      <c r="C138" t="s">
+        <v>6939</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139" s="3" t="s">
+        <v>6604</v>
+      </c>
+      <c r="B139" s="3" t="s">
+        <v>6605</v>
+      </c>
+      <c r="C139" t="s">
+        <v>6940</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140" s="3" t="s">
+        <v>6606</v>
+      </c>
+      <c r="B140" s="3" t="s">
+        <v>6607</v>
+      </c>
+      <c r="C140" t="s">
+        <v>6941</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141" s="3" t="s">
+        <v>6608</v>
+      </c>
+      <c r="B141" s="3" t="s">
+        <v>6609</v>
+      </c>
+      <c r="C141" t="s">
+        <v>6942</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142" s="3" t="s">
+        <v>6610</v>
+      </c>
+      <c r="B142" s="3" t="s">
+        <v>6611</v>
+      </c>
+      <c r="C142" t="s">
+        <v>6943</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143" s="3" t="s">
+        <v>6612</v>
+      </c>
+      <c r="B143" s="3" t="s">
+        <v>6613</v>
+      </c>
+      <c r="C143" t="s">
+        <v>6944</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144" s="3" t="s">
+        <v>6614</v>
+      </c>
+      <c r="B144" s="3" t="s">
+        <v>6615</v>
+      </c>
+      <c r="C144" t="s">
+        <v>6945</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145" s="3" t="s">
+        <v>1991</v>
+      </c>
+      <c r="B145" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="C145" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146" s="3" t="s">
+        <v>6616</v>
+      </c>
+      <c r="B146" s="3" t="s">
+        <v>6617</v>
+      </c>
+      <c r="C146" t="s">
+        <v>7051</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147" s="3" t="s">
+        <v>6618</v>
+      </c>
+      <c r="B147" s="3" t="s">
+        <v>6619</v>
+      </c>
+      <c r="C147" t="s">
+        <v>6946</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148" s="3" t="s">
+        <v>6620</v>
+      </c>
+      <c r="B148" s="3" t="s">
+        <v>6621</v>
+      </c>
+      <c r="C148" t="s">
+        <v>6947</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149" s="3" t="s">
+        <v>6622</v>
+      </c>
+      <c r="B149" s="3" t="s">
+        <v>6623</v>
+      </c>
+      <c r="C149" t="s">
+        <v>6948</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150" s="3" t="s">
+        <v>6624</v>
+      </c>
+      <c r="B150" s="3" t="s">
+        <v>6625</v>
+      </c>
+      <c r="C150" t="s">
+        <v>7052</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151" s="3" t="s">
+        <v>6626</v>
+      </c>
+      <c r="B151" s="3" t="s">
+        <v>6627</v>
+      </c>
+      <c r="C151" t="s">
+        <v>6949</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152" s="3" t="s">
+        <v>6628</v>
+      </c>
+      <c r="B152" s="3" t="s">
+        <v>6629</v>
+      </c>
+      <c r="C152" t="s">
+        <v>6950</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153" s="3" t="s">
+        <v>6630</v>
+      </c>
+      <c r="B153" s="3" t="s">
+        <v>6631</v>
+      </c>
+      <c r="C153" t="s">
+        <v>6951</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154" s="3" t="s">
+        <v>6632</v>
+      </c>
+      <c r="B154" s="3" t="s">
+        <v>6633</v>
+      </c>
+      <c r="C154" t="s">
+        <v>6952</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A155" s="3" t="s">
+        <v>1994</v>
+      </c>
+      <c r="B155" s="3" t="s">
+        <v>1995</v>
+      </c>
+      <c r="C155" t="s">
+        <v>6954</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A156" s="3" t="s">
+        <v>1996</v>
+      </c>
+      <c r="B156" s="3" t="s">
+        <v>1997</v>
+      </c>
+      <c r="C156" t="s">
+        <v>6953</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A157" s="3" t="s">
+        <v>6634</v>
+      </c>
+      <c r="B157" s="3" t="s">
+        <v>6635</v>
+      </c>
+      <c r="C157" t="s">
+        <v>6955</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A158" s="3" t="s">
+        <v>6636</v>
+      </c>
+      <c r="B158" s="3" t="s">
+        <v>6637</v>
+      </c>
+      <c r="C158" t="s">
+        <v>6956</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A159" s="3" t="s">
+        <v>6638</v>
+      </c>
+      <c r="B159" s="3" t="s">
+        <v>6639</v>
+      </c>
+      <c r="C159" t="s">
+        <v>6957</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A160" s="3" t="s">
+        <v>6640</v>
+      </c>
+      <c r="B160" s="3" t="s">
+        <v>6641</v>
+      </c>
+      <c r="C160" t="s">
+        <v>6958</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A161" s="3" t="s">
+        <v>6642</v>
+      </c>
+      <c r="B161" s="3" t="s">
+        <v>6643</v>
+      </c>
+      <c r="C161" t="s">
+        <v>6959</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A162" s="3" t="s">
+        <v>6644</v>
+      </c>
+      <c r="B162" s="3" t="s">
+        <v>6645</v>
+      </c>
+      <c r="C162" t="s">
+        <v>6960</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A163" s="3" t="s">
+        <v>6646</v>
+      </c>
+      <c r="B163" s="3" t="s">
+        <v>6647</v>
+      </c>
+      <c r="C163" t="s">
+        <v>6961</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A164" s="3" t="s">
+        <v>6648</v>
+      </c>
+      <c r="B164" s="3" t="s">
+        <v>6649</v>
+      </c>
+      <c r="C164" t="s">
+        <v>6962</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A165" s="3" t="s">
+        <v>6650</v>
+      </c>
+      <c r="B165" s="3" t="s">
+        <v>6651</v>
+      </c>
+      <c r="C165" t="s">
+        <v>6963</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A166" s="3" t="s">
+        <v>6652</v>
+      </c>
+      <c r="B166" s="3" t="s">
+        <v>6653</v>
+      </c>
+      <c r="C166" t="s">
+        <v>6964</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A167" s="3" t="s">
+        <v>6654</v>
+      </c>
+      <c r="B167" s="3" t="s">
+        <v>6655</v>
+      </c>
+      <c r="C167" t="s">
+        <v>6965</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A168" s="3" t="s">
+        <v>6656</v>
+      </c>
+      <c r="B168" s="3" t="s">
+        <v>6657</v>
+      </c>
+      <c r="C168" t="s">
+        <v>6966</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A169" s="3" t="s">
+        <v>6658</v>
+      </c>
+      <c r="B169" s="3" t="s">
+        <v>6659</v>
+      </c>
+      <c r="C169" t="s">
+        <v>6967</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A170" s="3" t="s">
+        <v>6660</v>
+      </c>
+      <c r="B170" s="5" t="s">
+        <v>6661</v>
+      </c>
+      <c r="C170" s="12" t="s">
+        <v>6968</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A171" s="3" t="s">
+        <v>6662</v>
+      </c>
+      <c r="B171" s="5" t="s">
+        <v>6663</v>
+      </c>
+      <c r="C171" s="12" t="s">
+        <v>6969</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A172" s="3" t="s">
+        <v>6664</v>
+      </c>
+      <c r="B172" s="5" t="s">
+        <v>6665</v>
+      </c>
+      <c r="C172" s="12" t="s">
+        <v>6970</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A173" s="3" t="s">
+        <v>6666</v>
+      </c>
+      <c r="B173" s="3" t="s">
+        <v>6667</v>
+      </c>
+      <c r="C173" t="s">
+        <v>6971</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A174" s="3" t="s">
+        <v>6668</v>
+      </c>
+      <c r="B174" s="5" t="s">
+        <v>7053</v>
+      </c>
+      <c r="C174" s="12" t="s">
+        <v>7054</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A175" s="3" t="s">
+        <v>6670</v>
+      </c>
+      <c r="B175" s="5" t="s">
+        <v>6671</v>
+      </c>
+      <c r="C175" s="12" t="s">
+        <v>6972</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A176" s="3" t="s">
+        <v>6672</v>
+      </c>
+      <c r="B176" s="5" t="s">
+        <v>6974</v>
+      </c>
+      <c r="C176" s="12" t="s">
+        <v>6973</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A177" s="3" t="s">
+        <v>6674</v>
+      </c>
+      <c r="B177" s="5" t="s">
+        <v>6675</v>
+      </c>
+      <c r="C177" s="12" t="s">
+        <v>6975</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A178" s="3" t="s">
+        <v>6676</v>
+      </c>
+      <c r="B178" s="3" t="s">
+        <v>6677</v>
+      </c>
+      <c r="C178" t="s">
+        <v>6976</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A179" s="3" t="s">
+        <v>6678</v>
+      </c>
+      <c r="B179" s="5" t="s">
+        <v>6679</v>
+      </c>
+      <c r="C179" s="12" t="s">
+        <v>6977</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A180" s="3" t="s">
+        <v>6680</v>
+      </c>
+      <c r="B180" s="3" t="s">
+        <v>6681</v>
+      </c>
+      <c r="C180" t="s">
+        <v>6978</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A181" s="3" t="s">
+        <v>6682</v>
+      </c>
+      <c r="B181" s="3" t="s">
+        <v>6683</v>
+      </c>
+      <c r="C181" t="s">
+        <v>6979</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A182" s="3" t="s">
+        <v>6684</v>
+      </c>
+      <c r="B182" s="5" t="s">
+        <v>6981</v>
+      </c>
+      <c r="C182" t="s">
+        <v>6980</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A183" s="3" t="s">
+        <v>6686</v>
+      </c>
+      <c r="B183" s="5" t="s">
+        <v>6982</v>
+      </c>
+      <c r="C183" s="12" t="s">
+        <v>6983</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A184" s="3" t="s">
+        <v>6688</v>
+      </c>
+      <c r="B184" s="5" t="s">
+        <v>6689</v>
+      </c>
+      <c r="C184" s="12" t="s">
+        <v>6984</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A185" s="3" t="s">
+        <v>6690</v>
+      </c>
+      <c r="B185" s="3" t="s">
+        <v>6691</v>
+      </c>
+      <c r="C185" t="s">
+        <v>6985</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A186" s="3" t="s">
+        <v>6692</v>
+      </c>
+      <c r="B186" s="3" t="s">
+        <v>6693</v>
+      </c>
+      <c r="C186" t="s">
+        <v>6986</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A187" s="3" t="s">
+        <v>6694</v>
+      </c>
+      <c r="B187" s="3" t="s">
+        <v>6695</v>
+      </c>
+      <c r="C187" t="s">
+        <v>6987</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A188" s="3" t="s">
+        <v>6696</v>
+      </c>
+      <c r="B188" s="3" t="s">
+        <v>6697</v>
+      </c>
+      <c r="C188" t="s">
+        <v>6988</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A189" s="3" t="s">
+        <v>6698</v>
+      </c>
+      <c r="B189" s="3" t="s">
+        <v>6699</v>
+      </c>
+      <c r="C189" t="s">
+        <v>7055</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A190" s="3" t="s">
+        <v>6700</v>
+      </c>
+      <c r="B190" s="3" t="s">
+        <v>6701</v>
+      </c>
+      <c r="C190" t="s">
+        <v>7056</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A191" s="3" t="s">
+        <v>6702</v>
+      </c>
+      <c r="B191" s="5" t="s">
+        <v>6703</v>
+      </c>
+      <c r="C191" s="12" t="s">
+        <v>6989</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A192" s="3" t="s">
+        <v>6704</v>
+      </c>
+      <c r="B192" s="3" t="s">
+        <v>6705</v>
+      </c>
+      <c r="C192" t="s">
+        <v>6990</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A193" s="3" t="s">
+        <v>6706</v>
+      </c>
+      <c r="B193" s="3" t="s">
+        <v>6707</v>
+      </c>
+      <c r="C193" t="s">
+        <v>6991</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A194" s="3" t="s">
+        <v>6708</v>
+      </c>
+      <c r="B194" s="3" t="s">
+        <v>6709</v>
+      </c>
+      <c r="C194" t="s">
+        <v>6992</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A195" s="3" t="s">
+        <v>6710</v>
+      </c>
+      <c r="B195" s="3" t="s">
+        <v>6711</v>
+      </c>
+      <c r="C195" t="s">
+        <v>6993</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A196" s="3" t="s">
+        <v>6712</v>
+      </c>
+      <c r="B196" s="3" t="s">
+        <v>6713</v>
+      </c>
+      <c r="C196" t="s">
+        <v>6994</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A197" s="3" t="s">
+        <v>6714</v>
+      </c>
+      <c r="B197" s="3" t="s">
+        <v>6715</v>
+      </c>
+      <c r="C197" t="s">
+        <v>6995</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A198" s="3" t="s">
+        <v>6716</v>
+      </c>
+      <c r="B198" s="3" t="s">
+        <v>6717</v>
+      </c>
+      <c r="C198" t="s">
+        <v>7057</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A199" s="3" t="s">
+        <v>6718</v>
+      </c>
+      <c r="B199" s="3" t="s">
+        <v>6719</v>
+      </c>
+      <c r="C199" t="s">
+        <v>6996</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A200" s="3" t="s">
+        <v>6720</v>
+      </c>
+      <c r="B200" s="3" t="s">
+        <v>6721</v>
+      </c>
+      <c r="C200" t="s">
+        <v>6997</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A201" s="3" t="s">
+        <v>6722</v>
+      </c>
+      <c r="B201" s="5" t="s">
+        <v>6723</v>
+      </c>
+      <c r="C201" s="12" t="s">
+        <v>6998</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A202" s="3" t="s">
+        <v>6724</v>
+      </c>
+      <c r="B202" s="3" t="s">
+        <v>6725</v>
+      </c>
+      <c r="C202" t="s">
+        <v>6999</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A203" s="3" t="s">
+        <v>6726</v>
+      </c>
+      <c r="B203" s="3" t="s">
+        <v>6727</v>
+      </c>
+      <c r="C203" t="s">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A204" s="3" t="s">
+        <v>6728</v>
+      </c>
+      <c r="B204" s="3" t="s">
+        <v>6729</v>
+      </c>
+      <c r="C204" t="s">
+        <v>7001</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A205" s="3" t="s">
+        <v>6730</v>
+      </c>
+      <c r="B205" s="3" t="s">
+        <v>6731</v>
+      </c>
+      <c r="C205" t="s">
+        <v>7002</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A206" s="3" t="s">
+        <v>6732</v>
+      </c>
+      <c r="B206" s="3" t="s">
+        <v>6733</v>
+      </c>
+      <c r="C206" t="s">
+        <v>7003</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A207" s="3" t="s">
+        <v>6734</v>
+      </c>
+      <c r="B207" s="3" t="s">
+        <v>6735</v>
+      </c>
+      <c r="C207" t="s">
+        <v>7004</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A208" s="3" t="s">
+        <v>6736</v>
+      </c>
+      <c r="B208" s="3" t="s">
+        <v>6737</v>
+      </c>
+      <c r="C208" t="s">
+        <v>7005</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A209" s="3" t="s">
+        <v>6738</v>
+      </c>
+      <c r="B209" s="5" t="s">
+        <v>7007</v>
+      </c>
+      <c r="C209" t="s">
+        <v>7006</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A210" s="3" t="s">
+        <v>6740</v>
+      </c>
+      <c r="B210" s="5" t="s">
+        <v>6741</v>
+      </c>
+      <c r="C210" s="12" t="s">
+        <v>7008</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A211" s="3" t="s">
+        <v>6742</v>
+      </c>
+      <c r="B211" s="3" t="s">
+        <v>6743</v>
+      </c>
+      <c r="C211" t="s">
+        <v>7009</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A212" s="3" t="s">
+        <v>6744</v>
+      </c>
+      <c r="B212" s="3" t="s">
+        <v>6745</v>
+      </c>
+      <c r="C212" t="s">
+        <v>7010</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A213" s="3" t="s">
+        <v>6746</v>
+      </c>
+      <c r="B213" s="3" t="s">
+        <v>6747</v>
+      </c>
+      <c r="C213" t="s">
+        <v>7011</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A214" s="3" t="s">
+        <v>6748</v>
+      </c>
+      <c r="B214" s="3" t="s">
+        <v>6749</v>
+      </c>
+      <c r="C214" t="s">
+        <v>7012</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A215" s="3" t="s">
+        <v>6750</v>
+      </c>
+      <c r="B215" s="3" t="s">
+        <v>6751</v>
+      </c>
+      <c r="C215" t="s">
+        <v>7013</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A216" s="3" t="s">
+        <v>6752</v>
+      </c>
+      <c r="B216" s="3" t="s">
+        <v>6753</v>
+      </c>
+      <c r="C216" t="s">
+        <v>7014</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A217" s="3" t="s">
+        <v>6754</v>
+      </c>
+      <c r="B217" s="3" t="s">
+        <v>6755</v>
+      </c>
+      <c r="C217" s="3" t="s">
+        <v>6755</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A218" s="3" t="s">
+        <v>6756</v>
+      </c>
+      <c r="B218" s="3" t="s">
+        <v>6757</v>
+      </c>
+      <c r="C218" s="3" t="s">
+        <v>6757</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A219" s="3" t="s">
+        <v>2041</v>
+      </c>
+      <c r="B219" s="3" t="s">
+        <v>2042</v>
+      </c>
+      <c r="C219" t="s">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A220" s="3" t="s">
+        <v>6758</v>
+      </c>
+      <c r="B220" s="3" t="s">
+        <v>6759</v>
+      </c>
+      <c r="C220" s="3" t="s">
+        <v>6759</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A221" s="3" t="s">
+        <v>6760</v>
+      </c>
+      <c r="B221" s="3" t="s">
+        <v>6761</v>
+      </c>
+      <c r="C221" s="3" t="s">
+        <v>6761</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A222" s="3" t="s">
+        <v>6762</v>
+      </c>
+      <c r="B222" s="3" t="s">
+        <v>6763</v>
+      </c>
+      <c r="C222" s="3" t="s">
+        <v>6763</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A223" s="3" t="s">
+        <v>6764</v>
+      </c>
+      <c r="B223" s="3" t="s">
+        <v>6765</v>
+      </c>
+      <c r="C223" s="3" t="s">
+        <v>6765</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A224" s="3" t="s">
+        <v>6766</v>
+      </c>
+      <c r="B224" s="3" t="s">
+        <v>6767</v>
+      </c>
+      <c r="C224" s="3" t="s">
+        <v>6767</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A225" s="3" t="s">
+        <v>6768</v>
+      </c>
+      <c r="B225" s="3" t="s">
+        <v>6769</v>
+      </c>
+      <c r="C225" s="3" t="s">
+        <v>7015</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A226" s="3" t="s">
+        <v>6770</v>
+      </c>
+      <c r="B226" s="3" t="s">
+        <v>6771</v>
+      </c>
+      <c r="C226" s="3" t="s">
+        <v>6771</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A227" s="3" t="s">
+        <v>6772</v>
+      </c>
+      <c r="B227" s="3" t="s">
+        <v>6773</v>
+      </c>
+      <c r="C227" t="s">
+        <v>7016</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A228" s="3" t="s">
+        <v>6774</v>
+      </c>
+      <c r="B228" s="3" t="s">
+        <v>6775</v>
+      </c>
+      <c r="C228" t="s">
+        <v>7017</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A229" s="3" t="s">
+        <v>6776</v>
+      </c>
+      <c r="B229" s="3" t="s">
+        <v>6777</v>
+      </c>
+      <c r="C229" t="s">
+        <v>7018</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A230" s="3" t="s">
+        <v>6778</v>
+      </c>
+      <c r="B230" s="3" t="s">
+        <v>6779</v>
+      </c>
+      <c r="C230" t="s">
+        <v>7019</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A231" s="3" t="s">
+        <v>6780</v>
+      </c>
+      <c r="B231" s="3" t="s">
+        <v>6781</v>
+      </c>
+      <c r="C231" t="s">
+        <v>7020</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A232" s="3" t="s">
+        <v>6782</v>
+      </c>
+      <c r="B232" s="3" t="s">
+        <v>6783</v>
+      </c>
+      <c r="C232" t="s">
+        <v>7021</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A233" s="3" t="s">
+        <v>6784</v>
+      </c>
+      <c r="B233" s="3" t="s">
+        <v>6785</v>
+      </c>
+      <c r="C233" t="s">
+        <v>7022</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A234" s="3" t="s">
+        <v>6786</v>
+      </c>
+      <c r="B234" s="3" t="s">
+        <v>6787</v>
+      </c>
+      <c r="C234" t="s">
+        <v>7023</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A235" s="3" t="s">
+        <v>2847</v>
+      </c>
+      <c r="B235" s="3" t="s">
+        <v>2848</v>
+      </c>
+      <c r="C235" t="s">
+        <v>2847</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A236" s="3" t="s">
+        <v>6788</v>
+      </c>
+      <c r="B236" s="3" t="s">
+        <v>2887</v>
+      </c>
+      <c r="C236" s="3" t="s">
+        <v>6788</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A237" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="B237" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="C237" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A238" s="3" t="s">
+        <v>6789</v>
+      </c>
+      <c r="B238" s="3" t="s">
+        <v>6790</v>
+      </c>
+      <c r="C238" t="s">
+        <v>7024</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A239" s="3" t="s">
+        <v>6791</v>
+      </c>
+      <c r="B239" s="5" t="s">
+        <v>6792</v>
+      </c>
+      <c r="C239" s="12" t="s">
+        <v>7025</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A240" s="3" t="s">
+        <v>6793</v>
+      </c>
+      <c r="B240" s="5" t="s">
+        <v>6794</v>
+      </c>
+      <c r="C240" s="12" t="s">
+        <v>7026</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A241" s="3" t="s">
+        <v>6795</v>
+      </c>
+      <c r="B241" s="5" t="s">
+        <v>6796</v>
+      </c>
+      <c r="C241" s="12" t="s">
+        <v>7027</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A242" s="3" t="s">
+        <v>6797</v>
+      </c>
+      <c r="B242" s="5" t="s">
+        <v>6798</v>
+      </c>
+      <c r="C242" s="12" t="s">
+        <v>7028</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A243" s="3" t="s">
+        <v>6799</v>
+      </c>
+      <c r="B243" s="5" t="s">
+        <v>6800</v>
+      </c>
+      <c r="C243" s="12" t="s">
+        <v>7029</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A244" s="3" t="s">
+        <v>6801</v>
+      </c>
+      <c r="B244" s="5" t="s">
+        <v>6802</v>
+      </c>
+      <c r="C244" s="12" t="s">
+        <v>7030</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A245" s="3" t="s">
+        <v>6803</v>
+      </c>
+      <c r="B245" s="5" t="s">
+        <v>6804</v>
+      </c>
+      <c r="C245" s="12" t="s">
+        <v>7031</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A246" s="3" t="s">
+        <v>6805</v>
+      </c>
+      <c r="B246" s="5" t="s">
+        <v>6806</v>
+      </c>
+      <c r="C246" s="12" t="s">
+        <v>7032</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A247" s="3" t="s">
+        <v>6807</v>
+      </c>
+      <c r="B247" s="3" t="s">
+        <v>6808</v>
+      </c>
+      <c r="C247" t="s">
+        <v>7033</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A248" s="3" t="s">
+        <v>3190</v>
+      </c>
+      <c r="B248" s="3" t="s">
+        <v>3191</v>
+      </c>
+      <c r="C248" t="s">
+        <v>3190</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A249" s="3" t="s">
+        <v>6809</v>
+      </c>
+      <c r="B249" s="3" t="s">
+        <v>6810</v>
+      </c>
+      <c r="C249" t="s">
+        <v>7034</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A250" s="3" t="s">
+        <v>6811</v>
+      </c>
+      <c r="B250" s="3" t="s">
+        <v>6812</v>
+      </c>
+      <c r="C250" t="s">
+        <v>7035</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A251" s="3" t="s">
+        <v>6813</v>
+      </c>
+      <c r="B251" s="3" t="s">
+        <v>6814</v>
+      </c>
+      <c r="C251" t="s">
+        <v>7036</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A252" s="3" t="s">
+        <v>3330</v>
+      </c>
+      <c r="B252" s="3" t="s">
+        <v>3330</v>
+      </c>
+      <c r="C252" s="3" t="s">
+        <v>3330</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A253" s="3" t="s">
+        <v>6815</v>
+      </c>
+      <c r="B253" s="3" t="s">
+        <v>6816</v>
+      </c>
+      <c r="C253" t="s">
+        <v>7037</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A254" s="3" t="s">
+        <v>6817</v>
+      </c>
+      <c r="B254" s="3" t="s">
+        <v>6818</v>
+      </c>
+      <c r="C254" t="s">
+        <v>7038</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A255" s="3" t="s">
+        <v>6819</v>
+      </c>
+      <c r="B255" s="3" t="s">
+        <v>2935</v>
+      </c>
+      <c r="C255" t="s">
+        <v>2934</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A256" s="3" t="s">
+        <v>6820</v>
+      </c>
+      <c r="B256" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C256" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A257" s="3" t="s">
+        <v>6821</v>
+      </c>
+      <c r="B257" s="3" t="s">
+        <v>6822</v>
+      </c>
+      <c r="C257" t="s">
+        <v>7039</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A258" s="3" t="s">
+        <v>6823</v>
+      </c>
+      <c r="B258" s="3" t="s">
+        <v>6824</v>
+      </c>
+      <c r="C258" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A259" s="3" t="s">
+        <v>6825</v>
+      </c>
+      <c r="B259" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C259" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A260" s="3" t="s">
+        <v>6826</v>
+      </c>
+      <c r="B260" s="3" t="s">
+        <v>6827</v>
+      </c>
+      <c r="C260" t="s">
+        <v>6385</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A261" s="3" t="s">
+        <v>6828</v>
+      </c>
+      <c r="B261" s="3" t="s">
+        <v>6829</v>
+      </c>
+      <c r="C261" t="s">
+        <v>5087</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A262" s="3" t="s">
+        <v>6830</v>
+      </c>
+      <c r="B262" s="3" t="s">
+        <v>6831</v>
+      </c>
+      <c r="C262" t="s">
+        <v>7040</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A263" s="3" t="s">
+        <v>6832</v>
+      </c>
+      <c r="B263" s="3" t="s">
+        <v>6833</v>
+      </c>
+      <c r="C263" t="s">
+        <v>6387</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A264" s="3" t="s">
+        <v>6834</v>
+      </c>
+      <c r="B264" s="3" t="s">
+        <v>6835</v>
+      </c>
+      <c r="C264" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A265" s="3" t="s">
+        <v>6836</v>
+      </c>
+      <c r="B265" s="3" t="s">
+        <v>6837</v>
+      </c>
+      <c r="C265" t="s">
+        <v>6392</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A266" s="3" t="s">
+        <v>6838</v>
+      </c>
+      <c r="B266" s="3" t="s">
+        <v>5816</v>
+      </c>
+      <c r="C266" t="s">
+        <v>5817</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A267" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B267" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C267" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A268" s="3" t="s">
+        <v>6839</v>
+      </c>
+      <c r="B268" s="3" t="s">
+        <v>6840</v>
+      </c>
+      <c r="C268" t="s">
+        <v>7058</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A269" s="3" t="s">
+        <v>6841</v>
+      </c>
+      <c r="B269" s="3" t="s">
+        <v>4055</v>
+      </c>
+      <c r="C269" t="s">
+        <v>7041</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A270" s="3" t="s">
+        <v>6842</v>
+      </c>
+      <c r="B270" s="3" t="s">
+        <v>6843</v>
+      </c>
+      <c r="C270" t="s">
+        <v>7042</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A271" s="3" t="s">
+        <v>6844</v>
+      </c>
+      <c r="B271" s="3" t="s">
+        <v>6845</v>
+      </c>
+      <c r="C271" t="s">
+        <v>7043</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A272" s="3" t="s">
+        <v>6846</v>
+      </c>
+      <c r="B272" s="3" t="s">
+        <v>6847</v>
+      </c>
+      <c r="C272" t="s">
+        <v>7044</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Tradução - Maicon/Traduções_teste_maicon.xlsx
+++ b/Tradução - Maicon/Traduções_teste_maicon.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="285" windowWidth="14805" windowHeight="7830" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="285" windowWidth="14805" windowHeight="7830"/>
   </bookViews>
   <sheets>
     <sheet name="Traduções" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11028" uniqueCount="7066">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11220" uniqueCount="7241">
   <si>
     <t xml:space="preserve"> description_Or</t>
   </si>
@@ -21846,6 +21846,531 @@
     <t>The letter electronics Sequence Correction {0} for the NF-e No '{1}' was approved.
 The document '{2}' contains the XML structure of the CC-e.
 The document '{3}' contains the document for printing referring to CC-e.</t>
+  </si>
+  <si>
+    <t>Strings Avulsas</t>
+  </si>
+  <si>
+    <t>Holder</t>
+  </si>
+  <si>
+    <t>Portador</t>
+  </si>
+  <si>
+    <t>Titular</t>
+  </si>
+  <si>
+    <t>windowTitle_SelectionOfHolder</t>
+  </si>
+  <si>
+    <t>Seleção de Portadores</t>
+  </si>
+  <si>
+    <t>Selection of Holders</t>
+  </si>
+  <si>
+    <t>Selección de los Titulares</t>
+  </si>
+  <si>
+    <t>NF-e.UI/Controls</t>
+  </si>
+  <si>
+    <t>Select Item Category</t>
+  </si>
+  <si>
+    <t>Selecionar Categoria do Item</t>
+  </si>
+  <si>
+    <t>windowTitle_SelectionOf_Category</t>
+  </si>
+  <si>
+    <t>Referência do Produto</t>
+  </si>
+  <si>
+    <t>Referência do Fornecedor no Produto</t>
+  </si>
+  <si>
+    <t>Product Reference</t>
+  </si>
+  <si>
+    <t>Supplier of reference in Product</t>
+  </si>
+  <si>
+    <t>Message_Product_Reference</t>
+  </si>
+  <si>
+    <t>Message_Supplier_Reference_Product</t>
+  </si>
+  <si>
+    <t>bck_Suppliers</t>
+  </si>
+  <si>
+    <t>Payment condition</t>
+  </si>
+  <si>
+    <t>bck_Payment_Condition</t>
+  </si>
+  <si>
+    <t>bck_Item_Category</t>
+  </si>
+  <si>
+    <t>Seleção de Categorias</t>
+  </si>
+  <si>
+    <t>Selection Categories</t>
+  </si>
+  <si>
+    <t>windowTitle_SelectionOf_Selection_Categories</t>
+  </si>
+  <si>
+    <t>Reference / Code / Item Description XML</t>
+  </si>
+  <si>
+    <t>Referência/Código/Descrição do Item do XML</t>
+  </si>
+  <si>
+    <t>ReportHeader_Reference_Code_Description</t>
+  </si>
+  <si>
+    <t>Reference / Code / Description Register Product Item</t>
+  </si>
+  <si>
+    <t>ReportHeader_Reference_Code_Description_Register</t>
+  </si>
+  <si>
+    <t>Referência/Código/Descrição do Item do Cadastro de ProdutosReference / Code / Description Register Product Item</t>
+  </si>
+  <si>
+    <t>Incluir Item</t>
+  </si>
+  <si>
+    <t>Add Item</t>
+  </si>
+  <si>
+    <t>toolTip_Add_Item</t>
+  </si>
+  <si>
+    <t>Selecionar Item</t>
+  </si>
+  <si>
+    <t>Select Item</t>
+  </si>
+  <si>
+    <t>toolTip_Select_Item</t>
+  </si>
+  <si>
+    <t>Deve ser informado uma Condição de Pagamento.</t>
+  </si>
+  <si>
+    <t>A Payment Condition must be informed.</t>
+  </si>
+  <si>
+    <t>Message_Payment_Condition</t>
+  </si>
+  <si>
+    <t>Os itens não inseridos ou não referenciados serão gerados automaticamente. Deseja continuar?</t>
+  </si>
+  <si>
+    <t>The not inserted or not referenced items will be generated automatically. You want to continue?</t>
+  </si>
+  <si>
+    <t>Message_Items_Generated_Automatically</t>
+  </si>
+  <si>
+    <t>Aconteceu erro ao salvar os itens.</t>
+  </si>
+  <si>
+    <t>It happened error saving the items.</t>
+  </si>
+  <si>
+    <t>Message_Happened_Error</t>
+  </si>
+  <si>
+    <t>Não foi encontrada a unidade 'UN' para geração dos itens automaticamente.</t>
+  </si>
+  <si>
+    <t>It not found the 'UN' unit for generating the items automatically.</t>
+  </si>
+  <si>
+    <t>Message_Not_Found_Un</t>
+  </si>
+  <si>
+    <t>Referência/Descrição do Item do XML</t>
+  </si>
+  <si>
+    <t>Reference / Description of the XML Item</t>
+  </si>
+  <si>
+    <t>ReportHeader_Reference_Description</t>
+  </si>
+  <si>
+    <t>Item da Ordem de Compra</t>
+  </si>
+  <si>
+    <t>Purchase Order Item</t>
+  </si>
+  <si>
+    <t>ReportHeader_Purchase_Order_Item</t>
+  </si>
+  <si>
+    <t>Pesquisar por Referência...</t>
+  </si>
+  <si>
+    <t>Search for Reference...</t>
+  </si>
+  <si>
+    <t>WatermarkContent_Search_Reference</t>
+  </si>
+  <si>
+    <t>Pesquisar por Descrição...</t>
+  </si>
+  <si>
+    <t>Search for Description...</t>
+  </si>
+  <si>
+    <t>WatermarkContent_Search_Description</t>
+  </si>
+  <si>
+    <t>Adicionar Produto</t>
+  </si>
+  <si>
+    <t>Add Product</t>
+  </si>
+  <si>
+    <t>bck_Add_Product</t>
+  </si>
+  <si>
+    <t>Adicionar Serviço</t>
+  </si>
+  <si>
+    <t>Add Service</t>
+  </si>
+  <si>
+    <t>bck_Add_Service</t>
+  </si>
+  <si>
+    <t>LabelDetails_Details</t>
+  </si>
+  <si>
+    <t>Você não possui permissão para executar esta operação! Para maiores informações, contate o administrador do sistema.</t>
+  </si>
+  <si>
+    <t>You do not have permission to perform this operation! For more information, contact your system administrator.</t>
+  </si>
+  <si>
+    <t>Message_Permission_Operation</t>
+  </si>
+  <si>
+    <t>Incluir Fornecedor</t>
+  </si>
+  <si>
+    <t>Add Supplier</t>
+  </si>
+  <si>
+    <t>toolTip_Add_Supplier</t>
+  </si>
+  <si>
+    <t>Selection Supplier</t>
+  </si>
+  <si>
+    <t>windowTitle_SelectionOf_Supplier</t>
+  </si>
+  <si>
+    <t>Incluir Transportadora</t>
+  </si>
+  <si>
+    <t>Include Transporter</t>
+  </si>
+  <si>
+    <t>toolTip_Include_Transporter</t>
+  </si>
+  <si>
+    <t>Relationship Supplier and Transporter</t>
+  </si>
+  <si>
+    <t>Relacionamento do Fornecedor e Transportadora</t>
+  </si>
+  <si>
+    <t>windowTitle_Dialog_Relationship_Supplier_Transporter</t>
+  </si>
+  <si>
+    <t>windowTitle_Dialog_Relationship_Supplier_Transporter_Canceled</t>
+  </si>
+  <si>
+    <t>Relacionamento do Fornecedor e Transportadora foi cancelado.</t>
+  </si>
+  <si>
+    <t>Relationship Supplier and Transporter was canceled.</t>
+  </si>
+  <si>
+    <t>Fornecedor não cadastrado ou referenciado.</t>
+  </si>
+  <si>
+    <t>Supplier not registered or referenced.</t>
+  </si>
+  <si>
+    <t>windowTitle_Dialog_Supplier_Registered_Referenced</t>
+  </si>
+  <si>
+    <t>Transporter not registered or referenced.</t>
+  </si>
+  <si>
+    <t>Transportadora não cadastrado ou referenciado.</t>
+  </si>
+  <si>
+    <t>windowTitle_Dialog_Transporter_Registered_Referenced</t>
+  </si>
+  <si>
+    <t>O Fornecedor será criado automaticamente. Deseja continuar?</t>
+  </si>
+  <si>
+    <t>The Supplier will be created automatically. You want to continue?</t>
+  </si>
+  <si>
+    <t>windowTitle_Dialog_Supplier_Created_Automatically</t>
+  </si>
+  <si>
+    <t>Criando Fornecedor...</t>
+  </si>
+  <si>
+    <t>Creating Supplier ...</t>
+  </si>
+  <si>
+    <t>windowTitle_Creating_Supplier</t>
+  </si>
+  <si>
+    <t>A Transportadora será criada automaticamente. Deseja continuar?</t>
+  </si>
+  <si>
+    <t>The carrier will be created automatically. You want to continue?</t>
+  </si>
+  <si>
+    <t>windowTitle_Transporter_Created_Automatically</t>
+  </si>
+  <si>
+    <t>Criando Transportadora...</t>
+  </si>
+  <si>
+    <t>Creating Transporter ...</t>
+  </si>
+  <si>
+    <t>windowTitle_Creating_Transporter</t>
+  </si>
+  <si>
+    <t>Não foram encontrados o Fornecedor e a Transportadora com estes documentos. Será necessário cadastrá-los ou referenciá-los.</t>
+  </si>
+  <si>
+    <t>There were no Supplier and the carrier with these documents. You must register them or reference them.</t>
+  </si>
+  <si>
+    <t>Message_Supplier_Trasporter_Documents</t>
+  </si>
+  <si>
+    <t>Não foi encontrado o Fornecedor com este documento. Será necessário cadastrá-lo ou referenciar um Fornecedor existente.</t>
+  </si>
+  <si>
+    <t>Can not find the Supplier with this document. You must register it or link to an existing Supplier.</t>
+  </si>
+  <si>
+    <t>Message_Supplier_Documents</t>
+  </si>
+  <si>
+    <t>Não foi encontrada a Transportadora com este documento. Será necessário cadastrá-la ou referenciar uma Transportadora existente.</t>
+  </si>
+  <si>
+    <t>We did not find the trasporter with this document. It will need registers it or link to an existing conveyor.</t>
+  </si>
+  <si>
+    <t>Message_Trasporter_Documents</t>
+  </si>
+  <si>
+    <t>Selecionar Email das Pessoa</t>
+  </si>
+  <si>
+    <t>Select Email the Person</t>
+  </si>
+  <si>
+    <t>windowTitle_Select_Email_Person</t>
+  </si>
+  <si>
+    <t>Coluna não encontrada.</t>
+  </si>
+  <si>
+    <t>Column not found.</t>
+  </si>
+  <si>
+    <t>Message_Column_Not_Found</t>
+  </si>
+  <si>
+    <t>toolTip_Select_Service_Order</t>
+  </si>
+  <si>
+    <t>Seleção de ECF</t>
+  </si>
+  <si>
+    <t>Selection of ECF</t>
+  </si>
+  <si>
+    <t>windowTitle_Selection_ECF</t>
+  </si>
+  <si>
+    <t>Title_Nfe_Issued</t>
+  </si>
+  <si>
+    <t>NF-e emitidas.</t>
+  </si>
+  <si>
+    <t>NF-e Issued.</t>
+  </si>
+  <si>
+    <t>bck_Query</t>
+  </si>
+  <si>
+    <t>Consulta NF-e</t>
+  </si>
+  <si>
+    <t>Query NF-e</t>
+  </si>
+  <si>
+    <t>bck_Cancellation_Information</t>
+  </si>
+  <si>
+    <t>Informações de Cancelamento</t>
+  </si>
+  <si>
+    <t>Cancellation Information</t>
+  </si>
+  <si>
+    <t>Data de Cancelamento</t>
+  </si>
+  <si>
+    <t>bck_Date_Cancellation</t>
+  </si>
+  <si>
+    <t>Date of Cancellation</t>
+  </si>
+  <si>
+    <t>bck_Protocol</t>
+  </si>
+  <si>
+    <t>Nº do Protocolo</t>
+  </si>
+  <si>
+    <t>No. Protocol</t>
+  </si>
+  <si>
+    <t>bck_Authorization_Information</t>
+  </si>
+  <si>
+    <t>Informações de Autorização</t>
+  </si>
+  <si>
+    <t>Authorization Information</t>
+  </si>
+  <si>
+    <t>bck_Date_Authorization</t>
+  </si>
+  <si>
+    <t>Data de Autorização</t>
+  </si>
+  <si>
+    <t>Date of Authorization</t>
+  </si>
+  <si>
+    <t>Chave da NFe</t>
+  </si>
+  <si>
+    <t>NFe key</t>
+  </si>
+  <si>
+    <t>bck_Key_Nfe</t>
+  </si>
+  <si>
+    <t>Marcar/Desmarcar todos.</t>
+  </si>
+  <si>
+    <t>toolTip_Mark_Deselect</t>
+  </si>
+  <si>
+    <t>Mark/Deselect all</t>
+  </si>
+  <si>
+    <t>Atualizar Preço Custo</t>
+  </si>
+  <si>
+    <t>Upgrade Cost Price</t>
+  </si>
+  <si>
+    <t>bck_Upgrade_Cost_Price</t>
+  </si>
+  <si>
+    <t>Atualizar Preço de Custo do produto.</t>
+  </si>
+  <si>
+    <t>Update Product Cost Price.</t>
+  </si>
+  <si>
+    <t>toolTip_Update_Procuct_Cost</t>
+  </si>
+  <si>
+    <t>ReportHeader_Cost_Price</t>
+  </si>
+  <si>
+    <t>Reajustado</t>
+  </si>
+  <si>
+    <t>Readjusted</t>
+  </si>
+  <si>
+    <t>ReportHeader_Readjusted</t>
+  </si>
+  <si>
+    <t>Atualizar Preço Venda</t>
+  </si>
+  <si>
+    <t>Update Price Sale</t>
+  </si>
+  <si>
+    <t>bck_Update_Price_Sale</t>
+  </si>
+  <si>
+    <t>Atualizar preço de venda do produto.</t>
+  </si>
+  <si>
+    <t>Upgrade selling price of the product.</t>
+  </si>
+  <si>
+    <t>toolTip_Update_Procuct_Selling</t>
+  </si>
+  <si>
+    <t>bck_Gross_Margin</t>
+  </si>
+  <si>
+    <t>Sale price</t>
+  </si>
+  <si>
+    <t>ReportHeader_Sale_Price</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O padrão do código de barras está em branco </t>
+  </si>
+  <si>
+    <t>The barcode pattern is blank</t>
+  </si>
+  <si>
+    <t>Default_Barcode_Blank</t>
+  </si>
+  <si>
+    <t>El patrón de código de barras está en blanco</t>
+  </si>
+  <si>
+    <t>catalogs</t>
+  </si>
+  <si>
+    <t>Dia da semana</t>
+  </si>
+  <si>
+    <t>bck_Day_Week</t>
   </si>
 </sst>
 </file>
@@ -22363,18 +22888,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:XFD666"/>
+  <dimension ref="A1:XFD731"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A641" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A395" sqref="A395:B666"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A712" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C740" sqref="C740:C741"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="47.5703125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="34.140625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="47.42578125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="53.5703125" style="3" customWidth="1"/>
+    <col min="2" max="3" width="46.5703125" style="3" customWidth="1"/>
     <col min="4" max="4" width="39" style="3" customWidth="1"/>
     <col min="5" max="5" width="49.42578125" customWidth="1"/>
   </cols>
@@ -23721,7 +24245,7 @@
         <v>insert into Linguas(ID, projectID, folderID, classID, tag_Value, default_Value, pt_Value, en_Value, es_Value, dateUpdate)values(newid(),null,null,null,'Message_IntegrationServiceRequired','O serviço de integração não está disponível. Inicie o mesmo para continuar.','O serviço de integração não está disponível. Inicie o mesmo para continuar.','The integration service is not available. Start it to continue.','',getdate());</v>
       </c>
     </row>
-    <row r="91" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
         <v>178</v>
       </c>
@@ -43698,7 +44222,7 @@
         <v>6379</v>
       </c>
     </row>
-    <row r="405" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A405" s="3" t="s">
         <v>6380</v>
       </c>
@@ -43874,7 +44398,7 @@
         <v>6410</v>
       </c>
     </row>
-    <row r="427" spans="1:2" ht="390" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:2" ht="360" x14ac:dyDescent="0.25">
       <c r="A427" s="3" t="s">
         <v>6411</v>
       </c>
@@ -44522,7 +45046,7 @@
         <v>6553</v>
       </c>
     </row>
-    <row r="508" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A508" s="3" t="s">
         <v>6554</v>
       </c>
@@ -44970,7 +45494,7 @@
         <v>6659</v>
       </c>
     </row>
-    <row r="564" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A564" s="3" t="s">
         <v>6660</v>
       </c>
@@ -44986,7 +45510,7 @@
         <v>6663</v>
       </c>
     </row>
-    <row r="566" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A566" s="3" t="s">
         <v>6664</v>
       </c>
@@ -45002,7 +45526,7 @@
         <v>6667</v>
       </c>
     </row>
-    <row r="568" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A568" s="3" t="s">
         <v>6668</v>
       </c>
@@ -45018,7 +45542,7 @@
         <v>6671</v>
       </c>
     </row>
-    <row r="570" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A570" s="3" t="s">
         <v>6672</v>
       </c>
@@ -45026,7 +45550,7 @@
         <v>6673</v>
       </c>
     </row>
-    <row r="571" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A571" s="3" t="s">
         <v>6674</v>
       </c>
@@ -45042,7 +45566,7 @@
         <v>6677</v>
       </c>
     </row>
-    <row r="573" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A573" s="3" t="s">
         <v>6678</v>
       </c>
@@ -45066,7 +45590,7 @@
         <v>6683</v>
       </c>
     </row>
-    <row r="576" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A576" s="3" t="s">
         <v>6684</v>
       </c>
@@ -45074,7 +45598,7 @@
         <v>6685</v>
       </c>
     </row>
-    <row r="577" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A577" s="3" t="s">
         <v>6686</v>
       </c>
@@ -45082,7 +45606,7 @@
         <v>6687</v>
       </c>
     </row>
-    <row r="578" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A578" s="3" t="s">
         <v>6688</v>
       </c>
@@ -45138,7 +45662,7 @@
         <v>6701</v>
       </c>
     </row>
-    <row r="585" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A585" s="3" t="s">
         <v>6702</v>
       </c>
@@ -45218,7 +45742,7 @@
         <v>6721</v>
       </c>
     </row>
-    <row r="595" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A595" s="3" t="s">
         <v>6722</v>
       </c>
@@ -45282,7 +45806,7 @@
         <v>6737</v>
       </c>
     </row>
-    <row r="603" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A603" s="3" t="s">
         <v>6738</v>
       </c>
@@ -45290,7 +45814,7 @@
         <v>6739</v>
       </c>
     </row>
-    <row r="604" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A604" s="3" t="s">
         <v>6740</v>
       </c>
@@ -45522,7 +46046,7 @@
         <v>6790</v>
       </c>
     </row>
-    <row r="633" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A633" s="3" t="s">
         <v>6791</v>
       </c>
@@ -45530,7 +46054,7 @@
         <v>6792</v>
       </c>
     </row>
-    <row r="634" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A634" s="3" t="s">
         <v>6793</v>
       </c>
@@ -45538,7 +46062,7 @@
         <v>6794</v>
       </c>
     </row>
-    <row r="635" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A635" s="3" t="s">
         <v>6795</v>
       </c>
@@ -45546,7 +46070,7 @@
         <v>6796</v>
       </c>
     </row>
-    <row r="636" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A636" s="3" t="s">
         <v>6797</v>
       </c>
@@ -45554,7 +46078,7 @@
         <v>6798</v>
       </c>
     </row>
-    <row r="637" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A637" s="3" t="s">
         <v>6799</v>
       </c>
@@ -45562,7 +46086,7 @@
         <v>6800</v>
       </c>
     </row>
-    <row r="638" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A638" s="3" t="s">
         <v>6801</v>
       </c>
@@ -45570,7 +46094,7 @@
         <v>6802</v>
       </c>
     </row>
-    <row r="639" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A639" s="3" t="s">
         <v>6803</v>
       </c>
@@ -45578,7 +46102,7 @@
         <v>6804</v>
       </c>
     </row>
-    <row r="640" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A640" s="3" t="s">
         <v>6805</v>
       </c>
@@ -45714,7 +46238,7 @@
         <v>6831</v>
       </c>
     </row>
-    <row r="657" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A657" s="3" t="s">
         <v>6832</v>
       </c>
@@ -45722,7 +46246,7 @@
         <v>6833</v>
       </c>
     </row>
-    <row r="658" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A658" s="3" t="s">
         <v>6834</v>
       </c>
@@ -45730,7 +46254,7 @@
         <v>6835</v>
       </c>
     </row>
-    <row r="659" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A659" s="3" t="s">
         <v>6836</v>
       </c>
@@ -45738,7 +46262,7 @@
         <v>6837</v>
       </c>
     </row>
-    <row r="660" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A660" s="3" t="s">
         <v>6838</v>
       </c>
@@ -45746,7 +46270,7 @@
         <v>5816</v>
       </c>
     </row>
-    <row r="661" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A661" s="3" t="s">
         <v>89</v>
       </c>
@@ -45754,7 +46278,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="662" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A662" s="3" t="s">
         <v>6839</v>
       </c>
@@ -45762,7 +46286,7 @@
         <v>6840</v>
       </c>
     </row>
-    <row r="663" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A663" s="3" t="s">
         <v>6841</v>
       </c>
@@ -45770,7 +46294,7 @@
         <v>4055</v>
       </c>
     </row>
-    <row r="664" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A664" s="3" t="s">
         <v>6842</v>
       </c>
@@ -45778,7 +46302,7 @@
         <v>6843</v>
       </c>
     </row>
-    <row r="665" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A665" s="3" t="s">
         <v>6844</v>
       </c>
@@ -45786,7 +46310,7 @@
         <v>6845</v>
       </c>
     </row>
-    <row r="666" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A666" s="3" t="s">
         <v>6846</v>
       </c>
@@ -45794,11 +46318,723 @@
         <v>6847</v>
       </c>
     </row>
+    <row r="667" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A667" s="23" t="s">
+        <v>7066</v>
+      </c>
+      <c r="B667" s="23"/>
+      <c r="C667" s="23"/>
+      <c r="D667" s="23"/>
+    </row>
+    <row r="668" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A668" s="3" t="s">
+        <v>7067</v>
+      </c>
+      <c r="B668" s="3" t="s">
+        <v>7068</v>
+      </c>
+      <c r="C668" s="3" t="s">
+        <v>7067</v>
+      </c>
+      <c r="D668" s="3" t="s">
+        <v>7069</v>
+      </c>
+    </row>
+    <row r="669" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A669" s="3" t="s">
+        <v>7070</v>
+      </c>
+      <c r="B669" s="3" t="s">
+        <v>7071</v>
+      </c>
+      <c r="C669" s="3" t="s">
+        <v>7072</v>
+      </c>
+      <c r="D669" s="3" t="s">
+        <v>7073</v>
+      </c>
+    </row>
+    <row r="670" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A670" s="3" t="s">
+        <v>7236</v>
+      </c>
+      <c r="B670" s="3" t="s">
+        <v>7234</v>
+      </c>
+      <c r="C670" s="3" t="s">
+        <v>7235</v>
+      </c>
+      <c r="D670" s="3" t="s">
+        <v>7237</v>
+      </c>
+      <c r="E670" s="3" t="s">
+        <v>7238</v>
+      </c>
+    </row>
+    <row r="672" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A672" s="23" t="s">
+        <v>7074</v>
+      </c>
+      <c r="B672" s="23"/>
+      <c r="C672" s="23"/>
+      <c r="D672" s="23"/>
+    </row>
+    <row r="673" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A673" s="3" t="s">
+        <v>7077</v>
+      </c>
+      <c r="B673" s="3" t="s">
+        <v>7076</v>
+      </c>
+      <c r="C673" s="3" t="s">
+        <v>7075</v>
+      </c>
+    </row>
+    <row r="674" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A674" s="3" t="s">
+        <v>7082</v>
+      </c>
+      <c r="B674" s="3" t="s">
+        <v>7078</v>
+      </c>
+      <c r="C674" s="3" t="s">
+        <v>7080</v>
+      </c>
+    </row>
+    <row r="675" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A675" s="3" t="s">
+        <v>7083</v>
+      </c>
+      <c r="B675" s="3" t="s">
+        <v>7079</v>
+      </c>
+      <c r="C675" s="3" t="s">
+        <v>7081</v>
+      </c>
+    </row>
+    <row r="676" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A676" s="3" t="s">
+        <v>7084</v>
+      </c>
+      <c r="B676" s="3" t="s">
+        <v>3456</v>
+      </c>
+      <c r="C676" s="3" t="s">
+        <v>3455</v>
+      </c>
+    </row>
+    <row r="677" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A677" s="3" t="s">
+        <v>7086</v>
+      </c>
+      <c r="B677" s="3" t="s">
+        <v>5919</v>
+      </c>
+      <c r="C677" s="3" t="s">
+        <v>7085</v>
+      </c>
+    </row>
+    <row r="678" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A678" s="3" t="s">
+        <v>7087</v>
+      </c>
+      <c r="B678" s="3" t="s">
+        <v>1824</v>
+      </c>
+      <c r="C678" s="3" t="s">
+        <v>5504</v>
+      </c>
+    </row>
+    <row r="679" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A679" s="3" t="s">
+        <v>7090</v>
+      </c>
+      <c r="B679" s="3" t="s">
+        <v>7088</v>
+      </c>
+      <c r="C679" s="3" t="s">
+        <v>7089</v>
+      </c>
+    </row>
+    <row r="680" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A680" s="7" t="s">
+        <v>7093</v>
+      </c>
+      <c r="B680" s="3" t="s">
+        <v>7092</v>
+      </c>
+      <c r="C680" s="3" t="s">
+        <v>7091</v>
+      </c>
+    </row>
+    <row r="681" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A681" s="7" t="s">
+        <v>7095</v>
+      </c>
+      <c r="B681" s="3" t="s">
+        <v>7096</v>
+      </c>
+      <c r="C681" s="3" t="s">
+        <v>7094</v>
+      </c>
+    </row>
+    <row r="682" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A682" s="3" t="s">
+        <v>7099</v>
+      </c>
+      <c r="B682" s="3" t="s">
+        <v>7097</v>
+      </c>
+      <c r="C682" s="3" t="s">
+        <v>7098</v>
+      </c>
+    </row>
+    <row r="683" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A683" s="3" t="s">
+        <v>7102</v>
+      </c>
+      <c r="B683" s="3" t="s">
+        <v>7100</v>
+      </c>
+      <c r="C683" s="3" t="s">
+        <v>7101</v>
+      </c>
+    </row>
+    <row r="684" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A684" s="3" t="s">
+        <v>7105</v>
+      </c>
+      <c r="B684" s="3" t="s">
+        <v>7103</v>
+      </c>
+      <c r="C684" s="3" t="s">
+        <v>7104</v>
+      </c>
+    </row>
+    <row r="685" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A685" s="3" t="s">
+        <v>7108</v>
+      </c>
+      <c r="B685" s="3" t="s">
+        <v>7106</v>
+      </c>
+      <c r="C685" s="3" t="s">
+        <v>7107</v>
+      </c>
+    </row>
+    <row r="686" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A686" s="3" t="s">
+        <v>7111</v>
+      </c>
+      <c r="B686" s="3" t="s">
+        <v>7109</v>
+      </c>
+      <c r="C686" s="3" t="s">
+        <v>7110</v>
+      </c>
+    </row>
+    <row r="687" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A687" s="3" t="s">
+        <v>7114</v>
+      </c>
+      <c r="B687" s="3" t="s">
+        <v>7112</v>
+      </c>
+      <c r="C687" s="3" t="s">
+        <v>7113</v>
+      </c>
+    </row>
+    <row r="688" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A688" s="7" t="s">
+        <v>7117</v>
+      </c>
+      <c r="B688" s="3" t="s">
+        <v>7115</v>
+      </c>
+      <c r="C688" s="3" t="s">
+        <v>7116</v>
+      </c>
+    </row>
+    <row r="689" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A689" s="7" t="s">
+        <v>7120</v>
+      </c>
+      <c r="B689" s="3" t="s">
+        <v>7118</v>
+      </c>
+      <c r="C689" s="3" t="s">
+        <v>7119</v>
+      </c>
+    </row>
+    <row r="690" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A690" s="3" t="s">
+        <v>7123</v>
+      </c>
+      <c r="B690" s="3" t="s">
+        <v>7121</v>
+      </c>
+      <c r="C690" s="3" t="s">
+        <v>7122</v>
+      </c>
+    </row>
+    <row r="691" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A691" s="3" t="s">
+        <v>7126</v>
+      </c>
+      <c r="B691" s="3" t="s">
+        <v>7124</v>
+      </c>
+      <c r="C691" s="3" t="s">
+        <v>7125</v>
+      </c>
+    </row>
+    <row r="692" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A692" s="3" t="s">
+        <v>7129</v>
+      </c>
+      <c r="B692" s="3" t="s">
+        <v>7127</v>
+      </c>
+      <c r="C692" s="3" t="s">
+        <v>7128</v>
+      </c>
+    </row>
+    <row r="693" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A693" s="3" t="s">
+        <v>7132</v>
+      </c>
+      <c r="B693" s="3" t="s">
+        <v>7130</v>
+      </c>
+      <c r="C693" s="3" t="s">
+        <v>7131</v>
+      </c>
+    </row>
+    <row r="694" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A694" s="3" t="s">
+        <v>7133</v>
+      </c>
+      <c r="B694" s="3" t="s">
+        <v>1159</v>
+      </c>
+      <c r="C694" s="3" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="695" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A695" s="3" t="s">
+        <v>7136</v>
+      </c>
+      <c r="B695" s="3" t="s">
+        <v>7134</v>
+      </c>
+      <c r="C695" s="3" t="s">
+        <v>7135</v>
+      </c>
+    </row>
+    <row r="696" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A696" s="3" t="s">
+        <v>7139</v>
+      </c>
+      <c r="B696" s="3" t="s">
+        <v>7137</v>
+      </c>
+      <c r="C696" s="3" t="s">
+        <v>7138</v>
+      </c>
+    </row>
+    <row r="697" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A697" s="3" t="s">
+        <v>7141</v>
+      </c>
+      <c r="B697" s="3" t="s">
+        <v>4227</v>
+      </c>
+      <c r="C697" s="3" t="s">
+        <v>7140</v>
+      </c>
+    </row>
+    <row r="698" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A698" s="3" t="s">
+        <v>7144</v>
+      </c>
+      <c r="B698" s="3" t="s">
+        <v>7142</v>
+      </c>
+      <c r="C698" s="3" t="s">
+        <v>7143</v>
+      </c>
+    </row>
+    <row r="699" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A699" s="3" t="s">
+        <v>7147</v>
+      </c>
+      <c r="B699" s="3" t="s">
+        <v>7146</v>
+      </c>
+      <c r="C699" s="3" t="s">
+        <v>7145</v>
+      </c>
+    </row>
+    <row r="700" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A700" s="3" t="s">
+        <v>7148</v>
+      </c>
+      <c r="B700" s="3" t="s">
+        <v>7149</v>
+      </c>
+      <c r="C700" s="3" t="s">
+        <v>7150</v>
+      </c>
+    </row>
+    <row r="701" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A701" s="3" t="s">
+        <v>7153</v>
+      </c>
+      <c r="B701" s="3" t="s">
+        <v>7151</v>
+      </c>
+      <c r="C701" s="3" t="s">
+        <v>7152</v>
+      </c>
+    </row>
+    <row r="702" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A702" s="3" t="s">
+        <v>7156</v>
+      </c>
+      <c r="B702" s="3" t="s">
+        <v>7155</v>
+      </c>
+      <c r="C702" s="3" t="s">
+        <v>7154</v>
+      </c>
+    </row>
+    <row r="703" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A703" s="3" t="s">
+        <v>7159</v>
+      </c>
+      <c r="B703" s="3" t="s">
+        <v>7157</v>
+      </c>
+      <c r="C703" s="3" t="s">
+        <v>7158</v>
+      </c>
+    </row>
+    <row r="704" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A704" s="3" t="s">
+        <v>7162</v>
+      </c>
+      <c r="B704" s="3" t="s">
+        <v>7160</v>
+      </c>
+      <c r="C704" s="3" t="s">
+        <v>7161</v>
+      </c>
+    </row>
+    <row r="705" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A705" s="3" t="s">
+        <v>7165</v>
+      </c>
+      <c r="B705" s="3" t="s">
+        <v>7163</v>
+      </c>
+      <c r="C705" s="3" t="s">
+        <v>7164</v>
+      </c>
+    </row>
+    <row r="706" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A706" s="3" t="s">
+        <v>7168</v>
+      </c>
+      <c r="B706" s="3" t="s">
+        <v>7166</v>
+      </c>
+      <c r="C706" s="3" t="s">
+        <v>7167</v>
+      </c>
+    </row>
+    <row r="707" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A707" s="3" t="s">
+        <v>7171</v>
+      </c>
+      <c r="B707" s="3" t="s">
+        <v>7169</v>
+      </c>
+      <c r="C707" s="3" t="s">
+        <v>7170</v>
+      </c>
+    </row>
+    <row r="708" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A708" s="3" t="s">
+        <v>7174</v>
+      </c>
+      <c r="B708" s="3" t="s">
+        <v>7172</v>
+      </c>
+      <c r="C708" s="3" t="s">
+        <v>7173</v>
+      </c>
+    </row>
+    <row r="709" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A709" s="3" t="s">
+        <v>7177</v>
+      </c>
+      <c r="B709" s="3" t="s">
+        <v>7175</v>
+      </c>
+      <c r="C709" s="3" t="s">
+        <v>7176</v>
+      </c>
+    </row>
+    <row r="710" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A710" s="3" t="s">
+        <v>7180</v>
+      </c>
+      <c r="B710" s="3" t="s">
+        <v>7178</v>
+      </c>
+      <c r="C710" s="3" t="s">
+        <v>7179</v>
+      </c>
+    </row>
+    <row r="711" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A711" s="3" t="s">
+        <v>7183</v>
+      </c>
+      <c r="B711" s="3" t="s">
+        <v>7181</v>
+      </c>
+      <c r="C711" s="3" t="s">
+        <v>7182</v>
+      </c>
+    </row>
+    <row r="712" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A712" s="3" t="s">
+        <v>7184</v>
+      </c>
+      <c r="B712" s="3" t="s">
+        <v>5787</v>
+      </c>
+      <c r="C712" s="3" t="s">
+        <v>5788</v>
+      </c>
+    </row>
+    <row r="713" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A713" s="3" t="s">
+        <v>7187</v>
+      </c>
+      <c r="B713" s="3" t="s">
+        <v>7185</v>
+      </c>
+      <c r="C713" s="3" t="s">
+        <v>7186</v>
+      </c>
+    </row>
+    <row r="714" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A714" s="3" t="s">
+        <v>7188</v>
+      </c>
+      <c r="B714" s="3" t="s">
+        <v>7189</v>
+      </c>
+      <c r="C714" s="3" t="s">
+        <v>7190</v>
+      </c>
+    </row>
+    <row r="715" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A715" s="3" t="s">
+        <v>7191</v>
+      </c>
+      <c r="B715" s="3" t="s">
+        <v>7192</v>
+      </c>
+      <c r="C715" s="3" t="s">
+        <v>7193</v>
+      </c>
+    </row>
+    <row r="716" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A716" s="3" t="s">
+        <v>7194</v>
+      </c>
+      <c r="B716" s="3" t="s">
+        <v>7195</v>
+      </c>
+      <c r="C716" s="3" t="s">
+        <v>7196</v>
+      </c>
+    </row>
+    <row r="717" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A717" s="3" t="s">
+        <v>7198</v>
+      </c>
+      <c r="B717" s="3" t="s">
+        <v>7197</v>
+      </c>
+      <c r="C717" s="3" t="s">
+        <v>7199</v>
+      </c>
+    </row>
+    <row r="718" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A718" s="3" t="s">
+        <v>7200</v>
+      </c>
+      <c r="B718" s="3" t="s">
+        <v>7201</v>
+      </c>
+      <c r="C718" s="3" t="s">
+        <v>7202</v>
+      </c>
+    </row>
+    <row r="719" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A719" s="3" t="s">
+        <v>7203</v>
+      </c>
+      <c r="B719" s="3" t="s">
+        <v>7204</v>
+      </c>
+      <c r="C719" s="3" t="s">
+        <v>7205</v>
+      </c>
+    </row>
+    <row r="720" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A720" s="3" t="s">
+        <v>7206</v>
+      </c>
+      <c r="B720" s="3" t="s">
+        <v>7207</v>
+      </c>
+      <c r="C720" s="3" t="s">
+        <v>7208</v>
+      </c>
+    </row>
+    <row r="721" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A721" s="3" t="s">
+        <v>7211</v>
+      </c>
+      <c r="B721" s="3" t="s">
+        <v>7209</v>
+      </c>
+      <c r="C721" s="3" t="s">
+        <v>7210</v>
+      </c>
+    </row>
+    <row r="722" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A722" s="3" t="s">
+        <v>7213</v>
+      </c>
+      <c r="B722" s="3" t="s">
+        <v>7212</v>
+      </c>
+      <c r="C722" s="3" t="s">
+        <v>7214</v>
+      </c>
+    </row>
+    <row r="723" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A723" s="3" t="s">
+        <v>7217</v>
+      </c>
+      <c r="B723" s="3" t="s">
+        <v>7215</v>
+      </c>
+      <c r="C723" s="3" t="s">
+        <v>7216</v>
+      </c>
+    </row>
+    <row r="724" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A724" s="3" t="s">
+        <v>7220</v>
+      </c>
+      <c r="B724" s="3" t="s">
+        <v>7218</v>
+      </c>
+      <c r="C724" s="3" t="s">
+        <v>7219</v>
+      </c>
+    </row>
+    <row r="725" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A725" s="7" t="s">
+        <v>7221</v>
+      </c>
+      <c r="B725" s="3" t="s">
+        <v>979</v>
+      </c>
+      <c r="C725" s="3" t="s">
+        <v>4469</v>
+      </c>
+    </row>
+    <row r="726" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A726" s="7" t="s">
+        <v>7224</v>
+      </c>
+      <c r="B726" s="3" t="s">
+        <v>7222</v>
+      </c>
+      <c r="C726" s="3" t="s">
+        <v>7223</v>
+      </c>
+    </row>
+    <row r="727" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A727" s="3" t="s">
+        <v>7227</v>
+      </c>
+      <c r="B727" s="3" t="s">
+        <v>7225</v>
+      </c>
+      <c r="C727" s="3" t="s">
+        <v>7226</v>
+      </c>
+    </row>
+    <row r="728" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A728" s="3" t="s">
+        <v>7230</v>
+      </c>
+      <c r="B728" s="3" t="s">
+        <v>7228</v>
+      </c>
+      <c r="C728" s="3" t="s">
+        <v>7229</v>
+      </c>
+    </row>
+    <row r="729" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A729" s="3" t="s">
+        <v>7231</v>
+      </c>
+      <c r="B729" s="3" t="s">
+        <v>1529</v>
+      </c>
+      <c r="C729" s="3" t="s">
+        <v>4654</v>
+      </c>
+    </row>
+    <row r="730" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A730" s="7" t="s">
+        <v>7233</v>
+      </c>
+      <c r="B730" s="3" t="s">
+        <v>3247</v>
+      </c>
+      <c r="C730" s="3" t="s">
+        <v>7232</v>
+      </c>
+    </row>
+    <row r="731" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A731" s="3" t="s">
+        <v>7240</v>
+      </c>
+      <c r="B731" s="3" t="s">
+        <v>7239</v>
+      </c>
+      <c r="C731" s="3" t="s">
+        <v>4485</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="5">
     <mergeCell ref="A148:D148"/>
     <mergeCell ref="A325:D325"/>
     <mergeCell ref="A394:D394"/>
+    <mergeCell ref="A667:D667"/>
+    <mergeCell ref="A672:D672"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -45809,7 +47045,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
@@ -45947,7 +47183,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2396"/>
   <sheetViews>
-    <sheetView topLeftCell="B2146" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="B2059" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
@@ -78662,146 +79898,146 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C272"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B133" workbookViewId="0">
-      <selection activeCell="C139" sqref="C139"/>
+    <sheetView topLeftCell="A245" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="44" customWidth="1"/>
-    <col min="2" max="2" width="71.85546875" customWidth="1"/>
-    <col min="3" max="3" width="69.85546875" customWidth="1"/>
+    <col min="2" max="2" width="69.85546875" customWidth="1"/>
+    <col min="3" max="3" width="53" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>6360</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" t="s">
+        <v>6858</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>6361</v>
-      </c>
-      <c r="C1" t="s">
-        <v>6858</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>6362</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" t="s">
+        <v>6859</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>6363</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6859</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>6364</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" t="s">
+        <v>6860</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>6365</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6860</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>6366</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" t="s">
+        <v>6861</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>6367</v>
-      </c>
-      <c r="C4" t="s">
-        <v>6861</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>6368</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" t="s">
+        <v>6862</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>6369</v>
-      </c>
-      <c r="C5" t="s">
-        <v>6862</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>6370</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" t="s">
+        <v>6863</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>6371</v>
-      </c>
-      <c r="C6" t="s">
-        <v>6863</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>6372</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" t="s">
+        <v>6864</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>6373</v>
-      </c>
-      <c r="C7" t="s">
-        <v>6864</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>6374</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" t="s">
+        <v>6865</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>6375</v>
-      </c>
-      <c r="C8" t="s">
-        <v>6865</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>6376</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" t="s">
+        <v>6866</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>6377</v>
-      </c>
-      <c r="C9" t="s">
-        <v>6866</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>6378</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" t="s">
+        <v>6867</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>6379</v>
       </c>
-      <c r="C10" t="s">
-        <v>6867</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>6380</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" t="s">
+        <v>7045</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>6857</v>
-      </c>
-      <c r="C11" t="s">
-        <v>7045</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>6382</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" t="s">
         <v>549</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="3" t="s">
         <v>549</v>
       </c>
     </row>
@@ -78898,10 +80134,10 @@
         <v>894</v>
       </c>
       <c r="B21" s="3" t="s">
+        <v>894</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>895</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>894</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -78941,65 +80177,65 @@
       <c r="A25" s="3" t="s">
         <v>6396</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" t="s">
+        <v>6868</v>
+      </c>
+      <c r="C25" s="3" t="s">
         <v>6397</v>
-      </c>
-      <c r="C25" t="s">
-        <v>6868</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>6398</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" t="s">
+        <v>6869</v>
+      </c>
+      <c r="C26" s="3" t="s">
         <v>6399</v>
-      </c>
-      <c r="C26" t="s">
-        <v>6869</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>6400</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" t="s">
+        <v>6870</v>
+      </c>
+      <c r="C27" s="3" t="s">
         <v>6401</v>
-      </c>
-      <c r="C27" t="s">
-        <v>6870</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>6402</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" t="s">
+        <v>7046</v>
+      </c>
+      <c r="C28" s="3" t="s">
         <v>6403</v>
-      </c>
-      <c r="C28" t="s">
-        <v>7046</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>6404</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" t="s">
+        <v>6871</v>
+      </c>
+      <c r="C29" s="3" t="s">
         <v>6405</v>
-      </c>
-      <c r="C29" t="s">
-        <v>6871</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>6406</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" t="s">
         <v>3443</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="3" t="s">
         <v>3443</v>
       </c>
     </row>
@@ -79007,44 +80243,44 @@
       <c r="A31" s="3" t="s">
         <v>6407</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" t="s">
+        <v>6872</v>
+      </c>
+      <c r="C31" s="3" t="s">
         <v>6408</v>
-      </c>
-      <c r="C31" t="s">
-        <v>6872</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>6409</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" t="s">
+        <v>6873</v>
+      </c>
+      <c r="C32" s="3" t="s">
         <v>6410</v>
       </c>
-      <c r="C32" t="s">
-        <v>6873</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="300" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:3" ht="315" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>6411</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B33" s="12" t="s">
+        <v>7062</v>
+      </c>
+      <c r="C33" s="5" t="s">
         <v>6412</v>
-      </c>
-      <c r="C33" s="12" t="s">
-        <v>7062</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>6413</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" t="s">
+        <v>6874</v>
+      </c>
+      <c r="C34" s="3" t="s">
         <v>6414</v>
-      </c>
-      <c r="C34" t="s">
-        <v>6874</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -79084,22 +80320,22 @@
       <c r="A38" s="3" t="s">
         <v>6419</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B38" t="s">
+        <v>6875</v>
+      </c>
+      <c r="C38" s="3" t="s">
         <v>5907</v>
-      </c>
-      <c r="C38" t="s">
-        <v>6875</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>6420</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B39" t="s">
+        <v>6876</v>
+      </c>
+      <c r="C39" s="3" t="s">
         <v>5796</v>
-      </c>
-      <c r="C39" t="s">
-        <v>6876</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -79139,11 +80375,11 @@
       <c r="A43" s="3" t="s">
         <v>6427</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="B43" t="s">
+        <v>6875</v>
+      </c>
+      <c r="C43" s="3" t="s">
         <v>5907</v>
-      </c>
-      <c r="C43" t="s">
-        <v>6875</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -79161,55 +80397,55 @@
       <c r="A45" s="3" t="s">
         <v>6429</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="B45" t="s">
+        <v>6877</v>
+      </c>
+      <c r="C45" s="3" t="s">
         <v>1748</v>
-      </c>
-      <c r="C45" t="s">
-        <v>6877</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>6430</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="B46" t="s">
+        <v>2853</v>
+      </c>
+      <c r="C46" s="3" t="s">
         <v>2854</v>
-      </c>
-      <c r="C46" t="s">
-        <v>2853</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>6431</v>
       </c>
-      <c r="B47" s="3" t="s">
+      <c r="B47" t="s">
+        <v>478</v>
+      </c>
+      <c r="C47" s="3" t="s">
         <v>6432</v>
-      </c>
-      <c r="C47" t="s">
-        <v>478</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>6433</v>
       </c>
-      <c r="B48" s="3" t="s">
+      <c r="B48" t="s">
+        <v>6878</v>
+      </c>
+      <c r="C48" s="3" t="s">
         <v>6434</v>
-      </c>
-      <c r="C48" t="s">
-        <v>6878</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>6435</v>
       </c>
-      <c r="B49" s="3" t="s">
+      <c r="B49" t="s">
+        <v>6879</v>
+      </c>
+      <c r="C49" s="3" t="s">
         <v>6436</v>
-      </c>
-      <c r="C49" t="s">
-        <v>6879</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -79227,98 +80463,98 @@
       <c r="A51" s="3" t="s">
         <v>6438</v>
       </c>
-      <c r="B51" s="3" t="s">
+      <c r="B51" t="s">
+        <v>549</v>
+      </c>
+      <c r="C51" s="3" t="s">
         <v>6439</v>
-      </c>
-      <c r="C51" t="s">
-        <v>549</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>6440</v>
       </c>
-      <c r="B52" s="3" t="s">
+      <c r="B52" t="s">
+        <v>41</v>
+      </c>
+      <c r="C52" s="3" t="s">
         <v>751</v>
-      </c>
-      <c r="C52" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>6441</v>
       </c>
-      <c r="B53" s="3" t="s">
+      <c r="B53" t="s">
+        <v>6387</v>
+      </c>
+      <c r="C53" s="3" t="s">
         <v>6442</v>
-      </c>
-      <c r="C53" t="s">
-        <v>6387</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>6443</v>
       </c>
-      <c r="B54" s="3" t="s">
+      <c r="B54" t="s">
+        <v>6389</v>
+      </c>
+      <c r="C54" s="3" t="s">
         <v>6444</v>
-      </c>
-      <c r="C54" t="s">
-        <v>6389</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>6445</v>
       </c>
-      <c r="B55" s="3" t="s">
+      <c r="B55" t="s">
+        <v>5817</v>
+      </c>
+      <c r="C55" s="3" t="s">
         <v>6446</v>
-      </c>
-      <c r="C55" t="s">
-        <v>5817</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>6447</v>
       </c>
-      <c r="B56" s="3" t="s">
+      <c r="B56" t="s">
+        <v>6395</v>
+      </c>
+      <c r="C56" s="3" t="s">
         <v>6448</v>
-      </c>
-      <c r="C56" t="s">
-        <v>6395</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>6449</v>
       </c>
-      <c r="B57" s="3" t="s">
+      <c r="B57" t="s">
+        <v>6880</v>
+      </c>
+      <c r="C57" s="3" t="s">
         <v>6450</v>
-      </c>
-      <c r="C57" t="s">
-        <v>6880</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>6451</v>
       </c>
-      <c r="B58" s="3" t="s">
+      <c r="B58" t="s">
+        <v>6881</v>
+      </c>
+      <c r="C58" s="3" t="s">
         <v>6452</v>
-      </c>
-      <c r="C58" t="s">
-        <v>6881</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>1339</v>
       </c>
-      <c r="B59" s="3" t="s">
+      <c r="B59" t="s">
         <v>1339</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C59" s="3" t="s">
         <v>1339</v>
       </c>
     </row>
@@ -79326,110 +80562,110 @@
       <c r="A60" s="3" t="s">
         <v>6453</v>
       </c>
-      <c r="B60" s="3" t="s">
+      <c r="B60" t="s">
+        <v>6882</v>
+      </c>
+      <c r="C60" s="3" t="s">
         <v>6454</v>
-      </c>
-      <c r="C60" t="s">
-        <v>6882</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>6455</v>
       </c>
-      <c r="B61" s="3" t="s">
+      <c r="B61" t="s">
+        <v>6883</v>
+      </c>
+      <c r="C61" s="3" t="s">
         <v>6456</v>
-      </c>
-      <c r="C61" t="s">
-        <v>6883</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>6457</v>
       </c>
-      <c r="B62" s="3" t="s">
+      <c r="B62" t="s">
+        <v>6884</v>
+      </c>
+      <c r="C62" s="3" t="s">
         <v>6458</v>
-      </c>
-      <c r="C62" t="s">
-        <v>6884</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>6459</v>
       </c>
-      <c r="B63" s="3" t="s">
+      <c r="B63" t="s">
+        <v>6885</v>
+      </c>
+      <c r="C63" s="3" t="s">
         <v>6460</v>
-      </c>
-      <c r="C63" t="s">
-        <v>6885</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>6461</v>
       </c>
-      <c r="B64" s="3" t="s">
+      <c r="B64" t="s">
+        <v>6886</v>
+      </c>
+      <c r="C64" s="3" t="s">
         <v>6462</v>
-      </c>
-      <c r="C64" t="s">
-        <v>6886</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>6463</v>
       </c>
-      <c r="B65" s="3" t="s">
+      <c r="B65" t="s">
+        <v>6887</v>
+      </c>
+      <c r="C65" s="3" t="s">
         <v>6464</v>
-      </c>
-      <c r="C65" t="s">
-        <v>6887</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
         <v>6465</v>
       </c>
-      <c r="B66" s="3" t="s">
+      <c r="B66" t="s">
+        <v>7047</v>
+      </c>
+      <c r="C66" s="3" t="s">
         <v>6466</v>
-      </c>
-      <c r="C66" t="s">
-        <v>7047</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
         <v>6467</v>
       </c>
-      <c r="B67" s="3" t="s">
+      <c r="B67" t="s">
+        <v>7048</v>
+      </c>
+      <c r="C67" s="3" t="s">
         <v>6468</v>
-      </c>
-      <c r="C67" t="s">
-        <v>7048</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
         <v>6469</v>
       </c>
-      <c r="B68" s="3" t="s">
+      <c r="B68" t="s">
+        <v>6888</v>
+      </c>
+      <c r="C68" s="3" t="s">
         <v>6470</v>
-      </c>
-      <c r="C68" t="s">
-        <v>6888</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
         <v>6471</v>
       </c>
-      <c r="B69" s="3" t="s">
+      <c r="B69" t="s">
+        <v>6889</v>
+      </c>
+      <c r="C69" s="3" t="s">
         <v>6472</v>
-      </c>
-      <c r="C69" t="s">
-        <v>6889</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
@@ -79524,33 +80760,33 @@
       <c r="A78" s="3" t="s">
         <v>6489</v>
       </c>
-      <c r="B78" s="3" t="s">
+      <c r="B78" t="s">
+        <v>6890</v>
+      </c>
+      <c r="C78" s="3" t="s">
         <v>6490</v>
-      </c>
-      <c r="C78" t="s">
-        <v>6890</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
         <v>6491</v>
       </c>
-      <c r="B79" s="3" t="s">
+      <c r="B79" t="s">
+        <v>6891</v>
+      </c>
+      <c r="C79" s="3" t="s">
         <v>6492</v>
-      </c>
-      <c r="C79" t="s">
-        <v>6891</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
         <v>6493</v>
       </c>
-      <c r="B80" s="3" t="s">
+      <c r="B80" t="s">
+        <v>6892</v>
+      </c>
+      <c r="C80" s="3" t="s">
         <v>6494</v>
-      </c>
-      <c r="C80" t="s">
-        <v>6892</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
@@ -79579,143 +80815,143 @@
       <c r="A83" s="3" t="s">
         <v>6497</v>
       </c>
-      <c r="B83" s="3" t="s">
+      <c r="B83" t="s">
+        <v>6893</v>
+      </c>
+      <c r="C83" s="3" t="s">
         <v>6498</v>
-      </c>
-      <c r="C83" t="s">
-        <v>6893</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
         <v>6499</v>
       </c>
-      <c r="B84" s="3" t="s">
+      <c r="B84" t="s">
+        <v>6894</v>
+      </c>
+      <c r="C84" s="3" t="s">
         <v>6500</v>
-      </c>
-      <c r="C84" t="s">
-        <v>6894</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
         <v>6501</v>
       </c>
-      <c r="B85" s="3" t="s">
+      <c r="B85" t="s">
+        <v>6895</v>
+      </c>
+      <c r="C85" s="3" t="s">
         <v>6502</v>
-      </c>
-      <c r="C85" t="s">
-        <v>6895</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
         <v>6503</v>
       </c>
-      <c r="B86" s="3" t="s">
+      <c r="B86" t="s">
+        <v>6897</v>
+      </c>
+      <c r="C86" s="3" t="s">
         <v>6504</v>
-      </c>
-      <c r="C86" t="s">
-        <v>6897</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
         <v>6505</v>
       </c>
-      <c r="B87" s="3" t="s">
+      <c r="B87" t="s">
+        <v>6896</v>
+      </c>
+      <c r="C87" s="3" t="s">
         <v>6506</v>
-      </c>
-      <c r="C87" t="s">
-        <v>6896</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
         <v>6507</v>
       </c>
-      <c r="B88" s="3" t="s">
+      <c r="B88" t="s">
+        <v>6898</v>
+      </c>
+      <c r="C88" s="3" t="s">
         <v>6508</v>
-      </c>
-      <c r="C88" t="s">
-        <v>6898</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
         <v>6509</v>
       </c>
-      <c r="B89" s="3" t="s">
+      <c r="B89" t="s">
+        <v>6899</v>
+      </c>
+      <c r="C89" s="3" t="s">
         <v>6510</v>
-      </c>
-      <c r="C89" t="s">
-        <v>6899</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
         <v>6511</v>
       </c>
-      <c r="B90" s="3" t="s">
+      <c r="B90" t="s">
+        <v>6900</v>
+      </c>
+      <c r="C90" s="3" t="s">
         <v>6512</v>
-      </c>
-      <c r="C90" t="s">
-        <v>6900</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
         <v>6513</v>
       </c>
-      <c r="B91" s="3" t="s">
+      <c r="B91" t="s">
+        <v>6901</v>
+      </c>
+      <c r="C91" s="3" t="s">
         <v>6514</v>
-      </c>
-      <c r="C91" t="s">
-        <v>6901</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
         <v>6515</v>
       </c>
-      <c r="B92" s="3" t="s">
+      <c r="B92" t="s">
+        <v>7063</v>
+      </c>
+      <c r="C92" s="3" t="s">
         <v>6516</v>
-      </c>
-      <c r="C92" t="s">
-        <v>7063</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
         <v>6517</v>
       </c>
-      <c r="B93" s="3" t="s">
+      <c r="B93" t="s">
+        <v>6902</v>
+      </c>
+      <c r="C93" s="3" t="s">
         <v>6518</v>
-      </c>
-      <c r="C93" t="s">
-        <v>6902</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
         <v>6519</v>
       </c>
-      <c r="B94" s="3" t="s">
+      <c r="B94" t="s">
+        <v>6903</v>
+      </c>
+      <c r="C94" s="3" t="s">
         <v>6520</v>
-      </c>
-      <c r="C94" t="s">
-        <v>6903</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
         <v>6521</v>
       </c>
-      <c r="B95" s="3" t="s">
+      <c r="B95" t="s">
+        <v>7064</v>
+      </c>
+      <c r="C95" s="3" t="s">
         <v>6522</v>
-      </c>
-      <c r="C95" t="s">
-        <v>7064</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
@@ -79733,11 +80969,11 @@
       <c r="A97" s="3" t="s">
         <v>6524</v>
       </c>
-      <c r="B97" s="3" t="s">
+      <c r="B97" t="s">
+        <v>6904</v>
+      </c>
+      <c r="C97" s="3" t="s">
         <v>93</v>
-      </c>
-      <c r="C97" t="s">
-        <v>6904</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
@@ -79766,1287 +81002,1287 @@
       <c r="A100" s="3" t="s">
         <v>6527</v>
       </c>
-      <c r="B100" s="3" t="s">
+      <c r="B100" t="s">
+        <v>6905</v>
+      </c>
+      <c r="C100" s="3" t="s">
         <v>6528</v>
-      </c>
-      <c r="C100" t="s">
-        <v>6905</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
         <v>6529</v>
       </c>
-      <c r="B101" s="3" t="s">
+      <c r="B101" t="s">
+        <v>6906</v>
+      </c>
+      <c r="C101" s="3" t="s">
         <v>6530</v>
-      </c>
-      <c r="C101" t="s">
-        <v>6906</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
         <v>6531</v>
       </c>
-      <c r="B102" s="3" t="s">
+      <c r="B102" t="s">
+        <v>6907</v>
+      </c>
+      <c r="C102" s="3" t="s">
         <v>6532</v>
-      </c>
-      <c r="C102" t="s">
-        <v>6907</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
         <v>6533</v>
       </c>
-      <c r="B103" s="3" t="s">
+      <c r="B103" t="s">
+        <v>6908</v>
+      </c>
+      <c r="C103" s="3" t="s">
         <v>6534</v>
-      </c>
-      <c r="C103" t="s">
-        <v>6908</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
         <v>1945</v>
       </c>
-      <c r="B104" s="3" t="s">
+      <c r="B104" t="s">
+        <v>1945</v>
+      </c>
+      <c r="C104" s="3" t="s">
         <v>6535</v>
-      </c>
-      <c r="C104" t="s">
-        <v>1945</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
         <v>6536</v>
       </c>
-      <c r="B105" s="3" t="s">
+      <c r="B105" t="s">
+        <v>6909</v>
+      </c>
+      <c r="C105" s="3" t="s">
         <v>6537</v>
-      </c>
-      <c r="C105" t="s">
-        <v>6909</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
         <v>6538</v>
       </c>
-      <c r="B106" s="3" t="s">
+      <c r="B106" t="s">
+        <v>6910</v>
+      </c>
+      <c r="C106" s="3" t="s">
         <v>6539</v>
-      </c>
-      <c r="C106" t="s">
-        <v>6910</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
         <v>6540</v>
       </c>
-      <c r="B107" s="3" t="s">
+      <c r="B107" t="s">
+        <v>6911</v>
+      </c>
+      <c r="C107" s="3" t="s">
         <v>6541</v>
-      </c>
-      <c r="C107" t="s">
-        <v>6911</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
         <v>6542</v>
       </c>
-      <c r="B108" s="3" t="s">
+      <c r="B108" t="s">
+        <v>6912</v>
+      </c>
+      <c r="C108" s="3" t="s">
         <v>6543</v>
-      </c>
-      <c r="C108" t="s">
-        <v>6912</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
         <v>6544</v>
       </c>
-      <c r="B109" s="3" t="s">
+      <c r="B109" t="s">
+        <v>6913</v>
+      </c>
+      <c r="C109" s="3" t="s">
         <v>6545</v>
-      </c>
-      <c r="C109" t="s">
-        <v>6913</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
         <v>6546</v>
       </c>
-      <c r="B110" s="3" t="s">
+      <c r="B110" t="s">
+        <v>6914</v>
+      </c>
+      <c r="C110" s="3" t="s">
         <v>6547</v>
-      </c>
-      <c r="C110" t="s">
-        <v>6914</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
         <v>6548</v>
       </c>
-      <c r="B111" s="3" t="s">
+      <c r="B111" t="s">
+        <v>6915</v>
+      </c>
+      <c r="C111" s="3" t="s">
         <v>6549</v>
-      </c>
-      <c r="C111" t="s">
-        <v>6915</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
         <v>6550</v>
       </c>
-      <c r="B112" s="3" t="s">
+      <c r="B112" t="s">
+        <v>6916</v>
+      </c>
+      <c r="C112" s="3" t="s">
         <v>6551</v>
-      </c>
-      <c r="C112" t="s">
-        <v>6916</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
         <v>6552</v>
       </c>
-      <c r="B113" s="3" t="s">
+      <c r="B113" t="s">
+        <v>6917</v>
+      </c>
+      <c r="C113" s="3" t="s">
         <v>6553</v>
       </c>
-      <c r="C113" t="s">
-        <v>6917</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    </row>
+    <row r="114" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
         <v>6554</v>
       </c>
-      <c r="B114" s="5" t="s">
+      <c r="B114" s="12" t="s">
+        <v>7065</v>
+      </c>
+      <c r="C114" s="5" t="s">
         <v>7059</v>
-      </c>
-      <c r="C114" s="12" t="s">
-        <v>7065</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
         <v>6556</v>
       </c>
-      <c r="B115" s="3" t="s">
+      <c r="B115" t="s">
+        <v>6918</v>
+      </c>
+      <c r="C115" s="3" t="s">
         <v>6557</v>
-      </c>
-      <c r="C115" t="s">
-        <v>6918</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
         <v>6558</v>
       </c>
-      <c r="B116" s="3" t="s">
+      <c r="B116" t="s">
+        <v>7049</v>
+      </c>
+      <c r="C116" s="3" t="s">
         <v>6559</v>
-      </c>
-      <c r="C116" t="s">
-        <v>7049</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
         <v>6560</v>
       </c>
-      <c r="B117" s="5" t="s">
+      <c r="B117" s="12" t="s">
+        <v>7060</v>
+      </c>
+      <c r="C117" s="5" t="s">
         <v>7061</v>
-      </c>
-      <c r="C117" s="12" t="s">
-        <v>7060</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
         <v>6562</v>
       </c>
-      <c r="B118" s="3" t="s">
+      <c r="B118" t="s">
+        <v>7050</v>
+      </c>
+      <c r="C118" s="3" t="s">
         <v>6563</v>
-      </c>
-      <c r="C118" t="s">
-        <v>7050</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
         <v>6564</v>
       </c>
-      <c r="B119" s="3" t="s">
+      <c r="B119" t="s">
+        <v>6919</v>
+      </c>
+      <c r="C119" s="3" t="s">
         <v>6565</v>
-      </c>
-      <c r="C119" t="s">
-        <v>6919</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
         <v>6566</v>
       </c>
-      <c r="B120" s="3" t="s">
+      <c r="B120" t="s">
+        <v>6920</v>
+      </c>
+      <c r="C120" s="3" t="s">
         <v>6567</v>
-      </c>
-      <c r="C120" t="s">
-        <v>6920</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
         <v>6568</v>
       </c>
-      <c r="B121" s="3" t="s">
+      <c r="B121" t="s">
+        <v>6921</v>
+      </c>
+      <c r="C121" s="3" t="s">
         <v>6569</v>
-      </c>
-      <c r="C121" t="s">
-        <v>6921</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
         <v>6570</v>
       </c>
-      <c r="B122" s="3" t="s">
+      <c r="B122" t="s">
+        <v>6922</v>
+      </c>
+      <c r="C122" s="3" t="s">
         <v>6571</v>
-      </c>
-      <c r="C122" t="s">
-        <v>6922</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="s">
         <v>6572</v>
       </c>
-      <c r="B123" s="3" t="s">
+      <c r="B123" t="s">
+        <v>6923</v>
+      </c>
+      <c r="C123" s="3" t="s">
         <v>6573</v>
-      </c>
-      <c r="C123" t="s">
-        <v>6923</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
         <v>6574</v>
       </c>
-      <c r="B124" s="3" t="s">
+      <c r="B124" t="s">
+        <v>6924</v>
+      </c>
+      <c r="C124" s="3" t="s">
         <v>6575</v>
-      </c>
-      <c r="C124" t="s">
-        <v>6924</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="s">
         <v>6576</v>
       </c>
-      <c r="B125" s="3" t="s">
+      <c r="B125" t="s">
+        <v>6925</v>
+      </c>
+      <c r="C125" s="3" t="s">
         <v>6577</v>
-      </c>
-      <c r="C125" t="s">
-        <v>6925</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
         <v>6578</v>
       </c>
-      <c r="B126" s="3" t="s">
+      <c r="B126" t="s">
+        <v>6926</v>
+      </c>
+      <c r="C126" s="3" t="s">
         <v>6579</v>
-      </c>
-      <c r="C126" t="s">
-        <v>6926</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" s="3" t="s">
         <v>6580</v>
       </c>
-      <c r="B127" s="3" t="s">
+      <c r="B127" t="s">
+        <v>6927</v>
+      </c>
+      <c r="C127" s="3" t="s">
         <v>6581</v>
       </c>
-      <c r="C127" t="s">
-        <v>6927</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="128" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A128" s="3" t="s">
         <v>6582</v>
       </c>
-      <c r="B128" s="5" t="s">
+      <c r="B128" s="12" t="s">
+        <v>6928</v>
+      </c>
+      <c r="C128" s="5" t="s">
         <v>6583</v>
       </c>
-      <c r="C128" s="12" t="s">
-        <v>6928</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="129" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="s">
         <v>6584</v>
       </c>
-      <c r="B129" s="5" t="s">
+      <c r="B129" t="s">
+        <v>6929</v>
+      </c>
+      <c r="C129" s="5" t="s">
         <v>6930</v>
-      </c>
-      <c r="C129" t="s">
-        <v>6929</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
         <v>6586</v>
       </c>
-      <c r="B130" s="3" t="s">
+      <c r="B130" t="s">
+        <v>6931</v>
+      </c>
+      <c r="C130" s="3" t="s">
         <v>6587</v>
-      </c>
-      <c r="C130" t="s">
-        <v>6931</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" s="3" t="s">
         <v>6588</v>
       </c>
-      <c r="B131" s="3" t="s">
+      <c r="B131" t="s">
+        <v>6932</v>
+      </c>
+      <c r="C131" s="3" t="s">
         <v>6589</v>
-      </c>
-      <c r="C131" t="s">
-        <v>6932</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" s="3" t="s">
         <v>6590</v>
       </c>
-      <c r="B132" s="3" t="s">
+      <c r="B132" t="s">
+        <v>6933</v>
+      </c>
+      <c r="C132" s="3" t="s">
         <v>6591</v>
-      </c>
-      <c r="C132" t="s">
-        <v>6933</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" s="3" t="s">
         <v>6592</v>
       </c>
-      <c r="B133" s="3" t="s">
+      <c r="B133" t="s">
+        <v>6934</v>
+      </c>
+      <c r="C133" s="3" t="s">
         <v>6593</v>
-      </c>
-      <c r="C133" t="s">
-        <v>6934</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" s="3" t="s">
         <v>6594</v>
       </c>
-      <c r="B134" s="3" t="s">
+      <c r="B134" t="s">
+        <v>6935</v>
+      </c>
+      <c r="C134" s="3" t="s">
         <v>6595</v>
-      </c>
-      <c r="C134" t="s">
-        <v>6935</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" s="3" t="s">
         <v>6596</v>
       </c>
-      <c r="B135" s="3" t="s">
+      <c r="B135" t="s">
+        <v>6936</v>
+      </c>
+      <c r="C135" s="3" t="s">
         <v>6597</v>
-      </c>
-      <c r="C135" t="s">
-        <v>6936</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" s="3" t="s">
         <v>6598</v>
       </c>
-      <c r="B136" s="3" t="s">
+      <c r="B136" t="s">
+        <v>6937</v>
+      </c>
+      <c r="C136" s="3" t="s">
         <v>6599</v>
-      </c>
-      <c r="C136" t="s">
-        <v>6937</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" s="3" t="s">
         <v>6600</v>
       </c>
-      <c r="B137" s="3" t="s">
+      <c r="B137" t="s">
+        <v>6938</v>
+      </c>
+      <c r="C137" s="3" t="s">
         <v>6601</v>
-      </c>
-      <c r="C137" t="s">
-        <v>6938</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" s="3" t="s">
         <v>6602</v>
       </c>
-      <c r="B138" s="3" t="s">
+      <c r="B138" t="s">
+        <v>6939</v>
+      </c>
+      <c r="C138" s="3" t="s">
         <v>6603</v>
-      </c>
-      <c r="C138" t="s">
-        <v>6939</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" s="3" t="s">
         <v>6604</v>
       </c>
-      <c r="B139" s="3" t="s">
+      <c r="B139" t="s">
+        <v>6940</v>
+      </c>
+      <c r="C139" s="3" t="s">
         <v>6605</v>
-      </c>
-      <c r="C139" t="s">
-        <v>6940</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" s="3" t="s">
         <v>6606</v>
       </c>
-      <c r="B140" s="3" t="s">
+      <c r="B140" t="s">
+        <v>6941</v>
+      </c>
+      <c r="C140" s="3" t="s">
         <v>6607</v>
-      </c>
-      <c r="C140" t="s">
-        <v>6941</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" s="3" t="s">
         <v>6608</v>
       </c>
-      <c r="B141" s="3" t="s">
+      <c r="B141" t="s">
+        <v>6942</v>
+      </c>
+      <c r="C141" s="3" t="s">
         <v>6609</v>
-      </c>
-      <c r="C141" t="s">
-        <v>6942</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" s="3" t="s">
         <v>6610</v>
       </c>
-      <c r="B142" s="3" t="s">
+      <c r="B142" t="s">
+        <v>6943</v>
+      </c>
+      <c r="C142" s="3" t="s">
         <v>6611</v>
-      </c>
-      <c r="C142" t="s">
-        <v>6943</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" s="3" t="s">
         <v>6612</v>
       </c>
-      <c r="B143" s="3" t="s">
+      <c r="B143" t="s">
+        <v>6944</v>
+      </c>
+      <c r="C143" s="3" t="s">
         <v>6613</v>
-      </c>
-      <c r="C143" t="s">
-        <v>6944</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" s="3" t="s">
         <v>6614</v>
       </c>
-      <c r="B144" s="3" t="s">
+      <c r="B144" t="s">
+        <v>6945</v>
+      </c>
+      <c r="C144" s="3" t="s">
         <v>6615</v>
-      </c>
-      <c r="C144" t="s">
-        <v>6945</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" s="3" t="s">
         <v>1991</v>
       </c>
-      <c r="B145" s="3" t="s">
+      <c r="B145" t="s">
+        <v>280</v>
+      </c>
+      <c r="C145" s="3" t="s">
         <v>175</v>
-      </c>
-      <c r="C145" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" s="3" t="s">
         <v>6616</v>
       </c>
-      <c r="B146" s="3" t="s">
+      <c r="B146" t="s">
+        <v>7051</v>
+      </c>
+      <c r="C146" s="3" t="s">
         <v>6617</v>
-      </c>
-      <c r="C146" t="s">
-        <v>7051</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" s="3" t="s">
         <v>6618</v>
       </c>
-      <c r="B147" s="3" t="s">
+      <c r="B147" t="s">
+        <v>6946</v>
+      </c>
+      <c r="C147" s="3" t="s">
         <v>6619</v>
-      </c>
-      <c r="C147" t="s">
-        <v>6946</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" s="3" t="s">
         <v>6620</v>
       </c>
-      <c r="B148" s="3" t="s">
+      <c r="B148" t="s">
+        <v>6947</v>
+      </c>
+      <c r="C148" s="3" t="s">
         <v>6621</v>
-      </c>
-      <c r="C148" t="s">
-        <v>6947</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" s="3" t="s">
         <v>6622</v>
       </c>
-      <c r="B149" s="3" t="s">
+      <c r="B149" t="s">
+        <v>6948</v>
+      </c>
+      <c r="C149" s="3" t="s">
         <v>6623</v>
-      </c>
-      <c r="C149" t="s">
-        <v>6948</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" s="3" t="s">
         <v>6624</v>
       </c>
-      <c r="B150" s="3" t="s">
+      <c r="B150" t="s">
+        <v>7052</v>
+      </c>
+      <c r="C150" s="3" t="s">
         <v>6625</v>
-      </c>
-      <c r="C150" t="s">
-        <v>7052</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" s="3" t="s">
         <v>6626</v>
       </c>
-      <c r="B151" s="3" t="s">
+      <c r="B151" t="s">
+        <v>6949</v>
+      </c>
+      <c r="C151" s="3" t="s">
         <v>6627</v>
-      </c>
-      <c r="C151" t="s">
-        <v>6949</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" s="3" t="s">
         <v>6628</v>
       </c>
-      <c r="B152" s="3" t="s">
+      <c r="B152" t="s">
+        <v>6950</v>
+      </c>
+      <c r="C152" s="3" t="s">
         <v>6629</v>
-      </c>
-      <c r="C152" t="s">
-        <v>6950</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" s="3" t="s">
         <v>6630</v>
       </c>
-      <c r="B153" s="3" t="s">
+      <c r="B153" t="s">
+        <v>6951</v>
+      </c>
+      <c r="C153" s="3" t="s">
         <v>6631</v>
-      </c>
-      <c r="C153" t="s">
-        <v>6951</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" s="3" t="s">
         <v>6632</v>
       </c>
-      <c r="B154" s="3" t="s">
+      <c r="B154" t="s">
+        <v>6952</v>
+      </c>
+      <c r="C154" s="3" t="s">
         <v>6633</v>
-      </c>
-      <c r="C154" t="s">
-        <v>6952</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" s="3" t="s">
         <v>1994</v>
       </c>
-      <c r="B155" s="3" t="s">
+      <c r="B155" t="s">
+        <v>6954</v>
+      </c>
+      <c r="C155" s="3" t="s">
         <v>1995</v>
-      </c>
-      <c r="C155" t="s">
-        <v>6954</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" s="3" t="s">
         <v>1996</v>
       </c>
-      <c r="B156" s="3" t="s">
+      <c r="B156" t="s">
+        <v>6953</v>
+      </c>
+      <c r="C156" s="3" t="s">
         <v>1997</v>
-      </c>
-      <c r="C156" t="s">
-        <v>6953</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" s="3" t="s">
         <v>6634</v>
       </c>
-      <c r="B157" s="3" t="s">
+      <c r="B157" t="s">
+        <v>6955</v>
+      </c>
+      <c r="C157" s="3" t="s">
         <v>6635</v>
-      </c>
-      <c r="C157" t="s">
-        <v>6955</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" s="3" t="s">
         <v>6636</v>
       </c>
-      <c r="B158" s="3" t="s">
+      <c r="B158" t="s">
+        <v>6956</v>
+      </c>
+      <c r="C158" s="3" t="s">
         <v>6637</v>
-      </c>
-      <c r="C158" t="s">
-        <v>6956</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" s="3" t="s">
         <v>6638</v>
       </c>
-      <c r="B159" s="3" t="s">
+      <c r="B159" t="s">
+        <v>6957</v>
+      </c>
+      <c r="C159" s="3" t="s">
         <v>6639</v>
-      </c>
-      <c r="C159" t="s">
-        <v>6957</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" s="3" t="s">
         <v>6640</v>
       </c>
-      <c r="B160" s="3" t="s">
+      <c r="B160" t="s">
+        <v>6958</v>
+      </c>
+      <c r="C160" s="3" t="s">
         <v>6641</v>
-      </c>
-      <c r="C160" t="s">
-        <v>6958</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" s="3" t="s">
         <v>6642</v>
       </c>
-      <c r="B161" s="3" t="s">
+      <c r="B161" t="s">
+        <v>6959</v>
+      </c>
+      <c r="C161" s="3" t="s">
         <v>6643</v>
-      </c>
-      <c r="C161" t="s">
-        <v>6959</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" s="3" t="s">
         <v>6644</v>
       </c>
-      <c r="B162" s="3" t="s">
+      <c r="B162" t="s">
+        <v>6960</v>
+      </c>
+      <c r="C162" s="3" t="s">
         <v>6645</v>
-      </c>
-      <c r="C162" t="s">
-        <v>6960</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" s="3" t="s">
         <v>6646</v>
       </c>
-      <c r="B163" s="3" t="s">
+      <c r="B163" t="s">
+        <v>6961</v>
+      </c>
+      <c r="C163" s="3" t="s">
         <v>6647</v>
-      </c>
-      <c r="C163" t="s">
-        <v>6961</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" s="3" t="s">
         <v>6648</v>
       </c>
-      <c r="B164" s="3" t="s">
+      <c r="B164" t="s">
+        <v>6962</v>
+      </c>
+      <c r="C164" s="3" t="s">
         <v>6649</v>
-      </c>
-      <c r="C164" t="s">
-        <v>6962</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" s="3" t="s">
         <v>6650</v>
       </c>
-      <c r="B165" s="3" t="s">
+      <c r="B165" t="s">
+        <v>6963</v>
+      </c>
+      <c r="C165" s="3" t="s">
         <v>6651</v>
-      </c>
-      <c r="C165" t="s">
-        <v>6963</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" s="3" t="s">
         <v>6652</v>
       </c>
-      <c r="B166" s="3" t="s">
+      <c r="B166" t="s">
+        <v>6964</v>
+      </c>
+      <c r="C166" s="3" t="s">
         <v>6653</v>
-      </c>
-      <c r="C166" t="s">
-        <v>6964</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" s="3" t="s">
         <v>6654</v>
       </c>
-      <c r="B167" s="3" t="s">
+      <c r="B167" t="s">
+        <v>6965</v>
+      </c>
+      <c r="C167" s="3" t="s">
         <v>6655</v>
-      </c>
-      <c r="C167" t="s">
-        <v>6965</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" s="3" t="s">
         <v>6656</v>
       </c>
-      <c r="B168" s="3" t="s">
+      <c r="B168" t="s">
+        <v>6966</v>
+      </c>
+      <c r="C168" s="3" t="s">
         <v>6657</v>
-      </c>
-      <c r="C168" t="s">
-        <v>6966</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" s="3" t="s">
         <v>6658</v>
       </c>
-      <c r="B169" s="3" t="s">
+      <c r="B169" t="s">
+        <v>6967</v>
+      </c>
+      <c r="C169" s="3" t="s">
         <v>6659</v>
       </c>
-      <c r="C169" t="s">
-        <v>6967</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="170" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A170" s="3" t="s">
         <v>6660</v>
       </c>
-      <c r="B170" s="5" t="s">
+      <c r="B170" s="12" t="s">
+        <v>6968</v>
+      </c>
+      <c r="C170" s="5" t="s">
         <v>6661</v>
-      </c>
-      <c r="C170" s="12" t="s">
-        <v>6968</v>
       </c>
     </row>
     <row r="171" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A171" s="3" t="s">
         <v>6662</v>
       </c>
-      <c r="B171" s="5" t="s">
+      <c r="B171" s="12" t="s">
+        <v>6969</v>
+      </c>
+      <c r="C171" s="5" t="s">
         <v>6663</v>
-      </c>
-      <c r="C171" s="12" t="s">
-        <v>6969</v>
       </c>
     </row>
     <row r="172" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A172" s="3" t="s">
         <v>6664</v>
       </c>
-      <c r="B172" s="5" t="s">
+      <c r="B172" s="12" t="s">
+        <v>6970</v>
+      </c>
+      <c r="C172" s="5" t="s">
         <v>6665</v>
-      </c>
-      <c r="C172" s="12" t="s">
-        <v>6970</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" s="3" t="s">
         <v>6666</v>
       </c>
-      <c r="B173" s="3" t="s">
+      <c r="B173" t="s">
+        <v>6971</v>
+      </c>
+      <c r="C173" s="3" t="s">
         <v>6667</v>
-      </c>
-      <c r="C173" t="s">
-        <v>6971</v>
       </c>
     </row>
     <row r="174" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A174" s="3" t="s">
         <v>6668</v>
       </c>
-      <c r="B174" s="5" t="s">
+      <c r="B174" s="12" t="s">
+        <v>7054</v>
+      </c>
+      <c r="C174" s="5" t="s">
         <v>7053</v>
-      </c>
-      <c r="C174" s="12" t="s">
-        <v>7054</v>
       </c>
     </row>
     <row r="175" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A175" s="3" t="s">
         <v>6670</v>
       </c>
-      <c r="B175" s="5" t="s">
+      <c r="B175" s="12" t="s">
+        <v>6972</v>
+      </c>
+      <c r="C175" s="5" t="s">
         <v>6671</v>
-      </c>
-      <c r="C175" s="12" t="s">
-        <v>6972</v>
       </c>
     </row>
     <row r="176" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A176" s="3" t="s">
         <v>6672</v>
       </c>
-      <c r="B176" s="5" t="s">
+      <c r="B176" s="12" t="s">
+        <v>6973</v>
+      </c>
+      <c r="C176" s="5" t="s">
         <v>6974</v>
-      </c>
-      <c r="C176" s="12" t="s">
-        <v>6973</v>
       </c>
     </row>
     <row r="177" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A177" s="3" t="s">
         <v>6674</v>
       </c>
-      <c r="B177" s="5" t="s">
+      <c r="B177" s="12" t="s">
+        <v>6975</v>
+      </c>
+      <c r="C177" s="5" t="s">
         <v>6675</v>
-      </c>
-      <c r="C177" s="12" t="s">
-        <v>6975</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" s="3" t="s">
         <v>6676</v>
       </c>
-      <c r="B178" s="3" t="s">
+      <c r="B178" t="s">
+        <v>6976</v>
+      </c>
+      <c r="C178" s="3" t="s">
         <v>6677</v>
       </c>
-      <c r="C178" t="s">
-        <v>6976</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="179" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A179" s="3" t="s">
         <v>6678</v>
       </c>
-      <c r="B179" s="5" t="s">
+      <c r="B179" s="12" t="s">
+        <v>6977</v>
+      </c>
+      <c r="C179" s="5" t="s">
         <v>6679</v>
-      </c>
-      <c r="C179" s="12" t="s">
-        <v>6977</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" s="3" t="s">
         <v>6680</v>
       </c>
-      <c r="B180" s="3" t="s">
+      <c r="B180" t="s">
+        <v>6978</v>
+      </c>
+      <c r="C180" s="3" t="s">
         <v>6681</v>
-      </c>
-      <c r="C180" t="s">
-        <v>6978</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" s="3" t="s">
         <v>6682</v>
       </c>
-      <c r="B181" s="3" t="s">
+      <c r="B181" t="s">
+        <v>6979</v>
+      </c>
+      <c r="C181" s="3" t="s">
         <v>6683</v>
-      </c>
-      <c r="C181" t="s">
-        <v>6979</v>
       </c>
     </row>
     <row r="182" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A182" s="3" t="s">
         <v>6684</v>
       </c>
-      <c r="B182" s="5" t="s">
+      <c r="B182" t="s">
+        <v>6980</v>
+      </c>
+      <c r="C182" s="5" t="s">
         <v>6981</v>
       </c>
-      <c r="C182" t="s">
-        <v>6980</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    </row>
+    <row r="183" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A183" s="3" t="s">
         <v>6686</v>
       </c>
-      <c r="B183" s="5" t="s">
+      <c r="B183" s="12" t="s">
+        <v>6983</v>
+      </c>
+      <c r="C183" s="5" t="s">
         <v>6982</v>
-      </c>
-      <c r="C183" s="12" t="s">
-        <v>6983</v>
       </c>
     </row>
     <row r="184" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A184" s="3" t="s">
         <v>6688</v>
       </c>
-      <c r="B184" s="5" t="s">
+      <c r="B184" s="12" t="s">
+        <v>6984</v>
+      </c>
+      <c r="C184" s="5" t="s">
         <v>6689</v>
-      </c>
-      <c r="C184" s="12" t="s">
-        <v>6984</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" s="3" t="s">
         <v>6690</v>
       </c>
-      <c r="B185" s="3" t="s">
+      <c r="B185" t="s">
+        <v>6985</v>
+      </c>
+      <c r="C185" s="3" t="s">
         <v>6691</v>
-      </c>
-      <c r="C185" t="s">
-        <v>6985</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" s="3" t="s">
         <v>6692</v>
       </c>
-      <c r="B186" s="3" t="s">
+      <c r="B186" t="s">
+        <v>6986</v>
+      </c>
+      <c r="C186" s="3" t="s">
         <v>6693</v>
-      </c>
-      <c r="C186" t="s">
-        <v>6986</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" s="3" t="s">
         <v>6694</v>
       </c>
-      <c r="B187" s="3" t="s">
+      <c r="B187" t="s">
+        <v>6987</v>
+      </c>
+      <c r="C187" s="3" t="s">
         <v>6695</v>
-      </c>
-      <c r="C187" t="s">
-        <v>6987</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" s="3" t="s">
         <v>6696</v>
       </c>
-      <c r="B188" s="3" t="s">
+      <c r="B188" t="s">
+        <v>6988</v>
+      </c>
+      <c r="C188" s="3" t="s">
         <v>6697</v>
-      </c>
-      <c r="C188" t="s">
-        <v>6988</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" s="3" t="s">
         <v>6698</v>
       </c>
-      <c r="B189" s="3" t="s">
+      <c r="B189" t="s">
+        <v>7055</v>
+      </c>
+      <c r="C189" s="3" t="s">
         <v>6699</v>
-      </c>
-      <c r="C189" t="s">
-        <v>7055</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" s="3" t="s">
         <v>6700</v>
       </c>
-      <c r="B190" s="3" t="s">
+      <c r="B190" t="s">
+        <v>7056</v>
+      </c>
+      <c r="C190" s="3" t="s">
         <v>6701</v>
-      </c>
-      <c r="C190" t="s">
-        <v>7056</v>
       </c>
     </row>
     <row r="191" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A191" s="3" t="s">
         <v>6702</v>
       </c>
-      <c r="B191" s="5" t="s">
+      <c r="B191" s="12" t="s">
+        <v>6989</v>
+      </c>
+      <c r="C191" s="5" t="s">
         <v>6703</v>
-      </c>
-      <c r="C191" s="12" t="s">
-        <v>6989</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" s="3" t="s">
         <v>6704</v>
       </c>
-      <c r="B192" s="3" t="s">
+      <c r="B192" t="s">
+        <v>6990</v>
+      </c>
+      <c r="C192" s="3" t="s">
         <v>6705</v>
-      </c>
-      <c r="C192" t="s">
-        <v>6990</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" s="3" t="s">
         <v>6706</v>
       </c>
-      <c r="B193" s="3" t="s">
+      <c r="B193" t="s">
+        <v>6991</v>
+      </c>
+      <c r="C193" s="3" t="s">
         <v>6707</v>
-      </c>
-      <c r="C193" t="s">
-        <v>6991</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" s="3" t="s">
         <v>6708</v>
       </c>
-      <c r="B194" s="3" t="s">
+      <c r="B194" t="s">
+        <v>6992</v>
+      </c>
+      <c r="C194" s="3" t="s">
         <v>6709</v>
-      </c>
-      <c r="C194" t="s">
-        <v>6992</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" s="3" t="s">
         <v>6710</v>
       </c>
-      <c r="B195" s="3" t="s">
+      <c r="B195" t="s">
+        <v>6993</v>
+      </c>
+      <c r="C195" s="3" t="s">
         <v>6711</v>
-      </c>
-      <c r="C195" t="s">
-        <v>6993</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" s="3" t="s">
         <v>6712</v>
       </c>
-      <c r="B196" s="3" t="s">
+      <c r="B196" t="s">
+        <v>6994</v>
+      </c>
+      <c r="C196" s="3" t="s">
         <v>6713</v>
-      </c>
-      <c r="C196" t="s">
-        <v>6994</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" s="3" t="s">
         <v>6714</v>
       </c>
-      <c r="B197" s="3" t="s">
+      <c r="B197" t="s">
+        <v>6995</v>
+      </c>
+      <c r="C197" s="3" t="s">
         <v>6715</v>
-      </c>
-      <c r="C197" t="s">
-        <v>6995</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" s="3" t="s">
         <v>6716</v>
       </c>
-      <c r="B198" s="3" t="s">
+      <c r="B198" t="s">
+        <v>7057</v>
+      </c>
+      <c r="C198" s="3" t="s">
         <v>6717</v>
-      </c>
-      <c r="C198" t="s">
-        <v>7057</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" s="3" t="s">
         <v>6718</v>
       </c>
-      <c r="B199" s="3" t="s">
+      <c r="B199" t="s">
+        <v>6996</v>
+      </c>
+      <c r="C199" s="3" t="s">
         <v>6719</v>
-      </c>
-      <c r="C199" t="s">
-        <v>6996</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" s="3" t="s">
         <v>6720</v>
       </c>
-      <c r="B200" s="3" t="s">
+      <c r="B200" t="s">
+        <v>6997</v>
+      </c>
+      <c r="C200" s="3" t="s">
         <v>6721</v>
-      </c>
-      <c r="C200" t="s">
-        <v>6997</v>
       </c>
     </row>
     <row r="201" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A201" s="3" t="s">
         <v>6722</v>
       </c>
-      <c r="B201" s="5" t="s">
+      <c r="B201" s="12" t="s">
+        <v>6998</v>
+      </c>
+      <c r="C201" s="5" t="s">
         <v>6723</v>
-      </c>
-      <c r="C201" s="12" t="s">
-        <v>6998</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" s="3" t="s">
         <v>6724</v>
       </c>
-      <c r="B202" s="3" t="s">
+      <c r="B202" t="s">
+        <v>6999</v>
+      </c>
+      <c r="C202" s="3" t="s">
         <v>6725</v>
-      </c>
-      <c r="C202" t="s">
-        <v>6999</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" s="3" t="s">
         <v>6726</v>
       </c>
-      <c r="B203" s="3" t="s">
+      <c r="B203" t="s">
+        <v>7000</v>
+      </c>
+      <c r="C203" s="3" t="s">
         <v>6727</v>
-      </c>
-      <c r="C203" t="s">
-        <v>7000</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" s="3" t="s">
         <v>6728</v>
       </c>
-      <c r="B204" s="3" t="s">
+      <c r="B204" t="s">
+        <v>7001</v>
+      </c>
+      <c r="C204" s="3" t="s">
         <v>6729</v>
-      </c>
-      <c r="C204" t="s">
-        <v>7001</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" s="3" t="s">
         <v>6730</v>
       </c>
-      <c r="B205" s="3" t="s">
+      <c r="B205" t="s">
+        <v>7002</v>
+      </c>
+      <c r="C205" s="3" t="s">
         <v>6731</v>
-      </c>
-      <c r="C205" t="s">
-        <v>7002</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206" s="3" t="s">
         <v>6732</v>
       </c>
-      <c r="B206" s="3" t="s">
+      <c r="B206" t="s">
+        <v>7003</v>
+      </c>
+      <c r="C206" s="3" t="s">
         <v>6733</v>
-      </c>
-      <c r="C206" t="s">
-        <v>7003</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207" s="3" t="s">
         <v>6734</v>
       </c>
-      <c r="B207" s="3" t="s">
+      <c r="B207" t="s">
+        <v>7004</v>
+      </c>
+      <c r="C207" s="3" t="s">
         <v>6735</v>
-      </c>
-      <c r="C207" t="s">
-        <v>7004</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" s="3" t="s">
         <v>6736</v>
       </c>
-      <c r="B208" s="3" t="s">
+      <c r="B208" t="s">
+        <v>7005</v>
+      </c>
+      <c r="C208" s="3" t="s">
         <v>6737</v>
       </c>
-      <c r="C208" t="s">
-        <v>7005</v>
-      </c>
-    </row>
-    <row r="209" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="209" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A209" s="3" t="s">
         <v>6738</v>
       </c>
-      <c r="B209" s="5" t="s">
+      <c r="B209" t="s">
+        <v>7006</v>
+      </c>
+      <c r="C209" s="5" t="s">
         <v>7007</v>
       </c>
-      <c r="C209" t="s">
-        <v>7006</v>
-      </c>
-    </row>
-    <row r="210" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    </row>
+    <row r="210" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A210" s="3" t="s">
         <v>6740</v>
       </c>
-      <c r="B210" s="5" t="s">
+      <c r="B210" s="12" t="s">
+        <v>7008</v>
+      </c>
+      <c r="C210" s="5" t="s">
         <v>6741</v>
-      </c>
-      <c r="C210" s="12" t="s">
-        <v>7008</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211" s="3" t="s">
         <v>6742</v>
       </c>
-      <c r="B211" s="3" t="s">
+      <c r="B211" t="s">
+        <v>7009</v>
+      </c>
+      <c r="C211" s="3" t="s">
         <v>6743</v>
-      </c>
-      <c r="C211" t="s">
-        <v>7009</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" s="3" t="s">
         <v>6744</v>
       </c>
-      <c r="B212" s="3" t="s">
+      <c r="B212" t="s">
+        <v>7010</v>
+      </c>
+      <c r="C212" s="3" t="s">
         <v>6745</v>
-      </c>
-      <c r="C212" t="s">
-        <v>7010</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213" s="3" t="s">
         <v>6746</v>
       </c>
-      <c r="B213" s="3" t="s">
+      <c r="B213" t="s">
+        <v>7011</v>
+      </c>
+      <c r="C213" s="3" t="s">
         <v>6747</v>
-      </c>
-      <c r="C213" t="s">
-        <v>7011</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" s="3" t="s">
         <v>6748</v>
       </c>
-      <c r="B214" s="3" t="s">
+      <c r="B214" t="s">
+        <v>7012</v>
+      </c>
+      <c r="C214" s="3" t="s">
         <v>6749</v>
-      </c>
-      <c r="C214" t="s">
-        <v>7012</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" s="3" t="s">
         <v>6750</v>
       </c>
-      <c r="B215" s="3" t="s">
+      <c r="B215" t="s">
+        <v>7013</v>
+      </c>
+      <c r="C215" s="3" t="s">
         <v>6751</v>
-      </c>
-      <c r="C215" t="s">
-        <v>7013</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" s="3" t="s">
         <v>6752</v>
       </c>
-      <c r="B216" s="3" t="s">
+      <c r="B216" t="s">
+        <v>7014</v>
+      </c>
+      <c r="C216" s="3" t="s">
         <v>6753</v>
-      </c>
-      <c r="C216" t="s">
-        <v>7014</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
@@ -81075,11 +82311,11 @@
       <c r="A219" s="3" t="s">
         <v>2041</v>
       </c>
-      <c r="B219" s="3" t="s">
+      <c r="B219" t="s">
+        <v>2041</v>
+      </c>
+      <c r="C219" s="3" t="s">
         <v>2042</v>
-      </c>
-      <c r="C219" t="s">
-        <v>2041</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
@@ -81142,10 +82378,10 @@
         <v>6768</v>
       </c>
       <c r="B225" s="3" t="s">
+        <v>7015</v>
+      </c>
+      <c r="C225" s="3" t="s">
         <v>6769</v>
-      </c>
-      <c r="C225" s="3" t="s">
-        <v>7015</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
@@ -81163,99 +82399,99 @@
       <c r="A227" s="3" t="s">
         <v>6772</v>
       </c>
-      <c r="B227" s="3" t="s">
+      <c r="B227" t="s">
+        <v>7016</v>
+      </c>
+      <c r="C227" s="3" t="s">
         <v>6773</v>
-      </c>
-      <c r="C227" t="s">
-        <v>7016</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228" s="3" t="s">
         <v>6774</v>
       </c>
-      <c r="B228" s="3" t="s">
+      <c r="B228" t="s">
+        <v>7017</v>
+      </c>
+      <c r="C228" s="3" t="s">
         <v>6775</v>
-      </c>
-      <c r="C228" t="s">
-        <v>7017</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229" s="3" t="s">
         <v>6776</v>
       </c>
-      <c r="B229" s="3" t="s">
+      <c r="B229" t="s">
+        <v>7018</v>
+      </c>
+      <c r="C229" s="3" t="s">
         <v>6777</v>
-      </c>
-      <c r="C229" t="s">
-        <v>7018</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230" s="3" t="s">
         <v>6778</v>
       </c>
-      <c r="B230" s="3" t="s">
+      <c r="B230" t="s">
+        <v>7019</v>
+      </c>
+      <c r="C230" s="3" t="s">
         <v>6779</v>
-      </c>
-      <c r="C230" t="s">
-        <v>7019</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231" s="3" t="s">
         <v>6780</v>
       </c>
-      <c r="B231" s="3" t="s">
+      <c r="B231" t="s">
+        <v>7020</v>
+      </c>
+      <c r="C231" s="3" t="s">
         <v>6781</v>
-      </c>
-      <c r="C231" t="s">
-        <v>7020</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232" s="3" t="s">
         <v>6782</v>
       </c>
-      <c r="B232" s="3" t="s">
+      <c r="B232" t="s">
+        <v>7021</v>
+      </c>
+      <c r="C232" s="3" t="s">
         <v>6783</v>
-      </c>
-      <c r="C232" t="s">
-        <v>7021</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233" s="3" t="s">
         <v>6784</v>
       </c>
-      <c r="B233" s="3" t="s">
+      <c r="B233" t="s">
+        <v>7022</v>
+      </c>
+      <c r="C233" s="3" t="s">
         <v>6785</v>
-      </c>
-      <c r="C233" t="s">
-        <v>7022</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234" s="3" t="s">
         <v>6786</v>
       </c>
-      <c r="B234" s="3" t="s">
+      <c r="B234" t="s">
+        <v>7023</v>
+      </c>
+      <c r="C234" s="3" t="s">
         <v>6787</v>
-      </c>
-      <c r="C234" t="s">
-        <v>7023</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235" s="3" t="s">
         <v>2847</v>
       </c>
-      <c r="B235" s="3" t="s">
+      <c r="B235" t="s">
+        <v>2847</v>
+      </c>
+      <c r="C235" s="3" t="s">
         <v>2848</v>
-      </c>
-      <c r="C235" t="s">
-        <v>2847</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.25">
@@ -81263,10 +82499,10 @@
         <v>6788</v>
       </c>
       <c r="B236" s="3" t="s">
+        <v>6788</v>
+      </c>
+      <c r="C236" s="3" t="s">
         <v>2887</v>
-      </c>
-      <c r="C236" s="3" t="s">
-        <v>6788</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.25">
@@ -81284,154 +82520,154 @@
       <c r="A238" s="3" t="s">
         <v>6789</v>
       </c>
-      <c r="B238" s="3" t="s">
+      <c r="B238" t="s">
+        <v>7024</v>
+      </c>
+      <c r="C238" s="3" t="s">
         <v>6790</v>
       </c>
-      <c r="C238" t="s">
-        <v>7024</v>
-      </c>
-    </row>
-    <row r="239" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="239" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A239" s="3" t="s">
         <v>6791</v>
       </c>
-      <c r="B239" s="5" t="s">
+      <c r="B239" s="12" t="s">
+        <v>7025</v>
+      </c>
+      <c r="C239" s="5" t="s">
         <v>6792</v>
       </c>
-      <c r="C239" s="12" t="s">
-        <v>7025</v>
-      </c>
-    </row>
-    <row r="240" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="240" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A240" s="3" t="s">
         <v>6793</v>
       </c>
-      <c r="B240" s="5" t="s">
+      <c r="B240" s="12" t="s">
+        <v>7026</v>
+      </c>
+      <c r="C240" s="5" t="s">
         <v>6794</v>
-      </c>
-      <c r="C240" s="12" t="s">
-        <v>7026</v>
       </c>
     </row>
     <row r="241" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A241" s="3" t="s">
         <v>6795</v>
       </c>
-      <c r="B241" s="5" t="s">
+      <c r="B241" s="12" t="s">
+        <v>7027</v>
+      </c>
+      <c r="C241" s="5" t="s">
         <v>6796</v>
       </c>
-      <c r="C241" s="12" t="s">
-        <v>7027</v>
-      </c>
-    </row>
-    <row r="242" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="242" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A242" s="3" t="s">
         <v>6797</v>
       </c>
-      <c r="B242" s="5" t="s">
+      <c r="B242" s="12" t="s">
+        <v>7028</v>
+      </c>
+      <c r="C242" s="5" t="s">
         <v>6798</v>
       </c>
-      <c r="C242" s="12" t="s">
-        <v>7028</v>
-      </c>
-    </row>
-    <row r="243" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="243" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A243" s="3" t="s">
         <v>6799</v>
       </c>
-      <c r="B243" s="5" t="s">
+      <c r="B243" s="12" t="s">
+        <v>7029</v>
+      </c>
+      <c r="C243" s="5" t="s">
         <v>6800</v>
       </c>
-      <c r="C243" s="12" t="s">
-        <v>7029</v>
-      </c>
-    </row>
-    <row r="244" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="244" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A244" s="3" t="s">
         <v>6801</v>
       </c>
-      <c r="B244" s="5" t="s">
+      <c r="B244" s="12" t="s">
+        <v>7030</v>
+      </c>
+      <c r="C244" s="5" t="s">
         <v>6802</v>
-      </c>
-      <c r="C244" s="12" t="s">
-        <v>7030</v>
       </c>
     </row>
     <row r="245" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A245" s="3" t="s">
         <v>6803</v>
       </c>
-      <c r="B245" s="5" t="s">
+      <c r="B245" s="12" t="s">
+        <v>7031</v>
+      </c>
+      <c r="C245" s="5" t="s">
         <v>6804</v>
       </c>
-      <c r="C245" s="12" t="s">
-        <v>7031</v>
-      </c>
-    </row>
-    <row r="246" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="246" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A246" s="3" t="s">
         <v>6805</v>
       </c>
-      <c r="B246" s="5" t="s">
+      <c r="B246" s="12" t="s">
+        <v>7032</v>
+      </c>
+      <c r="C246" s="5" t="s">
         <v>6806</v>
-      </c>
-      <c r="C246" s="12" t="s">
-        <v>7032</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247" s="3" t="s">
         <v>6807</v>
       </c>
-      <c r="B247" s="3" t="s">
+      <c r="B247" t="s">
+        <v>7033</v>
+      </c>
+      <c r="C247" s="3" t="s">
         <v>6808</v>
-      </c>
-      <c r="C247" t="s">
-        <v>7033</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248" s="3" t="s">
         <v>3190</v>
       </c>
-      <c r="B248" s="3" t="s">
+      <c r="B248" t="s">
+        <v>3190</v>
+      </c>
+      <c r="C248" s="3" t="s">
         <v>3191</v>
-      </c>
-      <c r="C248" t="s">
-        <v>3190</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A249" s="3" t="s">
         <v>6809</v>
       </c>
-      <c r="B249" s="3" t="s">
+      <c r="B249" t="s">
+        <v>7034</v>
+      </c>
+      <c r="C249" s="3" t="s">
         <v>6810</v>
-      </c>
-      <c r="C249" t="s">
-        <v>7034</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A250" s="3" t="s">
         <v>6811</v>
       </c>
-      <c r="B250" s="3" t="s">
+      <c r="B250" t="s">
+        <v>7035</v>
+      </c>
+      <c r="C250" s="3" t="s">
         <v>6812</v>
-      </c>
-      <c r="C250" t="s">
-        <v>7035</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251" s="3" t="s">
         <v>6813</v>
       </c>
-      <c r="B251" s="3" t="s">
+      <c r="B251" t="s">
+        <v>7036</v>
+      </c>
+      <c r="C251" s="3" t="s">
         <v>6814</v>
-      </c>
-      <c r="C251" t="s">
-        <v>7036</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
@@ -81449,220 +82685,220 @@
       <c r="A253" s="3" t="s">
         <v>6815</v>
       </c>
-      <c r="B253" s="3" t="s">
+      <c r="B253" t="s">
+        <v>7037</v>
+      </c>
+      <c r="C253" s="3" t="s">
         <v>6816</v>
-      </c>
-      <c r="C253" t="s">
-        <v>7037</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A254" s="3" t="s">
         <v>6817</v>
       </c>
-      <c r="B254" s="3" t="s">
+      <c r="B254" t="s">
+        <v>7038</v>
+      </c>
+      <c r="C254" s="3" t="s">
         <v>6818</v>
-      </c>
-      <c r="C254" t="s">
-        <v>7038</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A255" s="3" t="s">
         <v>6819</v>
       </c>
-      <c r="B255" s="3" t="s">
+      <c r="B255" t="s">
+        <v>2934</v>
+      </c>
+      <c r="C255" s="3" t="s">
         <v>2935</v>
-      </c>
-      <c r="C255" t="s">
-        <v>2934</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A256" s="3" t="s">
         <v>6820</v>
       </c>
-      <c r="B256" s="3" t="s">
+      <c r="B256" t="s">
+        <v>85</v>
+      </c>
+      <c r="C256" s="3" t="s">
         <v>84</v>
-      </c>
-      <c r="C256" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A257" s="3" t="s">
         <v>6821</v>
       </c>
-      <c r="B257" s="3" t="s">
+      <c r="B257" t="s">
+        <v>7039</v>
+      </c>
+      <c r="C257" s="3" t="s">
         <v>6822</v>
-      </c>
-      <c r="C257" t="s">
-        <v>7039</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A258" s="3" t="s">
         <v>6823</v>
       </c>
-      <c r="B258" s="3" t="s">
+      <c r="B258" t="s">
+        <v>549</v>
+      </c>
+      <c r="C258" s="3" t="s">
         <v>6824</v>
-      </c>
-      <c r="C258" t="s">
-        <v>549</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A259" s="3" t="s">
         <v>6825</v>
       </c>
-      <c r="B259" s="3" t="s">
+      <c r="B259" t="s">
+        <v>41</v>
+      </c>
+      <c r="C259" s="3" t="s">
         <v>67</v>
-      </c>
-      <c r="C259" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A260" s="3" t="s">
         <v>6826</v>
       </c>
-      <c r="B260" s="3" t="s">
+      <c r="B260" t="s">
+        <v>6385</v>
+      </c>
+      <c r="C260" s="3" t="s">
         <v>6827</v>
-      </c>
-      <c r="C260" t="s">
-        <v>6385</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A261" s="3" t="s">
         <v>6828</v>
       </c>
-      <c r="B261" s="3" t="s">
+      <c r="B261" t="s">
+        <v>5087</v>
+      </c>
+      <c r="C261" s="3" t="s">
         <v>6829</v>
-      </c>
-      <c r="C261" t="s">
-        <v>5087</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A262" s="3" t="s">
         <v>6830</v>
       </c>
-      <c r="B262" s="3" t="s">
+      <c r="B262" t="s">
+        <v>7040</v>
+      </c>
+      <c r="C262" s="3" t="s">
         <v>6831</v>
-      </c>
-      <c r="C262" t="s">
-        <v>7040</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A263" s="3" t="s">
         <v>6832</v>
       </c>
-      <c r="B263" s="3" t="s">
+      <c r="B263" t="s">
+        <v>6387</v>
+      </c>
+      <c r="C263" s="3" t="s">
         <v>6833</v>
-      </c>
-      <c r="C263" t="s">
-        <v>6387</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A264" s="3" t="s">
         <v>6834</v>
       </c>
-      <c r="B264" s="3" t="s">
+      <c r="B264" t="s">
+        <v>75</v>
+      </c>
+      <c r="C264" s="3" t="s">
         <v>6835</v>
-      </c>
-      <c r="C264" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A265" s="3" t="s">
         <v>6836</v>
       </c>
-      <c r="B265" s="3" t="s">
+      <c r="B265" t="s">
+        <v>6392</v>
+      </c>
+      <c r="C265" s="3" t="s">
         <v>6837</v>
-      </c>
-      <c r="C265" t="s">
-        <v>6392</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A266" s="3" t="s">
         <v>6838</v>
       </c>
-      <c r="B266" s="3" t="s">
+      <c r="B266" t="s">
+        <v>5817</v>
+      </c>
+      <c r="C266" s="3" t="s">
         <v>5816</v>
-      </c>
-      <c r="C266" t="s">
-        <v>5817</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A267" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="B267" s="3" t="s">
+      <c r="B267" t="s">
+        <v>26</v>
+      </c>
+      <c r="C267" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="C267" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A268" s="3" t="s">
         <v>6839</v>
       </c>
-      <c r="B268" s="3" t="s">
+      <c r="B268" t="s">
+        <v>7058</v>
+      </c>
+      <c r="C268" s="3" t="s">
         <v>6840</v>
-      </c>
-      <c r="C268" t="s">
-        <v>7058</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A269" s="3" t="s">
         <v>6841</v>
       </c>
-      <c r="B269" s="3" t="s">
+      <c r="B269" t="s">
+        <v>7041</v>
+      </c>
+      <c r="C269" s="3" t="s">
         <v>4055</v>
-      </c>
-      <c r="C269" t="s">
-        <v>7041</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A270" s="3" t="s">
         <v>6842</v>
       </c>
-      <c r="B270" s="3" t="s">
+      <c r="B270" t="s">
+        <v>7042</v>
+      </c>
+      <c r="C270" s="3" t="s">
         <v>6843</v>
-      </c>
-      <c r="C270" t="s">
-        <v>7042</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A271" s="3" t="s">
         <v>6844</v>
       </c>
-      <c r="B271" s="3" t="s">
+      <c r="B271" t="s">
+        <v>7043</v>
+      </c>
+      <c r="C271" s="3" t="s">
         <v>6845</v>
-      </c>
-      <c r="C271" t="s">
-        <v>7043</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A272" s="3" t="s">
         <v>6846</v>
       </c>
-      <c r="B272" s="3" t="s">
+      <c r="B272" t="s">
+        <v>7044</v>
+      </c>
+      <c r="C272" s="3" t="s">
         <v>6847</v>
-      </c>
-      <c r="C272" t="s">
-        <v>7044</v>
       </c>
     </row>
   </sheetData>

--- a/Tradução - Maicon/Traduções_teste_maicon.xlsx
+++ b/Tradução - Maicon/Traduções_teste_maicon.xlsx
@@ -22890,9 +22890,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFD731"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A712" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C740" sqref="C740:C741"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A292" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A296" sqref="A296"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
